--- a/output7/【河洛文讀注音-雅俗通】《牽絲戲》.xlsx
+++ b/output7/【河洛文讀注音-雅俗通】《牽絲戲》.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E483AEF-17FD-4A1F-B495-22FC9826633E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{69DA42CD-C097-49A1-A407-A55A8BB83471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="4" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="8" r:id="rId1"/>
-    <sheet name="缺字表" sheetId="133" r:id="rId2"/>
-    <sheet name="人工標音字庫" sheetId="132" r:id="rId3"/>
-    <sheet name="標音字庫" sheetId="131" r:id="rId4"/>
+    <sheet name="缺字表" sheetId="157" r:id="rId2"/>
+    <sheet name="人工標音字庫" sheetId="156" r:id="rId3"/>
+    <sheet name="標音字庫" sheetId="155" r:id="rId4"/>
     <sheet name="漢字注音" sheetId="9" r:id="rId5"/>
     <sheet name="漢字注音 (範例)" sheetId="120" r:id="rId6"/>
     <sheet name="缺字表 (範例)" sheetId="110" r:id="rId7"/>
@@ -6163,7 +6163,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6346,6 +6346,9 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6363,12 +6366,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8112,12 +8109,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09A94C1E-017F-4407-B08D-7276E9A3EB31}">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A0E3931-A501-4582-BCFB-F1AF8C45D344}">
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
@@ -8136,74 +8131,6 @@
       </c>
       <c r="E1" t="s">
         <v>516</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>1208</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1731</v>
-      </c>
-      <c r="D2" t="s">
-        <v>517</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1723</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>1310</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1586</v>
-      </c>
-      <c r="D3" t="s">
-        <v>517</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>1317</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" t="s">
-        <v>517</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1725</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>1318</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1732</v>
-      </c>
-      <c r="D5" t="s">
-        <v>517</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1726</v>
       </c>
     </row>
   </sheetData>
@@ -8213,7 +8140,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B1BFD27-10C3-488E-B1AA-6126905E1550}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D5F008-66A2-4FEC-BADC-D20217A5C25A}">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8244,8 +8171,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE0BE3AE-8B30-4507-B1E7-1216B5E82D8B}">
-  <dimension ref="A1:E184"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7DAA627-AD73-4CD3-BEDB-828A76A97483}">
+  <dimension ref="A1:E188"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8916,2466 +8843,2534 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>1208</v>
       </c>
       <c r="B40">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>78</v>
+        <v>1731</v>
       </c>
       <c r="D40" t="s">
         <v>517</v>
       </c>
       <c r="E40" t="s">
-        <v>1615</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>1209</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C41" t="s">
-        <v>1379</v>
+        <v>78</v>
       </c>
       <c r="D41" t="s">
         <v>517</v>
       </c>
       <c r="E41" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>319</v>
+        <v>1379</v>
       </c>
       <c r="D42" t="s">
         <v>517</v>
       </c>
       <c r="E42" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>302</v>
+        <v>1210</v>
       </c>
       <c r="B43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>494</v>
+        <v>319</v>
       </c>
       <c r="D43" t="s">
         <v>517</v>
       </c>
       <c r="E43" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>1211</v>
+        <v>302</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C44" t="s">
-        <v>1383</v>
+        <v>494</v>
       </c>
       <c r="D44" t="s">
         <v>517</v>
       </c>
       <c r="E44" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>489</v>
+        <v>1383</v>
       </c>
       <c r="D45" t="s">
         <v>517</v>
       </c>
       <c r="E45" t="s">
-        <v>977</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>1386</v>
+        <v>489</v>
       </c>
       <c r="D46" t="s">
         <v>517</v>
       </c>
       <c r="E46" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>289</v>
+        <v>1213</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>485</v>
+        <v>1386</v>
       </c>
       <c r="D47" t="s">
         <v>517</v>
       </c>
       <c r="E47" t="s">
-        <v>1620</v>
+        <v>979</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>1214</v>
+        <v>289</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>1389</v>
+        <v>485</v>
       </c>
       <c r="D48" t="s">
         <v>517</v>
       </c>
       <c r="E48" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="D49" t="s">
         <v>517</v>
       </c>
       <c r="E49" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="D50" t="s">
         <v>517</v>
       </c>
       <c r="E50" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B51">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="D51" t="s">
         <v>517</v>
       </c>
       <c r="E51" t="s">
-        <v>1728</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="B52">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C52" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="D52" t="s">
         <v>517</v>
       </c>
       <c r="E52" t="s">
-        <v>1624</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>157</v>
+        <v>1218</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C53" t="s">
-        <v>383</v>
+        <v>1397</v>
       </c>
       <c r="D53" t="s">
         <v>517</v>
       </c>
       <c r="E53" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>305</v>
+        <v>157</v>
       </c>
       <c r="B54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>328</v>
+        <v>383</v>
       </c>
       <c r="D54" t="s">
         <v>517</v>
       </c>
       <c r="E54" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>1219</v>
+        <v>305</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C55" t="s">
-        <v>1401</v>
+        <v>328</v>
       </c>
       <c r="D55" t="s">
         <v>517</v>
       </c>
       <c r="E55" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>126</v>
+        <v>1219</v>
       </c>
       <c r="B56">
         <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>356</v>
+        <v>1401</v>
       </c>
       <c r="D56" t="s">
         <v>517</v>
       </c>
       <c r="E56" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>1220</v>
+        <v>126</v>
       </c>
       <c r="B57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>1404</v>
+        <v>356</v>
       </c>
       <c r="D57" t="s">
         <v>517</v>
       </c>
       <c r="E57" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B58">
         <v>2</v>
       </c>
       <c r="C58" t="s">
-        <v>348</v>
+        <v>1404</v>
       </c>
       <c r="D58" t="s">
         <v>517</v>
       </c>
       <c r="E58" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C59" t="s">
-        <v>1407</v>
+        <v>348</v>
       </c>
       <c r="D59" t="s">
         <v>517</v>
       </c>
       <c r="E59" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B60">
         <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="D60" t="s">
         <v>517</v>
       </c>
       <c r="E60" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="B61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="D61" t="s">
         <v>517</v>
       </c>
       <c r="E61" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="B62">
         <v>2</v>
       </c>
       <c r="C62" t="s">
-        <v>63</v>
+        <v>1411</v>
       </c>
       <c r="D62" t="s">
         <v>517</v>
       </c>
       <c r="E62" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>125</v>
+        <v>1225</v>
       </c>
       <c r="B63">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C63" t="s">
-        <v>355</v>
+        <v>63</v>
       </c>
       <c r="D63" t="s">
         <v>517</v>
       </c>
       <c r="E63" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>1226</v>
+        <v>125</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C64" t="s">
-        <v>435</v>
+        <v>355</v>
       </c>
       <c r="D64" t="s">
         <v>517</v>
       </c>
       <c r="E64" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B65">
         <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>354</v>
+        <v>435</v>
       </c>
       <c r="D65" t="s">
         <v>517</v>
       </c>
       <c r="E65" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>87</v>
+        <v>1227</v>
       </c>
       <c r="B66">
         <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>319</v>
+        <v>354</v>
       </c>
       <c r="D66" t="s">
         <v>517</v>
       </c>
       <c r="E66" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>138</v>
+        <v>87</v>
       </c>
       <c r="B67">
         <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>367</v>
+        <v>319</v>
       </c>
       <c r="D67" t="s">
         <v>517</v>
       </c>
       <c r="E67" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="B68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C68" t="s">
-        <v>60</v>
+        <v>367</v>
       </c>
       <c r="D68" t="s">
         <v>517</v>
       </c>
       <c r="E68" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>1228</v>
+        <v>110</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C69" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D69" t="s">
         <v>517</v>
       </c>
       <c r="E69" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="B70">
         <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>1419</v>
+        <v>64</v>
       </c>
       <c r="D70" t="s">
         <v>517</v>
       </c>
       <c r="E70" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="B71">
         <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>1391</v>
+        <v>1419</v>
       </c>
       <c r="D71" t="s">
         <v>517</v>
       </c>
       <c r="E71" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="B72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>1421</v>
+        <v>1391</v>
       </c>
       <c r="D72" t="s">
         <v>517</v>
       </c>
       <c r="E72" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>123</v>
+        <v>1231</v>
       </c>
       <c r="B73">
         <v>2</v>
       </c>
       <c r="C73" t="s">
-        <v>353</v>
+        <v>1421</v>
       </c>
       <c r="D73" t="s">
         <v>517</v>
       </c>
       <c r="E73" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="B74">
         <v>2</v>
       </c>
       <c r="C74" t="s">
-        <v>379</v>
+        <v>353</v>
       </c>
       <c r="D74" t="s">
         <v>517</v>
       </c>
       <c r="E74" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>290</v>
+        <v>153</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C75" t="s">
-        <v>67</v>
+        <v>379</v>
       </c>
       <c r="D75" t="s">
         <v>517</v>
       </c>
       <c r="E75" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>1232</v>
+        <v>290</v>
       </c>
       <c r="B76">
         <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>1425</v>
+        <v>67</v>
       </c>
       <c r="D76" t="s">
         <v>517</v>
       </c>
       <c r="E76" t="s">
-        <v>988</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>173</v>
+        <v>1232</v>
       </c>
       <c r="B77">
         <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>396</v>
+        <v>1425</v>
       </c>
       <c r="D77" t="s">
         <v>517</v>
       </c>
       <c r="E77" t="s">
-        <v>1648</v>
+        <v>988</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>150</v>
+        <v>173</v>
       </c>
       <c r="B78">
         <v>1</v>
       </c>
       <c r="C78" t="s">
-        <v>79</v>
+        <v>396</v>
       </c>
       <c r="D78" t="s">
         <v>517</v>
       </c>
       <c r="E78" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="B79">
         <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>324</v>
+        <v>79</v>
       </c>
       <c r="D79" t="s">
         <v>517</v>
       </c>
       <c r="E79" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>268</v>
+        <v>175</v>
       </c>
       <c r="B80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C80" t="s">
-        <v>468</v>
+        <v>324</v>
       </c>
       <c r="D80" t="s">
         <v>517</v>
       </c>
       <c r="E80" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>1233</v>
+        <v>268</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C81" t="s">
-        <v>1431</v>
+        <v>468</v>
       </c>
       <c r="D81" t="s">
         <v>517</v>
       </c>
       <c r="E81" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>269</v>
+        <v>1233</v>
       </c>
       <c r="B82">
         <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>50</v>
+        <v>1431</v>
       </c>
       <c r="D82" t="s">
         <v>517</v>
       </c>
       <c r="E82" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>1234</v>
+        <v>269</v>
       </c>
       <c r="B83">
         <v>1</v>
       </c>
       <c r="C83" t="s">
-        <v>1434</v>
+        <v>50</v>
       </c>
       <c r="D83" t="s">
         <v>517</v>
       </c>
       <c r="E83" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B84">
         <v>1</v>
       </c>
       <c r="C84" t="s">
-        <v>421</v>
+        <v>1434</v>
       </c>
       <c r="D84" t="s">
         <v>517</v>
       </c>
       <c r="E84" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C85" t="s">
-        <v>1437</v>
+        <v>421</v>
       </c>
       <c r="D85" t="s">
         <v>517</v>
       </c>
       <c r="E85" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B86">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C86" t="s">
-        <v>77</v>
+        <v>1437</v>
       </c>
       <c r="D86" t="s">
         <v>517</v>
       </c>
       <c r="E86" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>293</v>
+        <v>1237</v>
       </c>
       <c r="B87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C87" t="s">
-        <v>435</v>
+        <v>77</v>
       </c>
       <c r="D87" t="s">
         <v>517</v>
       </c>
       <c r="E87" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>34</v>
+        <v>293</v>
       </c>
       <c r="B88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C88" t="s">
-        <v>371</v>
+        <v>435</v>
       </c>
       <c r="D88" t="s">
         <v>517</v>
       </c>
       <c r="E88" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>1238</v>
+        <v>34</v>
       </c>
       <c r="B89">
         <v>2</v>
       </c>
       <c r="C89" t="s">
-        <v>1441</v>
+        <v>371</v>
       </c>
       <c r="D89" t="s">
         <v>517</v>
       </c>
       <c r="E89" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>202</v>
+        <v>1238</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C90" t="s">
-        <v>417</v>
+        <v>1441</v>
       </c>
       <c r="D90" t="s">
         <v>517</v>
       </c>
       <c r="E90" t="s">
-        <v>1002</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>1239</v>
+        <v>202</v>
       </c>
       <c r="B91">
         <v>1</v>
       </c>
       <c r="C91" t="s">
-        <v>1444</v>
+        <v>417</v>
       </c>
       <c r="D91" t="s">
         <v>517</v>
       </c>
       <c r="E91" t="s">
-        <v>1661</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="B92">
         <v>1</v>
       </c>
       <c r="C92" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="D92" t="s">
         <v>517</v>
       </c>
       <c r="E92" t="s">
-        <v>1005</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C93" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="D93" t="s">
         <v>517</v>
       </c>
       <c r="E93" t="s">
-        <v>1662</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B94">
         <v>2</v>
       </c>
       <c r="C94" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="D94" t="s">
         <v>517</v>
       </c>
       <c r="E94" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C95" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D95" t="s">
         <v>517</v>
       </c>
       <c r="E95" t="s">
-        <v>1022</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B96">
         <v>1</v>
       </c>
       <c r="C96" t="s">
-        <v>1321</v>
+        <v>1452</v>
       </c>
       <c r="D96" t="s">
         <v>517</v>
       </c>
       <c r="E96" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="B97">
         <v>1</v>
       </c>
       <c r="C97" t="s">
-        <v>1454</v>
+        <v>1321</v>
       </c>
       <c r="D97" t="s">
         <v>517</v>
       </c>
       <c r="E97" t="s">
-        <v>1664</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B98">
         <v>1</v>
       </c>
       <c r="C98" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="D98" t="s">
         <v>517</v>
       </c>
       <c r="E98" t="s">
-        <v>1026</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="B99">
         <v>1</v>
       </c>
       <c r="C99" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="D99" t="s">
         <v>517</v>
       </c>
       <c r="E99" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B100">
         <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D100" t="s">
         <v>517</v>
       </c>
       <c r="E100" t="s">
-        <v>1665</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="B101">
         <v>1</v>
       </c>
       <c r="C101" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="D101" t="s">
         <v>517</v>
       </c>
       <c r="E101" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="B102">
         <v>1</v>
       </c>
       <c r="C102" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="D102" t="s">
         <v>517</v>
       </c>
       <c r="E102" t="s">
-        <v>1034</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="B103">
         <v>1</v>
       </c>
       <c r="C103" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="D103" t="s">
         <v>517</v>
       </c>
       <c r="E103" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="B104">
         <v>1</v>
       </c>
       <c r="C104" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="D104" t="s">
         <v>517</v>
       </c>
       <c r="E104" t="s">
-        <v>1667</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B105">
         <v>1</v>
       </c>
       <c r="C105" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="D105" t="s">
         <v>517</v>
       </c>
       <c r="E105" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="B106">
         <v>1</v>
       </c>
       <c r="C106" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="D106" t="s">
         <v>517</v>
       </c>
       <c r="E106" t="s">
-        <v>1037</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>26</v>
+        <v>1254</v>
       </c>
       <c r="B107">
         <v>1</v>
       </c>
       <c r="C107" t="s">
-        <v>79</v>
+        <v>1472</v>
       </c>
       <c r="D107" t="s">
         <v>517</v>
       </c>
       <c r="E107" t="s">
-        <v>1669</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>1255</v>
+        <v>26</v>
       </c>
       <c r="B108">
         <v>1</v>
       </c>
       <c r="C108" t="s">
-        <v>1474</v>
+        <v>79</v>
       </c>
       <c r="D108" t="s">
         <v>517</v>
       </c>
       <c r="E108" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C109" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="D109" t="s">
         <v>517</v>
       </c>
       <c r="E109" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C110" t="s">
-        <v>514</v>
+        <v>1476</v>
       </c>
       <c r="D110" t="s">
         <v>517</v>
       </c>
       <c r="E110" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B111">
         <v>1</v>
       </c>
       <c r="C111" t="s">
-        <v>1479</v>
+        <v>514</v>
       </c>
       <c r="D111" t="s">
         <v>517</v>
       </c>
       <c r="E111" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B112">
         <v>1</v>
       </c>
       <c r="C112" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="D112" t="s">
         <v>517</v>
       </c>
       <c r="E112" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="B113">
         <v>1</v>
       </c>
       <c r="C113" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="D113" t="s">
         <v>517</v>
       </c>
       <c r="E113" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>272</v>
+        <v>1260</v>
       </c>
       <c r="B114">
         <v>1</v>
       </c>
       <c r="C114" t="s">
-        <v>471</v>
+        <v>1483</v>
       </c>
       <c r="D114" t="s">
         <v>517</v>
       </c>
       <c r="E114" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>1261</v>
+        <v>272</v>
       </c>
       <c r="B115">
         <v>1</v>
       </c>
       <c r="C115" t="s">
-        <v>401</v>
+        <v>471</v>
       </c>
       <c r="D115" t="s">
         <v>517</v>
       </c>
       <c r="E115" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="B116">
         <v>1</v>
       </c>
       <c r="C116" t="s">
-        <v>1487</v>
+        <v>401</v>
       </c>
       <c r="D116" t="s">
         <v>517</v>
       </c>
       <c r="E116" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="B117">
         <v>1</v>
       </c>
       <c r="C117" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="D117" t="s">
         <v>517</v>
       </c>
       <c r="E117" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>228</v>
+        <v>1263</v>
       </c>
       <c r="B118">
         <v>1</v>
       </c>
       <c r="C118" t="s">
-        <v>61</v>
+        <v>1489</v>
       </c>
       <c r="D118" t="s">
         <v>517</v>
       </c>
       <c r="E118" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>1264</v>
+        <v>228</v>
       </c>
       <c r="B119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C119" t="s">
-        <v>1492</v>
+        <v>61</v>
       </c>
       <c r="D119" t="s">
         <v>517</v>
       </c>
       <c r="E119" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>227</v>
+        <v>1264</v>
       </c>
       <c r="B120">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C120" t="s">
-        <v>438</v>
+        <v>1492</v>
       </c>
       <c r="D120" t="s">
         <v>517</v>
       </c>
       <c r="E120" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>1265</v>
+        <v>227</v>
       </c>
       <c r="B121">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C121" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="D121" t="s">
         <v>517</v>
       </c>
       <c r="E121" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="B122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C122" t="s">
-        <v>1495</v>
+        <v>364</v>
       </c>
       <c r="D122" t="s">
         <v>517</v>
       </c>
       <c r="E122" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="B123">
         <v>1</v>
       </c>
       <c r="C123" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="D123" t="s">
         <v>517</v>
       </c>
       <c r="E123" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="B124">
         <v>1</v>
       </c>
       <c r="C124" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="D124" t="s">
         <v>517</v>
       </c>
       <c r="E124" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="B125">
         <v>1</v>
       </c>
       <c r="C125" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="D125" t="s">
         <v>517</v>
       </c>
       <c r="E125" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="B126">
         <v>1</v>
       </c>
       <c r="C126" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="D126" t="s">
         <v>517</v>
       </c>
       <c r="E126" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="B127">
         <v>1</v>
       </c>
       <c r="C127" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="D127" t="s">
         <v>517</v>
       </c>
       <c r="E127" t="s">
-        <v>1041</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="B128">
         <v>1</v>
       </c>
       <c r="C128" t="s">
-        <v>499</v>
+        <v>1505</v>
       </c>
       <c r="D128" t="s">
         <v>517</v>
       </c>
       <c r="E128" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>238</v>
+        <v>1272</v>
       </c>
       <c r="B129">
         <v>1</v>
       </c>
       <c r="C129" t="s">
-        <v>448</v>
+        <v>499</v>
       </c>
       <c r="D129" t="s">
         <v>517</v>
       </c>
       <c r="E129" t="s">
-        <v>1689</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>1273</v>
+        <v>238</v>
       </c>
       <c r="B130">
         <v>1</v>
       </c>
       <c r="C130" t="s">
-        <v>1509</v>
+        <v>448</v>
       </c>
       <c r="D130" t="s">
         <v>517</v>
       </c>
       <c r="E130" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>188</v>
+        <v>1273</v>
       </c>
       <c r="B131">
         <v>1</v>
       </c>
       <c r="C131" t="s">
-        <v>407</v>
+        <v>1509</v>
       </c>
       <c r="D131" t="s">
         <v>517</v>
       </c>
       <c r="E131" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>1274</v>
+        <v>188</v>
       </c>
       <c r="B132">
         <v>1</v>
       </c>
       <c r="C132" t="s">
-        <v>1512</v>
+        <v>407</v>
       </c>
       <c r="D132" t="s">
         <v>517</v>
       </c>
       <c r="E132" t="s">
-        <v>1048</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="B133">
         <v>1</v>
       </c>
       <c r="C133" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="D133" t="s">
         <v>517</v>
       </c>
       <c r="E133" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="B134">
         <v>1</v>
       </c>
       <c r="C134" t="s">
-        <v>447</v>
+        <v>1514</v>
       </c>
       <c r="D134" t="s">
         <v>517</v>
       </c>
       <c r="E134" t="s">
-        <v>1692</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>276</v>
+        <v>1276</v>
       </c>
       <c r="B135">
         <v>1</v>
       </c>
       <c r="C135" t="s">
-        <v>474</v>
+        <v>447</v>
       </c>
       <c r="D135" t="s">
         <v>517</v>
       </c>
       <c r="E135" t="s">
-        <v>1052</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>1277</v>
+        <v>276</v>
       </c>
       <c r="B136">
         <v>1</v>
       </c>
       <c r="C136" t="s">
-        <v>1518</v>
+        <v>474</v>
       </c>
       <c r="D136" t="s">
         <v>517</v>
       </c>
       <c r="E136" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>235</v>
+        <v>1277</v>
       </c>
       <c r="B137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C137" t="s">
-        <v>445</v>
+        <v>1518</v>
       </c>
       <c r="D137" t="s">
         <v>517</v>
       </c>
       <c r="E137" t="s">
-        <v>1729</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>1278</v>
+        <v>235</v>
       </c>
       <c r="B138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C138" t="s">
-        <v>1521</v>
+        <v>445</v>
       </c>
       <c r="D138" t="s">
         <v>517</v>
       </c>
       <c r="E138" t="s">
-        <v>1057</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="B139">
         <v>1</v>
       </c>
       <c r="C139" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="D139" t="s">
         <v>517</v>
       </c>
       <c r="E139" t="s">
-        <v>1693</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="B140">
         <v>1</v>
       </c>
       <c r="C140" t="s">
-        <v>514</v>
+        <v>1523</v>
       </c>
       <c r="D140" t="s">
         <v>517</v>
       </c>
       <c r="E140" t="s">
-        <v>1059</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="B141">
         <v>1</v>
       </c>
       <c r="C141" t="s">
-        <v>442</v>
+        <v>514</v>
       </c>
       <c r="D141" t="s">
         <v>517</v>
       </c>
       <c r="E141" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="B142">
         <v>1</v>
       </c>
       <c r="C142" t="s">
-        <v>1526</v>
+        <v>442</v>
       </c>
       <c r="D142" t="s">
         <v>517</v>
       </c>
       <c r="E142" t="s">
-        <v>1694</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="B143">
         <v>1</v>
       </c>
       <c r="C143" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="D143" t="s">
         <v>517</v>
       </c>
       <c r="E143" t="s">
-        <v>521</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>32</v>
+        <v>1283</v>
       </c>
       <c r="B144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C144" t="s">
-        <v>64</v>
+        <v>1528</v>
       </c>
       <c r="D144" t="s">
         <v>517</v>
       </c>
       <c r="E144" t="s">
-        <v>1730</v>
+        <v>521</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>185</v>
+        <v>32</v>
       </c>
       <c r="B145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C145" t="s">
-        <v>404</v>
+        <v>64</v>
       </c>
       <c r="D145" t="s">
         <v>517</v>
       </c>
       <c r="E145" t="s">
-        <v>1695</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>1284</v>
+        <v>185</v>
       </c>
       <c r="B146">
         <v>1</v>
       </c>
       <c r="C146" t="s">
-        <v>1383</v>
+        <v>404</v>
       </c>
       <c r="D146" t="s">
         <v>517</v>
       </c>
       <c r="E146" t="s">
-        <v>1066</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="B147">
         <v>1</v>
       </c>
       <c r="C147" t="s">
-        <v>1531</v>
+        <v>1383</v>
       </c>
       <c r="D147" t="s">
         <v>517</v>
       </c>
       <c r="E147" t="s">
-        <v>1696</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="s">
-        <v>160</v>
+        <v>1285</v>
       </c>
       <c r="B148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C148" t="s">
-        <v>385</v>
+        <v>1531</v>
       </c>
       <c r="D148" t="s">
         <v>517</v>
       </c>
       <c r="E148" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="s">
-        <v>1286</v>
+        <v>160</v>
       </c>
       <c r="B149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C149" t="s">
-        <v>1534</v>
+        <v>385</v>
       </c>
       <c r="D149" t="s">
         <v>517</v>
       </c>
       <c r="E149" t="s">
-        <v>1069</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="B150">
         <v>1</v>
       </c>
       <c r="C150" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="D150" t="s">
         <v>517</v>
       </c>
       <c r="E150" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="s">
-        <v>314</v>
+        <v>1287</v>
       </c>
       <c r="B151">
         <v>1</v>
       </c>
       <c r="C151" t="s">
-        <v>499</v>
+        <v>1536</v>
       </c>
       <c r="D151" t="s">
         <v>517</v>
       </c>
       <c r="E151" t="s">
-        <v>1698</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" t="s">
-        <v>1288</v>
+        <v>314</v>
       </c>
       <c r="B152">
         <v>1</v>
       </c>
       <c r="C152" t="s">
-        <v>457</v>
+        <v>499</v>
       </c>
       <c r="D152" t="s">
         <v>517</v>
       </c>
       <c r="E152" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="B153">
         <v>1</v>
       </c>
       <c r="C153" t="s">
-        <v>1495</v>
+        <v>457</v>
       </c>
       <c r="D153" t="s">
         <v>517</v>
       </c>
       <c r="E153" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B154">
         <v>1</v>
       </c>
       <c r="C154" t="s">
-        <v>1539</v>
+        <v>1495</v>
       </c>
       <c r="D154" t="s">
         <v>517</v>
       </c>
       <c r="E154" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="B155">
         <v>1</v>
       </c>
       <c r="C155" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="D155" t="s">
         <v>517</v>
       </c>
       <c r="E155" t="s">
-        <v>1075</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="B156">
         <v>1</v>
       </c>
       <c r="C156" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="D156" t="s">
         <v>517</v>
       </c>
       <c r="E156" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="B157">
         <v>1</v>
       </c>
       <c r="C157" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="D157" t="s">
         <v>517</v>
       </c>
       <c r="E157" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="B158">
         <v>1</v>
       </c>
       <c r="C158" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="D158" t="s">
         <v>517</v>
       </c>
       <c r="E158" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="B159">
         <v>1</v>
       </c>
       <c r="C159" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="D159" t="s">
         <v>517</v>
       </c>
       <c r="E159" t="s">
-        <v>1702</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="B160">
         <v>1</v>
       </c>
       <c r="C160" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="D160" t="s">
         <v>517</v>
       </c>
       <c r="E160" t="s">
-        <v>1081</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="B161">
         <v>1</v>
       </c>
       <c r="C161" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="D161" t="s">
         <v>517</v>
       </c>
       <c r="E161" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="B162">
         <v>1</v>
       </c>
       <c r="C162" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="D162" t="s">
         <v>517</v>
       </c>
       <c r="E162" t="s">
-        <v>1703</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="B163">
         <v>1</v>
       </c>
       <c r="C163" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="D163" t="s">
         <v>517</v>
       </c>
       <c r="E163" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="B164">
         <v>1</v>
       </c>
       <c r="C164" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="D164" t="s">
         <v>517</v>
       </c>
       <c r="E164" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="B165">
         <v>1</v>
       </c>
       <c r="C165" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="D165" t="s">
         <v>517</v>
       </c>
       <c r="E165" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="B166">
         <v>1</v>
       </c>
       <c r="C166" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="D166" t="s">
         <v>517</v>
       </c>
       <c r="E166" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="B167">
         <v>1</v>
       </c>
       <c r="C167" t="s">
-        <v>1370</v>
+        <v>1563</v>
       </c>
       <c r="D167" t="s">
         <v>517</v>
       </c>
       <c r="E167" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" t="s">
-        <v>179</v>
+        <v>1303</v>
       </c>
       <c r="B168">
         <v>1</v>
       </c>
       <c r="C168" t="s">
-        <v>400</v>
+        <v>1370</v>
       </c>
       <c r="D168" t="s">
         <v>517</v>
       </c>
       <c r="E168" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" t="s">
-        <v>1304</v>
+        <v>179</v>
       </c>
       <c r="B169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C169" t="s">
-        <v>1566</v>
+        <v>400</v>
       </c>
       <c r="D169" t="s">
         <v>517</v>
       </c>
       <c r="E169" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="B170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C170" t="s">
-        <v>1383</v>
+        <v>1566</v>
       </c>
       <c r="D170" t="s">
         <v>517</v>
       </c>
       <c r="E170" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="B171">
         <v>1</v>
       </c>
       <c r="C171" t="s">
-        <v>1568</v>
+        <v>1383</v>
       </c>
       <c r="D171" t="s">
         <v>517</v>
       </c>
       <c r="E171" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="B172">
         <v>1</v>
       </c>
       <c r="C172" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="D172" t="s">
         <v>517</v>
       </c>
       <c r="E172" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="B173">
         <v>1</v>
       </c>
       <c r="C173" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="D173" t="s">
         <v>517</v>
       </c>
       <c r="E173" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="B174">
         <v>1</v>
       </c>
       <c r="C174" t="s">
-        <v>396</v>
+        <v>1572</v>
       </c>
       <c r="D174" t="s">
         <v>517</v>
       </c>
       <c r="E174" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="B175">
         <v>1</v>
       </c>
       <c r="C175" t="s">
-        <v>1574</v>
+        <v>396</v>
       </c>
       <c r="D175" t="s">
         <v>517</v>
       </c>
       <c r="E175" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" t="s">
-        <v>43</v>
+        <v>1310</v>
       </c>
       <c r="B176">
         <v>1</v>
       </c>
       <c r="C176" t="s">
-        <v>329</v>
+        <v>1586</v>
       </c>
       <c r="D176" t="s">
         <v>517</v>
       </c>
       <c r="E176" t="s">
-        <v>1089</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="B177">
         <v>1</v>
       </c>
       <c r="C177" t="s">
-        <v>406</v>
+        <v>1574</v>
       </c>
       <c r="D177" t="s">
         <v>517</v>
       </c>
       <c r="E177" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" t="s">
-        <v>1313</v>
+        <v>43</v>
       </c>
       <c r="B178">
         <v>1</v>
       </c>
       <c r="C178" t="s">
-        <v>1578</v>
+        <v>329</v>
       </c>
       <c r="D178" t="s">
         <v>517</v>
       </c>
       <c r="E178" t="s">
-        <v>1718</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="B179">
         <v>1</v>
       </c>
       <c r="C179" t="s">
-        <v>1580</v>
+        <v>406</v>
       </c>
       <c r="D179" t="s">
         <v>517</v>
       </c>
       <c r="E179" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="B180">
         <v>1</v>
       </c>
       <c r="C180" t="s">
-        <v>1518</v>
+        <v>1578</v>
       </c>
       <c r="D180" t="s">
         <v>517</v>
       </c>
       <c r="E180" t="s">
-        <v>1107</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="B181">
         <v>1</v>
       </c>
       <c r="C181" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="D181" t="s">
         <v>517</v>
       </c>
       <c r="E181" t="s">
-        <v>523</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
       <c r="B182">
         <v>1</v>
       </c>
       <c r="C182" t="s">
-        <v>1584</v>
+        <v>1518</v>
       </c>
       <c r="D182" t="s">
         <v>517</v>
       </c>
       <c r="E182" t="s">
-        <v>1720</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" t="s">
-        <v>159</v>
+        <v>1316</v>
       </c>
       <c r="B183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C183" t="s">
-        <v>353</v>
+        <v>1582</v>
       </c>
       <c r="D183" t="s">
         <v>517</v>
       </c>
       <c r="E183" t="s">
-        <v>1721</v>
+        <v>523</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B184">
+        <v>1</v>
+      </c>
+      <c r="C184" t="s">
+        <v>50</v>
+      </c>
+      <c r="D184" t="s">
+        <v>517</v>
+      </c>
+      <c r="E184" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B185">
+        <v>1</v>
+      </c>
+      <c r="C185" t="s">
+        <v>1732</v>
+      </c>
+      <c r="D185" t="s">
+        <v>517</v>
+      </c>
+      <c r="E185" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B186">
+        <v>1</v>
+      </c>
+      <c r="C186" t="s">
+        <v>1584</v>
+      </c>
+      <c r="D186" t="s">
+        <v>517</v>
+      </c>
+      <c r="E186" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" t="s">
+        <v>159</v>
+      </c>
+      <c r="B187">
+        <v>2</v>
+      </c>
+      <c r="C187" t="s">
+        <v>353</v>
+      </c>
+      <c r="D187" t="s">
+        <v>517</v>
+      </c>
+      <c r="E187" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" t="s">
         <v>1320</v>
       </c>
-      <c r="B184">
-        <v>1</v>
-      </c>
-      <c r="C184" t="s">
+      <c r="B188">
+        <v>1</v>
+      </c>
+      <c r="C188" t="s">
         <v>1586</v>
       </c>
-      <c r="D184" t="s">
-        <v>517</v>
-      </c>
-      <c r="E184" t="s">
+      <c r="D188" t="s">
+        <v>517</v>
+      </c>
+      <c r="E188" t="s">
         <v>1722</v>
       </c>
     </row>
@@ -11389,7 +11384,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B653E275-5A31-466A-99DB-0BBFEE8A78C6}">
   <dimension ref="A1:V242"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A83" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
   <cols>
@@ -11504,21 +11501,21 @@
     <row r="3" spans="1:22" s="17" customFormat="1" ht="60" customHeight="1">
       <c r="B3" s="14"/>
       <c r="C3" s="15"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
       <c r="T3" s="18"/>
       <c r="V3" s="51" t="s">
         <v>1727</v>
@@ -11526,47 +11523,47 @@
     </row>
     <row r="4" spans="1:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="19"/>
-      <c r="D4" s="65" t="s">
+      <c r="D4" s="66" t="s">
         <v>1321</v>
       </c>
-      <c r="E4" s="65" t="s">
+      <c r="E4" s="66" t="s">
         <v>1323</v>
       </c>
-      <c r="F4" s="65" t="s">
+      <c r="F4" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="65" t="s">
+      <c r="G4" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="H4" s="65" t="s">
+      <c r="H4" s="66" t="s">
         <v>1327</v>
       </c>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65" t="s">
+      <c r="I4" s="66"/>
+      <c r="J4" s="66" t="s">
         <v>482</v>
       </c>
-      <c r="K4" s="65" t="s">
+      <c r="K4" s="66" t="s">
         <v>350</v>
       </c>
-      <c r="L4" s="65" t="s">
+      <c r="L4" s="66" t="s">
         <v>1331</v>
       </c>
-      <c r="M4" s="65" t="s">
+      <c r="M4" s="66" t="s">
         <v>381</v>
       </c>
-      <c r="N4" s="65" t="s">
+      <c r="N4" s="66" t="s">
         <v>1334</v>
       </c>
-      <c r="O4" s="65" t="s">
+      <c r="O4" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="P4" s="65" t="s">
+      <c r="P4" s="66" t="s">
         <v>1336</v>
       </c>
-      <c r="Q4" s="65" t="s">
+      <c r="Q4" s="66" t="s">
         <v>362</v>
       </c>
-      <c r="R4" s="65" t="s">
+      <c r="R4" s="66" t="s">
         <v>426</v>
       </c>
       <c r="S4" s="21"/>
@@ -11576,49 +11573,49 @@
       <c r="B5" s="22">
         <v>1</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="60" t="s">
         <v>1175</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="E5" s="60" t="s">
         <v>1176</v>
       </c>
-      <c r="F5" s="50" t="s">
+      <c r="F5" s="60" t="s">
         <v>1177</v>
       </c>
-      <c r="G5" s="50" t="s">
+      <c r="G5" s="60" t="s">
         <v>1178</v>
       </c>
-      <c r="H5" s="50" t="s">
+      <c r="H5" s="60" t="s">
         <v>1179</v>
       </c>
       <c r="I5" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="50" t="s">
+      <c r="J5" s="60" t="s">
         <v>285</v>
       </c>
-      <c r="K5" s="50" t="s">
+      <c r="K5" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="L5" s="50" t="s">
+      <c r="L5" s="60" t="s">
         <v>1180</v>
       </c>
-      <c r="M5" s="50" t="s">
+      <c r="M5" s="60" t="s">
         <v>1181</v>
       </c>
-      <c r="N5" s="50" t="s">
+      <c r="N5" s="60" t="s">
         <v>1182</v>
       </c>
-      <c r="O5" s="50" t="s">
+      <c r="O5" s="60" t="s">
         <v>1183</v>
       </c>
-      <c r="P5" s="50" t="s">
+      <c r="P5" s="60" t="s">
         <v>1184</v>
       </c>
-      <c r="Q5" s="50" t="s">
+      <c r="Q5" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="R5" s="50" t="s">
+      <c r="R5" s="60" t="s">
         <v>1185</v>
       </c>
       <c r="S5" s="23"/>
@@ -11627,47 +11624,47 @@
     <row r="6" spans="1:22" s="28" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="24"/>
       <c r="C6" s="25"/>
-      <c r="D6" s="66" t="s">
+      <c r="D6" s="67" t="s">
         <v>1322</v>
       </c>
-      <c r="E6" s="66" t="s">
+      <c r="E6" s="67" t="s">
         <v>1324</v>
       </c>
-      <c r="F6" s="66" t="s">
+      <c r="F6" s="67" t="s">
         <v>1325</v>
       </c>
-      <c r="G6" s="66" t="s">
+      <c r="G6" s="67" t="s">
         <v>1326</v>
       </c>
-      <c r="H6" s="66" t="s">
+      <c r="H6" s="67" t="s">
         <v>1328</v>
       </c>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66" t="s">
+      <c r="I6" s="67"/>
+      <c r="J6" s="67" t="s">
         <v>1329</v>
       </c>
-      <c r="K6" s="66" t="s">
+      <c r="K6" s="67" t="s">
         <v>1330</v>
       </c>
-      <c r="L6" s="66" t="s">
+      <c r="L6" s="67" t="s">
         <v>1332</v>
       </c>
-      <c r="M6" s="66" t="s">
+      <c r="M6" s="67" t="s">
         <v>1333</v>
       </c>
-      <c r="N6" s="66" t="s">
+      <c r="N6" s="67" t="s">
         <v>1335</v>
       </c>
-      <c r="O6" s="66" t="s">
+      <c r="O6" s="67" t="s">
         <v>1326</v>
       </c>
-      <c r="P6" s="66" t="s">
+      <c r="P6" s="67" t="s">
         <v>1337</v>
       </c>
-      <c r="Q6" s="66" t="s">
+      <c r="Q6" s="67" t="s">
         <v>1338</v>
       </c>
-      <c r="R6" s="66" t="s">
+      <c r="R6" s="67" t="s">
         <v>1339</v>
       </c>
       <c r="S6" s="27"/>
@@ -11676,65 +11673,65 @@
     <row r="7" spans="1:22" s="32" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="29"/>
       <c r="C7" s="30"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="64"/>
-      <c r="M7" s="64"/>
-      <c r="N7" s="64"/>
-      <c r="O7" s="64"/>
-      <c r="P7" s="64"/>
-      <c r="Q7" s="64"/>
-      <c r="R7" s="64"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="65"/>
+      <c r="N7" s="65"/>
+      <c r="O7" s="65"/>
+      <c r="P7" s="65"/>
+      <c r="Q7" s="65"/>
+      <c r="R7" s="65"/>
       <c r="S7" s="31"/>
       <c r="V7" s="52"/>
     </row>
     <row r="8" spans="1:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="19"/>
-      <c r="D8" s="65" t="s">
+      <c r="D8" s="66" t="s">
         <v>1340</v>
       </c>
-      <c r="E8" s="65" t="s">
+      <c r="E8" s="66" t="s">
         <v>1342</v>
       </c>
-      <c r="F8" s="65" t="s">
+      <c r="F8" s="66" t="s">
         <v>1344</v>
       </c>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65" t="s">
+      <c r="G8" s="66"/>
+      <c r="H8" s="66" t="s">
         <v>1346</v>
       </c>
-      <c r="I8" s="65" t="s">
+      <c r="I8" s="66" t="s">
         <v>1348</v>
       </c>
-      <c r="J8" s="65" t="s">
+      <c r="J8" s="66" t="s">
         <v>388</v>
       </c>
-      <c r="K8" s="65" t="s">
+      <c r="K8" s="66" t="s">
         <v>1351</v>
       </c>
-      <c r="L8" s="65"/>
-      <c r="M8" s="65" t="s">
+      <c r="L8" s="66"/>
+      <c r="M8" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="N8" s="65" t="s">
+      <c r="N8" s="66" t="s">
         <v>1354</v>
       </c>
-      <c r="O8" s="65" t="s">
+      <c r="O8" s="66" t="s">
         <v>362</v>
       </c>
-      <c r="P8" s="65" t="s">
+      <c r="P8" s="66" t="s">
         <v>1356</v>
       </c>
-      <c r="Q8" s="65" t="s">
+      <c r="Q8" s="66" t="s">
         <v>1358</v>
       </c>
-      <c r="R8" s="65" t="s">
+      <c r="R8" s="66" t="s">
         <v>343</v>
       </c>
       <c r="S8" s="21"/>
@@ -11745,49 +11742,49 @@
         <f>B5+1</f>
         <v>2</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D9" s="60" t="s">
         <v>1186</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="E9" s="60" t="s">
         <v>1187</v>
       </c>
-      <c r="F9" s="50" t="s">
+      <c r="F9" s="60" t="s">
         <v>1188</v>
       </c>
       <c r="G9" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="50" t="s">
+      <c r="H9" s="60" t="s">
         <v>1189</v>
       </c>
-      <c r="I9" s="50" t="s">
+      <c r="I9" s="60" t="s">
         <v>1190</v>
       </c>
-      <c r="J9" s="50" t="s">
+      <c r="J9" s="60" t="s">
         <v>1191</v>
       </c>
-      <c r="K9" s="50" t="s">
+      <c r="K9" s="60" t="s">
         <v>1192</v>
       </c>
       <c r="L9" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="50" t="s">
+      <c r="M9" s="60" t="s">
         <v>1193</v>
       </c>
-      <c r="N9" s="50" t="s">
+      <c r="N9" s="60" t="s">
         <v>1194</v>
       </c>
-      <c r="O9" s="50" t="s">
+      <c r="O9" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="P9" s="50" t="s">
+      <c r="P9" s="60" t="s">
         <v>1195</v>
       </c>
-      <c r="Q9" s="50" t="s">
+      <c r="Q9" s="60" t="s">
         <v>1196</v>
       </c>
-      <c r="R9" s="50" t="s">
+      <c r="R9" s="60" t="s">
         <v>1197</v>
       </c>
       <c r="S9" s="23"/>
@@ -11796,45 +11793,45 @@
     </row>
     <row r="10" spans="1:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="24"/>
-      <c r="D10" s="66" t="s">
+      <c r="D10" s="67" t="s">
         <v>1341</v>
       </c>
-      <c r="E10" s="66" t="s">
+      <c r="E10" s="67" t="s">
         <v>1343</v>
       </c>
-      <c r="F10" s="66" t="s">
+      <c r="F10" s="67" t="s">
         <v>1345</v>
       </c>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66" t="s">
+      <c r="G10" s="67"/>
+      <c r="H10" s="67" t="s">
         <v>1347</v>
       </c>
-      <c r="I10" s="66" t="s">
+      <c r="I10" s="67" t="s">
         <v>1349</v>
       </c>
-      <c r="J10" s="66" t="s">
+      <c r="J10" s="67" t="s">
         <v>1350</v>
       </c>
-      <c r="K10" s="66" t="s">
+      <c r="K10" s="67" t="s">
         <v>1352</v>
       </c>
-      <c r="L10" s="66"/>
-      <c r="M10" s="66" t="s">
+      <c r="L10" s="67"/>
+      <c r="M10" s="67" t="s">
         <v>1353</v>
       </c>
-      <c r="N10" s="66" t="s">
+      <c r="N10" s="67" t="s">
         <v>1355</v>
       </c>
-      <c r="O10" s="66" t="s">
+      <c r="O10" s="67" t="s">
         <v>1338</v>
       </c>
-      <c r="P10" s="66" t="s">
+      <c r="P10" s="67" t="s">
         <v>1357</v>
       </c>
-      <c r="Q10" s="66" t="s">
+      <c r="Q10" s="67" t="s">
         <v>1359</v>
       </c>
-      <c r="R10" s="66" t="s">
+      <c r="R10" s="67" t="s">
         <v>1360</v>
       </c>
       <c r="S10" s="33"/>
@@ -11843,64 +11840,64 @@
     <row r="11" spans="1:22" s="31" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="34"/>
       <c r="C11" s="35"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="64"/>
-      <c r="M11" s="64"/>
-      <c r="N11" s="64"/>
-      <c r="O11" s="64"/>
-      <c r="P11" s="64"/>
-      <c r="Q11" s="64"/>
-      <c r="R11" s="64"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="65"/>
+      <c r="M11" s="65"/>
+      <c r="N11" s="65"/>
+      <c r="O11" s="65"/>
+      <c r="P11" s="65"/>
+      <c r="Q11" s="65"/>
+      <c r="R11" s="65"/>
       <c r="V11" s="52"/>
     </row>
     <row r="12" spans="1:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="19"/>
-      <c r="D12" s="65" t="s">
+      <c r="D12" s="66" t="s">
         <v>352</v>
       </c>
-      <c r="E12" s="65" t="s">
+      <c r="E12" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="65" t="s">
+      <c r="F12" s="66" t="s">
         <v>341</v>
       </c>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65" t="s">
+      <c r="G12" s="66"/>
+      <c r="H12" s="66" t="s">
         <v>364</v>
       </c>
-      <c r="I12" s="65" t="s">
+      <c r="I12" s="66" t="s">
         <v>1365</v>
       </c>
-      <c r="J12" s="65" t="s">
+      <c r="J12" s="66" t="s">
         <v>1367</v>
       </c>
-      <c r="K12" s="65" t="s">
+      <c r="K12" s="66" t="s">
         <v>1351</v>
       </c>
-      <c r="L12" s="65"/>
-      <c r="M12" s="65" t="s">
+      <c r="L12" s="66"/>
+      <c r="M12" s="66" t="s">
         <v>394</v>
       </c>
-      <c r="N12" s="65" t="s">
+      <c r="N12" s="66" t="s">
         <v>1370</v>
       </c>
-      <c r="O12" s="65" t="s">
+      <c r="O12" s="66" t="s">
         <v>1372</v>
       </c>
-      <c r="P12" s="65" t="s">
+      <c r="P12" s="66" t="s">
         <v>1374</v>
       </c>
-      <c r="Q12" s="65" t="s">
+      <c r="Q12" s="66" t="s">
         <v>1376</v>
       </c>
-      <c r="R12" s="65"/>
+      <c r="R12" s="66"/>
       <c r="S12" s="21"/>
       <c r="V12" s="52"/>
     </row>
@@ -11909,46 +11906,46 @@
         <f>B9+1</f>
         <v>3</v>
       </c>
-      <c r="D13" s="50" t="s">
+      <c r="D13" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="E13" s="50" t="s">
+      <c r="E13" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="50" t="s">
+      <c r="F13" s="60" t="s">
         <v>1198</v>
       </c>
       <c r="G13" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="50" t="s">
+      <c r="H13" s="60" t="s">
         <v>1199</v>
       </c>
-      <c r="I13" s="50" t="s">
+      <c r="I13" s="60" t="s">
         <v>1200</v>
       </c>
-      <c r="J13" s="50" t="s">
+      <c r="J13" s="60" t="s">
         <v>1201</v>
       </c>
-      <c r="K13" s="50" t="s">
+      <c r="K13" s="60" t="s">
         <v>1202</v>
       </c>
       <c r="L13" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="M13" s="50" t="s">
+      <c r="M13" s="60" t="s">
         <v>1203</v>
       </c>
-      <c r="N13" s="50" t="s">
+      <c r="N13" s="60" t="s">
         <v>1204</v>
       </c>
-      <c r="O13" s="50" t="s">
+      <c r="O13" s="60" t="s">
         <v>1205</v>
       </c>
-      <c r="P13" s="50" t="s">
+      <c r="P13" s="60" t="s">
         <v>1206</v>
       </c>
-      <c r="Q13" s="50" t="s">
+      <c r="Q13" s="60" t="s">
         <v>1207</v>
       </c>
       <c r="R13" s="60" t="s">
@@ -11959,109 +11956,109 @@
     </row>
     <row r="14" spans="1:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="24"/>
-      <c r="D14" s="66" t="s">
+      <c r="D14" s="67" t="s">
         <v>1361</v>
       </c>
-      <c r="E14" s="66" t="s">
+      <c r="E14" s="67" t="s">
         <v>1362</v>
       </c>
-      <c r="F14" s="66" t="s">
+      <c r="F14" s="67" t="s">
         <v>1363</v>
       </c>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66" t="s">
+      <c r="G14" s="67"/>
+      <c r="H14" s="67" t="s">
         <v>1364</v>
       </c>
-      <c r="I14" s="66" t="s">
+      <c r="I14" s="67" t="s">
         <v>1366</v>
       </c>
-      <c r="J14" s="66" t="s">
+      <c r="J14" s="67" t="s">
         <v>1368</v>
       </c>
-      <c r="K14" s="66" t="s">
+      <c r="K14" s="67" t="s">
         <v>1352</v>
       </c>
-      <c r="L14" s="66"/>
-      <c r="M14" s="66" t="s">
+      <c r="L14" s="67"/>
+      <c r="M14" s="67" t="s">
         <v>1369</v>
       </c>
-      <c r="N14" s="66" t="s">
+      <c r="N14" s="67" t="s">
         <v>1371</v>
       </c>
-      <c r="O14" s="66" t="s">
+      <c r="O14" s="67" t="s">
         <v>1373</v>
       </c>
-      <c r="P14" s="66" t="s">
+      <c r="P14" s="67" t="s">
         <v>1375</v>
       </c>
-      <c r="Q14" s="66" t="s">
+      <c r="Q14" s="67" t="s">
         <v>1377</v>
       </c>
-      <c r="R14" s="66"/>
+      <c r="R14" s="67"/>
       <c r="S14" s="33"/>
       <c r="V14" s="52"/>
     </row>
     <row r="15" spans="1:22" s="37" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="14"/>
       <c r="C15" s="36"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="64"/>
-      <c r="M15" s="64"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="64"/>
-      <c r="P15" s="64"/>
-      <c r="Q15" s="64"/>
-      <c r="R15" s="64"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="65"/>
+      <c r="M15" s="65"/>
+      <c r="N15" s="65"/>
+      <c r="O15" s="65"/>
+      <c r="P15" s="65"/>
+      <c r="Q15" s="65"/>
+      <c r="R15" s="65"/>
       <c r="V15" s="52"/>
     </row>
     <row r="16" spans="1:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="19"/>
-      <c r="D16" s="65" t="s">
+      <c r="D16" s="66" t="s">
         <v>1731</v>
       </c>
-      <c r="E16" s="65" t="s">
+      <c r="E16" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="F16" s="65" t="s">
+      <c r="F16" s="66" t="s">
         <v>1379</v>
       </c>
-      <c r="G16" s="65" t="s">
+      <c r="G16" s="66" t="s">
         <v>319</v>
       </c>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65" t="s">
+      <c r="H16" s="66"/>
+      <c r="I16" s="66" t="s">
         <v>494</v>
       </c>
-      <c r="J16" s="65" t="s">
+      <c r="J16" s="66" t="s">
         <v>1383</v>
       </c>
-      <c r="K16" s="65" t="s">
+      <c r="K16" s="66" t="s">
         <v>489</v>
       </c>
-      <c r="L16" s="65" t="s">
+      <c r="L16" s="66" t="s">
         <v>1331</v>
       </c>
-      <c r="M16" s="65" t="s">
+      <c r="M16" s="66" t="s">
         <v>1386</v>
       </c>
-      <c r="N16" s="65"/>
-      <c r="O16" s="65" t="s">
+      <c r="N16" s="66"/>
+      <c r="O16" s="66" t="s">
         <v>485</v>
       </c>
-      <c r="P16" s="65" t="s">
+      <c r="P16" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="Q16" s="65" t="s">
+      <c r="Q16" s="66" t="s">
         <v>1389</v>
       </c>
-      <c r="R16" s="65" t="s">
+      <c r="R16" s="66" t="s">
         <v>1391</v>
       </c>
       <c r="S16" s="21"/>
@@ -12072,49 +12069,49 @@
         <f>B13+1</f>
         <v>4</v>
       </c>
-      <c r="D17" s="50" t="s">
+      <c r="D17" s="60" t="s">
         <v>1208</v>
       </c>
-      <c r="E17" s="50" t="s">
+      <c r="E17" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="50" t="s">
+      <c r="F17" s="60" t="s">
         <v>1209</v>
       </c>
-      <c r="G17" s="50" t="s">
+      <c r="G17" s="60" t="s">
         <v>1210</v>
       </c>
       <c r="H17" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="I17" s="50" t="s">
+      <c r="I17" s="60" t="s">
         <v>302</v>
       </c>
-      <c r="J17" s="50" t="s">
+      <c r="J17" s="60" t="s">
         <v>1211</v>
       </c>
-      <c r="K17" s="50" t="s">
+      <c r="K17" s="60" t="s">
         <v>1212</v>
       </c>
-      <c r="L17" s="50" t="s">
+      <c r="L17" s="60" t="s">
         <v>1180</v>
       </c>
-      <c r="M17" s="50" t="s">
+      <c r="M17" s="60" t="s">
         <v>1213</v>
       </c>
       <c r="N17" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="O17" s="50" t="s">
+      <c r="O17" s="60" t="s">
         <v>289</v>
       </c>
-      <c r="P17" s="50" t="s">
+      <c r="P17" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="Q17" s="50" t="s">
+      <c r="Q17" s="60" t="s">
         <v>1214</v>
       </c>
-      <c r="R17" s="50" t="s">
+      <c r="R17" s="60" t="s">
         <v>1215</v>
       </c>
       <c r="S17" s="23"/>
@@ -12122,45 +12119,45 @@
     </row>
     <row r="18" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="24"/>
-      <c r="D18" s="66" t="s">
+      <c r="D18" s="67" t="s">
         <v>1733</v>
       </c>
-      <c r="E18" s="66" t="s">
+      <c r="E18" s="67" t="s">
         <v>1378</v>
       </c>
-      <c r="F18" s="66" t="s">
+      <c r="F18" s="67" t="s">
         <v>1380</v>
       </c>
-      <c r="G18" s="66" t="s">
+      <c r="G18" s="67" t="s">
         <v>1381</v>
       </c>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66" t="s">
+      <c r="H18" s="67"/>
+      <c r="I18" s="67" t="s">
         <v>1382</v>
       </c>
-      <c r="J18" s="66" t="s">
+      <c r="J18" s="67" t="s">
         <v>1384</v>
       </c>
-      <c r="K18" s="66" t="s">
+      <c r="K18" s="67" t="s">
         <v>1385</v>
       </c>
-      <c r="L18" s="66" t="s">
+      <c r="L18" s="67" t="s">
         <v>1332</v>
       </c>
-      <c r="M18" s="66" t="s">
+      <c r="M18" s="67" t="s">
         <v>1387</v>
       </c>
-      <c r="N18" s="66"/>
-      <c r="O18" s="66" t="s">
+      <c r="N18" s="67"/>
+      <c r="O18" s="67" t="s">
         <v>1388</v>
       </c>
-      <c r="P18" s="66" t="s">
+      <c r="P18" s="67" t="s">
         <v>1378</v>
       </c>
-      <c r="Q18" s="66" t="s">
+      <c r="Q18" s="67" t="s">
         <v>1390</v>
       </c>
-      <c r="R18" s="66" t="s">
+      <c r="R18" s="67" t="s">
         <v>1392</v>
       </c>
       <c r="S18" s="33"/>
@@ -12169,64 +12166,64 @@
     <row r="19" spans="2:22" s="37" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="14"/>
       <c r="C19" s="36"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="64"/>
-      <c r="M19" s="64"/>
-      <c r="N19" s="64"/>
-      <c r="O19" s="64"/>
-      <c r="P19" s="64"/>
-      <c r="Q19" s="64"/>
-      <c r="R19" s="64"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="65"/>
+      <c r="N19" s="65"/>
+      <c r="O19" s="65"/>
+      <c r="P19" s="65"/>
+      <c r="Q19" s="65"/>
+      <c r="R19" s="65"/>
       <c r="V19" s="52"/>
     </row>
     <row r="20" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="19"/>
-      <c r="D20" s="65" t="s">
+      <c r="D20" s="66" t="s">
         <v>1393</v>
       </c>
-      <c r="E20" s="65" t="s">
+      <c r="E20" s="66" t="s">
         <v>1395</v>
       </c>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65" t="s">
+      <c r="F20" s="66"/>
+      <c r="G20" s="66" t="s">
         <v>1344</v>
       </c>
-      <c r="H20" s="65" t="s">
+      <c r="H20" s="66" t="s">
         <v>1397</v>
       </c>
-      <c r="I20" s="65" t="s">
+      <c r="I20" s="66" t="s">
         <v>383</v>
       </c>
-      <c r="J20" s="65" t="s">
+      <c r="J20" s="66" t="s">
         <v>328</v>
       </c>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65" t="s">
+      <c r="K20" s="66"/>
+      <c r="L20" s="66" t="s">
         <v>1323</v>
       </c>
-      <c r="M20" s="65" t="s">
+      <c r="M20" s="66" t="s">
         <v>494</v>
       </c>
-      <c r="N20" s="65" t="s">
+      <c r="N20" s="66" t="s">
         <v>1401</v>
       </c>
-      <c r="O20" s="65" t="s">
+      <c r="O20" s="66" t="s">
         <v>356</v>
       </c>
-      <c r="P20" s="65" t="s">
+      <c r="P20" s="66" t="s">
         <v>1404</v>
       </c>
-      <c r="Q20" s="65" t="s">
+      <c r="Q20" s="66" t="s">
         <v>348</v>
       </c>
-      <c r="R20" s="65" t="s">
+      <c r="R20" s="66" t="s">
         <v>1407</v>
       </c>
       <c r="S20" s="21"/>
@@ -12237,49 +12234,49 @@
         <f>B17+1</f>
         <v>5</v>
       </c>
-      <c r="D21" s="50" t="s">
+      <c r="D21" s="60" t="s">
         <v>1216</v>
       </c>
-      <c r="E21" s="50" t="s">
+      <c r="E21" s="60" t="s">
         <v>1217</v>
       </c>
       <c r="F21" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="G21" s="50" t="s">
+      <c r="G21" s="60" t="s">
         <v>1188</v>
       </c>
-      <c r="H21" s="50" t="s">
+      <c r="H21" s="60" t="s">
         <v>1218</v>
       </c>
-      <c r="I21" s="50" t="s">
+      <c r="I21" s="60" t="s">
         <v>157</v>
       </c>
-      <c r="J21" s="50" t="s">
+      <c r="J21" s="60" t="s">
         <v>305</v>
       </c>
       <c r="K21" s="60" t="s">
         <v>306</v>
       </c>
-      <c r="L21" s="50" t="s">
+      <c r="L21" s="60" t="s">
         <v>1176</v>
       </c>
-      <c r="M21" s="67" t="s">
+      <c r="M21" s="61" t="s">
         <v>302</v>
       </c>
-      <c r="N21" s="50" t="s">
+      <c r="N21" s="60" t="s">
         <v>1219</v>
       </c>
-      <c r="O21" s="50" t="s">
+      <c r="O21" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="P21" s="50" t="s">
+      <c r="P21" s="60" t="s">
         <v>1220</v>
       </c>
-      <c r="Q21" s="50" t="s">
+      <c r="Q21" s="60" t="s">
         <v>1221</v>
       </c>
-      <c r="R21" s="50" t="s">
+      <c r="R21" s="60" t="s">
         <v>1222</v>
       </c>
       <c r="S21" s="23"/>
@@ -12287,45 +12284,45 @@
     </row>
     <row r="22" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="24"/>
-      <c r="D22" s="66" t="s">
+      <c r="D22" s="67" t="s">
         <v>1394</v>
       </c>
-      <c r="E22" s="66" t="s">
+      <c r="E22" s="67" t="s">
         <v>1396</v>
       </c>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66" t="s">
+      <c r="F22" s="67"/>
+      <c r="G22" s="67" t="s">
         <v>1345</v>
       </c>
-      <c r="H22" s="66" t="s">
+      <c r="H22" s="67" t="s">
         <v>1398</v>
       </c>
-      <c r="I22" s="66" t="s">
+      <c r="I22" s="67" t="s">
         <v>1399</v>
       </c>
-      <c r="J22" s="66" t="s">
+      <c r="J22" s="67" t="s">
         <v>1400</v>
       </c>
-      <c r="K22" s="66"/>
-      <c r="L22" s="66" t="s">
+      <c r="K22" s="67"/>
+      <c r="L22" s="67" t="s">
         <v>1324</v>
       </c>
-      <c r="M22" s="66" t="s">
+      <c r="M22" s="67" t="s">
         <v>1382</v>
       </c>
-      <c r="N22" s="66" t="s">
+      <c r="N22" s="67" t="s">
         <v>1402</v>
       </c>
-      <c r="O22" s="66" t="s">
+      <c r="O22" s="67" t="s">
         <v>1403</v>
       </c>
-      <c r="P22" s="66" t="s">
+      <c r="P22" s="67" t="s">
         <v>1405</v>
       </c>
-      <c r="Q22" s="66" t="s">
+      <c r="Q22" s="67" t="s">
         <v>1406</v>
       </c>
-      <c r="R22" s="66" t="s">
+      <c r="R22" s="67" t="s">
         <v>1408</v>
       </c>
       <c r="S22" s="33"/>
@@ -12334,62 +12331,62 @@
     <row r="23" spans="2:22" s="37" customFormat="1" ht="60" customHeight="1">
       <c r="B23" s="14"/>
       <c r="C23" s="36"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="64"/>
-      <c r="K23" s="64"/>
-      <c r="L23" s="64"/>
-      <c r="M23" s="64"/>
-      <c r="N23" s="64"/>
-      <c r="O23" s="64"/>
-      <c r="P23" s="64"/>
-      <c r="Q23" s="64"/>
-      <c r="R23" s="64"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="65"/>
+      <c r="N23" s="65"/>
+      <c r="O23" s="65"/>
+      <c r="P23" s="65"/>
+      <c r="Q23" s="65"/>
+      <c r="R23" s="65"/>
       <c r="V23" s="38"/>
     </row>
     <row r="24" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B24" s="19"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65" t="s">
+      <c r="D24" s="66"/>
+      <c r="E24" s="66" t="s">
         <v>1409</v>
       </c>
-      <c r="F24" s="65" t="s">
+      <c r="F24" s="66" t="s">
         <v>350</v>
       </c>
-      <c r="G24" s="65" t="s">
+      <c r="G24" s="66" t="s">
         <v>1411</v>
       </c>
-      <c r="H24" s="65" t="s">
+      <c r="H24" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="I24" s="65" t="s">
+      <c r="I24" s="66" t="s">
         <v>1340</v>
       </c>
-      <c r="J24" s="65" t="s">
+      <c r="J24" s="66" t="s">
         <v>1342</v>
       </c>
-      <c r="K24" s="65" t="s">
+      <c r="K24" s="66" t="s">
         <v>355</v>
       </c>
-      <c r="L24" s="65" t="s">
+      <c r="L24" s="66" t="s">
         <v>435</v>
       </c>
-      <c r="M24" s="65"/>
-      <c r="N24" s="65" t="s">
+      <c r="M24" s="66"/>
+      <c r="N24" s="66" t="s">
         <v>354</v>
       </c>
-      <c r="O24" s="65" t="s">
+      <c r="O24" s="66" t="s">
         <v>319</v>
       </c>
-      <c r="P24" s="65" t="s">
+      <c r="P24" s="66" t="s">
         <v>367</v>
       </c>
-      <c r="Q24" s="65"/>
-      <c r="R24" s="65" t="s">
+      <c r="Q24" s="66"/>
+      <c r="R24" s="66" t="s">
         <v>60</v>
       </c>
       <c r="S24" s="21"/>
@@ -12403,46 +12400,46 @@
       <c r="D25" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="50" t="s">
+      <c r="E25" s="60" t="s">
         <v>1223</v>
       </c>
-      <c r="F25" s="50" t="s">
+      <c r="F25" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="G25" s="50" t="s">
+      <c r="G25" s="60" t="s">
         <v>1224</v>
       </c>
-      <c r="H25" s="50" t="s">
+      <c r="H25" s="60" t="s">
         <v>1225</v>
       </c>
-      <c r="I25" s="50" t="s">
+      <c r="I25" s="60" t="s">
         <v>1186</v>
       </c>
-      <c r="J25" s="50" t="s">
+      <c r="J25" s="60" t="s">
         <v>1187</v>
       </c>
-      <c r="K25" s="50" t="s">
+      <c r="K25" s="60" t="s">
         <v>125</v>
       </c>
-      <c r="L25" s="50" t="s">
+      <c r="L25" s="60" t="s">
         <v>1226</v>
       </c>
       <c r="M25" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="N25" s="50" t="s">
+      <c r="N25" s="60" t="s">
         <v>1227</v>
       </c>
-      <c r="O25" s="50" t="s">
+      <c r="O25" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="P25" s="50" t="s">
+      <c r="P25" s="60" t="s">
         <v>138</v>
       </c>
       <c r="Q25" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="R25" s="50" t="s">
+      <c r="R25" s="60" t="s">
         <v>110</v>
       </c>
       <c r="S25" s="23"/>
@@ -12450,43 +12447,43 @@
     </row>
     <row r="26" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B26" s="24"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="66" t="s">
+      <c r="D26" s="67"/>
+      <c r="E26" s="67" t="s">
         <v>1410</v>
       </c>
-      <c r="F26" s="66" t="s">
+      <c r="F26" s="67" t="s">
         <v>1330</v>
       </c>
-      <c r="G26" s="66" t="s">
+      <c r="G26" s="67" t="s">
         <v>1412</v>
       </c>
-      <c r="H26" s="66" t="s">
+      <c r="H26" s="67" t="s">
         <v>1325</v>
       </c>
-      <c r="I26" s="66" t="s">
+      <c r="I26" s="67" t="s">
         <v>1341</v>
       </c>
-      <c r="J26" s="66" t="s">
+      <c r="J26" s="67" t="s">
         <v>1343</v>
       </c>
-      <c r="K26" s="66" t="s">
+      <c r="K26" s="67" t="s">
         <v>1413</v>
       </c>
-      <c r="L26" s="66" t="s">
+      <c r="L26" s="67" t="s">
         <v>1414</v>
       </c>
-      <c r="M26" s="66"/>
-      <c r="N26" s="66" t="s">
+      <c r="M26" s="67"/>
+      <c r="N26" s="67" t="s">
         <v>1415</v>
       </c>
-      <c r="O26" s="66" t="s">
+      <c r="O26" s="67" t="s">
         <v>1381</v>
       </c>
-      <c r="P26" s="66" t="s">
+      <c r="P26" s="67" t="s">
         <v>1416</v>
       </c>
-      <c r="Q26" s="66"/>
-      <c r="R26" s="66" t="s">
+      <c r="Q26" s="67"/>
+      <c r="R26" s="67" t="s">
         <v>1417</v>
       </c>
       <c r="S26" s="33"/>
@@ -12499,21 +12496,21 @@
     <row r="27" spans="2:22" s="37" customFormat="1" ht="60" customHeight="1">
       <c r="B27" s="14"/>
       <c r="C27" s="36"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="64"/>
-      <c r="K27" s="64"/>
-      <c r="L27" s="64"/>
-      <c r="M27" s="64"/>
-      <c r="N27" s="64"/>
-      <c r="O27" s="64"/>
-      <c r="P27" s="64"/>
-      <c r="Q27" s="64"/>
-      <c r="R27" s="64"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="65"/>
+      <c r="L27" s="65"/>
+      <c r="M27" s="65"/>
+      <c r="N27" s="65"/>
+      <c r="O27" s="65"/>
+      <c r="P27" s="65"/>
+      <c r="Q27" s="65"/>
+      <c r="R27" s="65"/>
       <c r="U27" s="37" t="str">
         <f t="shared" ref="U27:U32" si="1" xml:space="preserve"> MID($N$26,4,1)</f>
         <v/>
@@ -12522,45 +12519,45 @@
     </row>
     <row r="28" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B28" s="19"/>
-      <c r="D28" s="65" t="s">
+      <c r="D28" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="E28" s="65" t="s">
+      <c r="E28" s="66" t="s">
         <v>1419</v>
       </c>
-      <c r="F28" s="65" t="s">
+      <c r="F28" s="66" t="s">
         <v>1391</v>
       </c>
-      <c r="G28" s="65"/>
-      <c r="H28" s="65" t="s">
+      <c r="G28" s="66"/>
+      <c r="H28" s="66" t="s">
         <v>1421</v>
       </c>
-      <c r="I28" s="65" t="s">
+      <c r="I28" s="66" t="s">
         <v>353</v>
       </c>
-      <c r="J28" s="65" t="s">
+      <c r="J28" s="66" t="s">
         <v>379</v>
       </c>
-      <c r="K28" s="65" t="s">
+      <c r="K28" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="L28" s="65" t="s">
+      <c r="L28" s="66" t="s">
         <v>1425</v>
       </c>
-      <c r="M28" s="65"/>
-      <c r="N28" s="65" t="s">
+      <c r="M28" s="66"/>
+      <c r="N28" s="66" t="s">
         <v>353</v>
       </c>
-      <c r="O28" s="65" t="s">
+      <c r="O28" s="66" t="s">
         <v>396</v>
       </c>
-      <c r="P28" s="65" t="s">
+      <c r="P28" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="Q28" s="65" t="s">
+      <c r="Q28" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="R28" s="65" t="s">
+      <c r="R28" s="66" t="s">
         <v>1397</v>
       </c>
       <c r="S28" s="21"/>
@@ -12575,49 +12572,49 @@
         <f>B25+1</f>
         <v>7</v>
       </c>
-      <c r="D29" s="50" t="s">
+      <c r="D29" s="60" t="s">
         <v>1228</v>
       </c>
-      <c r="E29" s="50" t="s">
+      <c r="E29" s="60" t="s">
         <v>1229</v>
       </c>
-      <c r="F29" s="50" t="s">
+      <c r="F29" s="60" t="s">
         <v>1230</v>
       </c>
       <c r="G29" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="H29" s="50" t="s">
+      <c r="H29" s="60" t="s">
         <v>1231</v>
       </c>
-      <c r="I29" s="50" t="s">
+      <c r="I29" s="60" t="s">
         <v>123</v>
       </c>
-      <c r="J29" s="50" t="s">
+      <c r="J29" s="60" t="s">
         <v>153</v>
       </c>
-      <c r="K29" s="50" t="s">
+      <c r="K29" s="60" t="s">
         <v>290</v>
       </c>
-      <c r="L29" s="50" t="s">
+      <c r="L29" s="60" t="s">
         <v>1232</v>
       </c>
       <c r="M29" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="N29" s="50" t="s">
+      <c r="N29" s="60" t="s">
         <v>123</v>
       </c>
-      <c r="O29" s="50" t="s">
+      <c r="O29" s="60" t="s">
         <v>173</v>
       </c>
-      <c r="P29" s="50" t="s">
+      <c r="P29" s="60" t="s">
         <v>150</v>
       </c>
-      <c r="Q29" s="50" t="s">
+      <c r="Q29" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="R29" s="50" t="s">
+      <c r="R29" s="60" t="s">
         <v>1218</v>
       </c>
       <c r="S29" s="23"/>
@@ -12629,45 +12626,45 @@
     </row>
     <row r="30" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B30" s="24"/>
-      <c r="D30" s="66" t="s">
+      <c r="D30" s="67" t="s">
         <v>1418</v>
       </c>
-      <c r="E30" s="66" t="s">
+      <c r="E30" s="67" t="s">
         <v>1420</v>
       </c>
-      <c r="F30" s="66" t="s">
+      <c r="F30" s="67" t="s">
         <v>1392</v>
       </c>
-      <c r="G30" s="66"/>
-      <c r="H30" s="66" t="s">
+      <c r="G30" s="67"/>
+      <c r="H30" s="67" t="s">
         <v>1422</v>
       </c>
-      <c r="I30" s="66" t="s">
+      <c r="I30" s="67" t="s">
         <v>1423</v>
       </c>
-      <c r="J30" s="66" t="s">
+      <c r="J30" s="67" t="s">
         <v>1424</v>
       </c>
-      <c r="K30" s="66" t="s">
+      <c r="K30" s="67" t="s">
         <v>1353</v>
       </c>
-      <c r="L30" s="66" t="s">
+      <c r="L30" s="67" t="s">
         <v>1426</v>
       </c>
-      <c r="M30" s="66"/>
-      <c r="N30" s="66" t="s">
+      <c r="M30" s="67"/>
+      <c r="N30" s="67" t="s">
         <v>1423</v>
       </c>
-      <c r="O30" s="66" t="s">
+      <c r="O30" s="67" t="s">
         <v>1427</v>
       </c>
-      <c r="P30" s="66" t="s">
+      <c r="P30" s="67" t="s">
         <v>1428</v>
       </c>
-      <c r="Q30" s="66" t="s">
+      <c r="Q30" s="67" t="s">
         <v>1378</v>
       </c>
-      <c r="R30" s="66" t="s">
+      <c r="R30" s="67" t="s">
         <v>1398</v>
       </c>
       <c r="S30" s="33"/>
@@ -12680,21 +12677,21 @@
     <row r="31" spans="2:22" s="37" customFormat="1" ht="60" customHeight="1">
       <c r="B31" s="14"/>
       <c r="C31" s="36"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="64"/>
-      <c r="G31" s="64"/>
-      <c r="H31" s="64"/>
-      <c r="I31" s="64"/>
-      <c r="J31" s="64"/>
-      <c r="K31" s="64"/>
-      <c r="L31" s="64"/>
-      <c r="M31" s="64"/>
-      <c r="N31" s="64"/>
-      <c r="O31" s="64"/>
-      <c r="P31" s="64"/>
-      <c r="Q31" s="64"/>
-      <c r="R31" s="64"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="65"/>
+      <c r="I31" s="65"/>
+      <c r="J31" s="65"/>
+      <c r="K31" s="65"/>
+      <c r="L31" s="65"/>
+      <c r="M31" s="65"/>
+      <c r="N31" s="65"/>
+      <c r="O31" s="65"/>
+      <c r="P31" s="65"/>
+      <c r="Q31" s="65"/>
+      <c r="R31" s="65"/>
       <c r="U31" s="37" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -12703,45 +12700,45 @@
     </row>
     <row r="32" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B32" s="19"/>
-      <c r="D32" s="65" t="s">
+      <c r="D32" s="66" t="s">
         <v>324</v>
       </c>
-      <c r="E32" s="65" t="s">
+      <c r="E32" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="F32" s="65" t="s">
+      <c r="F32" s="66" t="s">
         <v>468</v>
       </c>
-      <c r="G32" s="65"/>
-      <c r="H32" s="65" t="s">
+      <c r="G32" s="66"/>
+      <c r="H32" s="66" t="s">
         <v>1431</v>
       </c>
-      <c r="I32" s="65" t="s">
+      <c r="I32" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="J32" s="65" t="s">
+      <c r="J32" s="66" t="s">
         <v>1434</v>
       </c>
-      <c r="K32" s="65" t="s">
+      <c r="K32" s="66" t="s">
         <v>421</v>
       </c>
-      <c r="L32" s="65" t="s">
+      <c r="L32" s="66" t="s">
         <v>1437</v>
       </c>
-      <c r="M32" s="65" t="s">
+      <c r="M32" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="N32" s="65"/>
-      <c r="O32" s="65" t="s">
+      <c r="N32" s="66"/>
+      <c r="O32" s="66" t="s">
         <v>435</v>
       </c>
-      <c r="P32" s="65" t="s">
+      <c r="P32" s="66" t="s">
         <v>371</v>
       </c>
-      <c r="Q32" s="65" t="s">
+      <c r="Q32" s="66" t="s">
         <v>1441</v>
       </c>
-      <c r="R32" s="65" t="s">
+      <c r="R32" s="66" t="s">
         <v>417</v>
       </c>
       <c r="S32" s="21"/>
@@ -12756,49 +12753,49 @@
         <f>B29+1</f>
         <v>8</v>
       </c>
-      <c r="D33" s="50" t="s">
+      <c r="D33" s="60" t="s">
         <v>175</v>
       </c>
-      <c r="E33" s="50" t="s">
+      <c r="E33" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="F33" s="50" t="s">
+      <c r="F33" s="60" t="s">
         <v>268</v>
       </c>
       <c r="G33" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="H33" s="50" t="s">
+      <c r="H33" s="60" t="s">
         <v>1233</v>
       </c>
-      <c r="I33" s="50" t="s">
+      <c r="I33" s="60" t="s">
         <v>269</v>
       </c>
-      <c r="J33" s="50" t="s">
+      <c r="J33" s="60" t="s">
         <v>1234</v>
       </c>
-      <c r="K33" s="50" t="s">
+      <c r="K33" s="60" t="s">
         <v>1235</v>
       </c>
-      <c r="L33" s="50" t="s">
+      <c r="L33" s="60" t="s">
         <v>1236</v>
       </c>
-      <c r="M33" s="50" t="s">
+      <c r="M33" s="60" t="s">
         <v>1237</v>
       </c>
       <c r="N33" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="O33" s="50" t="s">
+      <c r="O33" s="60" t="s">
         <v>293</v>
       </c>
-      <c r="P33" s="50" t="s">
+      <c r="P33" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="Q33" s="50" t="s">
+      <c r="Q33" s="60" t="s">
         <v>1238</v>
       </c>
-      <c r="R33" s="50" t="s">
+      <c r="R33" s="60" t="s">
         <v>202</v>
       </c>
       <c r="S33" s="23"/>
@@ -12806,45 +12803,45 @@
     </row>
     <row r="34" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B34" s="24"/>
-      <c r="D34" s="66" t="s">
+      <c r="D34" s="67" t="s">
         <v>1429</v>
       </c>
-      <c r="E34" s="66" t="s">
+      <c r="E34" s="67" t="s">
         <v>1417</v>
       </c>
-      <c r="F34" s="66" t="s">
+      <c r="F34" s="67" t="s">
         <v>1430</v>
       </c>
-      <c r="G34" s="66"/>
-      <c r="H34" s="66" t="s">
+      <c r="G34" s="67"/>
+      <c r="H34" s="67" t="s">
         <v>1432</v>
       </c>
-      <c r="I34" s="66" t="s">
+      <c r="I34" s="67" t="s">
         <v>1433</v>
       </c>
-      <c r="J34" s="66" t="s">
+      <c r="J34" s="67" t="s">
         <v>1435</v>
       </c>
-      <c r="K34" s="66" t="s">
+      <c r="K34" s="67" t="s">
         <v>1436</v>
       </c>
-      <c r="L34" s="66" t="s">
+      <c r="L34" s="67" t="s">
         <v>1438</v>
       </c>
-      <c r="M34" s="66" t="s">
+      <c r="M34" s="67" t="s">
         <v>1439</v>
       </c>
-      <c r="N34" s="66"/>
-      <c r="O34" s="66" t="s">
+      <c r="N34" s="67"/>
+      <c r="O34" s="67" t="s">
         <v>1414</v>
       </c>
-      <c r="P34" s="66" t="s">
+      <c r="P34" s="67" t="s">
         <v>1440</v>
       </c>
-      <c r="Q34" s="66" t="s">
+      <c r="Q34" s="67" t="s">
         <v>1442</v>
       </c>
-      <c r="R34" s="66" t="s">
+      <c r="R34" s="67" t="s">
         <v>1443</v>
       </c>
       <c r="S34" s="33"/>
@@ -12853,60 +12850,60 @@
     <row r="35" spans="2:22" s="37" customFormat="1" ht="60" customHeight="1">
       <c r="B35" s="14"/>
       <c r="C35" s="36"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="64"/>
-      <c r="F35" s="64"/>
-      <c r="G35" s="64"/>
-      <c r="H35" s="64"/>
-      <c r="I35" s="64"/>
-      <c r="J35" s="64"/>
-      <c r="K35" s="64"/>
-      <c r="L35" s="64"/>
-      <c r="M35" s="64"/>
-      <c r="N35" s="64"/>
-      <c r="O35" s="64"/>
-      <c r="P35" s="64"/>
-      <c r="Q35" s="16"/>
-      <c r="R35" s="16"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="65"/>
+      <c r="H35" s="65"/>
+      <c r="I35" s="65"/>
+      <c r="J35" s="65"/>
+      <c r="K35" s="65"/>
+      <c r="L35" s="65"/>
+      <c r="M35" s="65"/>
+      <c r="N35" s="65"/>
+      <c r="O35" s="65"/>
+      <c r="P35" s="65"/>
+      <c r="Q35" s="65"/>
+      <c r="R35" s="65"/>
       <c r="V35" s="38"/>
     </row>
     <row r="36" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B36" s="19"/>
-      <c r="D36" s="65" t="s">
+      <c r="D36" s="66" t="s">
         <v>371</v>
       </c>
-      <c r="E36" s="65" t="s">
+      <c r="E36" s="66" t="s">
         <v>1444</v>
       </c>
-      <c r="F36" s="65"/>
-      <c r="G36" s="65" t="s">
+      <c r="F36" s="66"/>
+      <c r="G36" s="66" t="s">
         <v>1441</v>
       </c>
-      <c r="H36" s="65" t="s">
+      <c r="H36" s="66" t="s">
         <v>1446</v>
       </c>
-      <c r="I36" s="65" t="s">
+      <c r="I36" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="J36" s="65" t="s">
+      <c r="J36" s="66" t="s">
         <v>362</v>
       </c>
-      <c r="K36" s="65" t="s">
+      <c r="K36" s="66" t="s">
         <v>1340</v>
       </c>
-      <c r="L36" s="65" t="s">
+      <c r="L36" s="66" t="s">
         <v>1342</v>
       </c>
-      <c r="M36" s="65" t="s">
+      <c r="M36" s="66" t="s">
         <v>1356</v>
       </c>
-      <c r="N36" s="65" t="s">
+      <c r="N36" s="66" t="s">
         <v>1358</v>
       </c>
-      <c r="O36" s="65"/>
-      <c r="P36" s="65"/>
-      <c r="Q36" s="20"/>
-      <c r="R36" s="20"/>
+      <c r="O36" s="66"/>
+      <c r="P36" s="66"/>
+      <c r="Q36" s="66"/>
+      <c r="R36" s="66"/>
       <c r="S36" s="21"/>
       <c r="V36" s="9"/>
     </row>
@@ -12915,37 +12912,37 @@
         <f>B33+1</f>
         <v>9</v>
       </c>
-      <c r="D37" s="50" t="s">
+      <c r="D37" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="E37" s="50" t="s">
+      <c r="E37" s="60" t="s">
         <v>1239</v>
       </c>
       <c r="F37" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="G37" s="50" t="s">
+      <c r="G37" s="60" t="s">
         <v>1238</v>
       </c>
-      <c r="H37" s="50" t="s">
+      <c r="H37" s="60" t="s">
         <v>1240</v>
       </c>
-      <c r="I37" s="50" t="s">
+      <c r="I37" s="60" t="s">
         <v>1193</v>
       </c>
-      <c r="J37" s="50" t="s">
+      <c r="J37" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="K37" s="50" t="s">
+      <c r="K37" s="60" t="s">
         <v>1186</v>
       </c>
-      <c r="L37" s="50" t="s">
+      <c r="L37" s="60" t="s">
         <v>1187</v>
       </c>
-      <c r="M37" s="50" t="s">
+      <c r="M37" s="60" t="s">
         <v>1195</v>
       </c>
-      <c r="N37" s="50" t="s">
+      <c r="N37" s="60" t="s">
         <v>1196</v>
       </c>
       <c r="O37" s="60" t="s">
@@ -12963,81 +12960,81 @@
     </row>
     <row r="38" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B38" s="24"/>
-      <c r="D38" s="66" t="s">
+      <c r="D38" s="67" t="s">
         <v>1440</v>
       </c>
-      <c r="E38" s="66" t="s">
+      <c r="E38" s="67" t="s">
         <v>1445</v>
       </c>
-      <c r="F38" s="66"/>
-      <c r="G38" s="66" t="s">
+      <c r="F38" s="67"/>
+      <c r="G38" s="67" t="s">
         <v>1442</v>
       </c>
-      <c r="H38" s="66" t="s">
+      <c r="H38" s="67" t="s">
         <v>1447</v>
       </c>
-      <c r="I38" s="66" t="s">
+      <c r="I38" s="67" t="s">
         <v>1353</v>
       </c>
-      <c r="J38" s="66" t="s">
+      <c r="J38" s="67" t="s">
         <v>1338</v>
       </c>
-      <c r="K38" s="66" t="s">
+      <c r="K38" s="67" t="s">
         <v>1341</v>
       </c>
-      <c r="L38" s="66" t="s">
+      <c r="L38" s="67" t="s">
         <v>1343</v>
       </c>
-      <c r="M38" s="66" t="s">
+      <c r="M38" s="67" t="s">
         <v>1357</v>
       </c>
-      <c r="N38" s="66" t="s">
+      <c r="N38" s="67" t="s">
         <v>1359</v>
       </c>
-      <c r="O38" s="66"/>
-      <c r="P38" s="66"/>
-      <c r="Q38" s="26"/>
-      <c r="R38" s="26"/>
+      <c r="O38" s="67"/>
+      <c r="P38" s="67"/>
+      <c r="Q38" s="67"/>
+      <c r="R38" s="67"/>
       <c r="S38" s="33"/>
       <c r="V38" s="9"/>
     </row>
     <row r="39" spans="2:22" s="37" customFormat="1" ht="60" customHeight="1">
       <c r="B39" s="14"/>
       <c r="C39" s="36"/>
-      <c r="D39" s="64"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="16"/>
-      <c r="N39" s="16"/>
-      <c r="O39" s="16"/>
-      <c r="P39" s="16"/>
-      <c r="Q39" s="16"/>
-      <c r="R39" s="16"/>
+      <c r="D39" s="65"/>
+      <c r="E39" s="65"/>
+      <c r="F39" s="65"/>
+      <c r="G39" s="65"/>
+      <c r="H39" s="65"/>
+      <c r="I39" s="65"/>
+      <c r="J39" s="65"/>
+      <c r="K39" s="65"/>
+      <c r="L39" s="65"/>
+      <c r="M39" s="65"/>
+      <c r="N39" s="65"/>
+      <c r="O39" s="65"/>
+      <c r="P39" s="65"/>
+      <c r="Q39" s="65"/>
+      <c r="R39" s="65"/>
       <c r="V39" s="38"/>
     </row>
     <row r="40" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B40" s="19"/>
-      <c r="D40" s="65"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="20"/>
-      <c r="L40" s="20"/>
-      <c r="M40" s="20"/>
-      <c r="N40" s="20"/>
-      <c r="O40" s="20"/>
-      <c r="P40" s="20"/>
-      <c r="Q40" s="20"/>
-      <c r="R40" s="20"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="66"/>
+      <c r="H40" s="66"/>
+      <c r="I40" s="66"/>
+      <c r="J40" s="66"/>
+      <c r="K40" s="66"/>
+      <c r="L40" s="66"/>
+      <c r="M40" s="66"/>
+      <c r="N40" s="66"/>
+      <c r="O40" s="66"/>
+      <c r="P40" s="66"/>
+      <c r="Q40" s="66"/>
+      <c r="R40" s="66"/>
       <c r="S40" s="21"/>
       <c r="V40" s="9"/>
     </row>
@@ -13070,85 +13067,85 @@
     </row>
     <row r="42" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B42" s="24"/>
-      <c r="D42" s="66"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="26"/>
-      <c r="K42" s="26"/>
-      <c r="L42" s="26"/>
-      <c r="M42" s="26"/>
-      <c r="N42" s="26"/>
-      <c r="O42" s="26"/>
-      <c r="P42" s="26"/>
-      <c r="Q42" s="26"/>
-      <c r="R42" s="26"/>
+      <c r="D42" s="67"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="67"/>
+      <c r="H42" s="67"/>
+      <c r="I42" s="67"/>
+      <c r="J42" s="67"/>
+      <c r="K42" s="67"/>
+      <c r="L42" s="67"/>
+      <c r="M42" s="67"/>
+      <c r="N42" s="67"/>
+      <c r="O42" s="67"/>
+      <c r="P42" s="67"/>
+      <c r="Q42" s="67"/>
+      <c r="R42" s="67"/>
       <c r="S42" s="33"/>
       <c r="V42" s="9"/>
     </row>
     <row r="43" spans="2:22" s="37" customFormat="1" ht="60" customHeight="1">
       <c r="B43" s="14"/>
       <c r="C43" s="36"/>
-      <c r="D43" s="64"/>
-      <c r="E43" s="64"/>
-      <c r="F43" s="64"/>
-      <c r="G43" s="64"/>
-      <c r="H43" s="64"/>
-      <c r="I43" s="64"/>
-      <c r="J43" s="64"/>
-      <c r="K43" s="64"/>
-      <c r="L43" s="64"/>
-      <c r="M43" s="64"/>
-      <c r="N43" s="64"/>
-      <c r="O43" s="64"/>
-      <c r="P43" s="64"/>
-      <c r="Q43" s="64"/>
-      <c r="R43" s="64"/>
+      <c r="D43" s="65"/>
+      <c r="E43" s="65"/>
+      <c r="F43" s="65"/>
+      <c r="G43" s="65"/>
+      <c r="H43" s="65"/>
+      <c r="I43" s="65"/>
+      <c r="J43" s="65"/>
+      <c r="K43" s="65"/>
+      <c r="L43" s="65"/>
+      <c r="M43" s="65"/>
+      <c r="N43" s="65"/>
+      <c r="O43" s="65"/>
+      <c r="P43" s="65"/>
+      <c r="Q43" s="65"/>
+      <c r="R43" s="65"/>
       <c r="V43" s="38"/>
     </row>
     <row r="44" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B44" s="19"/>
-      <c r="D44" s="65" t="s">
+      <c r="D44" s="66" t="s">
         <v>1344</v>
       </c>
-      <c r="E44" s="65" t="s">
+      <c r="E44" s="66" t="s">
         <v>1448</v>
       </c>
-      <c r="F44" s="65" t="s">
+      <c r="F44" s="66" t="s">
         <v>1450</v>
       </c>
-      <c r="G44" s="65" t="s">
+      <c r="G44" s="66" t="s">
         <v>1448</v>
       </c>
-      <c r="H44" s="65" t="s">
+      <c r="H44" s="66" t="s">
         <v>1452</v>
       </c>
-      <c r="I44" s="65"/>
-      <c r="J44" s="65" t="s">
+      <c r="I44" s="66"/>
+      <c r="J44" s="66" t="s">
         <v>1321</v>
       </c>
-      <c r="K44" s="65" t="s">
+      <c r="K44" s="66" t="s">
         <v>1454</v>
       </c>
-      <c r="L44" s="65" t="s">
+      <c r="L44" s="66" t="s">
         <v>1450</v>
       </c>
-      <c r="M44" s="65" t="s">
+      <c r="M44" s="66" t="s">
         <v>1456</v>
       </c>
-      <c r="N44" s="65" t="s">
+      <c r="N44" s="66" t="s">
         <v>355</v>
       </c>
-      <c r="O44" s="65"/>
-      <c r="P44" s="65" t="s">
+      <c r="O44" s="66"/>
+      <c r="P44" s="66" t="s">
         <v>1458</v>
       </c>
-      <c r="Q44" s="65" t="s">
+      <c r="Q44" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="R44" s="65" t="s">
+      <c r="R44" s="66" t="s">
         <v>1460</v>
       </c>
       <c r="S44" s="21"/>
@@ -13159,49 +13156,49 @@
         <f>B41+1</f>
         <v>11</v>
       </c>
-      <c r="D45" s="50" t="s">
+      <c r="D45" s="60" t="s">
         <v>1188</v>
       </c>
-      <c r="E45" s="50" t="s">
+      <c r="E45" s="60" t="s">
         <v>1241</v>
       </c>
-      <c r="F45" s="50" t="s">
+      <c r="F45" s="60" t="s">
         <v>1242</v>
       </c>
-      <c r="G45" s="50" t="s">
+      <c r="G45" s="60" t="s">
         <v>1241</v>
       </c>
-      <c r="H45" s="50" t="s">
+      <c r="H45" s="60" t="s">
         <v>1243</v>
       </c>
       <c r="I45" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="J45" s="50" t="s">
+      <c r="J45" s="60" t="s">
         <v>1244</v>
       </c>
-      <c r="K45" s="50" t="s">
+      <c r="K45" s="60" t="s">
         <v>1245</v>
       </c>
-      <c r="L45" s="50" t="s">
+      <c r="L45" s="60" t="s">
         <v>1242</v>
       </c>
-      <c r="M45" s="50" t="s">
+      <c r="M45" s="60" t="s">
         <v>1246</v>
       </c>
-      <c r="N45" s="50" t="s">
+      <c r="N45" s="60" t="s">
         <v>125</v>
       </c>
       <c r="O45" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="P45" s="50" t="s">
+      <c r="P45" s="60" t="s">
         <v>1247</v>
       </c>
-      <c r="Q45" s="50" t="s">
+      <c r="Q45" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="R45" s="50" t="s">
+      <c r="R45" s="60" t="s">
         <v>1248</v>
       </c>
       <c r="S45" s="23"/>
@@ -13209,45 +13206,45 @@
     </row>
     <row r="46" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B46" s="24"/>
-      <c r="D46" s="66" t="s">
+      <c r="D46" s="67" t="s">
         <v>1345</v>
       </c>
-      <c r="E46" s="66" t="s">
+      <c r="E46" s="67" t="s">
         <v>1449</v>
       </c>
-      <c r="F46" s="66" t="s">
+      <c r="F46" s="67" t="s">
         <v>1451</v>
       </c>
-      <c r="G46" s="66" t="s">
+      <c r="G46" s="67" t="s">
         <v>1449</v>
       </c>
-      <c r="H46" s="66" t="s">
+      <c r="H46" s="67" t="s">
         <v>1453</v>
       </c>
-      <c r="I46" s="66"/>
-      <c r="J46" s="66" t="s">
+      <c r="I46" s="67"/>
+      <c r="J46" s="67" t="s">
         <v>1322</v>
       </c>
-      <c r="K46" s="66" t="s">
+      <c r="K46" s="67" t="s">
         <v>1455</v>
       </c>
-      <c r="L46" s="66" t="s">
+      <c r="L46" s="67" t="s">
         <v>1451</v>
       </c>
-      <c r="M46" s="66" t="s">
+      <c r="M46" s="67" t="s">
         <v>1457</v>
       </c>
-      <c r="N46" s="66" t="s">
+      <c r="N46" s="67" t="s">
         <v>1413</v>
       </c>
-      <c r="O46" s="66"/>
-      <c r="P46" s="66" t="s">
+      <c r="O46" s="67"/>
+      <c r="P46" s="67" t="s">
         <v>1459</v>
       </c>
-      <c r="Q46" s="66" t="s">
+      <c r="Q46" s="67" t="s">
         <v>1417</v>
       </c>
-      <c r="R46" s="66" t="s">
+      <c r="R46" s="67" t="s">
         <v>1461</v>
       </c>
       <c r="S46" s="33"/>
@@ -13256,64 +13253,64 @@
     <row r="47" spans="2:22" s="37" customFormat="1" ht="60" customHeight="1">
       <c r="B47" s="14"/>
       <c r="C47" s="36"/>
-      <c r="D47" s="64"/>
-      <c r="E47" s="64"/>
-      <c r="F47" s="64"/>
-      <c r="G47" s="64"/>
-      <c r="H47" s="64"/>
-      <c r="I47" s="64"/>
-      <c r="J47" s="64"/>
-      <c r="K47" s="64"/>
-      <c r="L47" s="64"/>
-      <c r="M47" s="64"/>
-      <c r="N47" s="64"/>
-      <c r="O47" s="64"/>
-      <c r="P47" s="64"/>
-      <c r="Q47" s="64"/>
-      <c r="R47" s="64"/>
+      <c r="D47" s="65"/>
+      <c r="E47" s="65"/>
+      <c r="F47" s="65"/>
+      <c r="G47" s="65"/>
+      <c r="H47" s="65"/>
+      <c r="I47" s="65"/>
+      <c r="J47" s="65"/>
+      <c r="K47" s="65"/>
+      <c r="L47" s="65"/>
+      <c r="M47" s="65"/>
+      <c r="N47" s="65"/>
+      <c r="O47" s="65"/>
+      <c r="P47" s="65"/>
+      <c r="Q47" s="65"/>
+      <c r="R47" s="65"/>
       <c r="V47" s="38"/>
     </row>
     <row r="48" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B48" s="19"/>
-      <c r="D48" s="65" t="s">
+      <c r="D48" s="66" t="s">
         <v>1411</v>
       </c>
-      <c r="E48" s="65" t="s">
+      <c r="E48" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="F48" s="65" t="s">
+      <c r="F48" s="66" t="s">
         <v>468</v>
       </c>
-      <c r="G48" s="65"/>
-      <c r="H48" s="65" t="s">
+      <c r="G48" s="66"/>
+      <c r="H48" s="66" t="s">
         <v>352</v>
       </c>
-      <c r="I48" s="65" t="s">
+      <c r="I48" s="66" t="s">
         <v>1404</v>
       </c>
-      <c r="J48" s="65" t="s">
+      <c r="J48" s="66" t="s">
         <v>348</v>
       </c>
-      <c r="K48" s="65"/>
-      <c r="L48" s="65" t="s">
+      <c r="K48" s="66"/>
+      <c r="L48" s="66" t="s">
         <v>1462</v>
       </c>
-      <c r="M48" s="65" t="s">
+      <c r="M48" s="66" t="s">
         <v>1464</v>
       </c>
-      <c r="N48" s="65" t="s">
+      <c r="N48" s="66" t="s">
         <v>350</v>
       </c>
-      <c r="O48" s="65" t="s">
+      <c r="O48" s="66" t="s">
         <v>1466</v>
       </c>
-      <c r="P48" s="65" t="s">
+      <c r="P48" s="66" t="s">
         <v>1468</v>
       </c>
-      <c r="Q48" s="65" t="s">
+      <c r="Q48" s="66" t="s">
         <v>1470</v>
       </c>
-      <c r="R48" s="65" t="s">
+      <c r="R48" s="66" t="s">
         <v>1472</v>
       </c>
       <c r="S48" s="21"/>
@@ -13324,49 +13321,49 @@
         <f>B45+1</f>
         <v>12</v>
       </c>
-      <c r="D49" s="50" t="s">
+      <c r="D49" s="60" t="s">
         <v>1224</v>
       </c>
-      <c r="E49" s="50" t="s">
+      <c r="E49" s="60" t="s">
         <v>1225</v>
       </c>
-      <c r="F49" s="50" t="s">
+      <c r="F49" s="60" t="s">
         <v>268</v>
       </c>
       <c r="G49" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="H49" s="50" t="s">
+      <c r="H49" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="I49" s="50" t="s">
+      <c r="I49" s="60" t="s">
         <v>1220</v>
       </c>
-      <c r="J49" s="50" t="s">
+      <c r="J49" s="60" t="s">
         <v>1221</v>
       </c>
       <c r="K49" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="L49" s="50" t="s">
+      <c r="L49" s="60" t="s">
         <v>1249</v>
       </c>
-      <c r="M49" s="50" t="s">
+      <c r="M49" s="60" t="s">
         <v>1250</v>
       </c>
-      <c r="N49" s="50" t="s">
+      <c r="N49" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="O49" s="50" t="s">
+      <c r="O49" s="60" t="s">
         <v>1251</v>
       </c>
-      <c r="P49" s="50" t="s">
+      <c r="P49" s="60" t="s">
         <v>1252</v>
       </c>
-      <c r="Q49" s="50" t="s">
+      <c r="Q49" s="60" t="s">
         <v>1253</v>
       </c>
-      <c r="R49" s="50" t="s">
+      <c r="R49" s="60" t="s">
         <v>1254</v>
       </c>
       <c r="S49" s="23"/>
@@ -13374,45 +13371,45 @@
     </row>
     <row r="50" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B50" s="24"/>
-      <c r="D50" s="66" t="s">
+      <c r="D50" s="67" t="s">
         <v>1412</v>
       </c>
-      <c r="E50" s="66" t="s">
+      <c r="E50" s="67" t="s">
         <v>1325</v>
       </c>
-      <c r="F50" s="66" t="s">
+      <c r="F50" s="67" t="s">
         <v>1430</v>
       </c>
-      <c r="G50" s="66"/>
-      <c r="H50" s="66" t="s">
+      <c r="G50" s="67"/>
+      <c r="H50" s="67" t="s">
         <v>1361</v>
       </c>
-      <c r="I50" s="66" t="s">
+      <c r="I50" s="67" t="s">
         <v>1405</v>
       </c>
-      <c r="J50" s="66" t="s">
+      <c r="J50" s="67" t="s">
         <v>1406</v>
       </c>
-      <c r="K50" s="66"/>
-      <c r="L50" s="66" t="s">
+      <c r="K50" s="67"/>
+      <c r="L50" s="67" t="s">
         <v>1463</v>
       </c>
-      <c r="M50" s="66" t="s">
+      <c r="M50" s="67" t="s">
         <v>1465</v>
       </c>
-      <c r="N50" s="66" t="s">
+      <c r="N50" s="67" t="s">
         <v>1330</v>
       </c>
-      <c r="O50" s="66" t="s">
+      <c r="O50" s="67" t="s">
         <v>1467</v>
       </c>
-      <c r="P50" s="66" t="s">
+      <c r="P50" s="67" t="s">
         <v>1469</v>
       </c>
-      <c r="Q50" s="66" t="s">
+      <c r="Q50" s="67" t="s">
         <v>1471</v>
       </c>
-      <c r="R50" s="66" t="s">
+      <c r="R50" s="67" t="s">
         <v>1473</v>
       </c>
       <c r="S50" s="33"/>
@@ -13421,64 +13418,64 @@
     <row r="51" spans="2:22" s="37" customFormat="1" ht="60" customHeight="1">
       <c r="B51" s="14"/>
       <c r="C51" s="36"/>
-      <c r="D51" s="64"/>
-      <c r="E51" s="64"/>
-      <c r="F51" s="64"/>
-      <c r="G51" s="64"/>
-      <c r="H51" s="64"/>
-      <c r="I51" s="64"/>
-      <c r="J51" s="64"/>
-      <c r="K51" s="64"/>
-      <c r="L51" s="64"/>
-      <c r="M51" s="64"/>
-      <c r="N51" s="64"/>
-      <c r="O51" s="64"/>
-      <c r="P51" s="64"/>
-      <c r="Q51" s="64"/>
-      <c r="R51" s="64"/>
+      <c r="D51" s="65"/>
+      <c r="E51" s="65"/>
+      <c r="F51" s="65"/>
+      <c r="G51" s="65"/>
+      <c r="H51" s="65"/>
+      <c r="I51" s="65"/>
+      <c r="J51" s="65"/>
+      <c r="K51" s="65"/>
+      <c r="L51" s="65"/>
+      <c r="M51" s="65"/>
+      <c r="N51" s="65"/>
+      <c r="O51" s="65"/>
+      <c r="P51" s="65"/>
+      <c r="Q51" s="65"/>
+      <c r="R51" s="65"/>
       <c r="V51" s="38"/>
     </row>
     <row r="52" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B52" s="19"/>
-      <c r="D52" s="65" t="s">
+      <c r="D52" s="66" t="s">
         <v>355</v>
       </c>
-      <c r="E52" s="65" t="s">
+      <c r="E52" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="F52" s="65"/>
-      <c r="G52" s="65" t="s">
+      <c r="F52" s="66"/>
+      <c r="G52" s="66" t="s">
         <v>1474</v>
       </c>
-      <c r="H52" s="65" t="s">
+      <c r="H52" s="66" t="s">
         <v>1476</v>
       </c>
-      <c r="I52" s="65" t="s">
+      <c r="I52" s="66" t="s">
         <v>514</v>
       </c>
-      <c r="J52" s="65" t="s">
+      <c r="J52" s="66" t="s">
         <v>1479</v>
       </c>
-      <c r="K52" s="65"/>
-      <c r="L52" s="65" t="s">
+      <c r="K52" s="66"/>
+      <c r="L52" s="66" t="s">
         <v>1356</v>
       </c>
-      <c r="M52" s="65" t="s">
+      <c r="M52" s="66" t="s">
         <v>1358</v>
       </c>
-      <c r="N52" s="65" t="s">
+      <c r="N52" s="66" t="s">
         <v>1481</v>
       </c>
-      <c r="O52" s="65" t="s">
+      <c r="O52" s="66" t="s">
         <v>1483</v>
       </c>
-      <c r="P52" s="65" t="s">
+      <c r="P52" s="66" t="s">
         <v>471</v>
       </c>
-      <c r="Q52" s="65" t="s">
+      <c r="Q52" s="66" t="s">
         <v>401</v>
       </c>
-      <c r="R52" s="65"/>
+      <c r="R52" s="66"/>
       <c r="S52" s="21"/>
       <c r="V52" s="9"/>
     </row>
@@ -13487,46 +13484,46 @@
         <f>B49+1</f>
         <v>13</v>
       </c>
-      <c r="D53" s="50" t="s">
+      <c r="D53" s="60" t="s">
         <v>125</v>
       </c>
-      <c r="E53" s="50" t="s">
+      <c r="E53" s="60" t="s">
         <v>26</v>
       </c>
       <c r="F53" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="G53" s="50" t="s">
+      <c r="G53" s="60" t="s">
         <v>1255</v>
       </c>
-      <c r="H53" s="50" t="s">
+      <c r="H53" s="60" t="s">
         <v>1256</v>
       </c>
-      <c r="I53" s="50" t="s">
+      <c r="I53" s="60" t="s">
         <v>1257</v>
       </c>
-      <c r="J53" s="50" t="s">
+      <c r="J53" s="60" t="s">
         <v>1258</v>
       </c>
       <c r="K53" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="L53" s="50" t="s">
+      <c r="L53" s="60" t="s">
         <v>1195</v>
       </c>
-      <c r="M53" s="50" t="s">
+      <c r="M53" s="60" t="s">
         <v>1196</v>
       </c>
-      <c r="N53" s="50" t="s">
+      <c r="N53" s="60" t="s">
         <v>1259</v>
       </c>
-      <c r="O53" s="50" t="s">
+      <c r="O53" s="60" t="s">
         <v>1260</v>
       </c>
-      <c r="P53" s="50" t="s">
+      <c r="P53" s="60" t="s">
         <v>272</v>
       </c>
-      <c r="Q53" s="50" t="s">
+      <c r="Q53" s="60" t="s">
         <v>1261</v>
       </c>
       <c r="R53" s="60" t="s">
@@ -13537,109 +13534,109 @@
     </row>
     <row r="54" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B54" s="24"/>
-      <c r="D54" s="66" t="s">
+      <c r="D54" s="67" t="s">
         <v>1413</v>
       </c>
-      <c r="E54" s="66" t="s">
+      <c r="E54" s="67" t="s">
         <v>1428</v>
       </c>
-      <c r="F54" s="66"/>
-      <c r="G54" s="66" t="s">
+      <c r="F54" s="67"/>
+      <c r="G54" s="67" t="s">
         <v>1475</v>
       </c>
-      <c r="H54" s="66" t="s">
+      <c r="H54" s="67" t="s">
         <v>1477</v>
       </c>
-      <c r="I54" s="66" t="s">
+      <c r="I54" s="67" t="s">
         <v>1478</v>
       </c>
-      <c r="J54" s="66" t="s">
+      <c r="J54" s="67" t="s">
         <v>1480</v>
       </c>
-      <c r="K54" s="66"/>
-      <c r="L54" s="66" t="s">
+      <c r="K54" s="67"/>
+      <c r="L54" s="67" t="s">
         <v>1357</v>
       </c>
-      <c r="M54" s="66" t="s">
+      <c r="M54" s="67" t="s">
         <v>1359</v>
       </c>
-      <c r="N54" s="66" t="s">
+      <c r="N54" s="67" t="s">
         <v>1482</v>
       </c>
-      <c r="O54" s="66" t="s">
+      <c r="O54" s="67" t="s">
         <v>1484</v>
       </c>
-      <c r="P54" s="66" t="s">
+      <c r="P54" s="67" t="s">
         <v>1485</v>
       </c>
-      <c r="Q54" s="66" t="s">
+      <c r="Q54" s="67" t="s">
         <v>1486</v>
       </c>
-      <c r="R54" s="66"/>
+      <c r="R54" s="67"/>
       <c r="S54" s="33"/>
       <c r="V54" s="9"/>
     </row>
     <row r="55" spans="2:22" s="37" customFormat="1" ht="60" customHeight="1">
       <c r="B55" s="14"/>
       <c r="C55" s="36"/>
-      <c r="D55" s="64"/>
-      <c r="E55" s="64"/>
-      <c r="F55" s="64"/>
-      <c r="G55" s="64"/>
-      <c r="H55" s="64"/>
-      <c r="I55" s="64"/>
-      <c r="J55" s="64"/>
-      <c r="K55" s="64"/>
-      <c r="L55" s="64"/>
-      <c r="M55" s="64"/>
-      <c r="N55" s="64"/>
-      <c r="O55" s="64"/>
-      <c r="P55" s="64"/>
-      <c r="Q55" s="64"/>
-      <c r="R55" s="64"/>
+      <c r="D55" s="65"/>
+      <c r="E55" s="65"/>
+      <c r="F55" s="65"/>
+      <c r="G55" s="65"/>
+      <c r="H55" s="65"/>
+      <c r="I55" s="65"/>
+      <c r="J55" s="65"/>
+      <c r="K55" s="65"/>
+      <c r="L55" s="65"/>
+      <c r="M55" s="65"/>
+      <c r="N55" s="65"/>
+      <c r="O55" s="65"/>
+      <c r="P55" s="65"/>
+      <c r="Q55" s="65"/>
+      <c r="R55" s="65"/>
       <c r="V55" s="38"/>
     </row>
     <row r="56" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B56" s="19"/>
-      <c r="D56" s="65" t="s">
+      <c r="D56" s="66" t="s">
         <v>1487</v>
       </c>
-      <c r="E56" s="65" t="s">
+      <c r="E56" s="66" t="s">
         <v>1489</v>
       </c>
-      <c r="F56" s="65" t="s">
+      <c r="F56" s="66" t="s">
         <v>394</v>
       </c>
-      <c r="G56" s="65" t="s">
+      <c r="G56" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="H56" s="65" t="s">
+      <c r="H56" s="66" t="s">
         <v>1492</v>
       </c>
-      <c r="I56" s="65" t="s">
+      <c r="I56" s="66" t="s">
         <v>438</v>
       </c>
-      <c r="J56" s="65" t="s">
+      <c r="J56" s="66" t="s">
         <v>364</v>
       </c>
-      <c r="K56" s="65" t="s">
+      <c r="K56" s="66" t="s">
         <v>1495</v>
       </c>
-      <c r="L56" s="65" t="s">
+      <c r="L56" s="66" t="s">
         <v>1497</v>
       </c>
-      <c r="M56" s="65" t="s">
+      <c r="M56" s="66" t="s">
         <v>1499</v>
       </c>
-      <c r="N56" s="65"/>
-      <c r="O56" s="65" t="s">
+      <c r="N56" s="66"/>
+      <c r="O56" s="66" t="s">
         <v>1476</v>
       </c>
-      <c r="P56" s="65" t="s">
+      <c r="P56" s="66" t="s">
         <v>1437</v>
       </c>
-      <c r="Q56" s="65"/>
-      <c r="R56" s="65" t="s">
+      <c r="Q56" s="66"/>
+      <c r="R56" s="66" t="s">
         <v>1344</v>
       </c>
       <c r="S56" s="21"/>
@@ -13650,49 +13647,49 @@
         <f>B53+1</f>
         <v>14</v>
       </c>
-      <c r="D57" s="50" t="s">
+      <c r="D57" s="60" t="s">
         <v>1262</v>
       </c>
-      <c r="E57" s="50" t="s">
+      <c r="E57" s="60" t="s">
         <v>1263</v>
       </c>
-      <c r="F57" s="50" t="s">
+      <c r="F57" s="60" t="s">
         <v>1203</v>
       </c>
-      <c r="G57" s="68" t="s">
+      <c r="G57" s="62" t="s">
         <v>228</v>
       </c>
-      <c r="H57" s="50" t="s">
+      <c r="H57" s="60" t="s">
         <v>1264</v>
       </c>
-      <c r="I57" s="50" t="s">
+      <c r="I57" s="60" t="s">
         <v>227</v>
       </c>
-      <c r="J57" s="50" t="s">
+      <c r="J57" s="60" t="s">
         <v>1265</v>
       </c>
-      <c r="K57" s="50" t="s">
+      <c r="K57" s="60" t="s">
         <v>1266</v>
       </c>
-      <c r="L57" s="50" t="s">
+      <c r="L57" s="60" t="s">
         <v>1267</v>
       </c>
-      <c r="M57" s="50" t="s">
+      <c r="M57" s="60" t="s">
         <v>1268</v>
       </c>
       <c r="N57" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="O57" s="50" t="s">
+      <c r="O57" s="60" t="s">
         <v>1256</v>
       </c>
-      <c r="P57" s="50" t="s">
+      <c r="P57" s="60" t="s">
         <v>1236</v>
       </c>
       <c r="Q57" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="R57" s="50" t="s">
+      <c r="R57" s="60" t="s">
         <v>1188</v>
       </c>
       <c r="S57" s="23"/>
@@ -13700,45 +13697,45 @@
     </row>
     <row r="58" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B58" s="24"/>
-      <c r="D58" s="66" t="s">
+      <c r="D58" s="67" t="s">
         <v>1488</v>
       </c>
-      <c r="E58" s="66" t="s">
+      <c r="E58" s="67" t="s">
         <v>1490</v>
       </c>
-      <c r="F58" s="66" t="s">
+      <c r="F58" s="67" t="s">
         <v>1369</v>
       </c>
-      <c r="G58" s="66" t="s">
+      <c r="G58" s="67" t="s">
         <v>1491</v>
       </c>
-      <c r="H58" s="66" t="s">
+      <c r="H58" s="67" t="s">
         <v>1493</v>
       </c>
-      <c r="I58" s="66" t="s">
+      <c r="I58" s="67" t="s">
         <v>1494</v>
       </c>
-      <c r="J58" s="66" t="s">
+      <c r="J58" s="67" t="s">
         <v>1364</v>
       </c>
-      <c r="K58" s="66" t="s">
+      <c r="K58" s="67" t="s">
         <v>1496</v>
       </c>
-      <c r="L58" s="66" t="s">
+      <c r="L58" s="67" t="s">
         <v>1498</v>
       </c>
-      <c r="M58" s="66" t="s">
+      <c r="M58" s="67" t="s">
         <v>1500</v>
       </c>
-      <c r="N58" s="66"/>
-      <c r="O58" s="66" t="s">
+      <c r="N58" s="67"/>
+      <c r="O58" s="67" t="s">
         <v>1477</v>
       </c>
-      <c r="P58" s="66" t="s">
+      <c r="P58" s="67" t="s">
         <v>1438</v>
       </c>
-      <c r="Q58" s="66"/>
-      <c r="R58" s="66" t="s">
+      <c r="Q58" s="67"/>
+      <c r="R58" s="67" t="s">
         <v>1345</v>
       </c>
       <c r="S58" s="33"/>
@@ -13747,64 +13744,64 @@
     <row r="59" spans="2:22" s="37" customFormat="1" ht="60" customHeight="1">
       <c r="B59" s="14"/>
       <c r="C59" s="36"/>
-      <c r="D59" s="64"/>
-      <c r="E59" s="64"/>
-      <c r="F59" s="64"/>
-      <c r="G59" s="64"/>
-      <c r="H59" s="64"/>
-      <c r="I59" s="64"/>
-      <c r="J59" s="64"/>
-      <c r="K59" s="64"/>
-      <c r="L59" s="64"/>
-      <c r="M59" s="64"/>
-      <c r="N59" s="64"/>
-      <c r="O59" s="64"/>
-      <c r="P59" s="64"/>
-      <c r="Q59" s="64"/>
-      <c r="R59" s="64"/>
+      <c r="D59" s="65"/>
+      <c r="E59" s="65"/>
+      <c r="F59" s="65"/>
+      <c r="G59" s="65"/>
+      <c r="H59" s="65"/>
+      <c r="I59" s="65"/>
+      <c r="J59" s="65"/>
+      <c r="K59" s="65"/>
+      <c r="L59" s="65"/>
+      <c r="M59" s="65"/>
+      <c r="N59" s="65"/>
+      <c r="O59" s="65"/>
+      <c r="P59" s="65"/>
+      <c r="Q59" s="65"/>
+      <c r="R59" s="65"/>
       <c r="V59" s="38"/>
     </row>
     <row r="60" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B60" s="19"/>
-      <c r="D60" s="65" t="s">
+      <c r="D60" s="66" t="s">
         <v>1501</v>
       </c>
-      <c r="E60" s="65" t="s">
+      <c r="E60" s="66" t="s">
         <v>1354</v>
       </c>
-      <c r="F60" s="65" t="s">
+      <c r="F60" s="66" t="s">
         <v>1356</v>
       </c>
-      <c r="G60" s="65" t="s">
+      <c r="G60" s="66" t="s">
         <v>1358</v>
       </c>
-      <c r="H60" s="65"/>
-      <c r="I60" s="65" t="s">
+      <c r="H60" s="66"/>
+      <c r="I60" s="66" t="s">
         <v>1503</v>
       </c>
-      <c r="J60" s="65" t="s">
+      <c r="J60" s="66" t="s">
         <v>352</v>
       </c>
-      <c r="K60" s="65" t="s">
+      <c r="K60" s="66" t="s">
         <v>1505</v>
       </c>
-      <c r="L60" s="65" t="s">
+      <c r="L60" s="66" t="s">
         <v>1492</v>
       </c>
-      <c r="M60" s="65"/>
-      <c r="N60" s="65" t="s">
+      <c r="M60" s="66"/>
+      <c r="N60" s="66" t="s">
         <v>499</v>
       </c>
-      <c r="O60" s="65" t="s">
+      <c r="O60" s="66" t="s">
         <v>448</v>
       </c>
-      <c r="P60" s="65" t="s">
+      <c r="P60" s="66" t="s">
         <v>1509</v>
       </c>
-      <c r="Q60" s="65" t="s">
+      <c r="Q60" s="66" t="s">
         <v>407</v>
       </c>
-      <c r="R60" s="65"/>
+      <c r="R60" s="66"/>
       <c r="S60" s="21"/>
       <c r="V60" s="9"/>
     </row>
@@ -13813,46 +13810,46 @@
         <f>B57+1</f>
         <v>15</v>
       </c>
-      <c r="D61" s="50" t="s">
+      <c r="D61" s="60" t="s">
         <v>1269</v>
       </c>
-      <c r="E61" s="50" t="s">
+      <c r="E61" s="60" t="s">
         <v>1194</v>
       </c>
-      <c r="F61" s="50" t="s">
+      <c r="F61" s="60" t="s">
         <v>1195</v>
       </c>
-      <c r="G61" s="68" t="s">
+      <c r="G61" s="62" t="s">
         <v>1196</v>
       </c>
       <c r="H61" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="I61" s="50" t="s">
+      <c r="I61" s="60" t="s">
         <v>1270</v>
       </c>
-      <c r="J61" s="50" t="s">
+      <c r="J61" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="K61" s="50" t="s">
+      <c r="K61" s="60" t="s">
         <v>1271</v>
       </c>
-      <c r="L61" s="50" t="s">
+      <c r="L61" s="60" t="s">
         <v>1264</v>
       </c>
       <c r="M61" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="N61" s="50" t="s">
+      <c r="N61" s="60" t="s">
         <v>1272</v>
       </c>
-      <c r="O61" s="50" t="s">
+      <c r="O61" s="60" t="s">
         <v>238</v>
       </c>
-      <c r="P61" s="50" t="s">
+      <c r="P61" s="60" t="s">
         <v>1273</v>
       </c>
-      <c r="Q61" s="50" t="s">
+      <c r="Q61" s="60" t="s">
         <v>188</v>
       </c>
       <c r="R61" s="60" t="s">
@@ -13863,107 +13860,107 @@
     </row>
     <row r="62" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B62" s="24"/>
-      <c r="D62" s="66" t="s">
+      <c r="D62" s="67" t="s">
         <v>1502</v>
       </c>
-      <c r="E62" s="66" t="s">
+      <c r="E62" s="67" t="s">
         <v>1355</v>
       </c>
-      <c r="F62" s="66" t="s">
+      <c r="F62" s="67" t="s">
         <v>1357</v>
       </c>
-      <c r="G62" s="66" t="s">
+      <c r="G62" s="67" t="s">
         <v>1359</v>
       </c>
-      <c r="H62" s="66"/>
-      <c r="I62" s="66" t="s">
+      <c r="H62" s="67"/>
+      <c r="I62" s="67" t="s">
         <v>1504</v>
       </c>
-      <c r="J62" s="66" t="s">
+      <c r="J62" s="67" t="s">
         <v>1361</v>
       </c>
-      <c r="K62" s="66" t="s">
+      <c r="K62" s="67" t="s">
         <v>1506</v>
       </c>
-      <c r="L62" s="66" t="s">
+      <c r="L62" s="67" t="s">
         <v>1493</v>
       </c>
-      <c r="M62" s="66"/>
-      <c r="N62" s="66" t="s">
+      <c r="M62" s="67"/>
+      <c r="N62" s="67" t="s">
         <v>1507</v>
       </c>
-      <c r="O62" s="66" t="s">
+      <c r="O62" s="67" t="s">
         <v>1508</v>
       </c>
-      <c r="P62" s="66" t="s">
+      <c r="P62" s="67" t="s">
         <v>1510</v>
       </c>
-      <c r="Q62" s="66" t="s">
+      <c r="Q62" s="67" t="s">
         <v>1511</v>
       </c>
-      <c r="R62" s="66"/>
+      <c r="R62" s="67"/>
       <c r="S62" s="33"/>
       <c r="V62" s="9"/>
     </row>
     <row r="63" spans="2:22" s="37" customFormat="1" ht="60" customHeight="1">
       <c r="B63" s="14"/>
       <c r="C63" s="36"/>
-      <c r="D63" s="64"/>
-      <c r="E63" s="64"/>
-      <c r="F63" s="64"/>
-      <c r="G63" s="64"/>
-      <c r="H63" s="64"/>
-      <c r="I63" s="64"/>
-      <c r="J63" s="64"/>
-      <c r="K63" s="64"/>
-      <c r="L63" s="64"/>
-      <c r="M63" s="64"/>
-      <c r="N63" s="64"/>
-      <c r="O63" s="64"/>
-      <c r="P63" s="64"/>
-      <c r="Q63" s="64"/>
-      <c r="R63" s="64"/>
+      <c r="D63" s="65"/>
+      <c r="E63" s="65"/>
+      <c r="F63" s="65"/>
+      <c r="G63" s="65"/>
+      <c r="H63" s="65"/>
+      <c r="I63" s="65"/>
+      <c r="J63" s="65"/>
+      <c r="K63" s="65"/>
+      <c r="L63" s="65"/>
+      <c r="M63" s="65"/>
+      <c r="N63" s="65"/>
+      <c r="O63" s="65"/>
+      <c r="P63" s="65"/>
+      <c r="Q63" s="65"/>
+      <c r="R63" s="65"/>
       <c r="V63" s="38"/>
     </row>
     <row r="64" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B64" s="19"/>
-      <c r="D64" s="65" t="s">
+      <c r="D64" s="66" t="s">
         <v>328</v>
       </c>
-      <c r="E64" s="65"/>
-      <c r="F64" s="65" t="s">
+      <c r="E64" s="66"/>
+      <c r="F64" s="66" t="s">
         <v>1512</v>
       </c>
-      <c r="G64" s="65" t="s">
+      <c r="G64" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="H64" s="65" t="s">
+      <c r="H64" s="66" t="s">
         <v>1514</v>
       </c>
-      <c r="I64" s="65" t="s">
+      <c r="I64" s="66" t="s">
         <v>447</v>
       </c>
-      <c r="J64" s="65"/>
-      <c r="K64" s="65" t="s">
+      <c r="J64" s="66"/>
+      <c r="K64" s="66" t="s">
         <v>474</v>
       </c>
-      <c r="L64" s="65" t="s">
+      <c r="L64" s="66" t="s">
         <v>1340</v>
       </c>
-      <c r="M64" s="65" t="s">
+      <c r="M64" s="66" t="s">
         <v>1342</v>
       </c>
-      <c r="N64" s="65" t="s">
+      <c r="N64" s="66" t="s">
         <v>1518</v>
       </c>
-      <c r="O64" s="65" t="s">
+      <c r="O64" s="66" t="s">
         <v>355</v>
       </c>
-      <c r="P64" s="65"/>
-      <c r="Q64" s="65" t="s">
+      <c r="P64" s="66"/>
+      <c r="Q64" s="66" t="s">
         <v>445</v>
       </c>
-      <c r="R64" s="65" t="s">
+      <c r="R64" s="66" t="s">
         <v>1521</v>
       </c>
       <c r="S64" s="21"/>
@@ -13974,49 +13971,49 @@
         <f>B61+1</f>
         <v>16</v>
       </c>
-      <c r="D65" s="50" t="s">
+      <c r="D65" s="60" t="s">
         <v>305</v>
       </c>
       <c r="E65" s="60" t="s">
         <v>306</v>
       </c>
-      <c r="F65" s="50" t="s">
+      <c r="F65" s="60" t="s">
         <v>1274</v>
       </c>
-      <c r="G65" s="68" t="s">
+      <c r="G65" s="62" t="s">
         <v>1237</v>
       </c>
-      <c r="H65" s="50" t="s">
+      <c r="H65" s="60" t="s">
         <v>1275</v>
       </c>
-      <c r="I65" s="50" t="s">
+      <c r="I65" s="60" t="s">
         <v>1276</v>
       </c>
       <c r="J65" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="K65" s="50" t="s">
+      <c r="K65" s="60" t="s">
         <v>276</v>
       </c>
-      <c r="L65" s="50" t="s">
+      <c r="L65" s="60" t="s">
         <v>1186</v>
       </c>
-      <c r="M65" s="50" t="s">
+      <c r="M65" s="60" t="s">
         <v>1187</v>
       </c>
-      <c r="N65" s="50" t="s">
+      <c r="N65" s="60" t="s">
         <v>1277</v>
       </c>
-      <c r="O65" s="50" t="s">
+      <c r="O65" s="60" t="s">
         <v>125</v>
       </c>
       <c r="P65" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="Q65" s="50" t="s">
+      <c r="Q65" s="60" t="s">
         <v>235</v>
       </c>
-      <c r="R65" s="50" t="s">
+      <c r="R65" s="60" t="s">
         <v>1278</v>
       </c>
       <c r="S65" s="23"/>
@@ -14024,43 +14021,43 @@
     </row>
     <row r="66" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B66" s="24"/>
-      <c r="D66" s="66" t="s">
+      <c r="D66" s="67" t="s">
         <v>1400</v>
       </c>
-      <c r="E66" s="66"/>
-      <c r="F66" s="66" t="s">
+      <c r="E66" s="67"/>
+      <c r="F66" s="67" t="s">
         <v>1513</v>
       </c>
-      <c r="G66" s="66" t="s">
+      <c r="G66" s="67" t="s">
         <v>1439</v>
       </c>
-      <c r="H66" s="66" t="s">
+      <c r="H66" s="67" t="s">
         <v>1515</v>
       </c>
-      <c r="I66" s="66" t="s">
+      <c r="I66" s="67" t="s">
         <v>1516</v>
       </c>
-      <c r="J66" s="66"/>
-      <c r="K66" s="66" t="s">
+      <c r="J66" s="67"/>
+      <c r="K66" s="67" t="s">
         <v>1517</v>
       </c>
-      <c r="L66" s="66" t="s">
+      <c r="L66" s="67" t="s">
         <v>1341</v>
       </c>
-      <c r="M66" s="66" t="s">
+      <c r="M66" s="67" t="s">
         <v>1343</v>
       </c>
-      <c r="N66" s="66" t="s">
+      <c r="N66" s="67" t="s">
         <v>1519</v>
       </c>
-      <c r="O66" s="66" t="s">
+      <c r="O66" s="67" t="s">
         <v>1413</v>
       </c>
-      <c r="P66" s="66"/>
-      <c r="Q66" s="66" t="s">
+      <c r="P66" s="67"/>
+      <c r="Q66" s="67" t="s">
         <v>1520</v>
       </c>
-      <c r="R66" s="66" t="s">
+      <c r="R66" s="67" t="s">
         <v>1522</v>
       </c>
       <c r="S66" s="33"/>
@@ -14069,62 +14066,62 @@
     <row r="67" spans="2:22" s="37" customFormat="1" ht="60" customHeight="1">
       <c r="B67" s="14"/>
       <c r="C67" s="36"/>
-      <c r="D67" s="64"/>
-      <c r="E67" s="64"/>
-      <c r="F67" s="64"/>
-      <c r="G67" s="64"/>
-      <c r="H67" s="64"/>
-      <c r="I67" s="64"/>
-      <c r="J67" s="64"/>
-      <c r="K67" s="64"/>
-      <c r="L67" s="64"/>
-      <c r="M67" s="64"/>
-      <c r="N67" s="64"/>
-      <c r="O67" s="64"/>
-      <c r="P67" s="64"/>
-      <c r="Q67" s="64"/>
-      <c r="R67" s="64"/>
+      <c r="D67" s="65"/>
+      <c r="E67" s="65"/>
+      <c r="F67" s="65"/>
+      <c r="G67" s="65"/>
+      <c r="H67" s="65"/>
+      <c r="I67" s="65"/>
+      <c r="J67" s="65"/>
+      <c r="K67" s="65"/>
+      <c r="L67" s="65"/>
+      <c r="M67" s="65"/>
+      <c r="N67" s="65"/>
+      <c r="O67" s="65"/>
+      <c r="P67" s="65"/>
+      <c r="Q67" s="65"/>
+      <c r="R67" s="65"/>
       <c r="V67" s="38"/>
     </row>
     <row r="68" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B68" s="19"/>
-      <c r="D68" s="65"/>
-      <c r="E68" s="65" t="s">
+      <c r="D68" s="66"/>
+      <c r="E68" s="66" t="s">
         <v>1523</v>
       </c>
-      <c r="F68" s="65" t="s">
+      <c r="F68" s="66" t="s">
         <v>514</v>
       </c>
-      <c r="G68" s="65" t="s">
+      <c r="G68" s="66" t="s">
         <v>442</v>
       </c>
-      <c r="H68" s="65" t="s">
+      <c r="H68" s="66" t="s">
         <v>1526</v>
       </c>
-      <c r="I68" s="65"/>
-      <c r="J68" s="65" t="s">
+      <c r="I68" s="66"/>
+      <c r="J68" s="66" t="s">
         <v>362</v>
       </c>
-      <c r="K68" s="65" t="s">
+      <c r="K68" s="66" t="s">
         <v>1528</v>
       </c>
-      <c r="L68" s="65" t="s">
+      <c r="L68" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="M68" s="65" t="s">
+      <c r="M68" s="66" t="s">
         <v>379</v>
       </c>
-      <c r="N68" s="65"/>
-      <c r="O68" s="65" t="s">
+      <c r="N68" s="66"/>
+      <c r="O68" s="66" t="s">
         <v>404</v>
       </c>
-      <c r="P68" s="65" t="s">
+      <c r="P68" s="66" t="s">
         <v>1365</v>
       </c>
-      <c r="Q68" s="65" t="s">
+      <c r="Q68" s="66" t="s">
         <v>1383</v>
       </c>
-      <c r="R68" s="65"/>
+      <c r="R68" s="66"/>
       <c r="S68" s="21"/>
       <c r="V68" s="9"/>
     </row>
@@ -14136,43 +14133,43 @@
       <c r="D69" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="E69" s="50" t="s">
+      <c r="E69" s="60" t="s">
         <v>1279</v>
       </c>
-      <c r="F69" s="50" t="s">
+      <c r="F69" s="60" t="s">
         <v>1280</v>
       </c>
-      <c r="G69" s="68" t="s">
+      <c r="G69" s="62" t="s">
         <v>1281</v>
       </c>
-      <c r="H69" s="50" t="s">
+      <c r="H69" s="60" t="s">
         <v>1282</v>
       </c>
       <c r="I69" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="J69" s="50" t="s">
+      <c r="J69" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="K69" s="50" t="s">
+      <c r="K69" s="60" t="s">
         <v>1283</v>
       </c>
-      <c r="L69" s="50" t="s">
+      <c r="L69" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="M69" s="50" t="s">
+      <c r="M69" s="60" t="s">
         <v>153</v>
       </c>
       <c r="N69" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="O69" s="50" t="s">
+      <c r="O69" s="60" t="s">
         <v>185</v>
       </c>
-      <c r="P69" s="50" t="s">
+      <c r="P69" s="60" t="s">
         <v>1200</v>
       </c>
-      <c r="Q69" s="50" t="s">
+      <c r="Q69" s="60" t="s">
         <v>1284</v>
       </c>
       <c r="R69" s="60" t="s">
@@ -14183,107 +14180,107 @@
     </row>
     <row r="70" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B70" s="24"/>
-      <c r="D70" s="66"/>
-      <c r="E70" s="66" t="s">
+      <c r="D70" s="67"/>
+      <c r="E70" s="67" t="s">
         <v>1524</v>
       </c>
-      <c r="F70" s="66" t="s">
+      <c r="F70" s="67" t="s">
         <v>1478</v>
       </c>
-      <c r="G70" s="66" t="s">
+      <c r="G70" s="67" t="s">
         <v>1525</v>
       </c>
-      <c r="H70" s="66" t="s">
+      <c r="H70" s="67" t="s">
         <v>1527</v>
       </c>
-      <c r="I70" s="66"/>
-      <c r="J70" s="66" t="s">
+      <c r="I70" s="67"/>
+      <c r="J70" s="67" t="s">
         <v>1338</v>
       </c>
-      <c r="K70" s="66" t="s">
+      <c r="K70" s="67" t="s">
         <v>1529</v>
       </c>
-      <c r="L70" s="66" t="s">
+      <c r="L70" s="67" t="s">
         <v>1418</v>
       </c>
-      <c r="M70" s="66" t="s">
+      <c r="M70" s="67" t="s">
         <v>1424</v>
       </c>
-      <c r="N70" s="66"/>
-      <c r="O70" s="66" t="s">
+      <c r="N70" s="67"/>
+      <c r="O70" s="67" t="s">
         <v>1530</v>
       </c>
-      <c r="P70" s="66" t="s">
+      <c r="P70" s="67" t="s">
         <v>1366</v>
       </c>
-      <c r="Q70" s="66" t="s">
+      <c r="Q70" s="67" t="s">
         <v>1384</v>
       </c>
-      <c r="R70" s="66"/>
+      <c r="R70" s="67"/>
       <c r="S70" s="33"/>
       <c r="V70" s="9"/>
     </row>
     <row r="71" spans="2:22" s="37" customFormat="1" ht="60" customHeight="1">
       <c r="B71" s="14"/>
       <c r="C71" s="36"/>
-      <c r="D71" s="64"/>
-      <c r="E71" s="64"/>
-      <c r="F71" s="64"/>
-      <c r="G71" s="64"/>
-      <c r="H71" s="64"/>
-      <c r="I71" s="64"/>
-      <c r="J71" s="64"/>
-      <c r="K71" s="64"/>
-      <c r="L71" s="64"/>
-      <c r="M71" s="64"/>
-      <c r="N71" s="64"/>
-      <c r="O71" s="64"/>
-      <c r="P71" s="64"/>
-      <c r="Q71" s="64"/>
-      <c r="R71" s="64"/>
+      <c r="D71" s="65"/>
+      <c r="E71" s="65"/>
+      <c r="F71" s="65"/>
+      <c r="G71" s="65"/>
+      <c r="H71" s="65"/>
+      <c r="I71" s="65"/>
+      <c r="J71" s="65"/>
+      <c r="K71" s="65"/>
+      <c r="L71" s="65"/>
+      <c r="M71" s="65"/>
+      <c r="N71" s="65"/>
+      <c r="O71" s="65"/>
+      <c r="P71" s="65"/>
+      <c r="Q71" s="65"/>
+      <c r="R71" s="65"/>
       <c r="V71" s="38"/>
     </row>
     <row r="72" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B72" s="19"/>
-      <c r="D72" s="65" t="s">
+      <c r="D72" s="66" t="s">
         <v>1421</v>
       </c>
-      <c r="E72" s="65" t="s">
+      <c r="E72" s="66" t="s">
         <v>1531</v>
       </c>
-      <c r="F72" s="65" t="s">
+      <c r="F72" s="66" t="s">
         <v>385</v>
       </c>
-      <c r="G72" s="65" t="s">
+      <c r="G72" s="66" t="s">
         <v>1534</v>
       </c>
-      <c r="H72" s="65" t="s">
+      <c r="H72" s="66" t="s">
         <v>1358</v>
       </c>
-      <c r="I72" s="65" t="s">
+      <c r="I72" s="66" t="s">
         <v>1536</v>
       </c>
-      <c r="J72" s="65" t="s">
+      <c r="J72" s="66" t="s">
         <v>1395</v>
       </c>
-      <c r="K72" s="65"/>
-      <c r="L72" s="65" t="s">
+      <c r="K72" s="66"/>
+      <c r="L72" s="66" t="s">
         <v>499</v>
       </c>
-      <c r="M72" s="65" t="s">
+      <c r="M72" s="66" t="s">
         <v>457</v>
       </c>
-      <c r="N72" s="65" t="s">
+      <c r="N72" s="66" t="s">
         <v>438</v>
       </c>
-      <c r="O72" s="65" t="s">
+      <c r="O72" s="66" t="s">
         <v>1495</v>
       </c>
-      <c r="P72" s="65" t="s">
+      <c r="P72" s="66" t="s">
         <v>1539</v>
       </c>
-      <c r="Q72" s="65"/>
-      <c r="R72" s="65" t="s">
+      <c r="Q72" s="66"/>
+      <c r="R72" s="66" t="s">
         <v>1541</v>
       </c>
       <c r="S72" s="21"/>
@@ -14294,49 +14291,49 @@
         <f>B69+1</f>
         <v>18</v>
       </c>
-      <c r="D73" s="50" t="s">
+      <c r="D73" s="60" t="s">
         <v>1231</v>
       </c>
-      <c r="E73" s="50" t="s">
+      <c r="E73" s="60" t="s">
         <v>1285</v>
       </c>
-      <c r="F73" s="50" t="s">
+      <c r="F73" s="60" t="s">
         <v>160</v>
       </c>
-      <c r="G73" s="50" t="s">
+      <c r="G73" s="60" t="s">
         <v>1286</v>
       </c>
-      <c r="H73" s="50" t="s">
+      <c r="H73" s="60" t="s">
         <v>1196</v>
       </c>
-      <c r="I73" s="50" t="s">
+      <c r="I73" s="60" t="s">
         <v>1287</v>
       </c>
-      <c r="J73" s="50" t="s">
+      <c r="J73" s="60" t="s">
         <v>1217</v>
       </c>
       <c r="K73" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="L73" s="50" t="s">
+      <c r="L73" s="60" t="s">
         <v>314</v>
       </c>
-      <c r="M73" s="50" t="s">
+      <c r="M73" s="60" t="s">
         <v>1288</v>
       </c>
-      <c r="N73" s="50" t="s">
+      <c r="N73" s="60" t="s">
         <v>227</v>
       </c>
-      <c r="O73" s="50" t="s">
+      <c r="O73" s="60" t="s">
         <v>1289</v>
       </c>
-      <c r="P73" s="50" t="s">
+      <c r="P73" s="60" t="s">
         <v>1290</v>
       </c>
       <c r="Q73" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="R73" s="50" t="s">
+      <c r="R73" s="60" t="s">
         <v>1291</v>
       </c>
       <c r="S73" s="23"/>
@@ -14344,45 +14341,45 @@
     </row>
     <row r="74" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B74" s="24"/>
-      <c r="D74" s="66" t="s">
+      <c r="D74" s="67" t="s">
         <v>1422</v>
       </c>
-      <c r="E74" s="66" t="s">
+      <c r="E74" s="67" t="s">
         <v>1532</v>
       </c>
-      <c r="F74" s="66" t="s">
+      <c r="F74" s="67" t="s">
         <v>1533</v>
       </c>
-      <c r="G74" s="66" t="s">
+      <c r="G74" s="67" t="s">
         <v>1535</v>
       </c>
-      <c r="H74" s="66" t="s">
+      <c r="H74" s="67" t="s">
         <v>1359</v>
       </c>
-      <c r="I74" s="66" t="s">
+      <c r="I74" s="67" t="s">
         <v>1537</v>
       </c>
-      <c r="J74" s="66" t="s">
+      <c r="J74" s="67" t="s">
         <v>1396</v>
       </c>
-      <c r="K74" s="66"/>
-      <c r="L74" s="66" t="s">
+      <c r="K74" s="67"/>
+      <c r="L74" s="67" t="s">
         <v>1507</v>
       </c>
-      <c r="M74" s="66" t="s">
+      <c r="M74" s="67" t="s">
         <v>1538</v>
       </c>
-      <c r="N74" s="66" t="s">
+      <c r="N74" s="67" t="s">
         <v>1494</v>
       </c>
-      <c r="O74" s="66" t="s">
+      <c r="O74" s="67" t="s">
         <v>1496</v>
       </c>
-      <c r="P74" s="66" t="s">
+      <c r="P74" s="67" t="s">
         <v>1540</v>
       </c>
-      <c r="Q74" s="66"/>
-      <c r="R74" s="66" t="s">
+      <c r="Q74" s="67"/>
+      <c r="R74" s="67" t="s">
         <v>1542</v>
       </c>
       <c r="S74" s="33"/>
@@ -14391,66 +14388,66 @@
     <row r="75" spans="2:22" s="37" customFormat="1" ht="60" customHeight="1">
       <c r="B75" s="14"/>
       <c r="C75" s="36"/>
-      <c r="D75" s="64"/>
-      <c r="E75" s="64"/>
-      <c r="F75" s="64"/>
-      <c r="G75" s="64"/>
-      <c r="H75" s="64"/>
-      <c r="I75" s="64"/>
-      <c r="J75" s="64"/>
-      <c r="K75" s="64"/>
-      <c r="L75" s="64"/>
-      <c r="M75" s="64"/>
-      <c r="N75" s="64"/>
-      <c r="O75" s="64"/>
-      <c r="P75" s="64"/>
-      <c r="Q75" s="64"/>
-      <c r="R75" s="64"/>
+      <c r="D75" s="65"/>
+      <c r="E75" s="65"/>
+      <c r="F75" s="65"/>
+      <c r="G75" s="65"/>
+      <c r="H75" s="65"/>
+      <c r="I75" s="65"/>
+      <c r="J75" s="65"/>
+      <c r="K75" s="65"/>
+      <c r="L75" s="65"/>
+      <c r="M75" s="65"/>
+      <c r="N75" s="65"/>
+      <c r="O75" s="65"/>
+      <c r="P75" s="65"/>
+      <c r="Q75" s="65"/>
+      <c r="R75" s="65"/>
       <c r="V75" s="38"/>
     </row>
     <row r="76" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B76" s="19"/>
-      <c r="D76" s="65" t="s">
+      <c r="D76" s="66" t="s">
         <v>1543</v>
       </c>
-      <c r="E76" s="65" t="s">
+      <c r="E76" s="66" t="s">
         <v>1545</v>
       </c>
-      <c r="F76" s="65" t="s">
+      <c r="F76" s="66" t="s">
         <v>1547</v>
       </c>
-      <c r="G76" s="65"/>
-      <c r="H76" s="65" t="s">
+      <c r="G76" s="66"/>
+      <c r="H76" s="66" t="s">
         <v>1549</v>
       </c>
-      <c r="I76" s="65" t="s">
+      <c r="I76" s="66" t="s">
         <v>1379</v>
       </c>
-      <c r="J76" s="65" t="s">
+      <c r="J76" s="66" t="s">
         <v>1395</v>
       </c>
-      <c r="K76" s="65" t="s">
+      <c r="K76" s="66" t="s">
         <v>1551</v>
       </c>
-      <c r="L76" s="65" t="s">
+      <c r="L76" s="66" t="s">
         <v>1356</v>
       </c>
-      <c r="M76" s="65" t="s">
+      <c r="M76" s="66" t="s">
         <v>1358</v>
       </c>
-      <c r="N76" s="65" t="s">
+      <c r="N76" s="66" t="s">
         <v>364</v>
       </c>
-      <c r="O76" s="65" t="s">
+      <c r="O76" s="66" t="s">
         <v>1553</v>
       </c>
-      <c r="P76" s="65" t="s">
+      <c r="P76" s="66" t="s">
         <v>438</v>
       </c>
-      <c r="Q76" s="65" t="s">
+      <c r="Q76" s="66" t="s">
         <v>1555</v>
       </c>
-      <c r="R76" s="65"/>
+      <c r="R76" s="66"/>
       <c r="S76" s="21"/>
       <c r="V76" s="9"/>
     </row>
@@ -14459,46 +14456,46 @@
         <f>B73+1</f>
         <v>19</v>
       </c>
-      <c r="D77" s="50" t="s">
+      <c r="D77" s="60" t="s">
         <v>1292</v>
       </c>
-      <c r="E77" s="50" t="s">
+      <c r="E77" s="60" t="s">
         <v>1293</v>
       </c>
-      <c r="F77" s="50" t="s">
+      <c r="F77" s="60" t="s">
         <v>1294</v>
       </c>
-      <c r="G77" s="61" t="s">
+      <c r="G77" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="H77" s="50" t="s">
+      <c r="H77" s="60" t="s">
         <v>1295</v>
       </c>
-      <c r="I77" s="50" t="s">
+      <c r="I77" s="60" t="s">
         <v>1209</v>
       </c>
-      <c r="J77" s="50" t="s">
+      <c r="J77" s="60" t="s">
         <v>1217</v>
       </c>
-      <c r="K77" s="50" t="s">
+      <c r="K77" s="60" t="s">
         <v>1296</v>
       </c>
-      <c r="L77" s="50" t="s">
+      <c r="L77" s="60" t="s">
         <v>1195</v>
       </c>
-      <c r="M77" s="50" t="s">
+      <c r="M77" s="60" t="s">
         <v>1196</v>
       </c>
-      <c r="N77" s="50" t="s">
+      <c r="N77" s="60" t="s">
         <v>1265</v>
       </c>
-      <c r="O77" s="50" t="s">
+      <c r="O77" s="60" t="s">
         <v>1297</v>
       </c>
-      <c r="P77" s="50" t="s">
+      <c r="P77" s="60" t="s">
         <v>227</v>
       </c>
-      <c r="Q77" s="50" t="s">
+      <c r="Q77" s="60" t="s">
         <v>1298</v>
       </c>
       <c r="R77" s="60" t="s">
@@ -14509,111 +14506,111 @@
     </row>
     <row r="78" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B78" s="24"/>
-      <c r="D78" s="66" t="s">
+      <c r="D78" s="67" t="s">
         <v>1544</v>
       </c>
-      <c r="E78" s="66" t="s">
+      <c r="E78" s="67" t="s">
         <v>1546</v>
       </c>
-      <c r="F78" s="66" t="s">
+      <c r="F78" s="67" t="s">
         <v>1548</v>
       </c>
-      <c r="G78" s="66"/>
-      <c r="H78" s="66" t="s">
+      <c r="G78" s="67"/>
+      <c r="H78" s="67" t="s">
         <v>1550</v>
       </c>
-      <c r="I78" s="66" t="s">
+      <c r="I78" s="67" t="s">
         <v>1380</v>
       </c>
-      <c r="J78" s="66" t="s">
+      <c r="J78" s="67" t="s">
         <v>1396</v>
       </c>
-      <c r="K78" s="66" t="s">
+      <c r="K78" s="67" t="s">
         <v>1552</v>
       </c>
-      <c r="L78" s="66" t="s">
+      <c r="L78" s="67" t="s">
         <v>1357</v>
       </c>
-      <c r="M78" s="66" t="s">
+      <c r="M78" s="67" t="s">
         <v>1359</v>
       </c>
-      <c r="N78" s="66" t="s">
+      <c r="N78" s="67" t="s">
         <v>1364</v>
       </c>
-      <c r="O78" s="66" t="s">
+      <c r="O78" s="67" t="s">
         <v>1554</v>
       </c>
-      <c r="P78" s="66" t="s">
+      <c r="P78" s="67" t="s">
         <v>1494</v>
       </c>
-      <c r="Q78" s="66" t="s">
+      <c r="Q78" s="67" t="s">
         <v>1556</v>
       </c>
-      <c r="R78" s="66"/>
+      <c r="R78" s="67"/>
       <c r="S78" s="33"/>
       <c r="V78" s="9"/>
     </row>
     <row r="79" spans="2:22" s="37" customFormat="1" ht="60" customHeight="1">
       <c r="B79" s="14"/>
       <c r="C79" s="36"/>
-      <c r="D79" s="64"/>
-      <c r="E79" s="64"/>
-      <c r="F79" s="64"/>
-      <c r="G79" s="64"/>
-      <c r="H79" s="64"/>
-      <c r="I79" s="64"/>
-      <c r="J79" s="64"/>
-      <c r="K79" s="64"/>
-      <c r="L79" s="64"/>
-      <c r="M79" s="64"/>
-      <c r="N79" s="64"/>
-      <c r="O79" s="64"/>
-      <c r="P79" s="64"/>
-      <c r="Q79" s="64"/>
-      <c r="R79" s="64"/>
+      <c r="D79" s="65"/>
+      <c r="E79" s="65"/>
+      <c r="F79" s="65"/>
+      <c r="G79" s="65"/>
+      <c r="H79" s="65"/>
+      <c r="I79" s="65"/>
+      <c r="J79" s="65"/>
+      <c r="K79" s="65"/>
+      <c r="L79" s="65"/>
+      <c r="M79" s="65"/>
+      <c r="N79" s="65"/>
+      <c r="O79" s="65"/>
+      <c r="P79" s="65"/>
+      <c r="Q79" s="65"/>
+      <c r="R79" s="65"/>
       <c r="V79" s="38"/>
     </row>
     <row r="80" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B80" s="19"/>
-      <c r="D80" s="65" t="s">
+      <c r="D80" s="66" t="s">
         <v>1557</v>
       </c>
-      <c r="E80" s="65" t="s">
+      <c r="E80" s="66" t="s">
         <v>1559</v>
       </c>
-      <c r="F80" s="65" t="s">
+      <c r="F80" s="66" t="s">
         <v>1561</v>
       </c>
-      <c r="G80" s="65" t="s">
+      <c r="G80" s="66" t="s">
         <v>1563</v>
       </c>
-      <c r="H80" s="65"/>
-      <c r="I80" s="65" t="s">
+      <c r="H80" s="66"/>
+      <c r="I80" s="66" t="s">
         <v>1370</v>
       </c>
-      <c r="J80" s="65" t="s">
+      <c r="J80" s="66" t="s">
         <v>400</v>
       </c>
-      <c r="K80" s="65" t="s">
+      <c r="K80" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="L80" s="65" t="s">
+      <c r="L80" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="M80" s="65"/>
-      <c r="N80" s="65" t="s">
+      <c r="M80" s="66"/>
+      <c r="N80" s="66" t="s">
         <v>394</v>
       </c>
-      <c r="O80" s="65" t="s">
+      <c r="O80" s="66" t="s">
         <v>1566</v>
       </c>
-      <c r="P80" s="65" t="s">
+      <c r="P80" s="66" t="s">
         <v>1372</v>
       </c>
-      <c r="Q80" s="65" t="s">
+      <c r="Q80" s="66" t="s">
         <v>1383</v>
       </c>
-      <c r="R80" s="65" t="s">
+      <c r="R80" s="66" t="s">
         <v>364</v>
       </c>
       <c r="S80" s="21"/>
@@ -14624,49 +14621,49 @@
         <f>B77+1</f>
         <v>20</v>
       </c>
-      <c r="D81" s="50" t="s">
+      <c r="D81" s="60" t="s">
         <v>1299</v>
       </c>
-      <c r="E81" s="50" t="s">
+      <c r="E81" s="60" t="s">
         <v>1300</v>
       </c>
-      <c r="F81" s="50" t="s">
+      <c r="F81" s="60" t="s">
         <v>1301</v>
       </c>
-      <c r="G81" s="50" t="s">
+      <c r="G81" s="60" t="s">
         <v>1302</v>
       </c>
       <c r="H81" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="I81" s="50" t="s">
+      <c r="I81" s="60" t="s">
         <v>1303</v>
       </c>
-      <c r="J81" s="50" t="s">
+      <c r="J81" s="60" t="s">
         <v>179</v>
       </c>
-      <c r="K81" s="50" t="s">
+      <c r="K81" s="60" t="s">
         <v>1237</v>
       </c>
-      <c r="L81" s="50" t="s">
+      <c r="L81" s="60" t="s">
         <v>45</v>
       </c>
       <c r="M81" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="N81" s="50" t="s">
+      <c r="N81" s="60" t="s">
         <v>1203</v>
       </c>
-      <c r="O81" s="50" t="s">
+      <c r="O81" s="60" t="s">
         <v>1304</v>
       </c>
-      <c r="P81" s="50" t="s">
+      <c r="P81" s="60" t="s">
         <v>1205</v>
       </c>
-      <c r="Q81" s="50" t="s">
+      <c r="Q81" s="60" t="s">
         <v>1305</v>
       </c>
-      <c r="R81" s="50" t="s">
+      <c r="R81" s="60" t="s">
         <v>1199</v>
       </c>
       <c r="S81" s="23"/>
@@ -14674,45 +14671,45 @@
     </row>
     <row r="82" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B82" s="24"/>
-      <c r="D82" s="66" t="s">
+      <c r="D82" s="67" t="s">
         <v>1558</v>
       </c>
-      <c r="E82" s="66" t="s">
+      <c r="E82" s="67" t="s">
         <v>1560</v>
       </c>
-      <c r="F82" s="66" t="s">
+      <c r="F82" s="67" t="s">
         <v>1562</v>
       </c>
-      <c r="G82" s="66" t="s">
+      <c r="G82" s="67" t="s">
         <v>1564</v>
       </c>
-      <c r="H82" s="66"/>
-      <c r="I82" s="66" t="s">
+      <c r="H82" s="67"/>
+      <c r="I82" s="67" t="s">
         <v>1371</v>
       </c>
-      <c r="J82" s="66" t="s">
+      <c r="J82" s="67" t="s">
         <v>1565</v>
       </c>
-      <c r="K82" s="66" t="s">
+      <c r="K82" s="67" t="s">
         <v>1439</v>
       </c>
-      <c r="L82" s="66" t="s">
+      <c r="L82" s="67" t="s">
         <v>1378</v>
       </c>
-      <c r="M82" s="66"/>
-      <c r="N82" s="66" t="s">
+      <c r="M82" s="67"/>
+      <c r="N82" s="67" t="s">
         <v>1369</v>
       </c>
-      <c r="O82" s="66" t="s">
+      <c r="O82" s="67" t="s">
         <v>1567</v>
       </c>
-      <c r="P82" s="66" t="s">
+      <c r="P82" s="67" t="s">
         <v>1373</v>
       </c>
-      <c r="Q82" s="66" t="s">
+      <c r="Q82" s="67" t="s">
         <v>1384</v>
       </c>
-      <c r="R82" s="66" t="s">
+      <c r="R82" s="67" t="s">
         <v>1364</v>
       </c>
       <c r="S82" s="33"/>
@@ -14721,62 +14718,62 @@
     <row r="83" spans="2:22" s="37" customFormat="1" ht="60" customHeight="1">
       <c r="B83" s="14"/>
       <c r="C83" s="36"/>
-      <c r="D83" s="64"/>
-      <c r="E83" s="64"/>
-      <c r="F83" s="64"/>
-      <c r="G83" s="64"/>
-      <c r="H83" s="64"/>
-      <c r="I83" s="64"/>
-      <c r="J83" s="64"/>
-      <c r="K83" s="64"/>
-      <c r="L83" s="64"/>
-      <c r="M83" s="64"/>
-      <c r="N83" s="64"/>
-      <c r="O83" s="64"/>
-      <c r="P83" s="64"/>
-      <c r="Q83" s="64"/>
-      <c r="R83" s="64"/>
+      <c r="D83" s="65"/>
+      <c r="E83" s="65"/>
+      <c r="F83" s="65"/>
+      <c r="G83" s="65"/>
+      <c r="H83" s="65"/>
+      <c r="I83" s="65"/>
+      <c r="J83" s="65"/>
+      <c r="K83" s="65"/>
+      <c r="L83" s="65"/>
+      <c r="M83" s="65"/>
+      <c r="N83" s="65"/>
+      <c r="O83" s="65"/>
+      <c r="P83" s="65"/>
+      <c r="Q83" s="65"/>
+      <c r="R83" s="65"/>
       <c r="V83" s="38"/>
     </row>
     <row r="84" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B84" s="19"/>
-      <c r="D84" s="65" t="s">
+      <c r="D84" s="66" t="s">
         <v>385</v>
       </c>
-      <c r="E84" s="65"/>
-      <c r="F84" s="65" t="s">
+      <c r="E84" s="66"/>
+      <c r="F84" s="66" t="s">
         <v>362</v>
       </c>
-      <c r="G84" s="65" t="s">
+      <c r="G84" s="66" t="s">
         <v>1568</v>
       </c>
-      <c r="H84" s="65" t="s">
+      <c r="H84" s="66" t="s">
         <v>1570</v>
       </c>
-      <c r="I84" s="65" t="s">
+      <c r="I84" s="66" t="s">
         <v>1572</v>
       </c>
-      <c r="J84" s="65"/>
-      <c r="K84" s="65" t="s">
+      <c r="J84" s="66"/>
+      <c r="K84" s="66" t="s">
         <v>396</v>
       </c>
-      <c r="L84" s="65" t="s">
+      <c r="L84" s="66" t="s">
         <v>350</v>
       </c>
-      <c r="M84" s="65" t="s">
+      <c r="M84" s="66" t="s">
         <v>1586</v>
       </c>
-      <c r="N84" s="65" t="s">
+      <c r="N84" s="66" t="s">
         <v>1574</v>
       </c>
-      <c r="O84" s="65"/>
-      <c r="P84" s="65" t="s">
+      <c r="O84" s="66"/>
+      <c r="P84" s="66" t="s">
         <v>1395</v>
       </c>
-      <c r="Q84" s="65" t="s">
+      <c r="Q84" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="R84" s="65" t="s">
+      <c r="R84" s="66" t="s">
         <v>445</v>
       </c>
       <c r="S84" s="21"/>
@@ -14787,49 +14784,49 @@
         <f>B81+1</f>
         <v>21</v>
       </c>
-      <c r="D85" s="50" t="s">
+      <c r="D85" s="60" t="s">
         <v>160</v>
       </c>
       <c r="E85" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="F85" s="50" t="s">
+      <c r="F85" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="G85" s="68" t="s">
+      <c r="G85" s="62" t="s">
         <v>1306</v>
       </c>
-      <c r="H85" s="50" t="s">
+      <c r="H85" s="60" t="s">
         <v>1307</v>
       </c>
-      <c r="I85" s="50" t="s">
+      <c r="I85" s="60" t="s">
         <v>1308</v>
       </c>
       <c r="J85" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="K85" s="50" t="s">
+      <c r="K85" s="60" t="s">
         <v>1309</v>
       </c>
-      <c r="L85" s="50" t="s">
+      <c r="L85" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="M85" s="50" t="s">
+      <c r="M85" s="60" t="s">
         <v>1310</v>
       </c>
-      <c r="N85" s="50" t="s">
+      <c r="N85" s="60" t="s">
         <v>1311</v>
       </c>
       <c r="O85" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="P85" s="50" t="s">
+      <c r="P85" s="60" t="s">
         <v>1217</v>
       </c>
-      <c r="Q85" s="50" t="s">
+      <c r="Q85" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="R85" s="50" t="s">
+      <c r="R85" s="60" t="s">
         <v>235</v>
       </c>
       <c r="S85" s="23"/>
@@ -14837,43 +14834,43 @@
     </row>
     <row r="86" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B86" s="24"/>
-      <c r="D86" s="66" t="s">
+      <c r="D86" s="67" t="s">
         <v>1533</v>
       </c>
-      <c r="E86" s="66"/>
-      <c r="F86" s="66" t="s">
+      <c r="E86" s="67"/>
+      <c r="F86" s="67" t="s">
         <v>1338</v>
       </c>
-      <c r="G86" s="66" t="s">
+      <c r="G86" s="67" t="s">
         <v>1569</v>
       </c>
-      <c r="H86" s="66" t="s">
+      <c r="H86" s="67" t="s">
         <v>1571</v>
       </c>
-      <c r="I86" s="66" t="s">
+      <c r="I86" s="67" t="s">
         <v>1573</v>
       </c>
-      <c r="J86" s="66"/>
-      <c r="K86" s="66" t="s">
+      <c r="J86" s="67"/>
+      <c r="K86" s="67" t="s">
         <v>1427</v>
       </c>
-      <c r="L86" s="66" t="s">
+      <c r="L86" s="67" t="s">
         <v>1330</v>
       </c>
-      <c r="M86" s="66" t="s">
+      <c r="M86" s="67" t="s">
         <v>1587</v>
       </c>
-      <c r="N86" s="66" t="s">
+      <c r="N86" s="67" t="s">
         <v>1575</v>
       </c>
-      <c r="O86" s="66"/>
-      <c r="P86" s="66" t="s">
+      <c r="O86" s="67"/>
+      <c r="P86" s="67" t="s">
         <v>1396</v>
       </c>
-      <c r="Q86" s="66" t="s">
+      <c r="Q86" s="67" t="s">
         <v>1418</v>
       </c>
-      <c r="R86" s="66" t="s">
+      <c r="R86" s="67" t="s">
         <v>1520</v>
       </c>
       <c r="S86" s="33"/>
@@ -14882,13 +14879,13 @@
     <row r="87" spans="2:22" s="37" customFormat="1" ht="60" customHeight="1">
       <c r="B87" s="14"/>
       <c r="C87" s="36"/>
-      <c r="D87" s="64"/>
-      <c r="E87" s="64"/>
-      <c r="F87" s="64"/>
-      <c r="G87" s="64"/>
-      <c r="H87" s="64"/>
-      <c r="I87" s="64"/>
-      <c r="J87" s="16"/>
+      <c r="D87" s="65"/>
+      <c r="E87" s="65"/>
+      <c r="F87" s="65"/>
+      <c r="G87" s="65"/>
+      <c r="H87" s="65"/>
+      <c r="I87" s="65"/>
+      <c r="J87" s="65"/>
       <c r="K87" s="16"/>
       <c r="L87" s="16"/>
       <c r="M87" s="16"/>
@@ -14901,19 +14898,19 @@
     </row>
     <row r="88" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B88" s="19"/>
-      <c r="D88" s="65" t="s">
+      <c r="D88" s="66" t="s">
         <v>329</v>
       </c>
-      <c r="E88" s="65" t="s">
+      <c r="E88" s="66" t="s">
         <v>406</v>
       </c>
-      <c r="F88" s="65" t="s">
+      <c r="F88" s="66" t="s">
         <v>1578</v>
       </c>
-      <c r="G88" s="65"/>
-      <c r="H88" s="65"/>
-      <c r="I88" s="65"/>
-      <c r="J88" s="20"/>
+      <c r="G88" s="66"/>
+      <c r="H88" s="66"/>
+      <c r="I88" s="66"/>
+      <c r="J88" s="66"/>
       <c r="K88" s="20"/>
       <c r="L88" s="20"/>
       <c r="M88" s="20"/>
@@ -14930,13 +14927,13 @@
         <f>B85+1</f>
         <v>22</v>
       </c>
-      <c r="D89" s="50" t="s">
+      <c r="D89" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="E89" s="50" t="s">
+      <c r="E89" s="60" t="s">
         <v>1312</v>
       </c>
-      <c r="F89" s="50" t="s">
+      <c r="F89" s="60" t="s">
         <v>1313</v>
       </c>
       <c r="G89" s="60" t="s">
@@ -14962,19 +14959,19 @@
     </row>
     <row r="90" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B90" s="24"/>
-      <c r="D90" s="66" t="s">
+      <c r="D90" s="67" t="s">
         <v>1576</v>
       </c>
-      <c r="E90" s="66" t="s">
+      <c r="E90" s="67" t="s">
         <v>1577</v>
       </c>
-      <c r="F90" s="66" t="s">
+      <c r="F90" s="67" t="s">
         <v>1579</v>
       </c>
-      <c r="G90" s="66"/>
-      <c r="H90" s="66"/>
-      <c r="I90" s="66"/>
-      <c r="J90" s="26"/>
+      <c r="G90" s="67"/>
+      <c r="H90" s="67"/>
+      <c r="I90" s="67"/>
+      <c r="J90" s="67"/>
       <c r="K90" s="26"/>
       <c r="L90" s="26"/>
       <c r="M90" s="26"/>
@@ -14989,7 +14986,7 @@
     <row r="91" spans="2:22" s="37" customFormat="1" ht="60" customHeight="1">
       <c r="B91" s="14"/>
       <c r="C91" s="36"/>
-      <c r="D91" s="64"/>
+      <c r="D91" s="65"/>
       <c r="E91" s="16"/>
       <c r="F91" s="16"/>
       <c r="G91" s="16"/>
@@ -15008,7 +15005,7 @@
     </row>
     <row r="92" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B92" s="19"/>
-      <c r="D92" s="65"/>
+      <c r="D92" s="66"/>
       <c r="E92" s="20"/>
       <c r="F92" s="20"/>
       <c r="G92" s="20"/>
@@ -15055,7 +15052,7 @@
     </row>
     <row r="94" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B94" s="24"/>
-      <c r="D94" s="66"/>
+      <c r="D94" s="67"/>
       <c r="E94" s="26"/>
       <c r="F94" s="26"/>
       <c r="G94" s="26"/>
@@ -15076,60 +15073,60 @@
     <row r="95" spans="2:22" s="37" customFormat="1" ht="60" customHeight="1">
       <c r="B95" s="14"/>
       <c r="C95" s="36"/>
-      <c r="D95" s="64"/>
-      <c r="E95" s="64"/>
-      <c r="F95" s="64"/>
-      <c r="G95" s="64"/>
-      <c r="H95" s="64"/>
-      <c r="I95" s="64"/>
-      <c r="J95" s="64"/>
-      <c r="K95" s="64"/>
-      <c r="L95" s="64"/>
-      <c r="M95" s="64"/>
-      <c r="N95" s="64"/>
-      <c r="O95" s="64"/>
-      <c r="P95" s="64"/>
-      <c r="Q95" s="64"/>
-      <c r="R95" s="64"/>
+      <c r="D95" s="65"/>
+      <c r="E95" s="65"/>
+      <c r="F95" s="65"/>
+      <c r="G95" s="65"/>
+      <c r="H95" s="65"/>
+      <c r="I95" s="65"/>
+      <c r="J95" s="65"/>
+      <c r="K95" s="65"/>
+      <c r="L95" s="65"/>
+      <c r="M95" s="65"/>
+      <c r="N95" s="65"/>
+      <c r="O95" s="65"/>
+      <c r="P95" s="65"/>
+      <c r="Q95" s="65"/>
+      <c r="R95" s="65"/>
       <c r="V95" s="38"/>
     </row>
     <row r="96" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B96" s="19"/>
-      <c r="D96" s="65" t="s">
+      <c r="D96" s="66" t="s">
         <v>1344</v>
       </c>
-      <c r="E96" s="65" t="s">
+      <c r="E96" s="66" t="s">
         <v>1580</v>
       </c>
-      <c r="F96" s="65" t="s">
+      <c r="F96" s="66" t="s">
         <v>1518</v>
       </c>
-      <c r="G96" s="65"/>
-      <c r="H96" s="65" t="s">
+      <c r="G96" s="66"/>
+      <c r="H96" s="66" t="s">
         <v>1582</v>
       </c>
-      <c r="I96" s="65" t="s">
+      <c r="I96" s="66" t="s">
         <v>1566</v>
       </c>
-      <c r="J96" s="65" t="s">
+      <c r="J96" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="K96" s="65" t="s">
+      <c r="K96" s="66" t="s">
         <v>1732</v>
       </c>
-      <c r="L96" s="65"/>
-      <c r="M96" s="65" t="s">
+      <c r="L96" s="66"/>
+      <c r="M96" s="66" t="s">
         <v>328</v>
       </c>
-      <c r="N96" s="65"/>
-      <c r="O96" s="65" t="s">
+      <c r="N96" s="66"/>
+      <c r="O96" s="66" t="s">
         <v>1584</v>
       </c>
-      <c r="P96" s="65" t="s">
+      <c r="P96" s="66" t="s">
         <v>353</v>
       </c>
-      <c r="Q96" s="65"/>
-      <c r="R96" s="65" t="s">
+      <c r="Q96" s="66"/>
+      <c r="R96" s="66" t="s">
         <v>1586</v>
       </c>
       <c r="S96" s="21"/>
@@ -15140,49 +15137,49 @@
         <f>B93+1</f>
         <v>24</v>
       </c>
-      <c r="D97" s="50" t="s">
+      <c r="D97" s="60" t="s">
         <v>1188</v>
       </c>
-      <c r="E97" s="50" t="s">
+      <c r="E97" s="60" t="s">
         <v>1314</v>
       </c>
-      <c r="F97" s="50" t="s">
+      <c r="F97" s="60" t="s">
         <v>1315</v>
       </c>
-      <c r="G97" s="61" t="s">
+      <c r="G97" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="H97" s="50" t="s">
+      <c r="H97" s="60" t="s">
         <v>1316</v>
       </c>
-      <c r="I97" s="50" t="s">
+      <c r="I97" s="60" t="s">
         <v>1304</v>
       </c>
-      <c r="J97" s="50" t="s">
+      <c r="J97" s="60" t="s">
         <v>1317</v>
       </c>
-      <c r="K97" s="50" t="s">
+      <c r="K97" s="60" t="s">
         <v>1318</v>
       </c>
       <c r="L97" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="M97" s="50" t="s">
+      <c r="M97" s="60" t="s">
         <v>305</v>
       </c>
       <c r="N97" s="60" t="s">
         <v>306</v>
       </c>
-      <c r="O97" s="50" t="s">
+      <c r="O97" s="60" t="s">
         <v>1319</v>
       </c>
-      <c r="P97" s="50" t="s">
+      <c r="P97" s="60" t="s">
         <v>159</v>
       </c>
       <c r="Q97" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="R97" s="50" t="s">
+      <c r="R97" s="60" t="s">
         <v>1320</v>
       </c>
       <c r="S97" s="23"/>
@@ -15190,41 +15187,41 @@
     </row>
     <row r="98" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B98" s="24"/>
-      <c r="D98" s="66" t="s">
+      <c r="D98" s="67" t="s">
         <v>1345</v>
       </c>
-      <c r="E98" s="66" t="s">
+      <c r="E98" s="67" t="s">
         <v>1581</v>
       </c>
-      <c r="F98" s="66" t="s">
+      <c r="F98" s="67" t="s">
         <v>1519</v>
       </c>
-      <c r="G98" s="66"/>
-      <c r="H98" s="66" t="s">
+      <c r="G98" s="67"/>
+      <c r="H98" s="67" t="s">
         <v>1583</v>
       </c>
-      <c r="I98" s="66" t="s">
+      <c r="I98" s="67" t="s">
         <v>1567</v>
       </c>
-      <c r="J98" s="66" t="s">
+      <c r="J98" s="67" t="s">
         <v>1433</v>
       </c>
-      <c r="K98" s="66" t="s">
+      <c r="K98" s="67" t="s">
         <v>1734</v>
       </c>
-      <c r="L98" s="66"/>
-      <c r="M98" s="66" t="s">
+      <c r="L98" s="67"/>
+      <c r="M98" s="67" t="s">
         <v>1400</v>
       </c>
-      <c r="N98" s="66"/>
-      <c r="O98" s="66" t="s">
+      <c r="N98" s="67"/>
+      <c r="O98" s="67" t="s">
         <v>1585</v>
       </c>
-      <c r="P98" s="66" t="s">
+      <c r="P98" s="67" t="s">
         <v>1423</v>
       </c>
-      <c r="Q98" s="66"/>
-      <c r="R98" s="66" t="s">
+      <c r="Q98" s="67"/>
+      <c r="R98" s="67" t="s">
         <v>1587</v>
       </c>
       <c r="S98" s="33"/>
@@ -15233,8 +15230,8 @@
     <row r="99" spans="2:22" s="37" customFormat="1" ht="60" customHeight="1">
       <c r="B99" s="14"/>
       <c r="C99" s="36"/>
-      <c r="D99" s="64"/>
-      <c r="E99" s="64"/>
+      <c r="D99" s="65"/>
+      <c r="E99" s="65"/>
       <c r="F99" s="16"/>
       <c r="G99" s="16"/>
       <c r="H99" s="16"/>
@@ -15252,10 +15249,10 @@
     </row>
     <row r="100" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B100" s="19"/>
-      <c r="D100" s="65" t="s">
+      <c r="D100" s="66" t="s">
         <v>353</v>
       </c>
-      <c r="E100" s="65"/>
+      <c r="E100" s="66"/>
       <c r="F100" s="20"/>
       <c r="G100" s="20"/>
       <c r="H100" s="20"/>
@@ -15277,7 +15274,7 @@
         <f>B97+1</f>
         <v>25</v>
       </c>
-      <c r="D101" s="50" t="s">
+      <c r="D101" s="60" t="s">
         <v>159</v>
       </c>
       <c r="E101" s="60" t="s">
@@ -15301,10 +15298,10 @@
     </row>
     <row r="102" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B102" s="24"/>
-      <c r="D102" s="66" t="s">
+      <c r="D102" s="67" t="s">
         <v>1423</v>
       </c>
-      <c r="E102" s="66"/>
+      <c r="E102" s="67"/>
       <c r="F102" s="26"/>
       <c r="G102" s="26"/>
       <c r="H102" s="26"/>
@@ -15371,7 +15368,7 @@
       </c>
       <c r="E105" s="60"/>
       <c r="F105" s="60"/>
-      <c r="G105" s="61"/>
+      <c r="G105" s="62"/>
       <c r="H105" s="60"/>
       <c r="I105" s="60"/>
       <c r="J105" s="60"/>
@@ -15379,7 +15376,7 @@
       <c r="L105" s="60"/>
       <c r="M105" s="60"/>
       <c r="N105" s="60"/>
-      <c r="O105" s="62"/>
+      <c r="O105" s="63"/>
       <c r="P105" s="60"/>
       <c r="Q105" s="60"/>
       <c r="R105" s="60"/>
@@ -15545,7 +15542,7 @@
       <c r="L113" s="60"/>
       <c r="M113" s="60"/>
       <c r="N113" s="60"/>
-      <c r="O113" s="62"/>
+      <c r="O113" s="63"/>
       <c r="P113" s="60"/>
       <c r="Q113" s="60"/>
       <c r="R113" s="60"/>
@@ -15619,8 +15616,8 @@
       </c>
       <c r="D117" s="60"/>
       <c r="E117" s="60"/>
-      <c r="F117" s="61"/>
-      <c r="G117" s="61"/>
+      <c r="F117" s="62"/>
+      <c r="G117" s="62"/>
       <c r="H117" s="60"/>
       <c r="I117" s="60"/>
       <c r="J117" s="60"/>
@@ -15703,7 +15700,7 @@
       <c r="D121" s="60"/>
       <c r="E121" s="60"/>
       <c r="F121" s="60"/>
-      <c r="G121" s="61"/>
+      <c r="G121" s="62"/>
       <c r="H121" s="60"/>
       <c r="I121" s="60"/>
       <c r="J121" s="60"/>
@@ -15786,7 +15783,7 @@
       <c r="D125" s="60"/>
       <c r="E125" s="60"/>
       <c r="F125" s="60"/>
-      <c r="G125" s="61"/>
+      <c r="G125" s="62"/>
       <c r="H125" s="60"/>
       <c r="I125" s="60"/>
       <c r="J125" s="60"/>
@@ -15874,7 +15871,7 @@
       <c r="I129" s="60"/>
       <c r="J129" s="60"/>
       <c r="K129" s="60"/>
-      <c r="L129" s="63"/>
+      <c r="L129" s="64"/>
       <c r="M129" s="60"/>
       <c r="N129" s="60"/>
       <c r="O129" s="60"/>
@@ -15952,7 +15949,7 @@
       <c r="D133" s="60"/>
       <c r="E133" s="60"/>
       <c r="F133" s="60"/>
-      <c r="G133" s="61"/>
+      <c r="G133" s="62"/>
       <c r="H133" s="60"/>
       <c r="I133" s="60"/>
       <c r="J133" s="60"/>
@@ -16118,7 +16115,7 @@
       <c r="D141" s="60"/>
       <c r="E141" s="60"/>
       <c r="F141" s="60"/>
-      <c r="G141" s="61"/>
+      <c r="G141" s="62"/>
       <c r="H141" s="60"/>
       <c r="I141" s="60"/>
       <c r="J141" s="60"/>
@@ -16201,7 +16198,7 @@
       <c r="D145" s="60"/>
       <c r="E145" s="60"/>
       <c r="F145" s="60"/>
-      <c r="G145" s="61"/>
+      <c r="G145" s="62"/>
       <c r="H145" s="60"/>
       <c r="I145" s="60"/>
       <c r="J145" s="60"/>
@@ -16777,7 +16774,7 @@
       <c r="D173" s="60"/>
       <c r="E173" s="60"/>
       <c r="F173" s="60"/>
-      <c r="G173" s="61"/>
+      <c r="G173" s="62"/>
       <c r="H173" s="60"/>
       <c r="I173" s="60"/>
       <c r="J173" s="60"/>
@@ -16935,7 +16932,7 @@
       <c r="D181" s="60"/>
       <c r="E181" s="60"/>
       <c r="F181" s="60"/>
-      <c r="G181" s="61"/>
+      <c r="G181" s="62"/>
       <c r="H181" s="60"/>
       <c r="I181" s="60"/>
       <c r="J181" s="60"/>
@@ -17172,7 +17169,7 @@
       <c r="D193" s="60"/>
       <c r="E193" s="60"/>
       <c r="F193" s="60"/>
-      <c r="G193" s="61"/>
+      <c r="G193" s="62"/>
       <c r="H193" s="60"/>
       <c r="I193" s="60"/>
       <c r="J193" s="60"/>
@@ -17251,7 +17248,7 @@
       <c r="D197" s="60"/>
       <c r="E197" s="60"/>
       <c r="F197" s="60"/>
-      <c r="G197" s="61"/>
+      <c r="G197" s="62"/>
       <c r="H197" s="60"/>
       <c r="I197" s="60"/>
       <c r="J197" s="60"/>
@@ -17330,7 +17327,7 @@
       <c r="D201" s="60"/>
       <c r="E201" s="60"/>
       <c r="F201" s="60"/>
-      <c r="G201" s="61"/>
+      <c r="G201" s="62"/>
       <c r="H201" s="60"/>
       <c r="I201" s="60"/>
       <c r="J201" s="60"/>
@@ -17409,7 +17406,7 @@
       <c r="D205" s="60"/>
       <c r="E205" s="60"/>
       <c r="F205" s="60"/>
-      <c r="G205" s="61"/>
+      <c r="G205" s="62"/>
       <c r="H205" s="60"/>
       <c r="I205" s="60"/>
       <c r="J205" s="60"/>
@@ -17488,7 +17485,7 @@
       <c r="D209" s="60"/>
       <c r="E209" s="60"/>
       <c r="F209" s="60"/>
-      <c r="G209" s="61"/>
+      <c r="G209" s="62"/>
       <c r="H209" s="60"/>
       <c r="I209" s="60"/>
       <c r="J209" s="60"/>
@@ -17567,7 +17564,7 @@
       <c r="D213" s="60"/>
       <c r="E213" s="60"/>
       <c r="F213" s="60"/>
-      <c r="G213" s="61"/>
+      <c r="G213" s="62"/>
       <c r="H213" s="60"/>
       <c r="I213" s="60"/>
       <c r="J213" s="60"/>
@@ -17646,7 +17643,7 @@
       <c r="D217" s="60"/>
       <c r="E217" s="60"/>
       <c r="F217" s="60"/>
-      <c r="G217" s="61"/>
+      <c r="G217" s="62"/>
       <c r="H217" s="60"/>
       <c r="I217" s="60"/>
       <c r="J217" s="60"/>
@@ -17725,7 +17722,7 @@
       <c r="D221" s="60"/>
       <c r="E221" s="60"/>
       <c r="F221" s="60"/>
-      <c r="G221" s="61"/>
+      <c r="G221" s="62"/>
       <c r="H221" s="60"/>
       <c r="I221" s="60"/>
       <c r="J221" s="60"/>
@@ -17804,7 +17801,7 @@
       <c r="D225" s="60"/>
       <c r="E225" s="60"/>
       <c r="F225" s="60"/>
-      <c r="G225" s="61"/>
+      <c r="G225" s="62"/>
       <c r="H225" s="60"/>
       <c r="I225" s="60"/>
       <c r="J225" s="60"/>
@@ -17883,7 +17880,7 @@
       <c r="D229" s="60"/>
       <c r="E229" s="60"/>
       <c r="F229" s="60"/>
-      <c r="G229" s="61"/>
+      <c r="G229" s="62"/>
       <c r="H229" s="60"/>
       <c r="I229" s="60"/>
       <c r="J229" s="60"/>
@@ -17962,7 +17959,7 @@
       <c r="D233" s="60"/>
       <c r="E233" s="60"/>
       <c r="F233" s="60"/>
-      <c r="G233" s="61"/>
+      <c r="G233" s="62"/>
       <c r="H233" s="60"/>
       <c r="I233" s="60"/>
       <c r="J233" s="60"/>
@@ -18041,7 +18038,7 @@
       <c r="D237" s="60"/>
       <c r="E237" s="60"/>
       <c r="F237" s="60"/>
-      <c r="G237" s="61"/>
+      <c r="G237" s="62"/>
       <c r="H237" s="60"/>
       <c r="I237" s="60"/>
       <c r="J237" s="60"/>
@@ -18120,7 +18117,7 @@
       <c r="D241" s="60"/>
       <c r="E241" s="60"/>
       <c r="F241" s="60"/>
-      <c r="G241" s="61"/>
+      <c r="G241" s="62"/>
       <c r="H241" s="60"/>
       <c r="I241" s="60"/>
       <c r="J241" s="60"/>

--- a/output7/【河洛文讀注音-雅俗通】《牽絲戲》.xlsx
+++ b/output7/【河洛文讀注音-雅俗通】《牽絲戲》.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2897ECE9-E101-429A-B024-79E89B27AA89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7042BB-A421-4050-BD25-FD0CA6405C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="3" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="8" r:id="rId1"/>
-    <sheet name="缺字表" sheetId="161" r:id="rId2"/>
-    <sheet name="人工標音字庫" sheetId="160" r:id="rId3"/>
-    <sheet name="標音字庫" sheetId="159" r:id="rId4"/>
+    <sheet name="缺字表" sheetId="164" r:id="rId2"/>
+    <sheet name="人工標音字庫" sheetId="163" r:id="rId3"/>
+    <sheet name="標音字庫" sheetId="162" r:id="rId4"/>
     <sheet name="漢字注音" sheetId="9" r:id="rId5"/>
     <sheet name="標音字庫 (2)" sheetId="158" r:id="rId6"/>
     <sheet name="漢字注音 (範例)" sheetId="120" r:id="rId7"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4582" uniqueCount="1809">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4577" uniqueCount="1805">
   <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -5286,10 +5286,6 @@
     <t>lui2</t>
   </si>
   <si>
-    <t>lui2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>余</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5311,24 +5307,12 @@
     <t>khui2</t>
   </si>
   <si>
-    <t>khui2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>han5</t>
   </si>
   <si>
-    <t>han5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tong1</t>
   </si>
   <si>
-    <t>tong1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>寒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5336,74 +5320,22 @@
     <t>pin5</t>
   </si>
   <si>
-    <t>pin5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>honn2</t>
   </si>
   <si>
-    <t>honn2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>siok4</t>
   </si>
   <si>
-    <t>siok4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ong1</t>
   </si>
   <si>
-    <t>ong1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>iam2</t>
   </si>
   <si>
-    <t>iam2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>規二去</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>規二柳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公一英</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>姑二喜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>干五喜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公一地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巾五邊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭四時</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兼二英</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>公八柳</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6183,6 +6115,58 @@
   </si>
   <si>
     <t>(53, 12)</t>
+  </si>
+  <si>
+    <t>ka1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>膠一求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lo2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高二柳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ang1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江一英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bak8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江八門</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hoonn2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pan5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干五邊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iam7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼七英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6513,7 +6497,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6541,12 +6525,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6628,7 +6606,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6781,15 +6759,6 @@
     <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -6808,6 +6777,18 @@
     <xf numFmtId="0" fontId="44" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6815,28 +6796,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6847,7 +6806,7 @@
     <cellStyle name="超連結" xfId="4" builtinId="8"/>
     <cellStyle name="超連結 2" xfId="2" xr:uid="{35CF4CF4-6C05-4C83-A404-416353358D27}"/>
   </cellStyles>
-  <dxfs count="101">
+  <dxfs count="97">
     <dxf>
       <font>
         <b/>
@@ -6856,55 +6815,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFFCC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7480,7 +7391,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -8408,10 +8319,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="26.25">
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="56" t="s">
         <v>1</v>
       </c>
     </row>
@@ -8451,95 +8362,95 @@
       <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="55" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="30">
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="57">
+      <c r="C7" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="57" t="b">
+      <c r="C8" s="54" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="30">
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="57">
+      <c r="C9" s="54">
         <v>60</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="30">
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="57">
+      <c r="C10" s="54">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="30">
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="56" t="s">
+      <c r="C11" s="53" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="30">
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="56" t="s">
+      <c r="C12" s="53" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="30">
-      <c r="B13" s="54" t="s">
+      <c r="B13" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="56" t="s">
+      <c r="C13" s="53" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="30">
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="56" t="s">
+      <c r="C14" s="53" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="30">
-      <c r="B15" s="54" t="s">
+      <c r="B15" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="56" t="s">
+      <c r="C15" s="53" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="30">
-      <c r="B16" s="54" t="s">
+      <c r="B16" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="56" t="s">
+      <c r="C16" s="53" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="30">
-      <c r="B17" s="54" t="s">
+      <c r="B17" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="56" t="s">
+      <c r="C17" s="53" t="s">
         <v>25</v>
       </c>
     </row>
@@ -8758,7 +8669,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08B9D8CD-622F-4A46-89B8-8C255ADDE63A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE5EBA3-0C57-4AEA-9F85-C202E562774A}">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8789,7 +8700,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52745ED8-FBCD-4821-A9C6-E759AF951A37}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AFCE260-EBC4-4DB4-B8AA-BF68922B9B15}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8872,7 +8783,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="D5" t="s">
         <v>517</v>
@@ -8889,7 +8800,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="D6" t="s">
         <v>517</v>
@@ -8912,7 +8823,7 @@
         <v>517</v>
       </c>
       <c r="E7" t="s">
-        <v>1808</v>
+        <v>1791</v>
       </c>
     </row>
   </sheetData>
@@ -8922,12 +8833,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4C05E8F-70DF-4F23-B70B-5FBA36DC58A5}">
-  <dimension ref="A1:E188"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{778D206C-23A5-4B93-AEC2-F77090AC244A}">
+  <dimension ref="A1:E183"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
@@ -8962,7 +8871,7 @@
         <v>517</v>
       </c>
       <c r="E2" t="s">
-        <v>1806</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -9191,13 +9100,13 @@
         <v>1186</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C16" t="s">
         <v>1327</v>
       </c>
       <c r="D16" t="s">
-        <v>1587</v>
+        <v>517</v>
       </c>
       <c r="E16" t="s">
         <v>1434</v>
@@ -9208,13 +9117,13 @@
         <v>1187</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C17" t="s">
         <v>1328</v>
       </c>
       <c r="D17" t="s">
-        <v>1580</v>
+        <v>517</v>
       </c>
       <c r="E17" t="s">
         <v>1435</v>
@@ -9225,13 +9134,13 @@
         <v>1188</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
         <v>1329</v>
       </c>
       <c r="D18" t="s">
-        <v>1600</v>
+        <v>517</v>
       </c>
       <c r="E18" t="s">
         <v>1436</v>
@@ -9344,16 +9253,16 @@
         <v>1195</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C25" t="s">
         <v>1334</v>
       </c>
       <c r="D25" t="s">
-        <v>437</v>
+        <v>517</v>
       </c>
       <c r="E25" t="s">
-        <v>1807</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -9803,13 +9712,13 @@
         <v>1217</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C52" t="s">
         <v>1348</v>
       </c>
       <c r="D52" t="s">
-        <v>1596</v>
+        <v>517</v>
       </c>
       <c r="E52" t="s">
         <v>1565</v>
@@ -11282,13 +11191,13 @@
         <v>1283</v>
       </c>
       <c r="B139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C139" t="s">
         <v>1398</v>
       </c>
       <c r="D139" t="s">
-        <v>1589</v>
+        <v>517</v>
       </c>
       <c r="E139" t="s">
         <v>521</v>
@@ -11299,13 +11208,13 @@
         <v>32</v>
       </c>
       <c r="B140">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C140" t="s">
         <v>64</v>
       </c>
       <c r="D140" t="s">
-        <v>1591</v>
+        <v>517</v>
       </c>
       <c r="E140" t="s">
         <v>1567</v>
@@ -11367,13 +11276,13 @@
         <v>160</v>
       </c>
       <c r="B144">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C144" t="s">
         <v>385</v>
       </c>
       <c r="D144" t="s">
-        <v>1594</v>
+        <v>517</v>
       </c>
       <c r="E144" t="s">
         <v>1534</v>
@@ -11707,13 +11616,13 @@
         <v>179</v>
       </c>
       <c r="B164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C164" t="s">
         <v>400</v>
       </c>
       <c r="D164" t="s">
-        <v>1598</v>
+        <v>517</v>
       </c>
       <c r="E164" t="s">
         <v>1546</v>
@@ -11843,13 +11752,13 @@
         <v>1311</v>
       </c>
       <c r="B172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C172" t="s">
         <v>1419</v>
       </c>
       <c r="D172" t="s">
-        <v>424</v>
+        <v>517</v>
       </c>
       <c r="E172" t="s">
         <v>1553</v>
@@ -12030,50 +11939,20 @@
         <v>1320</v>
       </c>
       <c r="B183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C183" t="s">
         <v>1424</v>
       </c>
       <c r="D183" t="s">
-        <v>1602</v>
+        <v>517</v>
       </c>
       <c r="E183" t="s">
         <v>1559</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
-      <c r="D184" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5">
-      <c r="D185" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5">
-      <c r="D186" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5">
-      <c r="D187" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5">
-      <c r="D188" t="s">
-        <v>517</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:E188">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>AND("$C2 &lt;&gt; $D2", $D2 &lt;&gt; "N/A")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12082,7 +11961,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B653E275-5A31-466A-99DB-0BBFEE8A78C6}">
   <dimension ref="A1:V242"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A23" zoomScale="50" zoomScaleNormal="50" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
   <cols>
@@ -12197,892 +12076,892 @@
     <row r="3" spans="1:22" s="17" customFormat="1" ht="60" customHeight="1">
       <c r="B3" s="14"/>
       <c r="C3" s="15"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
       <c r="T3" s="18"/>
-      <c r="V3" s="51" t="s">
+      <c r="V3" s="58" t="s">
         <v>1564</v>
       </c>
     </row>
     <row r="4" spans="1:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="19"/>
-      <c r="D4" s="66" t="s">
-        <v>1618</v>
-      </c>
-      <c r="E4" s="66" t="s">
-        <v>1620</v>
-      </c>
-      <c r="F4" s="66" t="s">
+      <c r="D4" s="20" t="s">
+        <v>1601</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>1603</v>
+      </c>
+      <c r="F4" s="20" t="s">
         <v>547</v>
       </c>
-      <c r="G4" s="66" t="s">
+      <c r="G4" s="20" t="s">
         <v>914</v>
       </c>
-      <c r="H4" s="66" t="s">
-        <v>1622</v>
-      </c>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66" t="s">
+      <c r="H4" s="20" t="s">
+        <v>1605</v>
+      </c>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20" t="s">
         <v>890</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="K4" s="20" t="s">
         <v>603</v>
       </c>
-      <c r="L4" s="66" t="s">
-        <v>1624</v>
-      </c>
-      <c r="M4" s="66" t="s">
+      <c r="L4" s="20" t="s">
+        <v>1607</v>
+      </c>
+      <c r="M4" s="20" t="s">
         <v>675</v>
       </c>
-      <c r="N4" s="66" t="s">
-        <v>1626</v>
-      </c>
-      <c r="O4" s="66" t="s">
+      <c r="N4" s="20" t="s">
+        <v>1609</v>
+      </c>
+      <c r="O4" s="20" t="s">
         <v>914</v>
       </c>
-      <c r="P4" s="66" t="s">
-        <v>1628</v>
-      </c>
-      <c r="Q4" s="66" t="s">
+      <c r="P4" s="20" t="s">
+        <v>1611</v>
+      </c>
+      <c r="Q4" s="20" t="s">
         <v>635</v>
       </c>
-      <c r="R4" s="66" t="s">
+      <c r="R4" s="20" t="s">
         <v>768</v>
       </c>
       <c r="S4" s="21"/>
-      <c r="V4" s="52"/>
+      <c r="V4" s="59"/>
     </row>
     <row r="5" spans="1:22" s="8" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B5" s="22">
         <v>1</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="D5" s="61" t="s">
         <v>1175</v>
       </c>
-      <c r="E5" s="60" t="s">
+      <c r="E5" s="61" t="s">
         <v>1176</v>
       </c>
-      <c r="F5" s="60" t="s">
+      <c r="F5" s="61" t="s">
         <v>1177</v>
       </c>
-      <c r="G5" s="60" t="s">
+      <c r="G5" s="61" t="s">
         <v>1178</v>
       </c>
-      <c r="H5" s="60" t="s">
+      <c r="H5" s="61" t="s">
         <v>1179</v>
       </c>
-      <c r="I5" s="60" t="s">
+      <c r="I5" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="60" t="s">
+      <c r="J5" s="61" t="s">
         <v>285</v>
       </c>
-      <c r="K5" s="60" t="s">
+      <c r="K5" s="61" t="s">
         <v>119</v>
       </c>
-      <c r="L5" s="60" t="s">
+      <c r="L5" s="61" t="s">
         <v>1180</v>
       </c>
-      <c r="M5" s="60" t="s">
+      <c r="M5" s="61" t="s">
         <v>1181</v>
       </c>
-      <c r="N5" s="60" t="s">
+      <c r="N5" s="61" t="s">
         <v>1182</v>
       </c>
-      <c r="O5" s="60" t="s">
+      <c r="O5" s="61" t="s">
         <v>1183</v>
       </c>
-      <c r="P5" s="60" t="s">
+      <c r="P5" s="61" t="s">
         <v>1184</v>
       </c>
-      <c r="Q5" s="60" t="s">
+      <c r="Q5" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="R5" s="60" t="s">
+      <c r="R5" s="61" t="s">
         <v>1185</v>
       </c>
       <c r="S5" s="23"/>
-      <c r="V5" s="52"/>
+      <c r="V5" s="59"/>
     </row>
     <row r="6" spans="1:22" s="28" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="24"/>
       <c r="C6" s="25"/>
-      <c r="D6" s="67" t="s">
-        <v>1619</v>
-      </c>
-      <c r="E6" s="67" t="s">
-        <v>1621</v>
-      </c>
-      <c r="F6" s="67" t="s">
+      <c r="D6" s="26" t="s">
+        <v>1602</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>1604</v>
+      </c>
+      <c r="F6" s="26" t="s">
         <v>548</v>
       </c>
-      <c r="G6" s="67" t="s">
+      <c r="G6" s="26" t="s">
         <v>915</v>
       </c>
-      <c r="H6" s="67" t="s">
-        <v>1623</v>
-      </c>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67" t="s">
+      <c r="H6" s="26" t="s">
+        <v>1606</v>
+      </c>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26" t="s">
         <v>891</v>
       </c>
-      <c r="K6" s="67" t="s">
+      <c r="K6" s="26" t="s">
         <v>604</v>
       </c>
-      <c r="L6" s="67" t="s">
-        <v>1625</v>
-      </c>
-      <c r="M6" s="67" t="s">
+      <c r="L6" s="26" t="s">
+        <v>1608</v>
+      </c>
+      <c r="M6" s="26" t="s">
         <v>676</v>
       </c>
-      <c r="N6" s="67" t="s">
-        <v>1627</v>
-      </c>
-      <c r="O6" s="67" t="s">
+      <c r="N6" s="26" t="s">
+        <v>1610</v>
+      </c>
+      <c r="O6" s="26" t="s">
         <v>915</v>
       </c>
-      <c r="P6" s="67" t="s">
-        <v>1629</v>
-      </c>
-      <c r="Q6" s="67" t="s">
+      <c r="P6" s="26" t="s">
+        <v>1612</v>
+      </c>
+      <c r="Q6" s="26" t="s">
         <v>636</v>
       </c>
-      <c r="R6" s="67" t="s">
+      <c r="R6" s="26" t="s">
         <v>769</v>
       </c>
       <c r="S6" s="27"/>
-      <c r="V6" s="52"/>
+      <c r="V6" s="59"/>
     </row>
     <row r="7" spans="1:22" s="32" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="29"/>
       <c r="C7" s="30"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="65"/>
-      <c r="N7" s="65"/>
-      <c r="O7" s="65"/>
-      <c r="P7" s="65"/>
-      <c r="Q7" s="65"/>
-      <c r="R7" s="65"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
       <c r="S7" s="31"/>
-      <c r="V7" s="52"/>
+      <c r="V7" s="59"/>
     </row>
     <row r="8" spans="1:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="19"/>
-      <c r="D8" s="66" t="s">
-        <v>1588</v>
-      </c>
-      <c r="E8" s="66" t="s">
-        <v>1581</v>
-      </c>
-      <c r="F8" s="66" t="s">
-        <v>1601</v>
-      </c>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66" t="s">
-        <v>1630</v>
-      </c>
-      <c r="I8" s="66" t="s">
-        <v>1632</v>
-      </c>
-      <c r="J8" s="66" t="s">
+      <c r="D8" s="20" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>1794</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>1796</v>
+      </c>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20" t="s">
+        <v>1613</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>1615</v>
+      </c>
+      <c r="J8" s="20" t="s">
         <v>689</v>
       </c>
-      <c r="K8" s="66" t="s">
-        <v>1634</v>
-      </c>
-      <c r="L8" s="66"/>
-      <c r="M8" s="66" t="s">
+      <c r="K8" s="20" t="s">
+        <v>1617</v>
+      </c>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20" t="s">
         <v>898</v>
       </c>
-      <c r="N8" s="66" t="s">
-        <v>1636</v>
-      </c>
-      <c r="O8" s="66" t="s">
+      <c r="N8" s="20" t="s">
+        <v>1619</v>
+      </c>
+      <c r="O8" s="20" t="s">
         <v>635</v>
       </c>
-      <c r="P8" s="66" t="s">
-        <v>792</v>
-      </c>
-      <c r="Q8" s="66" t="s">
-        <v>1638</v>
-      </c>
-      <c r="R8" s="66" t="s">
+      <c r="P8" s="20" t="s">
+        <v>1798</v>
+      </c>
+      <c r="Q8" s="20" t="s">
+        <v>1621</v>
+      </c>
+      <c r="R8" s="20" t="s">
         <v>589</v>
       </c>
       <c r="S8" s="21"/>
-      <c r="V8" s="52"/>
+      <c r="V8" s="59"/>
     </row>
     <row r="9" spans="1:22" s="8" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B9" s="22">
         <f>B5+1</f>
         <v>2</v>
       </c>
-      <c r="D9" s="69" t="s">
+      <c r="D9" s="61" t="s">
         <v>1186</v>
       </c>
-      <c r="E9" s="69" t="s">
+      <c r="E9" s="61" t="s">
         <v>1187</v>
       </c>
-      <c r="F9" s="69" t="s">
+      <c r="F9" s="61" t="s">
         <v>1188</v>
       </c>
-      <c r="G9" s="60" t="s">
+      <c r="G9" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="60" t="s">
+      <c r="H9" s="61" t="s">
         <v>1189</v>
       </c>
-      <c r="I9" s="60" t="s">
+      <c r="I9" s="61" t="s">
         <v>1190</v>
       </c>
-      <c r="J9" s="60" t="s">
+      <c r="J9" s="61" t="s">
         <v>1191</v>
       </c>
-      <c r="K9" s="60" t="s">
+      <c r="K9" s="61" t="s">
         <v>1192</v>
       </c>
-      <c r="L9" s="60" t="s">
+      <c r="L9" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="60" t="s">
+      <c r="M9" s="61" t="s">
         <v>1193</v>
       </c>
-      <c r="N9" s="60" t="s">
+      <c r="N9" s="61" t="s">
         <v>1194</v>
       </c>
-      <c r="O9" s="60" t="s">
+      <c r="O9" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="P9" s="69" t="s">
+      <c r="P9" s="61" t="s">
         <v>1195</v>
       </c>
-      <c r="Q9" s="60" t="s">
+      <c r="Q9" s="61" t="s">
         <v>1196</v>
       </c>
-      <c r="R9" s="60" t="s">
+      <c r="R9" s="61" t="s">
         <v>1197</v>
       </c>
       <c r="S9" s="23"/>
       <c r="T9" s="18"/>
-      <c r="V9" s="52"/>
+      <c r="V9" s="59"/>
     </row>
     <row r="10" spans="1:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="24"/>
-      <c r="D10" s="67" t="s">
-        <v>1604</v>
-      </c>
-      <c r="E10" s="67" t="s">
-        <v>1605</v>
-      </c>
-      <c r="F10" s="67" t="s">
-        <v>1606</v>
-      </c>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67" t="s">
-        <v>1631</v>
-      </c>
-      <c r="I10" s="67" t="s">
-        <v>1633</v>
-      </c>
-      <c r="J10" s="67" t="s">
+      <c r="D10" s="26" t="s">
+        <v>1793</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>1795</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>1797</v>
+      </c>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26" t="s">
+        <v>1614</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>1616</v>
+      </c>
+      <c r="J10" s="26" t="s">
         <v>690</v>
       </c>
-      <c r="K10" s="67" t="s">
-        <v>1635</v>
-      </c>
-      <c r="L10" s="67"/>
-      <c r="M10" s="67" t="s">
+      <c r="K10" s="26" t="s">
+        <v>1618</v>
+      </c>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26" t="s">
         <v>899</v>
       </c>
-      <c r="N10" s="67" t="s">
-        <v>1637</v>
-      </c>
-      <c r="O10" s="67" t="s">
+      <c r="N10" s="26" t="s">
+        <v>1620</v>
+      </c>
+      <c r="O10" s="26" t="s">
         <v>636</v>
       </c>
-      <c r="P10" s="67" t="s">
-        <v>793</v>
-      </c>
-      <c r="Q10" s="67" t="s">
-        <v>1639</v>
-      </c>
-      <c r="R10" s="67" t="s">
+      <c r="P10" s="26" t="s">
+        <v>1799</v>
+      </c>
+      <c r="Q10" s="26" t="s">
+        <v>1622</v>
+      </c>
+      <c r="R10" s="26" t="s">
         <v>590</v>
       </c>
       <c r="S10" s="33"/>
-      <c r="V10" s="52"/>
+      <c r="V10" s="59"/>
     </row>
     <row r="11" spans="1:22" s="31" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="34"/>
       <c r="C11" s="35"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="65"/>
-      <c r="N11" s="65"/>
-      <c r="O11" s="65"/>
-      <c r="P11" s="65"/>
-      <c r="Q11" s="65"/>
-      <c r="R11" s="65"/>
-      <c r="V11" s="52"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="V11" s="59"/>
     </row>
     <row r="12" spans="1:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="19"/>
-      <c r="D12" s="66" t="s">
+      <c r="D12" s="20" t="s">
         <v>611</v>
       </c>
-      <c r="E12" s="66" t="s">
+      <c r="E12" s="20" t="s">
         <v>691</v>
       </c>
-      <c r="F12" s="66" t="s">
+      <c r="F12" s="20" t="s">
         <v>583</v>
       </c>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66" t="s">
+      <c r="G12" s="20"/>
+      <c r="H12" s="20" t="s">
         <v>639</v>
       </c>
-      <c r="I12" s="66" t="s">
-        <v>1640</v>
-      </c>
-      <c r="J12" s="66" t="s">
-        <v>1642</v>
-      </c>
-      <c r="K12" s="66" t="s">
-        <v>1634</v>
-      </c>
-      <c r="L12" s="66"/>
-      <c r="M12" s="66" t="s">
+      <c r="I12" s="20" t="s">
+        <v>1623</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>1625</v>
+      </c>
+      <c r="K12" s="20" t="s">
+        <v>1617</v>
+      </c>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20" t="s">
         <v>703</v>
       </c>
-      <c r="N12" s="66" t="s">
-        <v>1644</v>
-      </c>
-      <c r="O12" s="66" t="s">
-        <v>1646</v>
-      </c>
-      <c r="P12" s="66" t="s">
-        <v>1648</v>
-      </c>
-      <c r="Q12" s="66" t="s">
-        <v>1650</v>
-      </c>
-      <c r="R12" s="66"/>
+      <c r="N12" s="20" t="s">
+        <v>1627</v>
+      </c>
+      <c r="O12" s="20" t="s">
+        <v>1629</v>
+      </c>
+      <c r="P12" s="20" t="s">
+        <v>1631</v>
+      </c>
+      <c r="Q12" s="20" t="s">
+        <v>1633</v>
+      </c>
+      <c r="R12" s="20"/>
       <c r="S12" s="21"/>
-      <c r="V12" s="52"/>
+      <c r="V12" s="59"/>
     </row>
     <row r="13" spans="1:22" s="8" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B13" s="22">
         <f>B9+1</f>
         <v>3</v>
       </c>
-      <c r="D13" s="60" t="s">
+      <c r="D13" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="E13" s="60" t="s">
+      <c r="E13" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="60" t="s">
+      <c r="F13" s="61" t="s">
         <v>1198</v>
       </c>
-      <c r="G13" s="60" t="s">
+      <c r="G13" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="60" t="s">
+      <c r="H13" s="61" t="s">
         <v>1199</v>
       </c>
-      <c r="I13" s="60" t="s">
+      <c r="I13" s="61" t="s">
         <v>1200</v>
       </c>
-      <c r="J13" s="60" t="s">
+      <c r="J13" s="61" t="s">
         <v>1201</v>
       </c>
-      <c r="K13" s="60" t="s">
+      <c r="K13" s="61" t="s">
         <v>1202</v>
       </c>
-      <c r="L13" s="60" t="s">
+      <c r="L13" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="M13" s="60" t="s">
+      <c r="M13" s="61" t="s">
         <v>1203</v>
       </c>
-      <c r="N13" s="60" t="s">
+      <c r="N13" s="61" t="s">
         <v>1204</v>
       </c>
-      <c r="O13" s="60" t="s">
+      <c r="O13" s="61" t="s">
         <v>1205</v>
       </c>
-      <c r="P13" s="60" t="s">
+      <c r="P13" s="61" t="s">
         <v>1206</v>
       </c>
-      <c r="Q13" s="60" t="s">
+      <c r="Q13" s="61" t="s">
         <v>1207</v>
       </c>
-      <c r="R13" s="60" t="s">
+      <c r="R13" s="61" t="s">
         <v>31</v>
       </c>
       <c r="S13" s="23"/>
-      <c r="V13" s="52"/>
+      <c r="V13" s="59"/>
     </row>
     <row r="14" spans="1:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="24"/>
-      <c r="D14" s="67" t="s">
+      <c r="D14" s="26" t="s">
         <v>612</v>
       </c>
-      <c r="E14" s="67" t="s">
+      <c r="E14" s="26" t="s">
         <v>692</v>
       </c>
-      <c r="F14" s="67" t="s">
+      <c r="F14" s="26" t="s">
         <v>584</v>
       </c>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67" t="s">
+      <c r="G14" s="26"/>
+      <c r="H14" s="26" t="s">
         <v>640</v>
       </c>
-      <c r="I14" s="67" t="s">
-        <v>1641</v>
-      </c>
-      <c r="J14" s="67" t="s">
-        <v>1643</v>
-      </c>
-      <c r="K14" s="67" t="s">
-        <v>1635</v>
-      </c>
-      <c r="L14" s="67"/>
-      <c r="M14" s="67" t="s">
+      <c r="I14" s="26" t="s">
+        <v>1624</v>
+      </c>
+      <c r="J14" s="26" t="s">
+        <v>1626</v>
+      </c>
+      <c r="K14" s="26" t="s">
+        <v>1618</v>
+      </c>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26" t="s">
         <v>704</v>
       </c>
-      <c r="N14" s="67" t="s">
-        <v>1645</v>
-      </c>
-      <c r="O14" s="67" t="s">
-        <v>1647</v>
-      </c>
-      <c r="P14" s="67" t="s">
-        <v>1649</v>
-      </c>
-      <c r="Q14" s="67" t="s">
-        <v>1651</v>
-      </c>
-      <c r="R14" s="67"/>
+      <c r="N14" s="26" t="s">
+        <v>1628</v>
+      </c>
+      <c r="O14" s="26" t="s">
+        <v>1630</v>
+      </c>
+      <c r="P14" s="26" t="s">
+        <v>1632</v>
+      </c>
+      <c r="Q14" s="26" t="s">
+        <v>1634</v>
+      </c>
+      <c r="R14" s="26"/>
       <c r="S14" s="33"/>
-      <c r="V14" s="52"/>
+      <c r="V14" s="59"/>
     </row>
     <row r="15" spans="1:22" s="37" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="14"/>
       <c r="C15" s="36"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="65"/>
-      <c r="N15" s="65"/>
-      <c r="O15" s="65"/>
-      <c r="P15" s="65"/>
-      <c r="Q15" s="65"/>
-      <c r="R15" s="65"/>
-      <c r="V15" s="52"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="V15" s="59"/>
     </row>
     <row r="16" spans="1:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="19"/>
-      <c r="D16" s="66" t="s">
+      <c r="D16" s="20" t="s">
         <v>1569</v>
       </c>
-      <c r="E16" s="66" t="s">
+      <c r="E16" s="20" t="s">
         <v>559</v>
       </c>
-      <c r="F16" s="66" t="s">
-        <v>1653</v>
-      </c>
-      <c r="G16" s="66" t="s">
+      <c r="F16" s="20" t="s">
+        <v>1636</v>
+      </c>
+      <c r="G16" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66" t="s">
+      <c r="H16" s="20"/>
+      <c r="I16" s="20" t="s">
         <v>922</v>
       </c>
-      <c r="J16" s="66" t="s">
-        <v>1655</v>
-      </c>
-      <c r="K16" s="66" t="s">
+      <c r="J16" s="20" t="s">
+        <v>1638</v>
+      </c>
+      <c r="K16" s="20" t="s">
         <v>906</v>
       </c>
-      <c r="L16" s="66" t="s">
-        <v>1624</v>
-      </c>
-      <c r="M16" s="66" t="s">
-        <v>1657</v>
-      </c>
-      <c r="N16" s="66"/>
-      <c r="O16" s="66" t="s">
+      <c r="L16" s="20" t="s">
+        <v>1607</v>
+      </c>
+      <c r="M16" s="20" t="s">
+        <v>1640</v>
+      </c>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20" t="s">
         <v>896</v>
       </c>
-      <c r="P16" s="66" t="s">
+      <c r="P16" s="20" t="s">
         <v>559</v>
       </c>
-      <c r="Q16" s="66" t="s">
-        <v>1659</v>
-      </c>
-      <c r="R16" s="66" t="s">
-        <v>1661</v>
+      <c r="Q16" s="20" t="s">
+        <v>1642</v>
+      </c>
+      <c r="R16" s="20" t="s">
+        <v>1644</v>
       </c>
       <c r="S16" s="21"/>
-      <c r="V16" s="52"/>
+      <c r="V16" s="59"/>
     </row>
     <row r="17" spans="2:22" s="8" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B17" s="22">
         <f>B13+1</f>
         <v>4</v>
       </c>
-      <c r="D17" s="60" t="s">
+      <c r="D17" s="61" t="s">
         <v>1208</v>
       </c>
-      <c r="E17" s="60" t="s">
+      <c r="E17" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="60" t="s">
+      <c r="F17" s="61" t="s">
         <v>1209</v>
       </c>
-      <c r="G17" s="60" t="s">
+      <c r="G17" s="61" t="s">
         <v>1210</v>
       </c>
-      <c r="H17" s="60" t="s">
+      <c r="H17" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="I17" s="60" t="s">
+      <c r="I17" s="61" t="s">
         <v>302</v>
       </c>
-      <c r="J17" s="60" t="s">
+      <c r="J17" s="61" t="s">
         <v>1211</v>
       </c>
-      <c r="K17" s="60" t="s">
+      <c r="K17" s="61" t="s">
         <v>1212</v>
       </c>
-      <c r="L17" s="60" t="s">
+      <c r="L17" s="61" t="s">
         <v>1180</v>
       </c>
-      <c r="M17" s="60" t="s">
+      <c r="M17" s="61" t="s">
         <v>1213</v>
       </c>
-      <c r="N17" s="60" t="s">
+      <c r="N17" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="O17" s="60" t="s">
+      <c r="O17" s="61" t="s">
         <v>289</v>
       </c>
-      <c r="P17" s="60" t="s">
+      <c r="P17" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="Q17" s="60" t="s">
+      <c r="Q17" s="61" t="s">
         <v>1214</v>
       </c>
-      <c r="R17" s="60" t="s">
+      <c r="R17" s="61" t="s">
         <v>1215</v>
       </c>
       <c r="S17" s="23"/>
-      <c r="V17" s="52"/>
+      <c r="V17" s="59"/>
     </row>
     <row r="18" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="24"/>
-      <c r="D18" s="67" t="s">
-        <v>1652</v>
-      </c>
-      <c r="E18" s="67" t="s">
+      <c r="D18" s="26" t="s">
+        <v>1635</v>
+      </c>
+      <c r="E18" s="26" t="s">
         <v>560</v>
       </c>
-      <c r="F18" s="67" t="s">
-        <v>1654</v>
-      </c>
-      <c r="G18" s="67" t="s">
+      <c r="F18" s="26" t="s">
+        <v>1637</v>
+      </c>
+      <c r="G18" s="26" t="s">
         <v>532</v>
       </c>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67" t="s">
+      <c r="H18" s="26"/>
+      <c r="I18" s="26" t="s">
         <v>923</v>
       </c>
-      <c r="J18" s="67" t="s">
-        <v>1656</v>
-      </c>
-      <c r="K18" s="67" t="s">
+      <c r="J18" s="26" t="s">
+        <v>1639</v>
+      </c>
+      <c r="K18" s="26" t="s">
         <v>907</v>
       </c>
-      <c r="L18" s="67" t="s">
-        <v>1625</v>
-      </c>
-      <c r="M18" s="67" t="s">
-        <v>1658</v>
-      </c>
-      <c r="N18" s="67"/>
-      <c r="O18" s="67" t="s">
+      <c r="L18" s="26" t="s">
+        <v>1608</v>
+      </c>
+      <c r="M18" s="26" t="s">
+        <v>1641</v>
+      </c>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26" t="s">
         <v>897</v>
       </c>
-      <c r="P18" s="67" t="s">
+      <c r="P18" s="26" t="s">
         <v>560</v>
       </c>
-      <c r="Q18" s="67" t="s">
-        <v>1660</v>
-      </c>
-      <c r="R18" s="67" t="s">
-        <v>1662</v>
+      <c r="Q18" s="26" t="s">
+        <v>1643</v>
+      </c>
+      <c r="R18" s="26" t="s">
+        <v>1645</v>
       </c>
       <c r="S18" s="33"/>
-      <c r="V18" s="52"/>
+      <c r="V18" s="59"/>
     </row>
     <row r="19" spans="2:22" s="37" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="14"/>
       <c r="C19" s="36"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="65"/>
-      <c r="N19" s="65"/>
-      <c r="O19" s="65"/>
-      <c r="P19" s="65"/>
-      <c r="Q19" s="65"/>
-      <c r="R19" s="65"/>
-      <c r="V19" s="52"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="V19" s="59"/>
     </row>
     <row r="20" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="19"/>
-      <c r="D20" s="66" t="s">
-        <v>1663</v>
-      </c>
-      <c r="E20" s="66" t="s">
-        <v>1597</v>
-      </c>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66" t="s">
-        <v>1601</v>
-      </c>
-      <c r="H20" s="66" t="s">
-        <v>1665</v>
-      </c>
-      <c r="I20" s="66" t="s">
+      <c r="D20" s="20" t="s">
+        <v>1646</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>1800</v>
+      </c>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20" t="s">
+        <v>1796</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>1648</v>
+      </c>
+      <c r="I20" s="20" t="s">
         <v>679</v>
       </c>
-      <c r="J20" s="66" t="s">
+      <c r="J20" s="20" t="s">
         <v>551</v>
       </c>
-      <c r="K20" s="66"/>
-      <c r="L20" s="66" t="s">
-        <v>1620</v>
-      </c>
-      <c r="M20" s="66" t="s">
+      <c r="K20" s="20"/>
+      <c r="L20" s="20" t="s">
+        <v>1603</v>
+      </c>
+      <c r="M20" s="20" t="s">
         <v>922</v>
       </c>
-      <c r="N20" s="66" t="s">
-        <v>1667</v>
-      </c>
-      <c r="O20" s="66" t="s">
+      <c r="N20" s="20" t="s">
+        <v>1650</v>
+      </c>
+      <c r="O20" s="20" t="s">
         <v>621</v>
       </c>
-      <c r="P20" s="66" t="s">
-        <v>1669</v>
-      </c>
-      <c r="Q20" s="66" t="s">
+      <c r="P20" s="20" t="s">
+        <v>1652</v>
+      </c>
+      <c r="Q20" s="20" t="s">
         <v>599</v>
       </c>
-      <c r="R20" s="66" t="s">
-        <v>1671</v>
+      <c r="R20" s="20" t="s">
+        <v>1654</v>
       </c>
       <c r="S20" s="21"/>
-      <c r="V20" s="52"/>
+      <c r="V20" s="59"/>
     </row>
     <row r="21" spans="2:22" s="8" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B21" s="22">
         <f>B17+1</f>
         <v>5</v>
       </c>
-      <c r="D21" s="60" t="s">
+      <c r="D21" s="61" t="s">
         <v>1216</v>
       </c>
-      <c r="E21" s="69" t="s">
+      <c r="E21" s="61" t="s">
         <v>1217</v>
       </c>
-      <c r="F21" s="60" t="s">
+      <c r="F21" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="G21" s="69" t="s">
+      <c r="G21" s="61" t="s">
         <v>1188</v>
       </c>
-      <c r="H21" s="60" t="s">
+      <c r="H21" s="61" t="s">
         <v>1218</v>
       </c>
-      <c r="I21" s="60" t="s">
+      <c r="I21" s="61" t="s">
         <v>157</v>
       </c>
-      <c r="J21" s="60" t="s">
+      <c r="J21" s="61" t="s">
         <v>305</v>
       </c>
-      <c r="K21" s="60" t="s">
+      <c r="K21" s="61" t="s">
         <v>306</v>
       </c>
-      <c r="L21" s="60" t="s">
+      <c r="L21" s="61" t="s">
         <v>1176</v>
       </c>
-      <c r="M21" s="61" t="s">
+      <c r="M21" s="62" t="s">
         <v>302</v>
       </c>
-      <c r="N21" s="60" t="s">
+      <c r="N21" s="61" t="s">
         <v>1219</v>
       </c>
-      <c r="O21" s="60" t="s">
+      <c r="O21" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="P21" s="60" t="s">
+      <c r="P21" s="61" t="s">
         <v>1220</v>
       </c>
-      <c r="Q21" s="60" t="s">
+      <c r="Q21" s="61" t="s">
         <v>1221</v>
       </c>
-      <c r="R21" s="60" t="s">
+      <c r="R21" s="61" t="s">
         <v>1222</v>
       </c>
       <c r="S21" s="23"/>
-      <c r="V21" s="52"/>
+      <c r="V21" s="59"/>
     </row>
     <row r="22" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="24"/>
-      <c r="D22" s="67" t="s">
-        <v>1664</v>
-      </c>
-      <c r="E22" s="67" t="s">
-        <v>1607</v>
-      </c>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67" t="s">
-        <v>1606</v>
-      </c>
-      <c r="H22" s="67" t="s">
-        <v>1666</v>
-      </c>
-      <c r="I22" s="67" t="s">
+      <c r="D22" s="26" t="s">
+        <v>1647</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>1595</v>
+      </c>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26" t="s">
+        <v>1797</v>
+      </c>
+      <c r="H22" s="26" t="s">
+        <v>1649</v>
+      </c>
+      <c r="I22" s="26" t="s">
         <v>680</v>
       </c>
-      <c r="J22" s="67" t="s">
+      <c r="J22" s="26" t="s">
         <v>552</v>
       </c>
-      <c r="K22" s="67"/>
-      <c r="L22" s="67" t="s">
-        <v>1621</v>
-      </c>
-      <c r="M22" s="67" t="s">
+      <c r="K22" s="26"/>
+      <c r="L22" s="26" t="s">
+        <v>1604</v>
+      </c>
+      <c r="M22" s="26" t="s">
         <v>923</v>
       </c>
-      <c r="N22" s="67" t="s">
-        <v>1668</v>
-      </c>
-      <c r="O22" s="67" t="s">
+      <c r="N22" s="26" t="s">
+        <v>1651</v>
+      </c>
+      <c r="O22" s="26" t="s">
         <v>622</v>
       </c>
-      <c r="P22" s="67" t="s">
-        <v>1670</v>
-      </c>
-      <c r="Q22" s="67" t="s">
+      <c r="P22" s="26" t="s">
+        <v>1653</v>
+      </c>
+      <c r="Q22" s="26" t="s">
         <v>600</v>
       </c>
-      <c r="R22" s="67" t="s">
-        <v>1672</v>
+      <c r="R22" s="26" t="s">
+        <v>1655</v>
       </c>
       <c r="S22" s="33"/>
-      <c r="V22" s="53"/>
+      <c r="V22" s="60"/>
     </row>
     <row r="23" spans="2:22" s="37" customFormat="1" ht="60" customHeight="1">
       <c r="B23" s="14"/>
       <c r="C23" s="36"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="65"/>
-      <c r="N23" s="65"/>
-      <c r="O23" s="65"/>
-      <c r="P23" s="65"/>
-      <c r="Q23" s="65"/>
-      <c r="R23" s="65"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
       <c r="V23" s="38"/>
     </row>
     <row r="24" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B24" s="19"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66" t="s">
-        <v>1673</v>
-      </c>
-      <c r="F24" s="66" t="s">
+      <c r="D24" s="20"/>
+      <c r="E24" s="20" t="s">
+        <v>1656</v>
+      </c>
+      <c r="F24" s="20" t="s">
         <v>603</v>
       </c>
-      <c r="G24" s="66" t="s">
-        <v>1675</v>
-      </c>
-      <c r="H24" s="66" t="s">
+      <c r="G24" s="20" t="s">
+        <v>1658</v>
+      </c>
+      <c r="H24" s="20" t="s">
         <v>547</v>
       </c>
-      <c r="I24" s="66" t="s">
-        <v>1588</v>
-      </c>
-      <c r="J24" s="66" t="s">
-        <v>1581</v>
-      </c>
-      <c r="K24" s="66" t="s">
+      <c r="I24" s="20" t="s">
+        <v>1792</v>
+      </c>
+      <c r="J24" s="20" t="s">
+        <v>1794</v>
+      </c>
+      <c r="K24" s="20" t="s">
         <v>619</v>
       </c>
-      <c r="L24" s="66" t="s">
+      <c r="L24" s="20" t="s">
         <v>788</v>
       </c>
-      <c r="M24" s="66"/>
-      <c r="N24" s="66" t="s">
+      <c r="M24" s="20"/>
+      <c r="N24" s="20" t="s">
         <v>617</v>
       </c>
-      <c r="O24" s="66" t="s">
+      <c r="O24" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="P24" s="66" t="s">
+      <c r="P24" s="20" t="s">
         <v>645</v>
       </c>
-      <c r="Q24" s="66"/>
-      <c r="R24" s="66" t="s">
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20" t="s">
         <v>585</v>
       </c>
       <c r="S24" s="21"/>
@@ -13093,49 +12972,49 @@
         <f>B21+1</f>
         <v>6</v>
       </c>
-      <c r="D25" s="60" t="s">
+      <c r="D25" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="60" t="s">
+      <c r="E25" s="61" t="s">
         <v>1223</v>
       </c>
-      <c r="F25" s="60" t="s">
+      <c r="F25" s="61" t="s">
         <v>119</v>
       </c>
-      <c r="G25" s="60" t="s">
+      <c r="G25" s="61" t="s">
         <v>1224</v>
       </c>
-      <c r="H25" s="60" t="s">
+      <c r="H25" s="61" t="s">
         <v>1225</v>
       </c>
-      <c r="I25" s="69" t="s">
+      <c r="I25" s="61" t="s">
         <v>1186</v>
       </c>
-      <c r="J25" s="69" t="s">
+      <c r="J25" s="61" t="s">
         <v>1187</v>
       </c>
-      <c r="K25" s="60" t="s">
+      <c r="K25" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="L25" s="60" t="s">
+      <c r="L25" s="61" t="s">
         <v>1226</v>
       </c>
-      <c r="M25" s="60" t="s">
+      <c r="M25" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="N25" s="60" t="s">
+      <c r="N25" s="61" t="s">
         <v>1227</v>
       </c>
-      <c r="O25" s="60" t="s">
+      <c r="O25" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="P25" s="60" t="s">
+      <c r="P25" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="Q25" s="60" t="s">
+      <c r="Q25" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="R25" s="60" t="s">
+      <c r="R25" s="61" t="s">
         <v>110</v>
       </c>
       <c r="S25" s="23"/>
@@ -13143,43 +13022,43 @@
     </row>
     <row r="26" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B26" s="24"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67" t="s">
-        <v>1674</v>
-      </c>
-      <c r="F26" s="67" t="s">
+      <c r="D26" s="26"/>
+      <c r="E26" s="26" t="s">
+        <v>1657</v>
+      </c>
+      <c r="F26" s="26" t="s">
         <v>604</v>
       </c>
-      <c r="G26" s="67" t="s">
-        <v>1676</v>
-      </c>
-      <c r="H26" s="67" t="s">
+      <c r="G26" s="26" t="s">
+        <v>1659</v>
+      </c>
+      <c r="H26" s="26" t="s">
         <v>548</v>
       </c>
-      <c r="I26" s="67" t="s">
-        <v>1604</v>
-      </c>
-      <c r="J26" s="67" t="s">
-        <v>1605</v>
-      </c>
-      <c r="K26" s="67" t="s">
+      <c r="I26" s="26" t="s">
+        <v>1793</v>
+      </c>
+      <c r="J26" s="26" t="s">
+        <v>1795</v>
+      </c>
+      <c r="K26" s="26" t="s">
         <v>620</v>
       </c>
-      <c r="L26" s="67" t="s">
+      <c r="L26" s="26" t="s">
         <v>789</v>
       </c>
-      <c r="M26" s="67"/>
-      <c r="N26" s="67" t="s">
+      <c r="M26" s="26"/>
+      <c r="N26" s="26" t="s">
         <v>618</v>
       </c>
-      <c r="O26" s="67" t="s">
+      <c r="O26" s="26" t="s">
         <v>532</v>
       </c>
-      <c r="P26" s="67" t="s">
+      <c r="P26" s="26" t="s">
         <v>646</v>
       </c>
-      <c r="Q26" s="67"/>
-      <c r="R26" s="67" t="s">
+      <c r="Q26" s="26"/>
+      <c r="R26" s="26" t="s">
         <v>586</v>
       </c>
       <c r="S26" s="33"/>
@@ -13192,21 +13071,21 @@
     <row r="27" spans="2:22" s="37" customFormat="1" ht="60" customHeight="1">
       <c r="B27" s="14"/>
       <c r="C27" s="36"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="65"/>
-      <c r="L27" s="65"/>
-      <c r="M27" s="65"/>
-      <c r="N27" s="65"/>
-      <c r="O27" s="65"/>
-      <c r="P27" s="65"/>
-      <c r="Q27" s="65"/>
-      <c r="R27" s="65"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16"/>
       <c r="U27" s="37" t="str">
         <f t="shared" ref="U27:U32" si="1" xml:space="preserve"> MID($N$26,4,1)</f>
         <v/>
@@ -13215,46 +13094,46 @@
     </row>
     <row r="28" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B28" s="19"/>
-      <c r="D28" s="66" t="s">
+      <c r="D28" s="20" t="s">
         <v>802</v>
       </c>
-      <c r="E28" s="66" t="s">
-        <v>1677</v>
-      </c>
-      <c r="F28" s="66" t="s">
-        <v>1661</v>
-      </c>
-      <c r="G28" s="66"/>
-      <c r="H28" s="66" t="s">
-        <v>1679</v>
-      </c>
-      <c r="I28" s="66" t="s">
+      <c r="E28" s="20" t="s">
+        <v>1660</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>1644</v>
+      </c>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20" t="s">
+        <v>1662</v>
+      </c>
+      <c r="I28" s="20" t="s">
         <v>615</v>
       </c>
-      <c r="J28" s="66" t="s">
+      <c r="J28" s="20" t="s">
         <v>669</v>
       </c>
-      <c r="K28" s="66" t="s">
+      <c r="K28" s="20" t="s">
         <v>898</v>
       </c>
-      <c r="L28" s="66" t="s">
-        <v>1681</v>
-      </c>
-      <c r="M28" s="66"/>
-      <c r="N28" s="66" t="s">
+      <c r="L28" s="20" t="s">
+        <v>1664</v>
+      </c>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20" t="s">
         <v>615</v>
       </c>
-      <c r="O28" s="66" t="s">
+      <c r="O28" s="20" t="s">
         <v>707</v>
       </c>
-      <c r="P28" s="66" t="s">
+      <c r="P28" s="20" t="s">
         <v>605</v>
       </c>
-      <c r="Q28" s="66" t="s">
+      <c r="Q28" s="20" t="s">
         <v>559</v>
       </c>
-      <c r="R28" s="66" t="s">
-        <v>1665</v>
+      <c r="R28" s="20" t="s">
+        <v>1648</v>
       </c>
       <c r="S28" s="21"/>
       <c r="U28" s="37" t="str">
@@ -13268,49 +13147,49 @@
         <f>B25+1</f>
         <v>7</v>
       </c>
-      <c r="D29" s="60" t="s">
+      <c r="D29" s="61" t="s">
         <v>1228</v>
       </c>
-      <c r="E29" s="60" t="s">
+      <c r="E29" s="61" t="s">
         <v>1229</v>
       </c>
-      <c r="F29" s="60" t="s">
+      <c r="F29" s="61" t="s">
         <v>1230</v>
       </c>
-      <c r="G29" s="60" t="s">
+      <c r="G29" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="H29" s="60" t="s">
+      <c r="H29" s="61" t="s">
         <v>1231</v>
       </c>
-      <c r="I29" s="60" t="s">
+      <c r="I29" s="61" t="s">
         <v>123</v>
       </c>
-      <c r="J29" s="60" t="s">
+      <c r="J29" s="61" t="s">
         <v>153</v>
       </c>
-      <c r="K29" s="60" t="s">
+      <c r="K29" s="61" t="s">
         <v>290</v>
       </c>
-      <c r="L29" s="60" t="s">
+      <c r="L29" s="61" t="s">
         <v>1232</v>
       </c>
-      <c r="M29" s="60" t="s">
+      <c r="M29" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="N29" s="60" t="s">
+      <c r="N29" s="61" t="s">
         <v>123</v>
       </c>
-      <c r="O29" s="60" t="s">
+      <c r="O29" s="61" t="s">
         <v>173</v>
       </c>
-      <c r="P29" s="60" t="s">
+      <c r="P29" s="61" t="s">
         <v>150</v>
       </c>
-      <c r="Q29" s="60" t="s">
+      <c r="Q29" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="R29" s="60" t="s">
+      <c r="R29" s="61" t="s">
         <v>1218</v>
       </c>
       <c r="S29" s="23"/>
@@ -13322,46 +13201,46 @@
     </row>
     <row r="30" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B30" s="24"/>
-      <c r="D30" s="67" t="s">
+      <c r="D30" s="26" t="s">
         <v>803</v>
       </c>
-      <c r="E30" s="67" t="s">
-        <v>1678</v>
-      </c>
-      <c r="F30" s="67" t="s">
-        <v>1662</v>
-      </c>
-      <c r="G30" s="67"/>
-      <c r="H30" s="67" t="s">
-        <v>1680</v>
-      </c>
-      <c r="I30" s="67" t="s">
+      <c r="E30" s="26" t="s">
+        <v>1661</v>
+      </c>
+      <c r="F30" s="26" t="s">
+        <v>1645</v>
+      </c>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26" t="s">
+        <v>1663</v>
+      </c>
+      <c r="I30" s="26" t="s">
         <v>616</v>
       </c>
-      <c r="J30" s="67" t="s">
+      <c r="J30" s="26" t="s">
         <v>670</v>
       </c>
-      <c r="K30" s="67" t="s">
+      <c r="K30" s="26" t="s">
         <v>899</v>
       </c>
-      <c r="L30" s="67" t="s">
-        <v>1682</v>
-      </c>
-      <c r="M30" s="67"/>
-      <c r="N30" s="67" t="s">
+      <c r="L30" s="26" t="s">
+        <v>1665</v>
+      </c>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26" t="s">
         <v>616</v>
       </c>
-      <c r="O30" s="67" t="s">
+      <c r="O30" s="26" t="s">
         <v>708</v>
       </c>
-      <c r="P30" s="67" t="s">
+      <c r="P30" s="26" t="s">
         <v>606</v>
       </c>
-      <c r="Q30" s="67" t="s">
+      <c r="Q30" s="26" t="s">
         <v>560</v>
       </c>
-      <c r="R30" s="67" t="s">
-        <v>1666</v>
+      <c r="R30" s="26" t="s">
+        <v>1649</v>
       </c>
       <c r="S30" s="33"/>
       <c r="U30" s="37" t="str">
@@ -13373,25 +13252,25 @@
     <row r="31" spans="2:22" s="37" customFormat="1" ht="60" customHeight="1">
       <c r="B31" s="14"/>
       <c r="C31" s="36"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65" t="s">
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16" t="s">
         <v>1574</v>
       </c>
-      <c r="G31" s="65"/>
-      <c r="H31" s="65" t="s">
+      <c r="G31" s="16"/>
+      <c r="H31" s="16" t="s">
         <v>1577</v>
       </c>
-      <c r="I31" s="65"/>
-      <c r="J31" s="65"/>
-      <c r="K31" s="65"/>
-      <c r="L31" s="65"/>
-      <c r="M31" s="65"/>
-      <c r="N31" s="65"/>
-      <c r="O31" s="65"/>
-      <c r="P31" s="65"/>
-      <c r="Q31" s="65"/>
-      <c r="R31" s="65" t="s">
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16" t="s">
         <v>1579</v>
       </c>
       <c r="U31" s="37" t="str">
@@ -13402,45 +13281,45 @@
     </row>
     <row r="32" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B32" s="19"/>
-      <c r="D32" s="66" t="s">
+      <c r="D32" s="20" t="s">
         <v>541</v>
       </c>
-      <c r="E32" s="66" t="s">
+      <c r="E32" s="20" t="s">
         <v>585</v>
       </c>
-      <c r="F32" s="66" t="s">
+      <c r="F32" s="20" t="s">
         <v>1574</v>
       </c>
-      <c r="G32" s="66"/>
-      <c r="H32" s="66" t="s">
+      <c r="G32" s="20"/>
+      <c r="H32" s="20" t="s">
         <v>1577</v>
       </c>
-      <c r="I32" s="66" t="s">
+      <c r="I32" s="20" t="s">
         <v>561</v>
       </c>
-      <c r="J32" s="66" t="s">
-        <v>1683</v>
-      </c>
-      <c r="K32" s="66" t="s">
+      <c r="J32" s="20" t="s">
+        <v>1666</v>
+      </c>
+      <c r="K32" s="20" t="s">
         <v>758</v>
       </c>
-      <c r="L32" s="66" t="s">
-        <v>1685</v>
-      </c>
-      <c r="M32" s="66" t="s">
+      <c r="L32" s="20" t="s">
+        <v>1668</v>
+      </c>
+      <c r="M32" s="20" t="s">
         <v>740</v>
       </c>
-      <c r="N32" s="66"/>
-      <c r="O32" s="66" t="s">
+      <c r="N32" s="20"/>
+      <c r="O32" s="20" t="s">
         <v>788</v>
       </c>
-      <c r="P32" s="66" t="s">
+      <c r="P32" s="20" t="s">
         <v>653</v>
       </c>
-      <c r="Q32" s="66" t="s">
-        <v>1687</v>
-      </c>
-      <c r="R32" s="66" t="s">
+      <c r="Q32" s="20" t="s">
+        <v>1670</v>
+      </c>
+      <c r="R32" s="20" t="s">
         <v>1579</v>
       </c>
       <c r="S32" s="21"/>
@@ -13455,49 +13334,49 @@
         <f>B29+1</f>
         <v>8</v>
       </c>
-      <c r="D33" s="60" t="s">
+      <c r="D33" s="61" t="s">
         <v>175</v>
       </c>
-      <c r="E33" s="60" t="s">
+      <c r="E33" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="F33" s="68" t="s">
+      <c r="F33" s="57" t="s">
         <v>268</v>
       </c>
-      <c r="G33" s="60" t="s">
+      <c r="G33" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="H33" s="68" t="s">
+      <c r="H33" s="57" t="s">
         <v>1575</v>
       </c>
-      <c r="I33" s="60" t="s">
+      <c r="I33" s="61" t="s">
         <v>269</v>
       </c>
-      <c r="J33" s="60" t="s">
+      <c r="J33" s="61" t="s">
         <v>1234</v>
       </c>
-      <c r="K33" s="60" t="s">
+      <c r="K33" s="61" t="s">
         <v>1235</v>
       </c>
-      <c r="L33" s="60" t="s">
+      <c r="L33" s="61" t="s">
         <v>1236</v>
       </c>
-      <c r="M33" s="60" t="s">
+      <c r="M33" s="61" t="s">
         <v>1237</v>
       </c>
-      <c r="N33" s="60" t="s">
+      <c r="N33" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="O33" s="60" t="s">
+      <c r="O33" s="61" t="s">
         <v>293</v>
       </c>
-      <c r="P33" s="60" t="s">
+      <c r="P33" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="Q33" s="60" t="s">
+      <c r="Q33" s="61" t="s">
         <v>1238</v>
       </c>
-      <c r="R33" s="68" t="s">
+      <c r="R33" s="57" t="s">
         <v>202</v>
       </c>
       <c r="S33" s="23"/>
@@ -13505,46 +13384,46 @@
     </row>
     <row r="34" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B34" s="24"/>
-      <c r="D34" s="67" t="s">
+      <c r="D34" s="26" t="s">
         <v>542</v>
       </c>
-      <c r="E34" s="67" t="s">
+      <c r="E34" s="26" t="s">
         <v>586</v>
       </c>
-      <c r="F34" s="67" t="s">
-        <v>1613</v>
-      </c>
-      <c r="G34" s="67"/>
-      <c r="H34" s="67" t="s">
-        <v>1614</v>
-      </c>
-      <c r="I34" s="67" t="s">
+      <c r="F34" s="26" t="s">
+        <v>1596</v>
+      </c>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26" t="s">
+        <v>1597</v>
+      </c>
+      <c r="I34" s="26" t="s">
         <v>562</v>
       </c>
-      <c r="J34" s="67" t="s">
-        <v>1684</v>
-      </c>
-      <c r="K34" s="67" t="s">
+      <c r="J34" s="26" t="s">
+        <v>1667</v>
+      </c>
+      <c r="K34" s="26" t="s">
         <v>759</v>
       </c>
-      <c r="L34" s="67" t="s">
-        <v>1686</v>
-      </c>
-      <c r="M34" s="67" t="s">
+      <c r="L34" s="26" t="s">
+        <v>1669</v>
+      </c>
+      <c r="M34" s="26" t="s">
         <v>741</v>
       </c>
-      <c r="N34" s="67"/>
-      <c r="O34" s="67" t="s">
+      <c r="N34" s="26"/>
+      <c r="O34" s="26" t="s">
         <v>789</v>
       </c>
-      <c r="P34" s="67" t="s">
+      <c r="P34" s="26" t="s">
         <v>654</v>
       </c>
-      <c r="Q34" s="67" t="s">
-        <v>1688</v>
-      </c>
-      <c r="R34" s="67" t="s">
-        <v>1615</v>
+      <c r="Q34" s="26" t="s">
+        <v>1671</v>
+      </c>
+      <c r="R34" s="26" t="s">
+        <v>1598</v>
       </c>
       <c r="S34" s="33"/>
       <c r="V34" s="9"/>
@@ -13552,60 +13431,60 @@
     <row r="35" spans="2:22" s="37" customFormat="1" ht="60" customHeight="1">
       <c r="B35" s="14"/>
       <c r="C35" s="36"/>
-      <c r="D35" s="65"/>
-      <c r="E35" s="65"/>
-      <c r="F35" s="65"/>
-      <c r="G35" s="65"/>
-      <c r="H35" s="65"/>
-      <c r="I35" s="65"/>
-      <c r="J35" s="65"/>
-      <c r="K35" s="65"/>
-      <c r="L35" s="65"/>
-      <c r="M35" s="65"/>
-      <c r="N35" s="65"/>
-      <c r="O35" s="65"/>
-      <c r="P35" s="65"/>
-      <c r="Q35" s="65"/>
-      <c r="R35" s="65"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="16"/>
       <c r="V35" s="38"/>
     </row>
     <row r="36" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B36" s="19"/>
-      <c r="D36" s="66" t="s">
+      <c r="D36" s="20" t="s">
         <v>653</v>
       </c>
-      <c r="E36" s="66" t="s">
-        <v>1689</v>
-      </c>
-      <c r="F36" s="66"/>
-      <c r="G36" s="66" t="s">
-        <v>1687</v>
-      </c>
-      <c r="H36" s="66" t="s">
-        <v>1691</v>
-      </c>
-      <c r="I36" s="66" t="s">
+      <c r="E36" s="20" t="s">
+        <v>1672</v>
+      </c>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20" t="s">
+        <v>1670</v>
+      </c>
+      <c r="H36" s="20" t="s">
+        <v>1674</v>
+      </c>
+      <c r="I36" s="20" t="s">
         <v>898</v>
       </c>
-      <c r="J36" s="66" t="s">
+      <c r="J36" s="20" t="s">
         <v>635</v>
       </c>
-      <c r="K36" s="66" t="s">
-        <v>1588</v>
-      </c>
-      <c r="L36" s="66" t="s">
-        <v>1581</v>
-      </c>
-      <c r="M36" s="66" t="s">
-        <v>792</v>
-      </c>
-      <c r="N36" s="66" t="s">
-        <v>1638</v>
-      </c>
-      <c r="O36" s="66"/>
-      <c r="P36" s="66"/>
-      <c r="Q36" s="66"/>
-      <c r="R36" s="66"/>
+      <c r="K36" s="20" t="s">
+        <v>1792</v>
+      </c>
+      <c r="L36" s="20" t="s">
+        <v>1794</v>
+      </c>
+      <c r="M36" s="20" t="s">
+        <v>1798</v>
+      </c>
+      <c r="N36" s="20" t="s">
+        <v>1621</v>
+      </c>
+      <c r="O36" s="20"/>
+      <c r="P36" s="20"/>
+      <c r="Q36" s="20"/>
+      <c r="R36" s="20"/>
       <c r="S36" s="21"/>
       <c r="V36" s="9"/>
     </row>
@@ -13614,129 +13493,129 @@
         <f>B33+1</f>
         <v>9</v>
       </c>
-      <c r="D37" s="60" t="s">
+      <c r="D37" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="E37" s="60" t="s">
+      <c r="E37" s="61" t="s">
         <v>1239</v>
       </c>
-      <c r="F37" s="60" t="s">
+      <c r="F37" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="G37" s="60" t="s">
+      <c r="G37" s="61" t="s">
         <v>1238</v>
       </c>
-      <c r="H37" s="60" t="s">
+      <c r="H37" s="61" t="s">
         <v>1240</v>
       </c>
-      <c r="I37" s="60" t="s">
+      <c r="I37" s="61" t="s">
         <v>1193</v>
       </c>
-      <c r="J37" s="60" t="s">
+      <c r="J37" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="K37" s="69" t="s">
+      <c r="K37" s="61" t="s">
         <v>1186</v>
       </c>
-      <c r="L37" s="69" t="s">
+      <c r="L37" s="61" t="s">
         <v>1187</v>
       </c>
-      <c r="M37" s="69" t="s">
+      <c r="M37" s="61" t="s">
         <v>1195</v>
       </c>
-      <c r="N37" s="60" t="s">
+      <c r="N37" s="61" t="s">
         <v>1196</v>
       </c>
-      <c r="O37" s="60" t="s">
+      <c r="O37" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="P37" s="60" t="str">
+      <c r="P37" s="61" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="Q37" s="60"/>
-      <c r="R37" s="60"/>
+      <c r="Q37" s="45"/>
+      <c r="R37" s="45"/>
       <c r="S37" s="23"/>
       <c r="V37" s="9"/>
     </row>
     <row r="38" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B38" s="24"/>
-      <c r="D38" s="67" t="s">
+      <c r="D38" s="26" t="s">
         <v>654</v>
       </c>
-      <c r="E38" s="67" t="s">
-        <v>1690</v>
-      </c>
-      <c r="F38" s="67"/>
-      <c r="G38" s="67" t="s">
-        <v>1688</v>
-      </c>
-      <c r="H38" s="67" t="s">
-        <v>1692</v>
-      </c>
-      <c r="I38" s="67" t="s">
+      <c r="E38" s="26" t="s">
+        <v>1673</v>
+      </c>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26" t="s">
+        <v>1671</v>
+      </c>
+      <c r="H38" s="26" t="s">
+        <v>1675</v>
+      </c>
+      <c r="I38" s="26" t="s">
         <v>899</v>
       </c>
-      <c r="J38" s="67" t="s">
+      <c r="J38" s="26" t="s">
         <v>636</v>
       </c>
-      <c r="K38" s="67" t="s">
-        <v>1604</v>
-      </c>
-      <c r="L38" s="67" t="s">
-        <v>1605</v>
-      </c>
-      <c r="M38" s="67" t="s">
-        <v>793</v>
-      </c>
-      <c r="N38" s="67" t="s">
-        <v>1639</v>
-      </c>
-      <c r="O38" s="67"/>
-      <c r="P38" s="67"/>
-      <c r="Q38" s="67"/>
-      <c r="R38" s="67"/>
+      <c r="K38" s="26" t="s">
+        <v>1793</v>
+      </c>
+      <c r="L38" s="26" t="s">
+        <v>1795</v>
+      </c>
+      <c r="M38" s="26" t="s">
+        <v>1799</v>
+      </c>
+      <c r="N38" s="26" t="s">
+        <v>1622</v>
+      </c>
+      <c r="O38" s="26"/>
+      <c r="P38" s="26"/>
+      <c r="Q38" s="26"/>
+      <c r="R38" s="26"/>
       <c r="S38" s="33"/>
       <c r="V38" s="9"/>
     </row>
     <row r="39" spans="2:22" s="37" customFormat="1" ht="60" customHeight="1">
       <c r="B39" s="14"/>
       <c r="C39" s="36"/>
-      <c r="D39" s="65"/>
-      <c r="E39" s="65"/>
-      <c r="F39" s="65"/>
-      <c r="G39" s="65"/>
-      <c r="H39" s="65"/>
-      <c r="I39" s="65"/>
-      <c r="J39" s="65"/>
-      <c r="K39" s="65"/>
-      <c r="L39" s="65"/>
-      <c r="M39" s="65"/>
-      <c r="N39" s="65"/>
-      <c r="O39" s="65"/>
-      <c r="P39" s="65"/>
-      <c r="Q39" s="65"/>
-      <c r="R39" s="65"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="16"/>
+      <c r="Q39" s="16"/>
+      <c r="R39" s="16"/>
       <c r="V39" s="38"/>
     </row>
     <row r="40" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B40" s="19"/>
-      <c r="D40" s="66"/>
-      <c r="E40" s="66"/>
-      <c r="F40" s="66"/>
-      <c r="G40" s="66"/>
-      <c r="H40" s="66"/>
-      <c r="I40" s="66"/>
-      <c r="J40" s="66"/>
-      <c r="K40" s="66"/>
-      <c r="L40" s="66"/>
-      <c r="M40" s="66"/>
-      <c r="N40" s="66"/>
-      <c r="O40" s="66"/>
-      <c r="P40" s="66"/>
-      <c r="Q40" s="66"/>
-      <c r="R40" s="66"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="20"/>
+      <c r="O40" s="20"/>
+      <c r="P40" s="20"/>
+      <c r="Q40" s="20"/>
+      <c r="R40" s="20"/>
       <c r="S40" s="21"/>
       <c r="V40" s="9"/>
     </row>
@@ -13745,110 +13624,110 @@
         <f>B37+1</f>
         <v>10</v>
       </c>
-      <c r="D41" s="60" t="str">
+      <c r="D41" s="61" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="E41" s="60"/>
-      <c r="F41" s="60"/>
-      <c r="G41" s="60"/>
-      <c r="H41" s="60"/>
-      <c r="I41" s="60"/>
-      <c r="J41" s="60"/>
-      <c r="K41" s="60"/>
-      <c r="L41" s="60"/>
-      <c r="M41" s="60"/>
-      <c r="N41" s="60"/>
-      <c r="O41" s="60"/>
-      <c r="P41" s="60"/>
-      <c r="Q41" s="60"/>
-      <c r="R41" s="60"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="45"/>
+      <c r="L41" s="45"/>
+      <c r="M41" s="45"/>
+      <c r="N41" s="45"/>
+      <c r="O41" s="45"/>
+      <c r="P41" s="45"/>
+      <c r="Q41" s="45"/>
+      <c r="R41" s="45"/>
       <c r="S41" s="23"/>
       <c r="V41" s="9"/>
     </row>
     <row r="42" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B42" s="24"/>
-      <c r="D42" s="67"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="67"/>
-      <c r="G42" s="67"/>
-      <c r="H42" s="67"/>
-      <c r="I42" s="67"/>
-      <c r="J42" s="67"/>
-      <c r="K42" s="67"/>
-      <c r="L42" s="67"/>
-      <c r="M42" s="67"/>
-      <c r="N42" s="67"/>
-      <c r="O42" s="67"/>
-      <c r="P42" s="67"/>
-      <c r="Q42" s="67"/>
-      <c r="R42" s="67"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="26"/>
+      <c r="M42" s="26"/>
+      <c r="N42" s="26"/>
+      <c r="O42" s="26"/>
+      <c r="P42" s="26"/>
+      <c r="Q42" s="26"/>
+      <c r="R42" s="26"/>
       <c r="S42" s="33"/>
       <c r="V42" s="9"/>
     </row>
     <row r="43" spans="2:22" s="37" customFormat="1" ht="60" customHeight="1">
       <c r="B43" s="14"/>
       <c r="C43" s="36"/>
-      <c r="D43" s="65"/>
-      <c r="E43" s="65"/>
-      <c r="F43" s="65"/>
-      <c r="G43" s="65"/>
-      <c r="H43" s="65"/>
-      <c r="I43" s="65"/>
-      <c r="J43" s="65"/>
-      <c r="K43" s="65"/>
-      <c r="L43" s="65"/>
-      <c r="M43" s="65"/>
-      <c r="N43" s="65"/>
-      <c r="O43" s="65"/>
-      <c r="P43" s="65"/>
-      <c r="Q43" s="65"/>
-      <c r="R43" s="65"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="16"/>
+      <c r="N43" s="16"/>
+      <c r="O43" s="16"/>
+      <c r="P43" s="16"/>
+      <c r="Q43" s="16"/>
+      <c r="R43" s="16"/>
       <c r="V43" s="38"/>
     </row>
     <row r="44" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B44" s="19"/>
-      <c r="D44" s="66" t="s">
+      <c r="D44" s="20" t="s">
+        <v>1796</v>
+      </c>
+      <c r="E44" s="20" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F44" s="20" t="s">
+        <v>1678</v>
+      </c>
+      <c r="G44" s="20" t="s">
+        <v>1676</v>
+      </c>
+      <c r="H44" s="20" t="s">
+        <v>1680</v>
+      </c>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20" t="s">
         <v>1601</v>
       </c>
-      <c r="E44" s="66" t="s">
-        <v>1693</v>
-      </c>
-      <c r="F44" s="66" t="s">
-        <v>1695</v>
-      </c>
-      <c r="G44" s="66" t="s">
-        <v>1693</v>
-      </c>
-      <c r="H44" s="66" t="s">
-        <v>1697</v>
-      </c>
-      <c r="I44" s="66"/>
-      <c r="J44" s="66" t="s">
-        <v>1618</v>
-      </c>
-      <c r="K44" s="66" t="s">
-        <v>1699</v>
-      </c>
-      <c r="L44" s="66" t="s">
-        <v>1695</v>
-      </c>
-      <c r="M44" s="66" t="s">
-        <v>1701</v>
-      </c>
-      <c r="N44" s="66" t="s">
+      <c r="K44" s="20" t="s">
+        <v>1682</v>
+      </c>
+      <c r="L44" s="20" t="s">
+        <v>1678</v>
+      </c>
+      <c r="M44" s="20" t="s">
+        <v>1684</v>
+      </c>
+      <c r="N44" s="20" t="s">
         <v>619</v>
       </c>
-      <c r="O44" s="66"/>
-      <c r="P44" s="66" t="s">
-        <v>1703</v>
-      </c>
-      <c r="Q44" s="66" t="s">
+      <c r="O44" s="20"/>
+      <c r="P44" s="20" t="s">
+        <v>1686</v>
+      </c>
+      <c r="Q44" s="20" t="s">
         <v>585</v>
       </c>
-      <c r="R44" s="66" t="s">
-        <v>1705</v>
+      <c r="R44" s="20" t="s">
+        <v>1688</v>
       </c>
       <c r="S44" s="21"/>
       <c r="V44" s="9"/>
@@ -13858,49 +13737,49 @@
         <f>B41+1</f>
         <v>11</v>
       </c>
-      <c r="D45" s="69" t="s">
+      <c r="D45" s="61" t="s">
         <v>1188</v>
       </c>
-      <c r="E45" s="60" t="s">
+      <c r="E45" s="61" t="s">
         <v>1241</v>
       </c>
-      <c r="F45" s="60" t="s">
+      <c r="F45" s="61" t="s">
         <v>1242</v>
       </c>
-      <c r="G45" s="60" t="s">
+      <c r="G45" s="61" t="s">
         <v>1241</v>
       </c>
-      <c r="H45" s="60" t="s">
+      <c r="H45" s="61" t="s">
         <v>1243</v>
       </c>
-      <c r="I45" s="60" t="s">
+      <c r="I45" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="J45" s="60" t="s">
-        <v>1582</v>
-      </c>
-      <c r="K45" s="60" t="s">
+      <c r="J45" s="61" t="s">
+        <v>1581</v>
+      </c>
+      <c r="K45" s="61" t="s">
         <v>1245</v>
       </c>
-      <c r="L45" s="60" t="s">
+      <c r="L45" s="61" t="s">
         <v>1242</v>
       </c>
-      <c r="M45" s="60" t="s">
+      <c r="M45" s="61" t="s">
         <v>1246</v>
       </c>
-      <c r="N45" s="60" t="s">
+      <c r="N45" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="O45" s="60" t="s">
+      <c r="O45" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="P45" s="60" t="s">
+      <c r="P45" s="61" t="s">
         <v>1247</v>
       </c>
-      <c r="Q45" s="60" t="s">
+      <c r="Q45" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="R45" s="60" t="s">
+      <c r="R45" s="61" t="s">
         <v>1248</v>
       </c>
       <c r="S45" s="23"/>
@@ -13908,46 +13787,46 @@
     </row>
     <row r="46" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B46" s="24"/>
-      <c r="D46" s="67" t="s">
-        <v>1606</v>
-      </c>
-      <c r="E46" s="67" t="s">
-        <v>1694</v>
-      </c>
-      <c r="F46" s="67" t="s">
-        <v>1696</v>
-      </c>
-      <c r="G46" s="67" t="s">
-        <v>1694</v>
-      </c>
-      <c r="H46" s="67" t="s">
-        <v>1698</v>
-      </c>
-      <c r="I46" s="67"/>
-      <c r="J46" s="67" t="s">
-        <v>1619</v>
-      </c>
-      <c r="K46" s="67" t="s">
-        <v>1700</v>
-      </c>
-      <c r="L46" s="67" t="s">
-        <v>1696</v>
-      </c>
-      <c r="M46" s="67" t="s">
-        <v>1702</v>
-      </c>
-      <c r="N46" s="67" t="s">
+      <c r="D46" s="26" t="s">
+        <v>1797</v>
+      </c>
+      <c r="E46" s="26" t="s">
+        <v>1677</v>
+      </c>
+      <c r="F46" s="26" t="s">
+        <v>1679</v>
+      </c>
+      <c r="G46" s="26" t="s">
+        <v>1677</v>
+      </c>
+      <c r="H46" s="26" t="s">
+        <v>1681</v>
+      </c>
+      <c r="I46" s="26"/>
+      <c r="J46" s="26" t="s">
+        <v>1602</v>
+      </c>
+      <c r="K46" s="26" t="s">
+        <v>1683</v>
+      </c>
+      <c r="L46" s="26" t="s">
+        <v>1679</v>
+      </c>
+      <c r="M46" s="26" t="s">
+        <v>1685</v>
+      </c>
+      <c r="N46" s="26" t="s">
         <v>620</v>
       </c>
-      <c r="O46" s="67"/>
-      <c r="P46" s="67" t="s">
-        <v>1704</v>
-      </c>
-      <c r="Q46" s="67" t="s">
+      <c r="O46" s="26"/>
+      <c r="P46" s="26" t="s">
+        <v>1687</v>
+      </c>
+      <c r="Q46" s="26" t="s">
         <v>586</v>
       </c>
-      <c r="R46" s="67" t="s">
-        <v>1706</v>
+      <c r="R46" s="26" t="s">
+        <v>1689</v>
       </c>
       <c r="S46" s="33"/>
       <c r="V46" s="9"/>
@@ -13955,69 +13834,69 @@
     <row r="47" spans="2:22" s="37" customFormat="1" ht="60" customHeight="1">
       <c r="B47" s="14"/>
       <c r="C47" s="36"/>
-      <c r="D47" s="65"/>
-      <c r="E47" s="65"/>
-      <c r="F47" s="65"/>
-      <c r="G47" s="65"/>
-      <c r="H47" s="65"/>
-      <c r="I47" s="65"/>
-      <c r="J47" s="65"/>
-      <c r="K47" s="65"/>
-      <c r="L47" s="65"/>
-      <c r="M47" s="65" t="s">
-        <v>1584</v>
-      </c>
-      <c r="N47" s="65"/>
-      <c r="O47" s="65"/>
-      <c r="P47" s="65" t="s">
-        <v>1586</v>
-      </c>
-      <c r="Q47" s="65"/>
-      <c r="R47" s="65"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="16"/>
+      <c r="M47" s="16" t="s">
+        <v>1583</v>
+      </c>
+      <c r="N47" s="16"/>
+      <c r="O47" s="16"/>
+      <c r="P47" s="16" t="s">
+        <v>1585</v>
+      </c>
+      <c r="Q47" s="16"/>
+      <c r="R47" s="16"/>
       <c r="V47" s="38"/>
     </row>
     <row r="48" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B48" s="19"/>
-      <c r="D48" s="66" t="s">
-        <v>1675</v>
-      </c>
-      <c r="E48" s="66" t="s">
+      <c r="D48" s="20" t="s">
+        <v>1658</v>
+      </c>
+      <c r="E48" s="20" t="s">
         <v>547</v>
       </c>
-      <c r="F48" s="66" t="s">
+      <c r="F48" s="20" t="s">
         <v>862</v>
       </c>
-      <c r="G48" s="66"/>
-      <c r="H48" s="66" t="s">
+      <c r="G48" s="20"/>
+      <c r="H48" s="20" t="s">
         <v>611</v>
       </c>
-      <c r="I48" s="66" t="s">
-        <v>1669</v>
-      </c>
-      <c r="J48" s="66" t="s">
+      <c r="I48" s="20" t="s">
+        <v>1652</v>
+      </c>
+      <c r="J48" s="20" t="s">
         <v>599</v>
       </c>
-      <c r="K48" s="66"/>
-      <c r="L48" s="66" t="s">
-        <v>1707</v>
-      </c>
-      <c r="M48" s="66" t="s">
-        <v>1584</v>
-      </c>
-      <c r="N48" s="66" t="s">
+      <c r="K48" s="20"/>
+      <c r="L48" s="20" t="s">
+        <v>1690</v>
+      </c>
+      <c r="M48" s="20" t="s">
+        <v>1583</v>
+      </c>
+      <c r="N48" s="20" t="s">
         <v>603</v>
       </c>
-      <c r="O48" s="66" t="s">
-        <v>1709</v>
-      </c>
-      <c r="P48" s="66" t="s">
-        <v>1586</v>
-      </c>
-      <c r="Q48" s="66" t="s">
-        <v>1711</v>
-      </c>
-      <c r="R48" s="66" t="s">
-        <v>1713</v>
+      <c r="O48" s="20" t="s">
+        <v>1692</v>
+      </c>
+      <c r="P48" s="20" t="s">
+        <v>1585</v>
+      </c>
+      <c r="Q48" s="20" t="s">
+        <v>1694</v>
+      </c>
+      <c r="R48" s="20" t="s">
+        <v>1696</v>
       </c>
       <c r="S48" s="21"/>
       <c r="V48" s="9"/>
@@ -14027,49 +13906,49 @@
         <f>B45+1</f>
         <v>12</v>
       </c>
-      <c r="D49" s="60" t="s">
+      <c r="D49" s="61" t="s">
         <v>1224</v>
       </c>
-      <c r="E49" s="60" t="s">
+      <c r="E49" s="61" t="s">
         <v>1225</v>
       </c>
-      <c r="F49" s="60" t="s">
+      <c r="F49" s="61" t="s">
         <v>268</v>
       </c>
-      <c r="G49" s="60" t="s">
+      <c r="G49" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="H49" s="60" t="s">
+      <c r="H49" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="I49" s="60" t="s">
+      <c r="I49" s="61" t="s">
         <v>1220</v>
       </c>
-      <c r="J49" s="60" t="s">
+      <c r="J49" s="61" t="s">
         <v>1221</v>
       </c>
-      <c r="K49" s="60" t="s">
+      <c r="K49" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="L49" s="60" t="s">
+      <c r="L49" s="61" t="s">
         <v>1249</v>
       </c>
-      <c r="M49" s="68" t="s">
+      <c r="M49" s="57" t="s">
         <v>1250</v>
       </c>
-      <c r="N49" s="60" t="s">
+      <c r="N49" s="61" t="s">
         <v>119</v>
       </c>
-      <c r="O49" s="60" t="s">
+      <c r="O49" s="61" t="s">
         <v>1251</v>
       </c>
-      <c r="P49" s="68" t="s">
+      <c r="P49" s="57" t="s">
         <v>1252</v>
       </c>
-      <c r="Q49" s="60" t="s">
+      <c r="Q49" s="61" t="s">
         <v>1253</v>
       </c>
-      <c r="R49" s="60" t="s">
+      <c r="R49" s="61" t="s">
         <v>1254</v>
       </c>
       <c r="S49" s="23"/>
@@ -14077,46 +13956,46 @@
     </row>
     <row r="50" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B50" s="24"/>
-      <c r="D50" s="67" t="s">
-        <v>1676</v>
-      </c>
-      <c r="E50" s="67" t="s">
+      <c r="D50" s="26" t="s">
+        <v>1659</v>
+      </c>
+      <c r="E50" s="26" t="s">
         <v>548</v>
       </c>
-      <c r="F50" s="67" t="s">
+      <c r="F50" s="26" t="s">
         <v>863</v>
       </c>
-      <c r="G50" s="67"/>
-      <c r="H50" s="67" t="s">
+      <c r="G50" s="26"/>
+      <c r="H50" s="26" t="s">
         <v>612</v>
       </c>
-      <c r="I50" s="67" t="s">
-        <v>1670</v>
-      </c>
-      <c r="J50" s="67" t="s">
+      <c r="I50" s="26" t="s">
+        <v>1653</v>
+      </c>
+      <c r="J50" s="26" t="s">
         <v>600</v>
       </c>
-      <c r="K50" s="67"/>
-      <c r="L50" s="67" t="s">
-        <v>1708</v>
-      </c>
-      <c r="M50" s="67" t="s">
-        <v>1616</v>
-      </c>
-      <c r="N50" s="67" t="s">
+      <c r="K50" s="26"/>
+      <c r="L50" s="26" t="s">
+        <v>1691</v>
+      </c>
+      <c r="M50" s="26" t="s">
+        <v>1599</v>
+      </c>
+      <c r="N50" s="26" t="s">
         <v>604</v>
       </c>
-      <c r="O50" s="67" t="s">
-        <v>1710</v>
-      </c>
-      <c r="P50" s="67" t="s">
-        <v>1617</v>
-      </c>
-      <c r="Q50" s="67" t="s">
-        <v>1712</v>
-      </c>
-      <c r="R50" s="67" t="s">
-        <v>1714</v>
+      <c r="O50" s="26" t="s">
+        <v>1693</v>
+      </c>
+      <c r="P50" s="26" t="s">
+        <v>1600</v>
+      </c>
+      <c r="Q50" s="26" t="s">
+        <v>1695</v>
+      </c>
+      <c r="R50" s="26" t="s">
+        <v>1697</v>
       </c>
       <c r="S50" s="33"/>
       <c r="V50" s="9"/>
@@ -14124,66 +14003,66 @@
     <row r="51" spans="2:22" s="37" customFormat="1" ht="60" customHeight="1">
       <c r="B51" s="14"/>
       <c r="C51" s="36"/>
-      <c r="D51" s="65"/>
-      <c r="E51" s="65"/>
-      <c r="F51" s="65"/>
-      <c r="G51" s="65"/>
-      <c r="H51" s="65"/>
-      <c r="I51" s="65"/>
-      <c r="J51" s="65"/>
-      <c r="K51" s="65"/>
-      <c r="L51" s="65" t="s">
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="16"/>
+      <c r="K51" s="16"/>
+      <c r="L51" s="16" t="s">
         <v>792</v>
       </c>
-      <c r="M51" s="65"/>
-      <c r="N51" s="65"/>
-      <c r="O51" s="65"/>
-      <c r="P51" s="65"/>
-      <c r="Q51" s="65"/>
-      <c r="R51" s="65"/>
+      <c r="M51" s="16"/>
+      <c r="N51" s="16"/>
+      <c r="O51" s="16"/>
+      <c r="P51" s="16"/>
+      <c r="Q51" s="16"/>
+      <c r="R51" s="16"/>
       <c r="V51" s="38"/>
     </row>
     <row r="52" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B52" s="19"/>
-      <c r="D52" s="66" t="s">
+      <c r="D52" s="20" t="s">
         <v>619</v>
       </c>
-      <c r="E52" s="66" t="s">
+      <c r="E52" s="20" t="s">
         <v>605</v>
       </c>
-      <c r="F52" s="66"/>
-      <c r="G52" s="66" t="s">
-        <v>1715</v>
-      </c>
-      <c r="H52" s="66" t="s">
-        <v>1717</v>
-      </c>
-      <c r="I52" s="66" t="s">
+      <c r="F52" s="20"/>
+      <c r="G52" s="20" t="s">
+        <v>1698</v>
+      </c>
+      <c r="H52" s="20" t="s">
+        <v>1700</v>
+      </c>
+      <c r="I52" s="20" t="s">
         <v>515</v>
       </c>
-      <c r="J52" s="66" t="s">
-        <v>1720</v>
-      </c>
-      <c r="K52" s="66"/>
-      <c r="L52" s="66" t="s">
+      <c r="J52" s="20" t="s">
+        <v>1703</v>
+      </c>
+      <c r="K52" s="20"/>
+      <c r="L52" s="20" t="s">
         <v>792</v>
       </c>
-      <c r="M52" s="66" t="s">
-        <v>1638</v>
-      </c>
-      <c r="N52" s="66" t="s">
-        <v>1722</v>
-      </c>
-      <c r="O52" s="66" t="s">
-        <v>1724</v>
-      </c>
-      <c r="P52" s="66" t="s">
+      <c r="M52" s="20" t="s">
+        <v>1621</v>
+      </c>
+      <c r="N52" s="20" t="s">
+        <v>1705</v>
+      </c>
+      <c r="O52" s="20" t="s">
+        <v>1707</v>
+      </c>
+      <c r="P52" s="20" t="s">
         <v>868</v>
       </c>
-      <c r="Q52" s="66" t="s">
+      <c r="Q52" s="20" t="s">
         <v>501</v>
       </c>
-      <c r="R52" s="66"/>
+      <c r="R52" s="20"/>
       <c r="S52" s="21"/>
       <c r="V52" s="9"/>
     </row>
@@ -14192,49 +14071,49 @@
         <f>B49+1</f>
         <v>13</v>
       </c>
-      <c r="D53" s="60" t="s">
+      <c r="D53" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="E53" s="60" t="s">
+      <c r="E53" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="F53" s="60" t="s">
+      <c r="F53" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="G53" s="60" t="s">
+      <c r="G53" s="61" t="s">
         <v>1255</v>
       </c>
-      <c r="H53" s="60" t="s">
+      <c r="H53" s="61" t="s">
         <v>1256</v>
       </c>
-      <c r="I53" s="60" t="s">
+      <c r="I53" s="61" t="s">
         <v>1257</v>
       </c>
-      <c r="J53" s="60" t="s">
+      <c r="J53" s="61" t="s">
         <v>1258</v>
       </c>
-      <c r="K53" s="60" t="s">
+      <c r="K53" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="L53" s="68" t="s">
+      <c r="L53" s="57" t="s">
         <v>1195</v>
       </c>
-      <c r="M53" s="60" t="s">
+      <c r="M53" s="61" t="s">
         <v>1196</v>
       </c>
-      <c r="N53" s="60" t="s">
+      <c r="N53" s="61" t="s">
         <v>1259</v>
       </c>
-      <c r="O53" s="60" t="s">
+      <c r="O53" s="61" t="s">
         <v>1260</v>
       </c>
-      <c r="P53" s="60" t="s">
+      <c r="P53" s="61" t="s">
         <v>272</v>
       </c>
-      <c r="Q53" s="60" t="s">
+      <c r="Q53" s="61" t="s">
         <v>1261</v>
       </c>
-      <c r="R53" s="60" t="s">
+      <c r="R53" s="61" t="s">
         <v>31</v>
       </c>
       <c r="S53" s="23"/>
@@ -14242,110 +14121,110 @@
     </row>
     <row r="54" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B54" s="24"/>
-      <c r="D54" s="67" t="s">
+      <c r="D54" s="26" t="s">
         <v>620</v>
       </c>
-      <c r="E54" s="67" t="s">
+      <c r="E54" s="26" t="s">
         <v>606</v>
       </c>
-      <c r="F54" s="67"/>
-      <c r="G54" s="67" t="s">
-        <v>1716</v>
-      </c>
-      <c r="H54" s="67" t="s">
-        <v>1718</v>
-      </c>
-      <c r="I54" s="67" t="s">
-        <v>1719</v>
-      </c>
-      <c r="J54" s="67" t="s">
-        <v>1721</v>
-      </c>
-      <c r="K54" s="67"/>
-      <c r="L54" s="67" t="s">
+      <c r="F54" s="26"/>
+      <c r="G54" s="26" t="s">
+        <v>1699</v>
+      </c>
+      <c r="H54" s="26" t="s">
+        <v>1701</v>
+      </c>
+      <c r="I54" s="26" t="s">
+        <v>1702</v>
+      </c>
+      <c r="J54" s="26" t="s">
+        <v>1704</v>
+      </c>
+      <c r="K54" s="26"/>
+      <c r="L54" s="26" t="s">
         <v>793</v>
       </c>
-      <c r="M54" s="67" t="s">
-        <v>1639</v>
-      </c>
-      <c r="N54" s="67" t="s">
-        <v>1723</v>
-      </c>
-      <c r="O54" s="67" t="s">
-        <v>1725</v>
-      </c>
-      <c r="P54" s="67" t="s">
+      <c r="M54" s="26" t="s">
+        <v>1622</v>
+      </c>
+      <c r="N54" s="26" t="s">
+        <v>1706</v>
+      </c>
+      <c r="O54" s="26" t="s">
+        <v>1708</v>
+      </c>
+      <c r="P54" s="26" t="s">
         <v>869</v>
       </c>
-      <c r="Q54" s="67" t="s">
+      <c r="Q54" s="26" t="s">
         <v>717</v>
       </c>
-      <c r="R54" s="67"/>
+      <c r="R54" s="26"/>
       <c r="S54" s="33"/>
       <c r="V54" s="9"/>
     </row>
     <row r="55" spans="2:22" s="37" customFormat="1" ht="60" customHeight="1">
       <c r="B55" s="14"/>
       <c r="C55" s="36"/>
-      <c r="D55" s="65"/>
-      <c r="E55" s="65"/>
-      <c r="F55" s="65"/>
-      <c r="G55" s="65"/>
-      <c r="H55" s="65"/>
-      <c r="I55" s="65"/>
-      <c r="J55" s="65"/>
-      <c r="K55" s="65"/>
-      <c r="L55" s="65"/>
-      <c r="M55" s="65"/>
-      <c r="N55" s="65"/>
-      <c r="O55" s="65"/>
-      <c r="P55" s="65"/>
-      <c r="Q55" s="65"/>
-      <c r="R55" s="65"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="16"/>
+      <c r="M55" s="16"/>
+      <c r="N55" s="16"/>
+      <c r="O55" s="16"/>
+      <c r="P55" s="16"/>
+      <c r="Q55" s="16"/>
+      <c r="R55" s="16"/>
       <c r="V55" s="38"/>
     </row>
     <row r="56" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B56" s="19"/>
-      <c r="D56" s="66" t="s">
-        <v>1726</v>
-      </c>
-      <c r="E56" s="66" t="s">
-        <v>1728</v>
-      </c>
-      <c r="F56" s="66" t="s">
+      <c r="D56" s="20" t="s">
+        <v>1709</v>
+      </c>
+      <c r="E56" s="20" t="s">
+        <v>1711</v>
+      </c>
+      <c r="F56" s="20" t="s">
         <v>703</v>
       </c>
-      <c r="G56" s="66" t="s">
+      <c r="G56" s="20" t="s">
         <v>798</v>
       </c>
-      <c r="H56" s="66" t="s">
-        <v>1730</v>
-      </c>
-      <c r="I56" s="66" t="s">
+      <c r="H56" s="20" t="s">
+        <v>1713</v>
+      </c>
+      <c r="I56" s="20" t="s">
         <v>796</v>
       </c>
-      <c r="J56" s="66" t="s">
+      <c r="J56" s="20" t="s">
         <v>639</v>
       </c>
-      <c r="K56" s="66" t="s">
-        <v>1732</v>
-      </c>
-      <c r="L56" s="66" t="s">
-        <v>1734</v>
-      </c>
-      <c r="M56" s="66" t="s">
-        <v>1736</v>
-      </c>
-      <c r="N56" s="66"/>
-      <c r="O56" s="66" t="s">
+      <c r="K56" s="20" t="s">
+        <v>1715</v>
+      </c>
+      <c r="L56" s="20" t="s">
         <v>1717</v>
       </c>
-      <c r="P56" s="66" t="s">
-        <v>1685</v>
-      </c>
-      <c r="Q56" s="66"/>
-      <c r="R56" s="66" t="s">
-        <v>1601</v>
+      <c r="M56" s="20" t="s">
+        <v>1719</v>
+      </c>
+      <c r="N56" s="20"/>
+      <c r="O56" s="20" t="s">
+        <v>1700</v>
+      </c>
+      <c r="P56" s="20" t="s">
+        <v>1668</v>
+      </c>
+      <c r="Q56" s="20"/>
+      <c r="R56" s="20" t="s">
+        <v>1796</v>
       </c>
       <c r="S56" s="21"/>
       <c r="V56" s="9"/>
@@ -14355,49 +14234,49 @@
         <f>B53+1</f>
         <v>14</v>
       </c>
-      <c r="D57" s="60" t="s">
+      <c r="D57" s="61" t="s">
         <v>1262</v>
       </c>
-      <c r="E57" s="60" t="s">
+      <c r="E57" s="61" t="s">
         <v>1263</v>
       </c>
-      <c r="F57" s="60" t="s">
+      <c r="F57" s="61" t="s">
         <v>1203</v>
       </c>
-      <c r="G57" s="62" t="s">
+      <c r="G57" s="63" t="s">
         <v>228</v>
       </c>
-      <c r="H57" s="60" t="s">
+      <c r="H57" s="61" t="s">
         <v>1264</v>
       </c>
-      <c r="I57" s="60" t="s">
+      <c r="I57" s="61" t="s">
         <v>227</v>
       </c>
-      <c r="J57" s="60" t="s">
+      <c r="J57" s="61" t="s">
         <v>1265</v>
       </c>
-      <c r="K57" s="60" t="s">
+      <c r="K57" s="61" t="s">
         <v>1266</v>
       </c>
-      <c r="L57" s="60" t="s">
+      <c r="L57" s="61" t="s">
         <v>1267</v>
       </c>
-      <c r="M57" s="60" t="s">
+      <c r="M57" s="61" t="s">
         <v>1268</v>
       </c>
-      <c r="N57" s="60" t="s">
+      <c r="N57" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="O57" s="60" t="s">
+      <c r="O57" s="61" t="s">
         <v>1256</v>
       </c>
-      <c r="P57" s="60" t="s">
+      <c r="P57" s="61" t="s">
         <v>1236</v>
       </c>
-      <c r="Q57" s="60" t="s">
+      <c r="Q57" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="R57" s="69" t="s">
+      <c r="R57" s="61" t="s">
         <v>1188</v>
       </c>
       <c r="S57" s="23"/>
@@ -14405,46 +14284,46 @@
     </row>
     <row r="58" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B58" s="24"/>
-      <c r="D58" s="67" t="s">
-        <v>1727</v>
-      </c>
-      <c r="E58" s="67" t="s">
-        <v>1729</v>
-      </c>
-      <c r="F58" s="67" t="s">
+      <c r="D58" s="26" t="s">
+        <v>1710</v>
+      </c>
+      <c r="E58" s="26" t="s">
+        <v>1712</v>
+      </c>
+      <c r="F58" s="26" t="s">
         <v>704</v>
       </c>
-      <c r="G58" s="67" t="s">
+      <c r="G58" s="26" t="s">
         <v>799</v>
       </c>
-      <c r="H58" s="67" t="s">
-        <v>1731</v>
-      </c>
-      <c r="I58" s="67" t="s">
+      <c r="H58" s="26" t="s">
+        <v>1714</v>
+      </c>
+      <c r="I58" s="26" t="s">
         <v>797</v>
       </c>
-      <c r="J58" s="67" t="s">
+      <c r="J58" s="26" t="s">
         <v>640</v>
       </c>
-      <c r="K58" s="67" t="s">
-        <v>1733</v>
-      </c>
-      <c r="L58" s="67" t="s">
-        <v>1735</v>
-      </c>
-      <c r="M58" s="67" t="s">
-        <v>1737</v>
-      </c>
-      <c r="N58" s="67"/>
-      <c r="O58" s="67" t="s">
+      <c r="K58" s="26" t="s">
+        <v>1716</v>
+      </c>
+      <c r="L58" s="26" t="s">
         <v>1718</v>
       </c>
-      <c r="P58" s="67" t="s">
-        <v>1686</v>
-      </c>
-      <c r="Q58" s="67"/>
-      <c r="R58" s="67" t="s">
-        <v>1606</v>
+      <c r="M58" s="26" t="s">
+        <v>1720</v>
+      </c>
+      <c r="N58" s="26"/>
+      <c r="O58" s="26" t="s">
+        <v>1701</v>
+      </c>
+      <c r="P58" s="26" t="s">
+        <v>1669</v>
+      </c>
+      <c r="Q58" s="26"/>
+      <c r="R58" s="26" t="s">
+        <v>1797</v>
       </c>
       <c r="S58" s="33"/>
       <c r="V58" s="9"/>
@@ -14452,64 +14331,64 @@
     <row r="59" spans="2:22" s="37" customFormat="1" ht="60" customHeight="1">
       <c r="B59" s="14"/>
       <c r="C59" s="36"/>
-      <c r="D59" s="65"/>
-      <c r="E59" s="65"/>
-      <c r="F59" s="65"/>
-      <c r="G59" s="65"/>
-      <c r="H59" s="65"/>
-      <c r="I59" s="65"/>
-      <c r="J59" s="65"/>
-      <c r="K59" s="65"/>
-      <c r="L59" s="65"/>
-      <c r="M59" s="65"/>
-      <c r="N59" s="65"/>
-      <c r="O59" s="65"/>
-      <c r="P59" s="65"/>
-      <c r="Q59" s="65"/>
-      <c r="R59" s="65"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="16"/>
+      <c r="K59" s="16"/>
+      <c r="L59" s="16"/>
+      <c r="M59" s="16"/>
+      <c r="N59" s="16"/>
+      <c r="O59" s="16"/>
+      <c r="P59" s="16"/>
+      <c r="Q59" s="16"/>
+      <c r="R59" s="16"/>
       <c r="V59" s="38"/>
     </row>
     <row r="60" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B60" s="19"/>
-      <c r="D60" s="66" t="s">
-        <v>1738</v>
-      </c>
-      <c r="E60" s="66" t="s">
-        <v>1636</v>
-      </c>
-      <c r="F60" s="66" t="s">
-        <v>792</v>
-      </c>
-      <c r="G60" s="66" t="s">
-        <v>1638</v>
-      </c>
-      <c r="H60" s="66"/>
-      <c r="I60" s="66" t="s">
-        <v>1740</v>
-      </c>
-      <c r="J60" s="66" t="s">
+      <c r="D60" s="20" t="s">
+        <v>1721</v>
+      </c>
+      <c r="E60" s="20" t="s">
+        <v>1619</v>
+      </c>
+      <c r="F60" s="20" t="s">
+        <v>1798</v>
+      </c>
+      <c r="G60" s="20" t="s">
+        <v>1621</v>
+      </c>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20" t="s">
+        <v>1723</v>
+      </c>
+      <c r="J60" s="20" t="s">
         <v>611</v>
       </c>
-      <c r="K60" s="66" t="s">
-        <v>1742</v>
-      </c>
-      <c r="L60" s="66" t="s">
-        <v>1730</v>
-      </c>
-      <c r="M60" s="66"/>
-      <c r="N60" s="66" t="s">
+      <c r="K60" s="20" t="s">
+        <v>1725</v>
+      </c>
+      <c r="L60" s="20" t="s">
+        <v>1713</v>
+      </c>
+      <c r="M60" s="20"/>
+      <c r="N60" s="20" t="s">
         <v>932</v>
       </c>
-      <c r="O60" s="66" t="s">
+      <c r="O60" s="20" t="s">
         <v>820</v>
       </c>
-      <c r="P60" s="66" t="s">
-        <v>1744</v>
-      </c>
-      <c r="Q60" s="66" t="s">
+      <c r="P60" s="20" t="s">
+        <v>1727</v>
+      </c>
+      <c r="Q60" s="20" t="s">
         <v>728</v>
       </c>
-      <c r="R60" s="66"/>
+      <c r="R60" s="20"/>
       <c r="S60" s="21"/>
       <c r="V60" s="9"/>
     </row>
@@ -14518,49 +14397,49 @@
         <f>B57+1</f>
         <v>15</v>
       </c>
-      <c r="D61" s="60" t="s">
+      <c r="D61" s="61" t="s">
         <v>1269</v>
       </c>
-      <c r="E61" s="60" t="s">
+      <c r="E61" s="61" t="s">
         <v>1194</v>
       </c>
-      <c r="F61" s="69" t="s">
+      <c r="F61" s="61" t="s">
         <v>1195</v>
       </c>
-      <c r="G61" s="62" t="s">
+      <c r="G61" s="63" t="s">
         <v>1196</v>
       </c>
-      <c r="H61" s="60" t="s">
+      <c r="H61" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="I61" s="60" t="s">
+      <c r="I61" s="61" t="s">
         <v>1270</v>
       </c>
-      <c r="J61" s="60" t="s">
+      <c r="J61" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="K61" s="60" t="s">
+      <c r="K61" s="61" t="s">
         <v>1271</v>
       </c>
-      <c r="L61" s="60" t="s">
+      <c r="L61" s="61" t="s">
         <v>1264</v>
       </c>
-      <c r="M61" s="60" t="s">
+      <c r="M61" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="N61" s="60" t="s">
+      <c r="N61" s="61" t="s">
         <v>1272</v>
       </c>
-      <c r="O61" s="60" t="s">
+      <c r="O61" s="61" t="s">
         <v>238</v>
       </c>
-      <c r="P61" s="60" t="s">
+      <c r="P61" s="61" t="s">
         <v>1273</v>
       </c>
-      <c r="Q61" s="60" t="s">
+      <c r="Q61" s="61" t="s">
         <v>188</v>
       </c>
-      <c r="R61" s="60" t="s">
+      <c r="R61" s="61" t="s">
         <v>31</v>
       </c>
       <c r="S61" s="23"/>
@@ -14568,108 +14447,108 @@
     </row>
     <row r="62" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B62" s="24"/>
-      <c r="D62" s="67" t="s">
-        <v>1739</v>
-      </c>
-      <c r="E62" s="67" t="s">
-        <v>1637</v>
-      </c>
-      <c r="F62" s="67" t="s">
-        <v>793</v>
-      </c>
-      <c r="G62" s="67" t="s">
-        <v>1639</v>
-      </c>
-      <c r="H62" s="67"/>
-      <c r="I62" s="67" t="s">
-        <v>1741</v>
-      </c>
-      <c r="J62" s="67" t="s">
+      <c r="D62" s="26" t="s">
+        <v>1722</v>
+      </c>
+      <c r="E62" s="26" t="s">
+        <v>1620</v>
+      </c>
+      <c r="F62" s="26" t="s">
+        <v>1799</v>
+      </c>
+      <c r="G62" s="26" t="s">
+        <v>1622</v>
+      </c>
+      <c r="H62" s="26"/>
+      <c r="I62" s="26" t="s">
+        <v>1724</v>
+      </c>
+      <c r="J62" s="26" t="s">
         <v>612</v>
       </c>
-      <c r="K62" s="67" t="s">
-        <v>1743</v>
-      </c>
-      <c r="L62" s="67" t="s">
-        <v>1731</v>
-      </c>
-      <c r="M62" s="67"/>
-      <c r="N62" s="67" t="s">
+      <c r="K62" s="26" t="s">
+        <v>1726</v>
+      </c>
+      <c r="L62" s="26" t="s">
+        <v>1714</v>
+      </c>
+      <c r="M62" s="26"/>
+      <c r="N62" s="26" t="s">
         <v>933</v>
       </c>
-      <c r="O62" s="67" t="s">
+      <c r="O62" s="26" t="s">
         <v>821</v>
       </c>
-      <c r="P62" s="67" t="s">
-        <v>1745</v>
-      </c>
-      <c r="Q62" s="67" t="s">
+      <c r="P62" s="26" t="s">
+        <v>1728</v>
+      </c>
+      <c r="Q62" s="26" t="s">
         <v>729</v>
       </c>
-      <c r="R62" s="67"/>
+      <c r="R62" s="26"/>
       <c r="S62" s="33"/>
       <c r="V62" s="9"/>
     </row>
     <row r="63" spans="2:22" s="37" customFormat="1" ht="60" customHeight="1">
       <c r="B63" s="14"/>
       <c r="C63" s="36"/>
-      <c r="D63" s="65"/>
-      <c r="E63" s="65"/>
-      <c r="F63" s="65"/>
-      <c r="G63" s="65"/>
-      <c r="H63" s="65"/>
-      <c r="I63" s="65"/>
-      <c r="J63" s="65"/>
-      <c r="K63" s="65"/>
-      <c r="L63" s="65"/>
-      <c r="M63" s="65"/>
-      <c r="N63" s="65"/>
-      <c r="O63" s="65"/>
-      <c r="P63" s="65"/>
-      <c r="Q63" s="65"/>
-      <c r="R63" s="65"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="16"/>
+      <c r="I63" s="16"/>
+      <c r="J63" s="16"/>
+      <c r="K63" s="16"/>
+      <c r="L63" s="16"/>
+      <c r="M63" s="16"/>
+      <c r="N63" s="16"/>
+      <c r="O63" s="16"/>
+      <c r="P63" s="16"/>
+      <c r="Q63" s="16"/>
+      <c r="R63" s="16"/>
       <c r="V63" s="38"/>
     </row>
     <row r="64" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B64" s="19"/>
-      <c r="D64" s="66" t="s">
+      <c r="D64" s="20" t="s">
         <v>551</v>
       </c>
-      <c r="E64" s="66"/>
-      <c r="F64" s="66" t="s">
-        <v>1746</v>
-      </c>
-      <c r="G64" s="66" t="s">
+      <c r="E64" s="20"/>
+      <c r="F64" s="20" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G64" s="20" t="s">
         <v>740</v>
       </c>
-      <c r="H64" s="66" t="s">
+      <c r="H64" s="20" t="s">
         <v>1574</v>
       </c>
-      <c r="I64" s="66" t="s">
+      <c r="I64" s="20" t="s">
         <v>818</v>
       </c>
-      <c r="J64" s="66"/>
-      <c r="K64" s="66" t="s">
+      <c r="J64" s="20"/>
+      <c r="K64" s="20" t="s">
         <v>874</v>
       </c>
-      <c r="L64" s="66" t="s">
-        <v>1588</v>
-      </c>
-      <c r="M64" s="66" t="s">
-        <v>1581</v>
-      </c>
-      <c r="N64" s="66" t="s">
-        <v>1748</v>
-      </c>
-      <c r="O64" s="66" t="s">
+      <c r="L64" s="20" t="s">
+        <v>1792</v>
+      </c>
+      <c r="M64" s="20" t="s">
+        <v>1794</v>
+      </c>
+      <c r="N64" s="20" t="s">
+        <v>1731</v>
+      </c>
+      <c r="O64" s="20" t="s">
         <v>619</v>
       </c>
-      <c r="P64" s="66"/>
-      <c r="Q64" s="66" t="s">
+      <c r="P64" s="20"/>
+      <c r="Q64" s="20" t="s">
         <v>814</v>
       </c>
-      <c r="R64" s="66" t="s">
-        <v>1750</v>
+      <c r="R64" s="20" t="s">
+        <v>1733</v>
       </c>
       <c r="S64" s="21"/>
       <c r="V64" s="9"/>
@@ -14679,94 +14558,94 @@
         <f>B61+1</f>
         <v>16</v>
       </c>
-      <c r="D65" s="60" t="s">
+      <c r="D65" s="61" t="s">
         <v>305</v>
       </c>
-      <c r="E65" s="60" t="s">
+      <c r="E65" s="61" t="s">
         <v>306</v>
       </c>
-      <c r="F65" s="60" t="s">
+      <c r="F65" s="61" t="s">
         <v>1274</v>
       </c>
-      <c r="G65" s="62" t="s">
+      <c r="G65" s="63" t="s">
         <v>1237</v>
       </c>
-      <c r="H65" s="60" t="s">
+      <c r="H65" s="61" t="s">
         <v>1275</v>
       </c>
-      <c r="I65" s="60" t="s">
+      <c r="I65" s="61" t="s">
         <v>1276</v>
       </c>
-      <c r="J65" s="60" t="s">
+      <c r="J65" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="K65" s="60" t="s">
+      <c r="K65" s="61" t="s">
         <v>276</v>
       </c>
-      <c r="L65" s="69" t="s">
+      <c r="L65" s="61" t="s">
         <v>1186</v>
       </c>
-      <c r="M65" s="69" t="s">
+      <c r="M65" s="61" t="s">
         <v>1187</v>
       </c>
-      <c r="N65" s="60" t="s">
+      <c r="N65" s="61" t="s">
         <v>1277</v>
       </c>
-      <c r="O65" s="60" t="s">
+      <c r="O65" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="P65" s="60" t="s">
+      <c r="P65" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="Q65" s="60" t="s">
+      <c r="Q65" s="61" t="s">
         <v>235</v>
       </c>
-      <c r="R65" s="60" t="s">
-        <v>1593</v>
+      <c r="R65" s="61" t="s">
+        <v>1589</v>
       </c>
       <c r="S65" s="23"/>
       <c r="V65" s="9"/>
     </row>
     <row r="66" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B66" s="24"/>
-      <c r="D66" s="67" t="s">
+      <c r="D66" s="26" t="s">
         <v>552</v>
       </c>
-      <c r="E66" s="67"/>
-      <c r="F66" s="67" t="s">
-        <v>1747</v>
-      </c>
-      <c r="G66" s="67" t="s">
+      <c r="E66" s="26"/>
+      <c r="F66" s="26" t="s">
+        <v>1730</v>
+      </c>
+      <c r="G66" s="26" t="s">
         <v>741</v>
       </c>
-      <c r="H66" s="67" t="s">
-        <v>1613</v>
-      </c>
-      <c r="I66" s="67" t="s">
+      <c r="H66" s="26" t="s">
+        <v>1596</v>
+      </c>
+      <c r="I66" s="26" t="s">
         <v>819</v>
       </c>
-      <c r="J66" s="67"/>
-      <c r="K66" s="67" t="s">
+      <c r="J66" s="26"/>
+      <c r="K66" s="26" t="s">
         <v>875</v>
       </c>
-      <c r="L66" s="67" t="s">
-        <v>1604</v>
-      </c>
-      <c r="M66" s="67" t="s">
-        <v>1605</v>
-      </c>
-      <c r="N66" s="67" t="s">
-        <v>1749</v>
-      </c>
-      <c r="O66" s="67" t="s">
+      <c r="L66" s="26" t="s">
+        <v>1793</v>
+      </c>
+      <c r="M66" s="26" t="s">
+        <v>1795</v>
+      </c>
+      <c r="N66" s="26" t="s">
+        <v>1732</v>
+      </c>
+      <c r="O66" s="26" t="s">
         <v>620</v>
       </c>
-      <c r="P66" s="67"/>
-      <c r="Q66" s="67" t="s">
+      <c r="P66" s="26"/>
+      <c r="Q66" s="26" t="s">
         <v>815</v>
       </c>
-      <c r="R66" s="67" t="s">
-        <v>1751</v>
+      <c r="R66" s="26" t="s">
+        <v>1734</v>
       </c>
       <c r="S66" s="33"/>
       <c r="V66" s="9"/>
@@ -14774,62 +14653,62 @@
     <row r="67" spans="2:22" s="37" customFormat="1" ht="60" customHeight="1">
       <c r="B67" s="14"/>
       <c r="C67" s="36"/>
-      <c r="D67" s="65"/>
-      <c r="E67" s="65"/>
-      <c r="F67" s="65"/>
-      <c r="G67" s="65"/>
-      <c r="H67" s="65"/>
-      <c r="I67" s="65"/>
-      <c r="J67" s="65"/>
-      <c r="K67" s="65"/>
-      <c r="L67" s="65"/>
-      <c r="M67" s="65"/>
-      <c r="N67" s="65"/>
-      <c r="O67" s="65"/>
-      <c r="P67" s="65"/>
-      <c r="Q67" s="65"/>
-      <c r="R67" s="65"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="16"/>
+      <c r="H67" s="16"/>
+      <c r="I67" s="16"/>
+      <c r="J67" s="16"/>
+      <c r="K67" s="16"/>
+      <c r="L67" s="16"/>
+      <c r="M67" s="16"/>
+      <c r="N67" s="16"/>
+      <c r="O67" s="16"/>
+      <c r="P67" s="16"/>
+      <c r="Q67" s="16"/>
+      <c r="R67" s="16"/>
       <c r="V67" s="38"/>
     </row>
     <row r="68" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B68" s="19"/>
-      <c r="D68" s="66"/>
-      <c r="E68" s="66" t="s">
-        <v>1752</v>
-      </c>
-      <c r="F68" s="66" t="s">
+      <c r="D68" s="20"/>
+      <c r="E68" s="20" t="s">
+        <v>1735</v>
+      </c>
+      <c r="F68" s="20" t="s">
         <v>515</v>
       </c>
-      <c r="G68" s="66" t="s">
+      <c r="G68" s="20" t="s">
         <v>808</v>
       </c>
-      <c r="H68" s="66" t="s">
-        <v>1754</v>
-      </c>
-      <c r="I68" s="66"/>
-      <c r="J68" s="66" t="s">
+      <c r="H68" s="20" t="s">
+        <v>1737</v>
+      </c>
+      <c r="I68" s="20"/>
+      <c r="J68" s="20" t="s">
         <v>635</v>
       </c>
-      <c r="K68" s="66" t="s">
-        <v>1590</v>
-      </c>
-      <c r="L68" s="66" t="s">
-        <v>1592</v>
-      </c>
-      <c r="M68" s="66" t="s">
+      <c r="K68" s="20" t="s">
+        <v>1801</v>
+      </c>
+      <c r="L68" s="20" t="s">
+        <v>802</v>
+      </c>
+      <c r="M68" s="20" t="s">
         <v>669</v>
       </c>
-      <c r="N68" s="66"/>
-      <c r="O68" s="66" t="s">
+      <c r="N68" s="20"/>
+      <c r="O68" s="20" t="s">
         <v>722</v>
       </c>
-      <c r="P68" s="66" t="s">
-        <v>1640</v>
-      </c>
-      <c r="Q68" s="66" t="s">
-        <v>1655</v>
-      </c>
-      <c r="R68" s="66"/>
+      <c r="P68" s="20" t="s">
+        <v>1623</v>
+      </c>
+      <c r="Q68" s="20" t="s">
+        <v>1638</v>
+      </c>
+      <c r="R68" s="20"/>
       <c r="S68" s="21"/>
       <c r="V68" s="9"/>
     </row>
@@ -14838,49 +14717,49 @@
         <f>B65+1</f>
         <v>17</v>
       </c>
-      <c r="D69" s="60" t="s">
+      <c r="D69" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="E69" s="60" t="s">
+      <c r="E69" s="61" t="s">
         <v>1279</v>
       </c>
-      <c r="F69" s="60" t="s">
+      <c r="F69" s="61" t="s">
         <v>1280</v>
       </c>
-      <c r="G69" s="62" t="s">
+      <c r="G69" s="63" t="s">
         <v>1281</v>
       </c>
-      <c r="H69" s="60" t="s">
+      <c r="H69" s="61" t="s">
         <v>1282</v>
       </c>
-      <c r="I69" s="60" t="s">
+      <c r="I69" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="J69" s="60" t="s">
+      <c r="J69" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="K69" s="69" t="s">
+      <c r="K69" s="61" t="s">
         <v>1283</v>
       </c>
-      <c r="L69" s="69" t="s">
+      <c r="L69" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="M69" s="60" t="s">
+      <c r="M69" s="61" t="s">
         <v>153</v>
       </c>
-      <c r="N69" s="60" t="s">
+      <c r="N69" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="O69" s="60" t="s">
+      <c r="O69" s="61" t="s">
         <v>185</v>
       </c>
-      <c r="P69" s="60" t="s">
+      <c r="P69" s="61" t="s">
         <v>1200</v>
       </c>
-      <c r="Q69" s="60" t="s">
+      <c r="Q69" s="61" t="s">
         <v>1284</v>
       </c>
-      <c r="R69" s="60" t="s">
+      <c r="R69" s="61" t="s">
         <v>38</v>
       </c>
       <c r="S69" s="23"/>
@@ -14888,108 +14767,108 @@
     </row>
     <row r="70" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B70" s="24"/>
-      <c r="D70" s="67"/>
-      <c r="E70" s="67" t="s">
-        <v>1753</v>
-      </c>
-      <c r="F70" s="67" t="s">
-        <v>1719</v>
-      </c>
-      <c r="G70" s="67" t="s">
+      <c r="D70" s="26"/>
+      <c r="E70" s="26" t="s">
+        <v>1736</v>
+      </c>
+      <c r="F70" s="26" t="s">
+        <v>1702</v>
+      </c>
+      <c r="G70" s="26" t="s">
         <v>809</v>
       </c>
-      <c r="H70" s="67" t="s">
-        <v>1755</v>
-      </c>
-      <c r="I70" s="67"/>
-      <c r="J70" s="67" t="s">
+      <c r="H70" s="26" t="s">
+        <v>1738</v>
+      </c>
+      <c r="I70" s="26"/>
+      <c r="J70" s="26" t="s">
         <v>636</v>
       </c>
-      <c r="K70" s="67" t="s">
-        <v>1608</v>
-      </c>
-      <c r="L70" s="67" t="s">
-        <v>1609</v>
-      </c>
-      <c r="M70" s="67" t="s">
+      <c r="K70" s="26" t="s">
+        <v>1802</v>
+      </c>
+      <c r="L70" s="26" t="s">
+        <v>803</v>
+      </c>
+      <c r="M70" s="26" t="s">
         <v>670</v>
       </c>
-      <c r="N70" s="67"/>
-      <c r="O70" s="67" t="s">
+      <c r="N70" s="26"/>
+      <c r="O70" s="26" t="s">
         <v>723</v>
       </c>
-      <c r="P70" s="67" t="s">
-        <v>1641</v>
-      </c>
-      <c r="Q70" s="67" t="s">
-        <v>1656</v>
-      </c>
-      <c r="R70" s="67"/>
+      <c r="P70" s="26" t="s">
+        <v>1624</v>
+      </c>
+      <c r="Q70" s="26" t="s">
+        <v>1639</v>
+      </c>
+      <c r="R70" s="26"/>
       <c r="S70" s="33"/>
       <c r="V70" s="9"/>
     </row>
     <row r="71" spans="2:22" s="37" customFormat="1" ht="60" customHeight="1">
       <c r="B71" s="14"/>
       <c r="C71" s="36"/>
-      <c r="D71" s="65"/>
-      <c r="E71" s="65"/>
-      <c r="F71" s="65"/>
-      <c r="G71" s="65"/>
-      <c r="H71" s="65"/>
-      <c r="I71" s="65"/>
-      <c r="J71" s="65"/>
-      <c r="K71" s="65"/>
-      <c r="L71" s="65"/>
-      <c r="M71" s="65"/>
-      <c r="N71" s="65"/>
-      <c r="O71" s="65"/>
-      <c r="P71" s="65"/>
-      <c r="Q71" s="65"/>
-      <c r="R71" s="65"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="16"/>
+      <c r="J71" s="16"/>
+      <c r="K71" s="16"/>
+      <c r="L71" s="16"/>
+      <c r="M71" s="16"/>
+      <c r="N71" s="16"/>
+      <c r="O71" s="16"/>
+      <c r="P71" s="16"/>
+      <c r="Q71" s="16"/>
+      <c r="R71" s="16"/>
       <c r="V71" s="38"/>
     </row>
     <row r="72" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B72" s="19"/>
-      <c r="D72" s="66" t="s">
-        <v>1679</v>
-      </c>
-      <c r="E72" s="66" t="s">
-        <v>1756</v>
-      </c>
-      <c r="F72" s="66" t="s">
-        <v>1595</v>
-      </c>
-      <c r="G72" s="66" t="s">
-        <v>1758</v>
-      </c>
-      <c r="H72" s="66" t="s">
-        <v>1638</v>
-      </c>
-      <c r="I72" s="66" t="s">
-        <v>1760</v>
-      </c>
-      <c r="J72" s="66" t="s">
-        <v>1597</v>
-      </c>
-      <c r="K72" s="66"/>
-      <c r="L72" s="66" t="s">
+      <c r="D72" s="20" t="s">
+        <v>1662</v>
+      </c>
+      <c r="E72" s="20" t="s">
+        <v>1739</v>
+      </c>
+      <c r="F72" s="20" t="s">
+        <v>683</v>
+      </c>
+      <c r="G72" s="20" t="s">
+        <v>1741</v>
+      </c>
+      <c r="H72" s="20" t="s">
+        <v>1621</v>
+      </c>
+      <c r="I72" s="20" t="s">
+        <v>1743</v>
+      </c>
+      <c r="J72" s="20" t="s">
+        <v>1800</v>
+      </c>
+      <c r="K72" s="20"/>
+      <c r="L72" s="20" t="s">
         <v>932</v>
       </c>
-      <c r="M72" s="66" t="s">
+      <c r="M72" s="20" t="s">
         <v>838</v>
       </c>
-      <c r="N72" s="66" t="s">
+      <c r="N72" s="20" t="s">
         <v>796</v>
       </c>
-      <c r="O72" s="66" t="s">
-        <v>1732</v>
-      </c>
-      <c r="P72" s="66" t="s">
-        <v>1762</v>
-      </c>
-      <c r="Q72" s="66"/>
-      <c r="R72" s="66" t="s">
-        <v>1764</v>
+      <c r="O72" s="20" t="s">
+        <v>1715</v>
+      </c>
+      <c r="P72" s="20" t="s">
+        <v>1745</v>
+      </c>
+      <c r="Q72" s="20"/>
+      <c r="R72" s="20" t="s">
+        <v>1747</v>
       </c>
       <c r="S72" s="21"/>
       <c r="V72" s="9"/>
@@ -14999,49 +14878,49 @@
         <f>B69+1</f>
         <v>18</v>
       </c>
-      <c r="D73" s="60" t="s">
+      <c r="D73" s="61" t="s">
         <v>1231</v>
       </c>
-      <c r="E73" s="60" t="s">
+      <c r="E73" s="61" t="s">
         <v>1285</v>
       </c>
-      <c r="F73" s="69" t="s">
+      <c r="F73" s="61" t="s">
         <v>160</v>
       </c>
-      <c r="G73" s="60" t="s">
+      <c r="G73" s="61" t="s">
         <v>1286</v>
       </c>
-      <c r="H73" s="60" t="s">
+      <c r="H73" s="61" t="s">
         <v>1196</v>
       </c>
-      <c r="I73" s="60" t="s">
+      <c r="I73" s="61" t="s">
         <v>1287</v>
       </c>
-      <c r="J73" s="69" t="s">
+      <c r="J73" s="61" t="s">
         <v>1217</v>
       </c>
-      <c r="K73" s="60" t="s">
+      <c r="K73" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="L73" s="60" t="s">
+      <c r="L73" s="61" t="s">
         <v>314</v>
       </c>
-      <c r="M73" s="60" t="s">
+      <c r="M73" s="61" t="s">
         <v>1288</v>
       </c>
-      <c r="N73" s="60" t="s">
+      <c r="N73" s="61" t="s">
         <v>227</v>
       </c>
-      <c r="O73" s="60" t="s">
+      <c r="O73" s="61" t="s">
         <v>1289</v>
       </c>
-      <c r="P73" s="60" t="s">
+      <c r="P73" s="61" t="s">
         <v>1290</v>
       </c>
-      <c r="Q73" s="60" t="s">
+      <c r="Q73" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="R73" s="60" t="s">
+      <c r="R73" s="61" t="s">
         <v>1291</v>
       </c>
       <c r="S73" s="23"/>
@@ -15049,46 +14928,46 @@
     </row>
     <row r="74" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B74" s="24"/>
-      <c r="D74" s="67" t="s">
-        <v>1680</v>
-      </c>
-      <c r="E74" s="67" t="s">
-        <v>1757</v>
-      </c>
-      <c r="F74" s="67" t="s">
-        <v>1610</v>
-      </c>
-      <c r="G74" s="67" t="s">
-        <v>1759</v>
-      </c>
-      <c r="H74" s="67" t="s">
-        <v>1639</v>
-      </c>
-      <c r="I74" s="67" t="s">
-        <v>1761</v>
-      </c>
-      <c r="J74" s="67" t="s">
-        <v>1607</v>
-      </c>
-      <c r="K74" s="67"/>
-      <c r="L74" s="67" t="s">
+      <c r="D74" s="26" t="s">
+        <v>1663</v>
+      </c>
+      <c r="E74" s="26" t="s">
+        <v>1740</v>
+      </c>
+      <c r="F74" s="26" t="s">
+        <v>684</v>
+      </c>
+      <c r="G74" s="26" t="s">
+        <v>1742</v>
+      </c>
+      <c r="H74" s="26" t="s">
+        <v>1622</v>
+      </c>
+      <c r="I74" s="26" t="s">
+        <v>1744</v>
+      </c>
+      <c r="J74" s="26" t="s">
+        <v>1595</v>
+      </c>
+      <c r="K74" s="26"/>
+      <c r="L74" s="26" t="s">
         <v>933</v>
       </c>
-      <c r="M74" s="67" t="s">
+      <c r="M74" s="26" t="s">
         <v>839</v>
       </c>
-      <c r="N74" s="67" t="s">
+      <c r="N74" s="26" t="s">
         <v>797</v>
       </c>
-      <c r="O74" s="67" t="s">
-        <v>1733</v>
-      </c>
-      <c r="P74" s="67" t="s">
-        <v>1763</v>
-      </c>
-      <c r="Q74" s="67"/>
-      <c r="R74" s="67" t="s">
-        <v>1765</v>
+      <c r="O74" s="26" t="s">
+        <v>1716</v>
+      </c>
+      <c r="P74" s="26" t="s">
+        <v>1746</v>
+      </c>
+      <c r="Q74" s="26"/>
+      <c r="R74" s="26" t="s">
+        <v>1748</v>
       </c>
       <c r="S74" s="33"/>
       <c r="V74" s="9"/>
@@ -15096,66 +14975,66 @@
     <row r="75" spans="2:22" s="37" customFormat="1" ht="60" customHeight="1">
       <c r="B75" s="14"/>
       <c r="C75" s="36"/>
-      <c r="D75" s="65"/>
-      <c r="E75" s="65"/>
-      <c r="F75" s="65"/>
-      <c r="G75" s="65"/>
-      <c r="H75" s="65"/>
-      <c r="I75" s="65"/>
-      <c r="J75" s="65"/>
-      <c r="K75" s="65"/>
-      <c r="L75" s="65"/>
-      <c r="M75" s="65"/>
-      <c r="N75" s="65"/>
-      <c r="O75" s="65"/>
-      <c r="P75" s="65"/>
-      <c r="Q75" s="65"/>
-      <c r="R75" s="65"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="16"/>
+      <c r="H75" s="16"/>
+      <c r="I75" s="16"/>
+      <c r="J75" s="16"/>
+      <c r="K75" s="16"/>
+      <c r="L75" s="16"/>
+      <c r="M75" s="16"/>
+      <c r="N75" s="16"/>
+      <c r="O75" s="16"/>
+      <c r="P75" s="16"/>
+      <c r="Q75" s="16"/>
+      <c r="R75" s="16"/>
       <c r="V75" s="38"/>
     </row>
     <row r="76" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B76" s="19"/>
-      <c r="D76" s="66" t="s">
-        <v>1766</v>
-      </c>
-      <c r="E76" s="66" t="s">
-        <v>1768</v>
-      </c>
-      <c r="F76" s="66" t="s">
-        <v>1770</v>
-      </c>
-      <c r="G76" s="66"/>
-      <c r="H76" s="66" t="s">
-        <v>1772</v>
-      </c>
-      <c r="I76" s="66" t="s">
-        <v>1653</v>
-      </c>
-      <c r="J76" s="66" t="s">
-        <v>1597</v>
-      </c>
-      <c r="K76" s="66" t="s">
-        <v>1774</v>
-      </c>
-      <c r="L76" s="66" t="s">
-        <v>792</v>
-      </c>
-      <c r="M76" s="66" t="s">
-        <v>1638</v>
-      </c>
-      <c r="N76" s="66" t="s">
+      <c r="D76" s="20" t="s">
+        <v>1749</v>
+      </c>
+      <c r="E76" s="20" t="s">
+        <v>1751</v>
+      </c>
+      <c r="F76" s="20" t="s">
+        <v>1753</v>
+      </c>
+      <c r="G76" s="20"/>
+      <c r="H76" s="20" t="s">
+        <v>1755</v>
+      </c>
+      <c r="I76" s="20" t="s">
+        <v>1636</v>
+      </c>
+      <c r="J76" s="20" t="s">
+        <v>1800</v>
+      </c>
+      <c r="K76" s="20" t="s">
+        <v>1757</v>
+      </c>
+      <c r="L76" s="20" t="s">
+        <v>1798</v>
+      </c>
+      <c r="M76" s="20" t="s">
+        <v>1621</v>
+      </c>
+      <c r="N76" s="20" t="s">
         <v>639</v>
       </c>
-      <c r="O76" s="66" t="s">
-        <v>1776</v>
-      </c>
-      <c r="P76" s="66" t="s">
+      <c r="O76" s="20" t="s">
+        <v>1759</v>
+      </c>
+      <c r="P76" s="20" t="s">
         <v>796</v>
       </c>
-      <c r="Q76" s="66" t="s">
-        <v>1778</v>
-      </c>
-      <c r="R76" s="66"/>
+      <c r="Q76" s="20" t="s">
+        <v>1761</v>
+      </c>
+      <c r="R76" s="20"/>
       <c r="S76" s="21"/>
       <c r="V76" s="9"/>
     </row>
@@ -15164,49 +15043,49 @@
         <f>B73+1</f>
         <v>19</v>
       </c>
-      <c r="D77" s="60" t="s">
+      <c r="D77" s="61" t="s">
         <v>1292</v>
       </c>
-      <c r="E77" s="60" t="s">
+      <c r="E77" s="61" t="s">
         <v>1293</v>
       </c>
-      <c r="F77" s="60" t="s">
+      <c r="F77" s="61" t="s">
         <v>1294</v>
       </c>
-      <c r="G77" s="62" t="s">
+      <c r="G77" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="H77" s="60" t="s">
+      <c r="H77" s="61" t="s">
         <v>1295</v>
       </c>
-      <c r="I77" s="60" t="s">
+      <c r="I77" s="61" t="s">
         <v>1209</v>
       </c>
-      <c r="J77" s="69" t="s">
+      <c r="J77" s="61" t="s">
         <v>1217</v>
       </c>
-      <c r="K77" s="60" t="s">
+      <c r="K77" s="61" t="s">
         <v>1296</v>
       </c>
-      <c r="L77" s="69" t="s">
+      <c r="L77" s="61" t="s">
         <v>1195</v>
       </c>
-      <c r="M77" s="60" t="s">
+      <c r="M77" s="61" t="s">
         <v>1196</v>
       </c>
-      <c r="N77" s="60" t="s">
+      <c r="N77" s="61" t="s">
         <v>1265</v>
       </c>
-      <c r="O77" s="60" t="s">
+      <c r="O77" s="61" t="s">
         <v>1297</v>
       </c>
-      <c r="P77" s="60" t="s">
+      <c r="P77" s="61" t="s">
         <v>227</v>
       </c>
-      <c r="Q77" s="60" t="s">
+      <c r="Q77" s="61" t="s">
         <v>1298</v>
       </c>
-      <c r="R77" s="60" t="s">
+      <c r="R77" s="61" t="s">
         <v>31</v>
       </c>
       <c r="S77" s="23"/>
@@ -15214,111 +15093,111 @@
     </row>
     <row r="78" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B78" s="24"/>
-      <c r="D78" s="67" t="s">
-        <v>1767</v>
-      </c>
-      <c r="E78" s="67" t="s">
-        <v>1769</v>
-      </c>
-      <c r="F78" s="67" t="s">
-        <v>1771</v>
-      </c>
-      <c r="G78" s="67"/>
-      <c r="H78" s="67" t="s">
-        <v>1773</v>
-      </c>
-      <c r="I78" s="67" t="s">
-        <v>1654</v>
-      </c>
-      <c r="J78" s="67" t="s">
-        <v>1607</v>
-      </c>
-      <c r="K78" s="67" t="s">
-        <v>1775</v>
-      </c>
-      <c r="L78" s="67" t="s">
-        <v>793</v>
-      </c>
-      <c r="M78" s="67" t="s">
-        <v>1639</v>
-      </c>
-      <c r="N78" s="67" t="s">
+      <c r="D78" s="26" t="s">
+        <v>1750</v>
+      </c>
+      <c r="E78" s="26" t="s">
+        <v>1752</v>
+      </c>
+      <c r="F78" s="26" t="s">
+        <v>1754</v>
+      </c>
+      <c r="G78" s="26"/>
+      <c r="H78" s="26" t="s">
+        <v>1756</v>
+      </c>
+      <c r="I78" s="26" t="s">
+        <v>1637</v>
+      </c>
+      <c r="J78" s="26" t="s">
+        <v>1595</v>
+      </c>
+      <c r="K78" s="26" t="s">
+        <v>1758</v>
+      </c>
+      <c r="L78" s="26" t="s">
+        <v>1799</v>
+      </c>
+      <c r="M78" s="26" t="s">
+        <v>1622</v>
+      </c>
+      <c r="N78" s="26" t="s">
         <v>640</v>
       </c>
-      <c r="O78" s="67" t="s">
-        <v>1777</v>
-      </c>
-      <c r="P78" s="67" t="s">
+      <c r="O78" s="26" t="s">
+        <v>1760</v>
+      </c>
+      <c r="P78" s="26" t="s">
         <v>797</v>
       </c>
-      <c r="Q78" s="67" t="s">
-        <v>1779</v>
-      </c>
-      <c r="R78" s="67"/>
+      <c r="Q78" s="26" t="s">
+        <v>1762</v>
+      </c>
+      <c r="R78" s="26"/>
       <c r="S78" s="33"/>
       <c r="V78" s="9"/>
     </row>
     <row r="79" spans="2:22" s="37" customFormat="1" ht="60" customHeight="1">
       <c r="B79" s="14"/>
       <c r="C79" s="36"/>
-      <c r="D79" s="65"/>
-      <c r="E79" s="65"/>
-      <c r="F79" s="65"/>
-      <c r="G79" s="65"/>
-      <c r="H79" s="65"/>
-      <c r="I79" s="65"/>
-      <c r="J79" s="65"/>
-      <c r="K79" s="65"/>
-      <c r="L79" s="65"/>
-      <c r="M79" s="65"/>
-      <c r="N79" s="65"/>
-      <c r="O79" s="65"/>
-      <c r="P79" s="65"/>
-      <c r="Q79" s="65"/>
-      <c r="R79" s="65"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="16"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="16"/>
+      <c r="H79" s="16"/>
+      <c r="I79" s="16"/>
+      <c r="J79" s="16"/>
+      <c r="K79" s="16"/>
+      <c r="L79" s="16"/>
+      <c r="M79" s="16"/>
+      <c r="N79" s="16"/>
+      <c r="O79" s="16"/>
+      <c r="P79" s="16"/>
+      <c r="Q79" s="16"/>
+      <c r="R79" s="16"/>
       <c r="V79" s="38"/>
     </row>
     <row r="80" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B80" s="19"/>
-      <c r="D80" s="66" t="s">
-        <v>1780</v>
-      </c>
-      <c r="E80" s="66" t="s">
-        <v>1782</v>
-      </c>
-      <c r="F80" s="66" t="s">
-        <v>1784</v>
-      </c>
-      <c r="G80" s="66" t="s">
-        <v>1786</v>
-      </c>
-      <c r="H80" s="66"/>
-      <c r="I80" s="66" t="s">
-        <v>1644</v>
-      </c>
-      <c r="J80" s="66" t="s">
-        <v>1599</v>
-      </c>
-      <c r="K80" s="66" t="s">
+      <c r="D80" s="20" t="s">
+        <v>1763</v>
+      </c>
+      <c r="E80" s="20" t="s">
+        <v>1765</v>
+      </c>
+      <c r="F80" s="20" t="s">
+        <v>1767</v>
+      </c>
+      <c r="G80" s="20" t="s">
+        <v>1769</v>
+      </c>
+      <c r="H80" s="20"/>
+      <c r="I80" s="20" t="s">
+        <v>1627</v>
+      </c>
+      <c r="J80" s="20" t="s">
+        <v>715</v>
+      </c>
+      <c r="K80" s="20" t="s">
         <v>740</v>
       </c>
-      <c r="L80" s="66" t="s">
+      <c r="L80" s="20" t="s">
         <v>559</v>
       </c>
-      <c r="M80" s="66"/>
-      <c r="N80" s="66" t="s">
+      <c r="M80" s="20"/>
+      <c r="N80" s="20" t="s">
         <v>703</v>
       </c>
-      <c r="O80" s="66" t="s">
-        <v>1788</v>
-      </c>
-      <c r="P80" s="66" t="s">
-        <v>1646</v>
-      </c>
-      <c r="Q80" s="66" t="s">
-        <v>1655</v>
-      </c>
-      <c r="R80" s="66" t="s">
+      <c r="O80" s="20" t="s">
+        <v>1771</v>
+      </c>
+      <c r="P80" s="20" t="s">
+        <v>1629</v>
+      </c>
+      <c r="Q80" s="20" t="s">
+        <v>1638</v>
+      </c>
+      <c r="R80" s="20" t="s">
         <v>639</v>
       </c>
       <c r="S80" s="21"/>
@@ -15329,49 +15208,49 @@
         <f>B77+1</f>
         <v>20</v>
       </c>
-      <c r="D81" s="60" t="s">
+      <c r="D81" s="61" t="s">
         <v>1299</v>
       </c>
-      <c r="E81" s="60" t="s">
+      <c r="E81" s="61" t="s">
         <v>1300</v>
       </c>
-      <c r="F81" s="60" t="s">
+      <c r="F81" s="61" t="s">
         <v>1301</v>
       </c>
-      <c r="G81" s="60" t="s">
+      <c r="G81" s="61" t="s">
         <v>1302</v>
       </c>
-      <c r="H81" s="60" t="s">
+      <c r="H81" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="I81" s="60" t="s">
+      <c r="I81" s="61" t="s">
         <v>1303</v>
       </c>
-      <c r="J81" s="69" t="s">
+      <c r="J81" s="61" t="s">
         <v>179</v>
       </c>
-      <c r="K81" s="60" t="s">
+      <c r="K81" s="61" t="s">
         <v>1237</v>
       </c>
-      <c r="L81" s="60" t="s">
+      <c r="L81" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="M81" s="60" t="s">
+      <c r="M81" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="N81" s="60" t="s">
+      <c r="N81" s="61" t="s">
         <v>1203</v>
       </c>
-      <c r="O81" s="60" t="s">
+      <c r="O81" s="61" t="s">
         <v>1304</v>
       </c>
-      <c r="P81" s="60" t="s">
+      <c r="P81" s="61" t="s">
         <v>1205</v>
       </c>
-      <c r="Q81" s="60" t="s">
+      <c r="Q81" s="61" t="s">
         <v>1305</v>
       </c>
-      <c r="R81" s="60" t="s">
+      <c r="R81" s="61" t="s">
         <v>1199</v>
       </c>
       <c r="S81" s="23"/>
@@ -15379,45 +15258,45 @@
     </row>
     <row r="82" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B82" s="24"/>
-      <c r="D82" s="67" t="s">
-        <v>1781</v>
-      </c>
-      <c r="E82" s="67" t="s">
-        <v>1783</v>
-      </c>
-      <c r="F82" s="67" t="s">
-        <v>1785</v>
-      </c>
-      <c r="G82" s="67" t="s">
-        <v>1787</v>
-      </c>
-      <c r="H82" s="67"/>
-      <c r="I82" s="67" t="s">
-        <v>1645</v>
-      </c>
-      <c r="J82" s="67" t="s">
-        <v>1611</v>
-      </c>
-      <c r="K82" s="67" t="s">
+      <c r="D82" s="26" t="s">
+        <v>1764</v>
+      </c>
+      <c r="E82" s="26" t="s">
+        <v>1766</v>
+      </c>
+      <c r="F82" s="26" t="s">
+        <v>1768</v>
+      </c>
+      <c r="G82" s="26" t="s">
+        <v>1770</v>
+      </c>
+      <c r="H82" s="26"/>
+      <c r="I82" s="26" t="s">
+        <v>1628</v>
+      </c>
+      <c r="J82" s="26" t="s">
+        <v>716</v>
+      </c>
+      <c r="K82" s="26" t="s">
         <v>741</v>
       </c>
-      <c r="L82" s="67" t="s">
+      <c r="L82" s="26" t="s">
         <v>560</v>
       </c>
-      <c r="M82" s="67"/>
-      <c r="N82" s="67" t="s">
+      <c r="M82" s="26"/>
+      <c r="N82" s="26" t="s">
         <v>704</v>
       </c>
-      <c r="O82" s="67" t="s">
-        <v>1789</v>
-      </c>
-      <c r="P82" s="67" t="s">
-        <v>1647</v>
-      </c>
-      <c r="Q82" s="67" t="s">
-        <v>1656</v>
-      </c>
-      <c r="R82" s="67" t="s">
+      <c r="O82" s="26" t="s">
+        <v>1772</v>
+      </c>
+      <c r="P82" s="26" t="s">
+        <v>1630</v>
+      </c>
+      <c r="Q82" s="26" t="s">
+        <v>1639</v>
+      </c>
+      <c r="R82" s="26" t="s">
         <v>640</v>
       </c>
       <c r="S82" s="33"/>
@@ -15426,62 +15305,62 @@
     <row r="83" spans="2:22" s="37" customFormat="1" ht="60" customHeight="1">
       <c r="B83" s="14"/>
       <c r="C83" s="36"/>
-      <c r="D83" s="65"/>
-      <c r="E83" s="65"/>
-      <c r="F83" s="65"/>
-      <c r="G83" s="65"/>
-      <c r="H83" s="65"/>
-      <c r="I83" s="65"/>
-      <c r="J83" s="65"/>
-      <c r="K83" s="65"/>
-      <c r="L83" s="65"/>
-      <c r="M83" s="65"/>
-      <c r="N83" s="65"/>
-      <c r="O83" s="65"/>
-      <c r="P83" s="65"/>
-      <c r="Q83" s="65"/>
-      <c r="R83" s="65"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="16"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="16"/>
+      <c r="H83" s="16"/>
+      <c r="I83" s="16"/>
+      <c r="J83" s="16"/>
+      <c r="K83" s="16"/>
+      <c r="L83" s="16"/>
+      <c r="M83" s="16"/>
+      <c r="N83" s="16"/>
+      <c r="O83" s="16"/>
+      <c r="P83" s="16"/>
+      <c r="Q83" s="16"/>
+      <c r="R83" s="16"/>
       <c r="V83" s="38"/>
     </row>
     <row r="84" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B84" s="19"/>
-      <c r="D84" s="66" t="s">
-        <v>1595</v>
-      </c>
-      <c r="E84" s="66"/>
-      <c r="F84" s="66" t="s">
+      <c r="D84" s="20" t="s">
+        <v>683</v>
+      </c>
+      <c r="E84" s="20"/>
+      <c r="F84" s="20" t="s">
         <v>635</v>
       </c>
-      <c r="G84" s="66" t="s">
-        <v>1790</v>
-      </c>
-      <c r="H84" s="66" t="s">
-        <v>1792</v>
-      </c>
-      <c r="I84" s="66" t="s">
-        <v>1794</v>
-      </c>
-      <c r="J84" s="66"/>
-      <c r="K84" s="66" t="s">
+      <c r="G84" s="20" t="s">
+        <v>1773</v>
+      </c>
+      <c r="H84" s="20" t="s">
+        <v>1775</v>
+      </c>
+      <c r="I84" s="20" t="s">
+        <v>1777</v>
+      </c>
+      <c r="J84" s="20"/>
+      <c r="K84" s="20" t="s">
         <v>707</v>
       </c>
-      <c r="L84" s="66" t="s">
+      <c r="L84" s="20" t="s">
         <v>603</v>
       </c>
-      <c r="M84" s="66" t="s">
+      <c r="M84" s="20" t="s">
         <v>1570</v>
       </c>
-      <c r="N84" s="66" t="s">
-        <v>764</v>
-      </c>
-      <c r="O84" s="66"/>
-      <c r="P84" s="66" t="s">
-        <v>1597</v>
-      </c>
-      <c r="Q84" s="66" t="s">
-        <v>1592</v>
-      </c>
-      <c r="R84" s="66" t="s">
+      <c r="N84" s="20" t="s">
+        <v>1803</v>
+      </c>
+      <c r="O84" s="20"/>
+      <c r="P84" s="20" t="s">
+        <v>1800</v>
+      </c>
+      <c r="Q84" s="20" t="s">
+        <v>802</v>
+      </c>
+      <c r="R84" s="20" t="s">
         <v>814</v>
       </c>
       <c r="S84" s="21"/>
@@ -15492,49 +15371,49 @@
         <f>B81+1</f>
         <v>21</v>
       </c>
-      <c r="D85" s="69" t="s">
+      <c r="D85" s="61" t="s">
         <v>160</v>
       </c>
-      <c r="E85" s="60" t="s">
+      <c r="E85" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="F85" s="60" t="s">
+      <c r="F85" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="G85" s="62" t="s">
+      <c r="G85" s="63" t="s">
         <v>1306</v>
       </c>
-      <c r="H85" s="60" t="s">
+      <c r="H85" s="61" t="s">
         <v>1307</v>
       </c>
-      <c r="I85" s="60" t="s">
+      <c r="I85" s="61" t="s">
         <v>1308</v>
       </c>
-      <c r="J85" s="60" t="s">
+      <c r="J85" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="K85" s="60" t="s">
+      <c r="K85" s="61" t="s">
         <v>1309</v>
       </c>
-      <c r="L85" s="60" t="s">
+      <c r="L85" s="61" t="s">
         <v>119</v>
       </c>
-      <c r="M85" s="60" t="s">
+      <c r="M85" s="61" t="s">
         <v>1310</v>
       </c>
-      <c r="N85" s="69" t="s">
+      <c r="N85" s="61" t="s">
         <v>1311</v>
       </c>
-      <c r="O85" s="60" t="s">
+      <c r="O85" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="P85" s="69" t="s">
+      <c r="P85" s="61" t="s">
         <v>1217</v>
       </c>
-      <c r="Q85" s="69" t="s">
+      <c r="Q85" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="R85" s="60" t="s">
+      <c r="R85" s="61" t="s">
         <v>235</v>
       </c>
       <c r="S85" s="23"/>
@@ -15542,43 +15421,43 @@
     </row>
     <row r="86" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B86" s="24"/>
-      <c r="D86" s="67" t="s">
-        <v>1610</v>
-      </c>
-      <c r="E86" s="67"/>
-      <c r="F86" s="67" t="s">
+      <c r="D86" s="26" t="s">
+        <v>684</v>
+      </c>
+      <c r="E86" s="26"/>
+      <c r="F86" s="26" t="s">
         <v>636</v>
       </c>
-      <c r="G86" s="67" t="s">
-        <v>1791</v>
-      </c>
-      <c r="H86" s="67" t="s">
-        <v>1793</v>
-      </c>
-      <c r="I86" s="67" t="s">
-        <v>1795</v>
-      </c>
-      <c r="J86" s="67"/>
-      <c r="K86" s="67" t="s">
+      <c r="G86" s="26" t="s">
+        <v>1774</v>
+      </c>
+      <c r="H86" s="26" t="s">
+        <v>1776</v>
+      </c>
+      <c r="I86" s="26" t="s">
+        <v>1778</v>
+      </c>
+      <c r="J86" s="26"/>
+      <c r="K86" s="26" t="s">
         <v>708</v>
       </c>
-      <c r="L86" s="67" t="s">
+      <c r="L86" s="26" t="s">
         <v>604</v>
       </c>
-      <c r="M86" s="67" t="s">
-        <v>1796</v>
-      </c>
-      <c r="N86" s="67" t="s">
-        <v>765</v>
-      </c>
-      <c r="O86" s="67"/>
-      <c r="P86" s="67" t="s">
-        <v>1607</v>
-      </c>
-      <c r="Q86" s="67" t="s">
-        <v>1609</v>
-      </c>
-      <c r="R86" s="67" t="s">
+      <c r="M86" s="26" t="s">
+        <v>1779</v>
+      </c>
+      <c r="N86" s="26" t="s">
+        <v>1804</v>
+      </c>
+      <c r="O86" s="26"/>
+      <c r="P86" s="26" t="s">
+        <v>1595</v>
+      </c>
+      <c r="Q86" s="26" t="s">
+        <v>803</v>
+      </c>
+      <c r="R86" s="26" t="s">
         <v>815</v>
       </c>
       <c r="S86" s="33"/>
@@ -15587,13 +15466,13 @@
     <row r="87" spans="2:22" s="37" customFormat="1" ht="60" customHeight="1">
       <c r="B87" s="14"/>
       <c r="C87" s="36"/>
-      <c r="D87" s="65"/>
-      <c r="E87" s="65"/>
-      <c r="F87" s="65"/>
-      <c r="G87" s="65"/>
-      <c r="H87" s="65"/>
-      <c r="I87" s="65"/>
-      <c r="J87" s="65"/>
+      <c r="D87" s="16"/>
+      <c r="E87" s="16"/>
+      <c r="F87" s="16"/>
+      <c r="G87" s="16"/>
+      <c r="H87" s="16"/>
+      <c r="I87" s="16"/>
+      <c r="J87" s="16"/>
       <c r="K87" s="16"/>
       <c r="L87" s="16"/>
       <c r="M87" s="16"/>
@@ -15606,19 +15485,19 @@
     </row>
     <row r="88" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B88" s="19"/>
-      <c r="D88" s="66" t="s">
+      <c r="D88" s="20" t="s">
         <v>553</v>
       </c>
-      <c r="E88" s="66" t="s">
+      <c r="E88" s="20" t="s">
         <v>726</v>
       </c>
-      <c r="F88" s="66" t="s">
-        <v>1797</v>
-      </c>
-      <c r="G88" s="66"/>
-      <c r="H88" s="66"/>
-      <c r="I88" s="66"/>
-      <c r="J88" s="66"/>
+      <c r="F88" s="20" t="s">
+        <v>1780</v>
+      </c>
+      <c r="G88" s="20"/>
+      <c r="H88" s="20"/>
+      <c r="I88" s="20"/>
+      <c r="J88" s="20"/>
       <c r="K88" s="20"/>
       <c r="L88" s="20"/>
       <c r="M88" s="20"/>
@@ -15635,51 +15514,51 @@
         <f>B85+1</f>
         <v>22</v>
       </c>
-      <c r="D89" s="60" t="s">
+      <c r="D89" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="E89" s="60" t="s">
+      <c r="E89" s="61" t="s">
         <v>1312</v>
       </c>
-      <c r="F89" s="60" t="s">
+      <c r="F89" s="61" t="s">
         <v>1313</v>
       </c>
-      <c r="G89" s="60" t="s">
+      <c r="G89" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="H89" s="60" t="str">
+      <c r="H89" s="61" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="I89" s="60"/>
-      <c r="J89" s="60"/>
-      <c r="K89" s="60"/>
-      <c r="L89" s="60"/>
-      <c r="M89" s="60"/>
-      <c r="N89" s="60"/>
-      <c r="O89" s="60"/>
-      <c r="P89" s="60"/>
-      <c r="Q89" s="60"/>
-      <c r="R89" s="60"/>
+      <c r="I89" s="45"/>
+      <c r="J89" s="45"/>
+      <c r="K89" s="45"/>
+      <c r="L89" s="45"/>
+      <c r="M89" s="45"/>
+      <c r="N89" s="45"/>
+      <c r="O89" s="45"/>
+      <c r="P89" s="45"/>
+      <c r="Q89" s="45"/>
+      <c r="R89" s="45"/>
       <c r="S89" s="23"/>
       <c r="V89" s="9"/>
     </row>
     <row r="90" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B90" s="24"/>
-      <c r="D90" s="67" t="s">
+      <c r="D90" s="26" t="s">
         <v>554</v>
       </c>
-      <c r="E90" s="67" t="s">
+      <c r="E90" s="26" t="s">
         <v>727</v>
       </c>
-      <c r="F90" s="67" t="s">
-        <v>1798</v>
-      </c>
-      <c r="G90" s="67"/>
-      <c r="H90" s="67"/>
-      <c r="I90" s="67"/>
-      <c r="J90" s="67"/>
+      <c r="F90" s="26" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G90" s="26"/>
+      <c r="H90" s="26"/>
+      <c r="I90" s="26"/>
+      <c r="J90" s="26"/>
       <c r="K90" s="26"/>
       <c r="L90" s="26"/>
       <c r="M90" s="26"/>
@@ -15694,7 +15573,7 @@
     <row r="91" spans="2:22" s="37" customFormat="1" ht="60" customHeight="1">
       <c r="B91" s="14"/>
       <c r="C91" s="36"/>
-      <c r="D91" s="65"/>
+      <c r="D91" s="16"/>
       <c r="E91" s="16"/>
       <c r="F91" s="16"/>
       <c r="G91" s="16"/>
@@ -15713,7 +15592,7 @@
     </row>
     <row r="92" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B92" s="19"/>
-      <c r="D92" s="66"/>
+      <c r="D92" s="20"/>
       <c r="E92" s="20"/>
       <c r="F92" s="20"/>
       <c r="G92" s="20"/>
@@ -15736,31 +15615,31 @@
         <f>B89+1</f>
         <v>23</v>
       </c>
-      <c r="D93" s="60" t="str">
+      <c r="D93" s="61" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="E93" s="60"/>
-      <c r="F93" s="60"/>
-      <c r="G93" s="60"/>
-      <c r="H93" s="60"/>
-      <c r="I93" s="60"/>
-      <c r="J93" s="60"/>
-      <c r="K93" s="60"/>
-      <c r="L93" s="60"/>
-      <c r="M93" s="60"/>
-      <c r="N93" s="60"/>
-      <c r="O93" s="60"/>
-      <c r="P93" s="60"/>
-      <c r="Q93" s="60"/>
-      <c r="R93" s="60"/>
+      <c r="E93" s="45"/>
+      <c r="F93" s="45"/>
+      <c r="G93" s="45"/>
+      <c r="H93" s="45"/>
+      <c r="I93" s="45"/>
+      <c r="J93" s="45"/>
+      <c r="K93" s="45"/>
+      <c r="L93" s="45"/>
+      <c r="M93" s="45"/>
+      <c r="N93" s="45"/>
+      <c r="O93" s="45"/>
+      <c r="P93" s="45"/>
+      <c r="Q93" s="45"/>
+      <c r="R93" s="45"/>
       <c r="S93" s="23"/>
       <c r="V93" s="9"/>
     </row>
     <row r="94" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B94" s="24"/>
-      <c r="D94" s="67"/>
+      <c r="D94" s="26"/>
       <c r="E94" s="26"/>
       <c r="F94" s="26"/>
       <c r="G94" s="26"/>
@@ -15781,61 +15660,61 @@
     <row r="95" spans="2:22" s="37" customFormat="1" ht="60" customHeight="1">
       <c r="B95" s="14"/>
       <c r="C95" s="36"/>
-      <c r="D95" s="65"/>
-      <c r="E95" s="65"/>
-      <c r="F95" s="65"/>
-      <c r="G95" s="65"/>
-      <c r="H95" s="65"/>
-      <c r="I95" s="65"/>
-      <c r="J95" s="65"/>
-      <c r="K95" s="65"/>
-      <c r="L95" s="65"/>
-      <c r="M95" s="65"/>
-      <c r="N95" s="65"/>
-      <c r="O95" s="65"/>
-      <c r="P95" s="65"/>
-      <c r="Q95" s="65"/>
-      <c r="R95" s="65"/>
+      <c r="D95" s="16"/>
+      <c r="E95" s="16"/>
+      <c r="F95" s="16"/>
+      <c r="G95" s="16"/>
+      <c r="H95" s="16"/>
+      <c r="I95" s="16"/>
+      <c r="J95" s="16"/>
+      <c r="K95" s="16"/>
+      <c r="L95" s="16"/>
+      <c r="M95" s="16"/>
+      <c r="N95" s="16"/>
+      <c r="O95" s="16"/>
+      <c r="P95" s="16"/>
+      <c r="Q95" s="16"/>
+      <c r="R95" s="16"/>
       <c r="V95" s="38"/>
     </row>
     <row r="96" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B96" s="19"/>
-      <c r="D96" s="66" t="s">
-        <v>1601</v>
-      </c>
-      <c r="E96" s="66" t="s">
-        <v>1799</v>
-      </c>
-      <c r="F96" s="66" t="s">
-        <v>1748</v>
-      </c>
-      <c r="G96" s="66"/>
-      <c r="H96" s="66" t="s">
-        <v>1801</v>
-      </c>
-      <c r="I96" s="66" t="s">
-        <v>1788</v>
-      </c>
-      <c r="J96" s="66" t="s">
+      <c r="D96" s="20" t="s">
+        <v>1796</v>
+      </c>
+      <c r="E96" s="20" t="s">
+        <v>1782</v>
+      </c>
+      <c r="F96" s="20" t="s">
+        <v>1731</v>
+      </c>
+      <c r="G96" s="20"/>
+      <c r="H96" s="20" t="s">
+        <v>1784</v>
+      </c>
+      <c r="I96" s="20" t="s">
+        <v>1771</v>
+      </c>
+      <c r="J96" s="20" t="s">
         <v>561</v>
       </c>
-      <c r="K96" s="66" t="s">
+      <c r="K96" s="20" t="s">
         <v>1572</v>
       </c>
-      <c r="L96" s="66"/>
-      <c r="M96" s="66" t="s">
+      <c r="L96" s="20"/>
+      <c r="M96" s="20" t="s">
         <v>551</v>
       </c>
-      <c r="N96" s="66"/>
-      <c r="O96" s="66" t="s">
-        <v>1804</v>
-      </c>
-      <c r="P96" s="66" t="s">
+      <c r="N96" s="20"/>
+      <c r="O96" s="20" t="s">
+        <v>1787</v>
+      </c>
+      <c r="P96" s="20" t="s">
         <v>615</v>
       </c>
-      <c r="Q96" s="66"/>
-      <c r="R96" s="66" t="s">
-        <v>1603</v>
+      <c r="Q96" s="20"/>
+      <c r="R96" s="20" t="s">
+        <v>1570</v>
       </c>
       <c r="S96" s="21"/>
       <c r="V96" s="9"/>
@@ -15845,49 +15724,49 @@
         <f>B93+1</f>
         <v>24</v>
       </c>
-      <c r="D97" s="69" t="s">
+      <c r="D97" s="61" t="s">
         <v>1188</v>
       </c>
-      <c r="E97" s="60" t="s">
+      <c r="E97" s="61" t="s">
         <v>1314</v>
       </c>
-      <c r="F97" s="60" t="s">
+      <c r="F97" s="61" t="s">
         <v>1315</v>
       </c>
-      <c r="G97" s="62" t="s">
+      <c r="G97" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="H97" s="60" t="s">
+      <c r="H97" s="61" t="s">
         <v>1316</v>
       </c>
-      <c r="I97" s="60" t="s">
+      <c r="I97" s="61" t="s">
         <v>1304</v>
       </c>
-      <c r="J97" s="60" t="s">
+      <c r="J97" s="61" t="s">
         <v>1317</v>
       </c>
-      <c r="K97" s="60" t="s">
+      <c r="K97" s="61" t="s">
         <v>1318</v>
       </c>
-      <c r="L97" s="60" t="s">
+      <c r="L97" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="M97" s="60" t="s">
+      <c r="M97" s="61" t="s">
         <v>305</v>
       </c>
-      <c r="N97" s="60" t="s">
+      <c r="N97" s="61" t="s">
         <v>306</v>
       </c>
-      <c r="O97" s="60" t="s">
+      <c r="O97" s="61" t="s">
         <v>1319</v>
       </c>
-      <c r="P97" s="60" t="s">
+      <c r="P97" s="61" t="s">
         <v>159</v>
       </c>
-      <c r="Q97" s="60" t="s">
+      <c r="Q97" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="R97" s="69" t="s">
+      <c r="R97" s="61" t="s">
         <v>1320</v>
       </c>
       <c r="S97" s="23"/>
@@ -15895,42 +15774,42 @@
     </row>
     <row r="98" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B98" s="24"/>
-      <c r="D98" s="67" t="s">
-        <v>1606</v>
-      </c>
-      <c r="E98" s="67" t="s">
-        <v>1800</v>
-      </c>
-      <c r="F98" s="67" t="s">
-        <v>1749</v>
-      </c>
-      <c r="G98" s="67"/>
-      <c r="H98" s="67" t="s">
-        <v>1802</v>
-      </c>
-      <c r="I98" s="67" t="s">
-        <v>1789</v>
-      </c>
-      <c r="J98" s="67" t="s">
+      <c r="D98" s="26" t="s">
+        <v>1797</v>
+      </c>
+      <c r="E98" s="26" t="s">
+        <v>1783</v>
+      </c>
+      <c r="F98" s="26" t="s">
+        <v>1732</v>
+      </c>
+      <c r="G98" s="26"/>
+      <c r="H98" s="26" t="s">
+        <v>1785</v>
+      </c>
+      <c r="I98" s="26" t="s">
+        <v>1772</v>
+      </c>
+      <c r="J98" s="26" t="s">
         <v>562</v>
       </c>
-      <c r="K98" s="67" t="s">
-        <v>1803</v>
-      </c>
-      <c r="L98" s="67"/>
-      <c r="M98" s="67" t="s">
+      <c r="K98" s="26" t="s">
+        <v>1786</v>
+      </c>
+      <c r="L98" s="26"/>
+      <c r="M98" s="26" t="s">
         <v>552</v>
       </c>
-      <c r="N98" s="67"/>
-      <c r="O98" s="67" t="s">
-        <v>1805</v>
-      </c>
-      <c r="P98" s="67" t="s">
+      <c r="N98" s="26"/>
+      <c r="O98" s="26" t="s">
+        <v>1788</v>
+      </c>
+      <c r="P98" s="26" t="s">
         <v>616</v>
       </c>
-      <c r="Q98" s="67"/>
-      <c r="R98" s="67" t="s">
-        <v>1612</v>
+      <c r="Q98" s="26"/>
+      <c r="R98" s="26" t="s">
+        <v>1779</v>
       </c>
       <c r="S98" s="33"/>
       <c r="V98" s="9"/>
@@ -15938,8 +15817,8 @@
     <row r="99" spans="2:22" s="37" customFormat="1" ht="60" customHeight="1">
       <c r="B99" s="14"/>
       <c r="C99" s="36"/>
-      <c r="D99" s="65"/>
-      <c r="E99" s="65"/>
+      <c r="D99" s="16"/>
+      <c r="E99" s="16"/>
       <c r="F99" s="16"/>
       <c r="G99" s="16"/>
       <c r="H99" s="16"/>
@@ -15957,10 +15836,10 @@
     </row>
     <row r="100" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B100" s="19"/>
-      <c r="D100" s="66" t="s">
+      <c r="D100" s="20" t="s">
         <v>615</v>
       </c>
-      <c r="E100" s="66"/>
+      <c r="E100" s="20"/>
       <c r="F100" s="20"/>
       <c r="G100" s="20"/>
       <c r="H100" s="20"/>
@@ -15982,34 +15861,34 @@
         <f>B97+1</f>
         <v>25</v>
       </c>
-      <c r="D101" s="60" t="s">
+      <c r="D101" s="61" t="s">
         <v>159</v>
       </c>
-      <c r="E101" s="60" t="s">
+      <c r="E101" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="F101" s="60"/>
-      <c r="G101" s="60"/>
-      <c r="H101" s="60"/>
-      <c r="I101" s="60"/>
-      <c r="J101" s="60"/>
-      <c r="K101" s="60"/>
-      <c r="L101" s="60"/>
-      <c r="M101" s="60"/>
-      <c r="N101" s="60"/>
-      <c r="O101" s="60"/>
-      <c r="P101" s="60"/>
-      <c r="Q101" s="60"/>
-      <c r="R101" s="60"/>
+      <c r="F101" s="61"/>
+      <c r="G101" s="61"/>
+      <c r="H101" s="45"/>
+      <c r="I101" s="45"/>
+      <c r="J101" s="45"/>
+      <c r="K101" s="45"/>
+      <c r="L101" s="45"/>
+      <c r="M101" s="45"/>
+      <c r="N101" s="45"/>
+      <c r="O101" s="45"/>
+      <c r="P101" s="45"/>
+      <c r="Q101" s="45"/>
+      <c r="R101" s="45"/>
       <c r="S101" s="23"/>
       <c r="V101" s="9"/>
     </row>
     <row r="102" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B102" s="24"/>
-      <c r="D102" s="67" t="s">
+      <c r="D102" s="26" t="s">
         <v>616</v>
       </c>
-      <c r="E102" s="67"/>
+      <c r="E102" s="26"/>
       <c r="F102" s="26"/>
       <c r="G102" s="26"/>
       <c r="H102" s="26"/>
@@ -16071,23 +15950,23 @@
         <f>B101+1</f>
         <v>26</v>
       </c>
-      <c r="D105" s="60" t="s">
+      <c r="D105" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="E105" s="60"/>
-      <c r="F105" s="60"/>
-      <c r="G105" s="62"/>
-      <c r="H105" s="60"/>
-      <c r="I105" s="60"/>
-      <c r="J105" s="60"/>
-      <c r="K105" s="60"/>
-      <c r="L105" s="60"/>
-      <c r="M105" s="60"/>
-      <c r="N105" s="60"/>
-      <c r="O105" s="63"/>
-      <c r="P105" s="60"/>
-      <c r="Q105" s="60"/>
-      <c r="R105" s="60"/>
+      <c r="E105" s="45"/>
+      <c r="F105" s="45"/>
+      <c r="G105" s="47"/>
+      <c r="H105" s="45"/>
+      <c r="I105" s="45"/>
+      <c r="J105" s="45"/>
+      <c r="K105" s="45"/>
+      <c r="L105" s="45"/>
+      <c r="M105" s="45"/>
+      <c r="N105" s="45"/>
+      <c r="O105" s="48"/>
+      <c r="P105" s="45"/>
+      <c r="Q105" s="45"/>
+      <c r="R105" s="45"/>
       <c r="S105" s="23"/>
       <c r="V105" s="9"/>
     </row>
@@ -16156,21 +16035,21 @@
         <f>B105+1</f>
         <v>27</v>
       </c>
-      <c r="D109" s="60"/>
-      <c r="E109" s="60"/>
-      <c r="F109" s="60"/>
-      <c r="G109" s="60"/>
-      <c r="H109" s="60"/>
-      <c r="I109" s="60"/>
-      <c r="J109" s="60"/>
-      <c r="K109" s="60"/>
-      <c r="L109" s="60"/>
-      <c r="M109" s="60"/>
-      <c r="N109" s="60"/>
-      <c r="O109" s="60"/>
-      <c r="P109" s="60"/>
-      <c r="Q109" s="60"/>
-      <c r="R109" s="60"/>
+      <c r="D109" s="45"/>
+      <c r="E109" s="45"/>
+      <c r="F109" s="45"/>
+      <c r="G109" s="45"/>
+      <c r="H109" s="45"/>
+      <c r="I109" s="45"/>
+      <c r="J109" s="45"/>
+      <c r="K109" s="45"/>
+      <c r="L109" s="45"/>
+      <c r="M109" s="45"/>
+      <c r="N109" s="45"/>
+      <c r="O109" s="45"/>
+      <c r="P109" s="45"/>
+      <c r="Q109" s="45"/>
+      <c r="R109" s="45"/>
       <c r="S109" s="23"/>
       <c r="V109" s="9"/>
     </row>
@@ -16239,21 +16118,21 @@
         <f>B109+1</f>
         <v>28</v>
       </c>
-      <c r="D113" s="60"/>
-      <c r="E113" s="60"/>
-      <c r="F113" s="60"/>
-      <c r="G113" s="60"/>
-      <c r="H113" s="60"/>
-      <c r="I113" s="60"/>
-      <c r="J113" s="60"/>
-      <c r="K113" s="60"/>
-      <c r="L113" s="60"/>
-      <c r="M113" s="60"/>
-      <c r="N113" s="60"/>
-      <c r="O113" s="63"/>
-      <c r="P113" s="60"/>
-      <c r="Q113" s="60"/>
-      <c r="R113" s="60"/>
+      <c r="D113" s="45"/>
+      <c r="E113" s="45"/>
+      <c r="F113" s="45"/>
+      <c r="G113" s="45"/>
+      <c r="H113" s="45"/>
+      <c r="I113" s="45"/>
+      <c r="J113" s="45"/>
+      <c r="K113" s="45"/>
+      <c r="L113" s="45"/>
+      <c r="M113" s="45"/>
+      <c r="N113" s="45"/>
+      <c r="O113" s="48"/>
+      <c r="P113" s="45"/>
+      <c r="Q113" s="45"/>
+      <c r="R113" s="45"/>
       <c r="S113" s="23"/>
       <c r="V113" s="9"/>
     </row>
@@ -16322,21 +16201,21 @@
         <f>B113+1</f>
         <v>29</v>
       </c>
-      <c r="D117" s="60"/>
-      <c r="E117" s="60"/>
-      <c r="F117" s="62"/>
-      <c r="G117" s="62"/>
-      <c r="H117" s="60"/>
-      <c r="I117" s="60"/>
-      <c r="J117" s="60"/>
-      <c r="K117" s="60"/>
-      <c r="L117" s="60"/>
-      <c r="M117" s="60"/>
-      <c r="N117" s="60"/>
-      <c r="O117" s="60"/>
-      <c r="P117" s="60"/>
-      <c r="Q117" s="60"/>
-      <c r="R117" s="60"/>
+      <c r="D117" s="45"/>
+      <c r="E117" s="45"/>
+      <c r="F117" s="47"/>
+      <c r="G117" s="47"/>
+      <c r="H117" s="45"/>
+      <c r="I117" s="45"/>
+      <c r="J117" s="45"/>
+      <c r="K117" s="45"/>
+      <c r="L117" s="45"/>
+      <c r="M117" s="45"/>
+      <c r="N117" s="45"/>
+      <c r="O117" s="45"/>
+      <c r="P117" s="45"/>
+      <c r="Q117" s="45"/>
+      <c r="R117" s="45"/>
       <c r="S117" s="23"/>
       <c r="V117" s="9"/>
     </row>
@@ -16405,21 +16284,21 @@
         <f>B117+1</f>
         <v>30</v>
       </c>
-      <c r="D121" s="60"/>
-      <c r="E121" s="60"/>
-      <c r="F121" s="60"/>
-      <c r="G121" s="62"/>
-      <c r="H121" s="60"/>
-      <c r="I121" s="60"/>
-      <c r="J121" s="60"/>
-      <c r="K121" s="60"/>
-      <c r="L121" s="60"/>
-      <c r="M121" s="60"/>
-      <c r="N121" s="60"/>
-      <c r="O121" s="60"/>
-      <c r="P121" s="60"/>
-      <c r="Q121" s="60"/>
-      <c r="R121" s="60"/>
+      <c r="D121" s="45"/>
+      <c r="E121" s="45"/>
+      <c r="F121" s="45"/>
+      <c r="G121" s="47"/>
+      <c r="H121" s="45"/>
+      <c r="I121" s="45"/>
+      <c r="J121" s="45"/>
+      <c r="K121" s="45"/>
+      <c r="L121" s="45"/>
+      <c r="M121" s="45"/>
+      <c r="N121" s="45"/>
+      <c r="O121" s="45"/>
+      <c r="P121" s="45"/>
+      <c r="Q121" s="45"/>
+      <c r="R121" s="45"/>
       <c r="S121" s="23"/>
       <c r="V121" s="9"/>
     </row>
@@ -16488,21 +16367,21 @@
         <f>B121+1</f>
         <v>31</v>
       </c>
-      <c r="D125" s="60"/>
-      <c r="E125" s="60"/>
-      <c r="F125" s="60"/>
-      <c r="G125" s="62"/>
-      <c r="H125" s="60"/>
-      <c r="I125" s="60"/>
-      <c r="J125" s="60"/>
-      <c r="K125" s="60"/>
-      <c r="L125" s="60"/>
-      <c r="M125" s="60"/>
-      <c r="N125" s="60"/>
-      <c r="O125" s="60"/>
-      <c r="P125" s="60"/>
-      <c r="Q125" s="60"/>
-      <c r="R125" s="60"/>
+      <c r="D125" s="45"/>
+      <c r="E125" s="45"/>
+      <c r="F125" s="45"/>
+      <c r="G125" s="47"/>
+      <c r="H125" s="45"/>
+      <c r="I125" s="45"/>
+      <c r="J125" s="45"/>
+      <c r="K125" s="45"/>
+      <c r="L125" s="45"/>
+      <c r="M125" s="45"/>
+      <c r="N125" s="45"/>
+      <c r="O125" s="45"/>
+      <c r="P125" s="45"/>
+      <c r="Q125" s="45"/>
+      <c r="R125" s="45"/>
       <c r="S125" s="23"/>
       <c r="V125" s="9"/>
     </row>
@@ -16571,21 +16450,21 @@
         <f>B125+1</f>
         <v>32</v>
       </c>
-      <c r="D129" s="60"/>
-      <c r="E129" s="60"/>
-      <c r="F129" s="60"/>
-      <c r="G129" s="60"/>
-      <c r="H129" s="60"/>
-      <c r="I129" s="60"/>
-      <c r="J129" s="60"/>
-      <c r="K129" s="60"/>
-      <c r="L129" s="64"/>
-      <c r="M129" s="60"/>
-      <c r="N129" s="60"/>
-      <c r="O129" s="60"/>
-      <c r="P129" s="60"/>
-      <c r="Q129" s="60"/>
-      <c r="R129" s="60"/>
+      <c r="D129" s="45"/>
+      <c r="E129" s="45"/>
+      <c r="F129" s="45"/>
+      <c r="G129" s="45"/>
+      <c r="H129" s="45"/>
+      <c r="I129" s="45"/>
+      <c r="J129" s="45"/>
+      <c r="K129" s="45"/>
+      <c r="L129" s="49"/>
+      <c r="M129" s="45"/>
+      <c r="N129" s="45"/>
+      <c r="O129" s="45"/>
+      <c r="P129" s="45"/>
+      <c r="Q129" s="45"/>
+      <c r="R129" s="45"/>
       <c r="S129" s="23"/>
       <c r="V129" s="9"/>
     </row>
@@ -16654,21 +16533,21 @@
         <f>B129+1</f>
         <v>33</v>
       </c>
-      <c r="D133" s="60"/>
-      <c r="E133" s="60"/>
-      <c r="F133" s="60"/>
-      <c r="G133" s="62"/>
-      <c r="H133" s="60"/>
-      <c r="I133" s="60"/>
-      <c r="J133" s="60"/>
-      <c r="K133" s="60"/>
-      <c r="L133" s="60"/>
-      <c r="M133" s="60"/>
-      <c r="N133" s="60"/>
-      <c r="O133" s="60"/>
-      <c r="P133" s="60"/>
-      <c r="Q133" s="60"/>
-      <c r="R133" s="60"/>
+      <c r="D133" s="45"/>
+      <c r="E133" s="45"/>
+      <c r="F133" s="45"/>
+      <c r="G133" s="47"/>
+      <c r="H133" s="45"/>
+      <c r="I133" s="45"/>
+      <c r="J133" s="45"/>
+      <c r="K133" s="45"/>
+      <c r="L133" s="45"/>
+      <c r="M133" s="45"/>
+      <c r="N133" s="45"/>
+      <c r="O133" s="45"/>
+      <c r="P133" s="45"/>
+      <c r="Q133" s="45"/>
+      <c r="R133" s="45"/>
       <c r="S133" s="23"/>
       <c r="V133" s="9"/>
     </row>
@@ -16737,21 +16616,21 @@
         <f>B133+1</f>
         <v>34</v>
       </c>
-      <c r="D137" s="60"/>
-      <c r="E137" s="60"/>
-      <c r="F137" s="60"/>
-      <c r="G137" s="60"/>
-      <c r="H137" s="60"/>
-      <c r="I137" s="60"/>
-      <c r="J137" s="60"/>
-      <c r="K137" s="60"/>
-      <c r="L137" s="60"/>
-      <c r="M137" s="60"/>
-      <c r="N137" s="60"/>
-      <c r="O137" s="60"/>
-      <c r="P137" s="60"/>
-      <c r="Q137" s="60"/>
-      <c r="R137" s="60"/>
+      <c r="D137" s="45"/>
+      <c r="E137" s="45"/>
+      <c r="F137" s="45"/>
+      <c r="G137" s="45"/>
+      <c r="H137" s="45"/>
+      <c r="I137" s="45"/>
+      <c r="J137" s="45"/>
+      <c r="K137" s="45"/>
+      <c r="L137" s="45"/>
+      <c r="M137" s="45"/>
+      <c r="N137" s="45"/>
+      <c r="O137" s="45"/>
+      <c r="P137" s="45"/>
+      <c r="Q137" s="45"/>
+      <c r="R137" s="45"/>
       <c r="S137" s="23"/>
       <c r="V137" s="9"/>
     </row>
@@ -16820,21 +16699,21 @@
         <f>B137+1</f>
         <v>35</v>
       </c>
-      <c r="D141" s="60"/>
-      <c r="E141" s="60"/>
-      <c r="F141" s="60"/>
-      <c r="G141" s="62"/>
-      <c r="H141" s="60"/>
-      <c r="I141" s="60"/>
-      <c r="J141" s="60"/>
-      <c r="K141" s="60"/>
-      <c r="L141" s="60"/>
-      <c r="M141" s="60"/>
-      <c r="N141" s="60"/>
-      <c r="O141" s="60"/>
-      <c r="P141" s="60"/>
-      <c r="Q141" s="60"/>
-      <c r="R141" s="60"/>
+      <c r="D141" s="45"/>
+      <c r="E141" s="45"/>
+      <c r="F141" s="45"/>
+      <c r="G141" s="47"/>
+      <c r="H141" s="45"/>
+      <c r="I141" s="45"/>
+      <c r="J141" s="45"/>
+      <c r="K141" s="45"/>
+      <c r="L141" s="45"/>
+      <c r="M141" s="45"/>
+      <c r="N141" s="45"/>
+      <c r="O141" s="45"/>
+      <c r="P141" s="45"/>
+      <c r="Q141" s="45"/>
+      <c r="R141" s="45"/>
       <c r="S141" s="23"/>
       <c r="V141" s="9"/>
     </row>
@@ -16903,21 +16782,21 @@
         <f>B141+1</f>
         <v>36</v>
       </c>
-      <c r="D145" s="60"/>
-      <c r="E145" s="60"/>
-      <c r="F145" s="60"/>
-      <c r="G145" s="62"/>
-      <c r="H145" s="60"/>
-      <c r="I145" s="60"/>
-      <c r="J145" s="60"/>
-      <c r="K145" s="60"/>
-      <c r="L145" s="60"/>
-      <c r="M145" s="60"/>
-      <c r="N145" s="60"/>
-      <c r="O145" s="60"/>
-      <c r="P145" s="60"/>
-      <c r="Q145" s="60"/>
-      <c r="R145" s="60"/>
+      <c r="D145" s="45"/>
+      <c r="E145" s="45"/>
+      <c r="F145" s="45"/>
+      <c r="G145" s="47"/>
+      <c r="H145" s="45"/>
+      <c r="I145" s="45"/>
+      <c r="J145" s="45"/>
+      <c r="K145" s="45"/>
+      <c r="L145" s="45"/>
+      <c r="M145" s="45"/>
+      <c r="N145" s="45"/>
+      <c r="O145" s="45"/>
+      <c r="P145" s="45"/>
+      <c r="Q145" s="45"/>
+      <c r="R145" s="45"/>
       <c r="S145" s="23"/>
       <c r="V145" s="9"/>
     </row>
@@ -16986,21 +16865,21 @@
         <f>B145+1</f>
         <v>37</v>
       </c>
-      <c r="D149" s="60"/>
-      <c r="E149" s="60"/>
-      <c r="F149" s="60"/>
-      <c r="G149" s="60"/>
-      <c r="H149" s="60"/>
-      <c r="I149" s="60"/>
-      <c r="J149" s="60"/>
-      <c r="K149" s="60"/>
-      <c r="L149" s="60"/>
-      <c r="M149" s="60"/>
-      <c r="N149" s="60"/>
-      <c r="O149" s="60"/>
-      <c r="P149" s="60"/>
-      <c r="Q149" s="60"/>
-      <c r="R149" s="60"/>
+      <c r="D149" s="45"/>
+      <c r="E149" s="45"/>
+      <c r="F149" s="45"/>
+      <c r="G149" s="45"/>
+      <c r="H149" s="45"/>
+      <c r="I149" s="45"/>
+      <c r="J149" s="45"/>
+      <c r="K149" s="45"/>
+      <c r="L149" s="45"/>
+      <c r="M149" s="45"/>
+      <c r="N149" s="45"/>
+      <c r="O149" s="45"/>
+      <c r="P149" s="45"/>
+      <c r="Q149" s="45"/>
+      <c r="R149" s="45"/>
       <c r="S149" s="23"/>
       <c r="V149" s="9"/>
     </row>
@@ -17069,21 +16948,21 @@
         <f>B149+1</f>
         <v>38</v>
       </c>
-      <c r="D153" s="60"/>
-      <c r="E153" s="60"/>
-      <c r="F153" s="60"/>
-      <c r="G153" s="60"/>
-      <c r="H153" s="60"/>
-      <c r="I153" s="60"/>
-      <c r="J153" s="60"/>
-      <c r="K153" s="60"/>
-      <c r="L153" s="60"/>
-      <c r="M153" s="60"/>
-      <c r="N153" s="60"/>
-      <c r="O153" s="60"/>
-      <c r="P153" s="60"/>
-      <c r="Q153" s="60"/>
-      <c r="R153" s="60"/>
+      <c r="D153" s="45"/>
+      <c r="E153" s="45"/>
+      <c r="F153" s="45"/>
+      <c r="G153" s="45"/>
+      <c r="H153" s="45"/>
+      <c r="I153" s="45"/>
+      <c r="J153" s="45"/>
+      <c r="K153" s="45"/>
+      <c r="L153" s="45"/>
+      <c r="M153" s="45"/>
+      <c r="N153" s="45"/>
+      <c r="O153" s="45"/>
+      <c r="P153" s="45"/>
+      <c r="Q153" s="45"/>
+      <c r="R153" s="45"/>
       <c r="S153" s="23"/>
       <c r="V153" s="9"/>
     </row>
@@ -17152,21 +17031,21 @@
         <f>B153+1</f>
         <v>39</v>
       </c>
-      <c r="D157" s="60"/>
-      <c r="E157" s="60"/>
-      <c r="F157" s="60"/>
-      <c r="G157" s="60"/>
-      <c r="H157" s="60"/>
-      <c r="I157" s="60"/>
-      <c r="J157" s="60"/>
-      <c r="K157" s="60"/>
-      <c r="L157" s="60"/>
-      <c r="M157" s="60"/>
-      <c r="N157" s="60"/>
-      <c r="O157" s="60"/>
-      <c r="P157" s="60"/>
-      <c r="Q157" s="60"/>
-      <c r="R157" s="60"/>
+      <c r="D157" s="45"/>
+      <c r="E157" s="45"/>
+      <c r="F157" s="45"/>
+      <c r="G157" s="45"/>
+      <c r="H157" s="45"/>
+      <c r="I157" s="45"/>
+      <c r="J157" s="45"/>
+      <c r="K157" s="45"/>
+      <c r="L157" s="45"/>
+      <c r="M157" s="45"/>
+      <c r="N157" s="45"/>
+      <c r="O157" s="45"/>
+      <c r="P157" s="45"/>
+      <c r="Q157" s="45"/>
+      <c r="R157" s="45"/>
       <c r="S157" s="23"/>
       <c r="V157" s="9"/>
     </row>
@@ -17235,21 +17114,21 @@
         <f>B157+1</f>
         <v>40</v>
       </c>
-      <c r="D161" s="60"/>
-      <c r="E161" s="60"/>
-      <c r="F161" s="60"/>
-      <c r="G161" s="60"/>
-      <c r="H161" s="60"/>
-      <c r="I161" s="60"/>
-      <c r="J161" s="60"/>
-      <c r="K161" s="60"/>
-      <c r="L161" s="60"/>
-      <c r="M161" s="60"/>
-      <c r="N161" s="60"/>
-      <c r="O161" s="60"/>
-      <c r="P161" s="60"/>
-      <c r="Q161" s="60"/>
-      <c r="R161" s="60"/>
+      <c r="D161" s="45"/>
+      <c r="E161" s="45"/>
+      <c r="F161" s="45"/>
+      <c r="G161" s="45"/>
+      <c r="H161" s="45"/>
+      <c r="I161" s="45"/>
+      <c r="J161" s="45"/>
+      <c r="K161" s="45"/>
+      <c r="L161" s="45"/>
+      <c r="M161" s="45"/>
+      <c r="N161" s="45"/>
+      <c r="O161" s="45"/>
+      <c r="P161" s="45"/>
+      <c r="Q161" s="45"/>
+      <c r="R161" s="45"/>
       <c r="S161" s="23"/>
       <c r="V161" s="9"/>
     </row>
@@ -17318,21 +17197,21 @@
         <f>B161+1</f>
         <v>41</v>
       </c>
-      <c r="D165" s="60"/>
-      <c r="E165" s="60"/>
-      <c r="F165" s="60"/>
-      <c r="G165" s="60"/>
-      <c r="H165" s="60"/>
-      <c r="I165" s="60"/>
-      <c r="J165" s="60"/>
-      <c r="K165" s="60"/>
-      <c r="L165" s="60"/>
-      <c r="M165" s="60"/>
-      <c r="N165" s="60"/>
-      <c r="O165" s="60"/>
-      <c r="P165" s="60"/>
-      <c r="Q165" s="60"/>
-      <c r="R165" s="60"/>
+      <c r="D165" s="45"/>
+      <c r="E165" s="45"/>
+      <c r="F165" s="45"/>
+      <c r="G165" s="45"/>
+      <c r="H165" s="45"/>
+      <c r="I165" s="45"/>
+      <c r="J165" s="45"/>
+      <c r="K165" s="45"/>
+      <c r="L165" s="45"/>
+      <c r="M165" s="45"/>
+      <c r="N165" s="45"/>
+      <c r="O165" s="45"/>
+      <c r="P165" s="45"/>
+      <c r="Q165" s="45"/>
+      <c r="R165" s="45"/>
       <c r="S165" s="23"/>
       <c r="V165" s="9"/>
     </row>
@@ -17400,21 +17279,21 @@
         <v>42</v>
       </c>
       <c r="C169" s="8"/>
-      <c r="D169" s="60"/>
-      <c r="E169" s="60"/>
-      <c r="F169" s="60"/>
-      <c r="G169" s="60"/>
-      <c r="H169" s="60"/>
-      <c r="I169" s="60"/>
-      <c r="J169" s="60"/>
-      <c r="K169" s="60"/>
-      <c r="L169" s="60"/>
-      <c r="M169" s="60"/>
-      <c r="N169" s="60"/>
-      <c r="O169" s="60"/>
-      <c r="P169" s="60"/>
-      <c r="Q169" s="60"/>
-      <c r="R169" s="60"/>
+      <c r="D169" s="45"/>
+      <c r="E169" s="45"/>
+      <c r="F169" s="45"/>
+      <c r="G169" s="45"/>
+      <c r="H169" s="45"/>
+      <c r="I169" s="45"/>
+      <c r="J169" s="45"/>
+      <c r="K169" s="45"/>
+      <c r="L169" s="45"/>
+      <c r="M169" s="45"/>
+      <c r="N169" s="45"/>
+      <c r="O169" s="45"/>
+      <c r="P169" s="45"/>
+      <c r="Q169" s="45"/>
+      <c r="R169" s="45"/>
     </row>
     <row r="170" spans="2:22">
       <c r="B170" s="24"/>
@@ -17479,21 +17358,21 @@
         <v>43</v>
       </c>
       <c r="C173" s="8"/>
-      <c r="D173" s="60"/>
-      <c r="E173" s="60"/>
-      <c r="F173" s="60"/>
-      <c r="G173" s="62"/>
-      <c r="H173" s="60"/>
-      <c r="I173" s="60"/>
-      <c r="J173" s="60"/>
-      <c r="K173" s="60"/>
-      <c r="L173" s="60"/>
-      <c r="M173" s="60"/>
-      <c r="N173" s="60"/>
-      <c r="O173" s="60"/>
-      <c r="P173" s="60"/>
-      <c r="Q173" s="60"/>
-      <c r="R173" s="60"/>
+      <c r="D173" s="45"/>
+      <c r="E173" s="45"/>
+      <c r="F173" s="45"/>
+      <c r="G173" s="47"/>
+      <c r="H173" s="45"/>
+      <c r="I173" s="45"/>
+      <c r="J173" s="45"/>
+      <c r="K173" s="45"/>
+      <c r="L173" s="45"/>
+      <c r="M173" s="45"/>
+      <c r="N173" s="45"/>
+      <c r="O173" s="45"/>
+      <c r="P173" s="45"/>
+      <c r="Q173" s="45"/>
+      <c r="R173" s="45"/>
     </row>
     <row r="174" spans="2:22">
       <c r="B174" s="24"/>
@@ -17558,21 +17437,21 @@
         <v>44</v>
       </c>
       <c r="C177" s="8"/>
-      <c r="D177" s="60"/>
-      <c r="E177" s="60"/>
-      <c r="F177" s="60"/>
-      <c r="G177" s="60"/>
-      <c r="H177" s="60"/>
-      <c r="I177" s="60"/>
-      <c r="J177" s="60"/>
-      <c r="K177" s="60"/>
-      <c r="L177" s="60"/>
-      <c r="M177" s="60"/>
-      <c r="N177" s="60"/>
-      <c r="O177" s="60"/>
-      <c r="P177" s="60"/>
-      <c r="Q177" s="60"/>
-      <c r="R177" s="60"/>
+      <c r="D177" s="45"/>
+      <c r="E177" s="45"/>
+      <c r="F177" s="45"/>
+      <c r="G177" s="45"/>
+      <c r="H177" s="45"/>
+      <c r="I177" s="45"/>
+      <c r="J177" s="45"/>
+      <c r="K177" s="45"/>
+      <c r="L177" s="45"/>
+      <c r="M177" s="45"/>
+      <c r="N177" s="45"/>
+      <c r="O177" s="45"/>
+      <c r="P177" s="45"/>
+      <c r="Q177" s="45"/>
+      <c r="R177" s="45"/>
     </row>
     <row r="178" spans="2:18">
       <c r="B178" s="24"/>
@@ -17637,21 +17516,21 @@
         <v>45</v>
       </c>
       <c r="C181" s="8"/>
-      <c r="D181" s="60"/>
-      <c r="E181" s="60"/>
-      <c r="F181" s="60"/>
-      <c r="G181" s="62"/>
-      <c r="H181" s="60"/>
-      <c r="I181" s="60"/>
-      <c r="J181" s="60"/>
-      <c r="K181" s="60"/>
-      <c r="L181" s="60"/>
-      <c r="M181" s="60"/>
-      <c r="N181" s="60"/>
-      <c r="O181" s="60"/>
-      <c r="P181" s="60"/>
-      <c r="Q181" s="60"/>
-      <c r="R181" s="60"/>
+      <c r="D181" s="45"/>
+      <c r="E181" s="45"/>
+      <c r="F181" s="45"/>
+      <c r="G181" s="47"/>
+      <c r="H181" s="45"/>
+      <c r="I181" s="45"/>
+      <c r="J181" s="45"/>
+      <c r="K181" s="45"/>
+      <c r="L181" s="45"/>
+      <c r="M181" s="45"/>
+      <c r="N181" s="45"/>
+      <c r="O181" s="45"/>
+      <c r="P181" s="45"/>
+      <c r="Q181" s="45"/>
+      <c r="R181" s="45"/>
     </row>
     <row r="182" spans="2:18">
       <c r="B182" s="24"/>
@@ -17716,21 +17595,21 @@
         <v>46</v>
       </c>
       <c r="C185" s="8"/>
-      <c r="D185" s="60"/>
-      <c r="E185" s="60"/>
-      <c r="F185" s="60"/>
-      <c r="G185" s="60"/>
-      <c r="H185" s="60"/>
-      <c r="I185" s="60"/>
-      <c r="J185" s="60"/>
-      <c r="K185" s="60"/>
-      <c r="L185" s="60"/>
-      <c r="M185" s="60"/>
-      <c r="N185" s="60"/>
-      <c r="O185" s="60"/>
-      <c r="P185" s="60"/>
-      <c r="Q185" s="60"/>
-      <c r="R185" s="60"/>
+      <c r="D185" s="45"/>
+      <c r="E185" s="45"/>
+      <c r="F185" s="45"/>
+      <c r="G185" s="45"/>
+      <c r="H185" s="45"/>
+      <c r="I185" s="45"/>
+      <c r="J185" s="45"/>
+      <c r="K185" s="45"/>
+      <c r="L185" s="45"/>
+      <c r="M185" s="45"/>
+      <c r="N185" s="45"/>
+      <c r="O185" s="45"/>
+      <c r="P185" s="45"/>
+      <c r="Q185" s="45"/>
+      <c r="R185" s="45"/>
     </row>
     <row r="186" spans="2:18">
       <c r="B186" s="24"/>
@@ -17795,21 +17674,21 @@
         <v>47</v>
       </c>
       <c r="C189" s="8"/>
-      <c r="D189" s="60"/>
-      <c r="E189" s="60"/>
-      <c r="F189" s="60"/>
-      <c r="G189" s="60"/>
-      <c r="H189" s="60"/>
-      <c r="I189" s="60"/>
-      <c r="J189" s="60"/>
-      <c r="K189" s="60"/>
-      <c r="L189" s="60"/>
-      <c r="M189" s="60"/>
-      <c r="N189" s="60"/>
-      <c r="O189" s="60"/>
-      <c r="P189" s="60"/>
-      <c r="Q189" s="60"/>
-      <c r="R189" s="60"/>
+      <c r="D189" s="45"/>
+      <c r="E189" s="45"/>
+      <c r="F189" s="45"/>
+      <c r="G189" s="45"/>
+      <c r="H189" s="45"/>
+      <c r="I189" s="45"/>
+      <c r="J189" s="45"/>
+      <c r="K189" s="45"/>
+      <c r="L189" s="45"/>
+      <c r="M189" s="45"/>
+      <c r="N189" s="45"/>
+      <c r="O189" s="45"/>
+      <c r="P189" s="45"/>
+      <c r="Q189" s="45"/>
+      <c r="R189" s="45"/>
     </row>
     <row r="190" spans="2:18">
       <c r="B190" s="24"/>
@@ -17874,21 +17753,21 @@
         <v>48</v>
       </c>
       <c r="C193" s="8"/>
-      <c r="D193" s="60"/>
-      <c r="E193" s="60"/>
-      <c r="F193" s="60"/>
-      <c r="G193" s="62"/>
-      <c r="H193" s="60"/>
-      <c r="I193" s="60"/>
-      <c r="J193" s="60"/>
-      <c r="K193" s="60"/>
-      <c r="L193" s="60"/>
-      <c r="M193" s="60"/>
-      <c r="N193" s="60"/>
-      <c r="O193" s="60"/>
-      <c r="P193" s="60"/>
-      <c r="Q193" s="60"/>
-      <c r="R193" s="60"/>
+      <c r="D193" s="45"/>
+      <c r="E193" s="45"/>
+      <c r="F193" s="45"/>
+      <c r="G193" s="47"/>
+      <c r="H193" s="45"/>
+      <c r="I193" s="45"/>
+      <c r="J193" s="45"/>
+      <c r="K193" s="45"/>
+      <c r="L193" s="45"/>
+      <c r="M193" s="45"/>
+      <c r="N193" s="45"/>
+      <c r="O193" s="45"/>
+      <c r="P193" s="45"/>
+      <c r="Q193" s="45"/>
+      <c r="R193" s="45"/>
     </row>
     <row r="194" spans="2:18">
       <c r="B194" s="24"/>
@@ -17953,21 +17832,21 @@
         <v>49</v>
       </c>
       <c r="C197" s="8"/>
-      <c r="D197" s="60"/>
-      <c r="E197" s="60"/>
-      <c r="F197" s="60"/>
-      <c r="G197" s="62"/>
-      <c r="H197" s="60"/>
-      <c r="I197" s="60"/>
-      <c r="J197" s="60"/>
-      <c r="K197" s="60"/>
-      <c r="L197" s="60"/>
-      <c r="M197" s="60"/>
-      <c r="N197" s="60"/>
-      <c r="O197" s="60"/>
-      <c r="P197" s="60"/>
-      <c r="Q197" s="60"/>
-      <c r="R197" s="60"/>
+      <c r="D197" s="45"/>
+      <c r="E197" s="45"/>
+      <c r="F197" s="45"/>
+      <c r="G197" s="47"/>
+      <c r="H197" s="45"/>
+      <c r="I197" s="45"/>
+      <c r="J197" s="45"/>
+      <c r="K197" s="45"/>
+      <c r="L197" s="45"/>
+      <c r="M197" s="45"/>
+      <c r="N197" s="45"/>
+      <c r="O197" s="45"/>
+      <c r="P197" s="45"/>
+      <c r="Q197" s="45"/>
+      <c r="R197" s="45"/>
     </row>
     <row r="198" spans="2:18">
       <c r="B198" s="24"/>
@@ -18032,21 +17911,21 @@
         <v>50</v>
       </c>
       <c r="C201" s="8"/>
-      <c r="D201" s="60"/>
-      <c r="E201" s="60"/>
-      <c r="F201" s="60"/>
-      <c r="G201" s="62"/>
-      <c r="H201" s="60"/>
-      <c r="I201" s="60"/>
-      <c r="J201" s="60"/>
-      <c r="K201" s="60"/>
-      <c r="L201" s="60"/>
-      <c r="M201" s="60"/>
-      <c r="N201" s="60"/>
-      <c r="O201" s="60"/>
-      <c r="P201" s="60"/>
-      <c r="Q201" s="60"/>
-      <c r="R201" s="60"/>
+      <c r="D201" s="45"/>
+      <c r="E201" s="45"/>
+      <c r="F201" s="45"/>
+      <c r="G201" s="47"/>
+      <c r="H201" s="45"/>
+      <c r="I201" s="45"/>
+      <c r="J201" s="45"/>
+      <c r="K201" s="45"/>
+      <c r="L201" s="45"/>
+      <c r="M201" s="45"/>
+      <c r="N201" s="45"/>
+      <c r="O201" s="45"/>
+      <c r="P201" s="45"/>
+      <c r="Q201" s="45"/>
+      <c r="R201" s="45"/>
     </row>
     <row r="202" spans="2:18">
       <c r="B202" s="24"/>
@@ -18111,21 +17990,21 @@
         <v>51</v>
       </c>
       <c r="C205" s="8"/>
-      <c r="D205" s="60"/>
-      <c r="E205" s="60"/>
-      <c r="F205" s="60"/>
-      <c r="G205" s="62"/>
-      <c r="H205" s="60"/>
-      <c r="I205" s="60"/>
-      <c r="J205" s="60"/>
-      <c r="K205" s="60"/>
-      <c r="L205" s="60"/>
-      <c r="M205" s="60"/>
-      <c r="N205" s="60"/>
-      <c r="O205" s="60"/>
-      <c r="P205" s="60"/>
-      <c r="Q205" s="60"/>
-      <c r="R205" s="60"/>
+      <c r="D205" s="45"/>
+      <c r="E205" s="45"/>
+      <c r="F205" s="45"/>
+      <c r="G205" s="47"/>
+      <c r="H205" s="45"/>
+      <c r="I205" s="45"/>
+      <c r="J205" s="45"/>
+      <c r="K205" s="45"/>
+      <c r="L205" s="45"/>
+      <c r="M205" s="45"/>
+      <c r="N205" s="45"/>
+      <c r="O205" s="45"/>
+      <c r="P205" s="45"/>
+      <c r="Q205" s="45"/>
+      <c r="R205" s="45"/>
     </row>
     <row r="206" spans="2:18">
       <c r="B206" s="24"/>
@@ -18190,21 +18069,21 @@
         <v>52</v>
       </c>
       <c r="C209" s="8"/>
-      <c r="D209" s="60"/>
-      <c r="E209" s="60"/>
-      <c r="F209" s="60"/>
-      <c r="G209" s="62"/>
-      <c r="H209" s="60"/>
-      <c r="I209" s="60"/>
-      <c r="J209" s="60"/>
-      <c r="K209" s="60"/>
-      <c r="L209" s="60"/>
-      <c r="M209" s="60"/>
-      <c r="N209" s="60"/>
-      <c r="O209" s="60"/>
-      <c r="P209" s="60"/>
-      <c r="Q209" s="60"/>
-      <c r="R209" s="60"/>
+      <c r="D209" s="45"/>
+      <c r="E209" s="45"/>
+      <c r="F209" s="45"/>
+      <c r="G209" s="47"/>
+      <c r="H209" s="45"/>
+      <c r="I209" s="45"/>
+      <c r="J209" s="45"/>
+      <c r="K209" s="45"/>
+      <c r="L209" s="45"/>
+      <c r="M209" s="45"/>
+      <c r="N209" s="45"/>
+      <c r="O209" s="45"/>
+      <c r="P209" s="45"/>
+      <c r="Q209" s="45"/>
+      <c r="R209" s="45"/>
     </row>
     <row r="210" spans="2:18">
       <c r="B210" s="24"/>
@@ -18269,21 +18148,21 @@
         <v>53</v>
       </c>
       <c r="C213" s="8"/>
-      <c r="D213" s="60"/>
-      <c r="E213" s="60"/>
-      <c r="F213" s="60"/>
-      <c r="G213" s="62"/>
-      <c r="H213" s="60"/>
-      <c r="I213" s="60"/>
-      <c r="J213" s="60"/>
-      <c r="K213" s="60"/>
-      <c r="L213" s="60"/>
-      <c r="M213" s="60"/>
-      <c r="N213" s="60"/>
-      <c r="O213" s="60"/>
-      <c r="P213" s="60"/>
-      <c r="Q213" s="60"/>
-      <c r="R213" s="60"/>
+      <c r="D213" s="45"/>
+      <c r="E213" s="45"/>
+      <c r="F213" s="45"/>
+      <c r="G213" s="47"/>
+      <c r="H213" s="45"/>
+      <c r="I213" s="45"/>
+      <c r="J213" s="45"/>
+      <c r="K213" s="45"/>
+      <c r="L213" s="45"/>
+      <c r="M213" s="45"/>
+      <c r="N213" s="45"/>
+      <c r="O213" s="45"/>
+      <c r="P213" s="45"/>
+      <c r="Q213" s="45"/>
+      <c r="R213" s="45"/>
     </row>
     <row r="214" spans="2:18">
       <c r="B214" s="24"/>
@@ -18348,21 +18227,21 @@
         <v>54</v>
       </c>
       <c r="C217" s="8"/>
-      <c r="D217" s="60"/>
-      <c r="E217" s="60"/>
-      <c r="F217" s="60"/>
-      <c r="G217" s="62"/>
-      <c r="H217" s="60"/>
-      <c r="I217" s="60"/>
-      <c r="J217" s="60"/>
-      <c r="K217" s="60"/>
-      <c r="L217" s="60"/>
-      <c r="M217" s="60"/>
-      <c r="N217" s="60"/>
-      <c r="O217" s="60"/>
-      <c r="P217" s="60"/>
-      <c r="Q217" s="60"/>
-      <c r="R217" s="60"/>
+      <c r="D217" s="45"/>
+      <c r="E217" s="45"/>
+      <c r="F217" s="45"/>
+      <c r="G217" s="47"/>
+      <c r="H217" s="45"/>
+      <c r="I217" s="45"/>
+      <c r="J217" s="45"/>
+      <c r="K217" s="45"/>
+      <c r="L217" s="45"/>
+      <c r="M217" s="45"/>
+      <c r="N217" s="45"/>
+      <c r="O217" s="45"/>
+      <c r="P217" s="45"/>
+      <c r="Q217" s="45"/>
+      <c r="R217" s="45"/>
     </row>
     <row r="218" spans="2:18">
       <c r="B218" s="24"/>
@@ -18427,21 +18306,21 @@
         <v>55</v>
       </c>
       <c r="C221" s="8"/>
-      <c r="D221" s="60"/>
-      <c r="E221" s="60"/>
-      <c r="F221" s="60"/>
-      <c r="G221" s="62"/>
-      <c r="H221" s="60"/>
-      <c r="I221" s="60"/>
-      <c r="J221" s="60"/>
-      <c r="K221" s="60"/>
-      <c r="L221" s="60"/>
-      <c r="M221" s="60"/>
-      <c r="N221" s="60"/>
-      <c r="O221" s="60"/>
-      <c r="P221" s="60"/>
-      <c r="Q221" s="60"/>
-      <c r="R221" s="60"/>
+      <c r="D221" s="45"/>
+      <c r="E221" s="45"/>
+      <c r="F221" s="45"/>
+      <c r="G221" s="47"/>
+      <c r="H221" s="45"/>
+      <c r="I221" s="45"/>
+      <c r="J221" s="45"/>
+      <c r="K221" s="45"/>
+      <c r="L221" s="45"/>
+      <c r="M221" s="45"/>
+      <c r="N221" s="45"/>
+      <c r="O221" s="45"/>
+      <c r="P221" s="45"/>
+      <c r="Q221" s="45"/>
+      <c r="R221" s="45"/>
     </row>
     <row r="222" spans="2:18">
       <c r="B222" s="24"/>
@@ -18506,21 +18385,21 @@
         <v>56</v>
       </c>
       <c r="C225" s="8"/>
-      <c r="D225" s="60"/>
-      <c r="E225" s="60"/>
-      <c r="F225" s="60"/>
-      <c r="G225" s="62"/>
-      <c r="H225" s="60"/>
-      <c r="I225" s="60"/>
-      <c r="J225" s="60"/>
-      <c r="K225" s="60"/>
-      <c r="L225" s="60"/>
-      <c r="M225" s="60"/>
-      <c r="N225" s="60"/>
-      <c r="O225" s="60"/>
-      <c r="P225" s="60"/>
-      <c r="Q225" s="60"/>
-      <c r="R225" s="60"/>
+      <c r="D225" s="45"/>
+      <c r="E225" s="45"/>
+      <c r="F225" s="45"/>
+      <c r="G225" s="47"/>
+      <c r="H225" s="45"/>
+      <c r="I225" s="45"/>
+      <c r="J225" s="45"/>
+      <c r="K225" s="45"/>
+      <c r="L225" s="45"/>
+      <c r="M225" s="45"/>
+      <c r="N225" s="45"/>
+      <c r="O225" s="45"/>
+      <c r="P225" s="45"/>
+      <c r="Q225" s="45"/>
+      <c r="R225" s="45"/>
     </row>
     <row r="226" spans="2:18">
       <c r="B226" s="24"/>
@@ -18585,21 +18464,21 @@
         <v>57</v>
       </c>
       <c r="C229" s="8"/>
-      <c r="D229" s="60"/>
-      <c r="E229" s="60"/>
-      <c r="F229" s="60"/>
-      <c r="G229" s="62"/>
-      <c r="H229" s="60"/>
-      <c r="I229" s="60"/>
-      <c r="J229" s="60"/>
-      <c r="K229" s="60"/>
-      <c r="L229" s="60"/>
-      <c r="M229" s="60"/>
-      <c r="N229" s="60"/>
-      <c r="O229" s="60"/>
-      <c r="P229" s="60"/>
-      <c r="Q229" s="60"/>
-      <c r="R229" s="60"/>
+      <c r="D229" s="45"/>
+      <c r="E229" s="45"/>
+      <c r="F229" s="45"/>
+      <c r="G229" s="47"/>
+      <c r="H229" s="45"/>
+      <c r="I229" s="45"/>
+      <c r="J229" s="45"/>
+      <c r="K229" s="45"/>
+      <c r="L229" s="45"/>
+      <c r="M229" s="45"/>
+      <c r="N229" s="45"/>
+      <c r="O229" s="45"/>
+      <c r="P229" s="45"/>
+      <c r="Q229" s="45"/>
+      <c r="R229" s="45"/>
     </row>
     <row r="230" spans="2:18">
       <c r="B230" s="24"/>
@@ -18664,21 +18543,21 @@
         <v>58</v>
       </c>
       <c r="C233" s="8"/>
-      <c r="D233" s="60"/>
-      <c r="E233" s="60"/>
-      <c r="F233" s="60"/>
-      <c r="G233" s="62"/>
-      <c r="H233" s="60"/>
-      <c r="I233" s="60"/>
-      <c r="J233" s="60"/>
-      <c r="K233" s="60"/>
-      <c r="L233" s="60"/>
-      <c r="M233" s="60"/>
-      <c r="N233" s="60"/>
-      <c r="O233" s="60"/>
-      <c r="P233" s="60"/>
-      <c r="Q233" s="60"/>
-      <c r="R233" s="60"/>
+      <c r="D233" s="45"/>
+      <c r="E233" s="45"/>
+      <c r="F233" s="45"/>
+      <c r="G233" s="47"/>
+      <c r="H233" s="45"/>
+      <c r="I233" s="45"/>
+      <c r="J233" s="45"/>
+      <c r="K233" s="45"/>
+      <c r="L233" s="45"/>
+      <c r="M233" s="45"/>
+      <c r="N233" s="45"/>
+      <c r="O233" s="45"/>
+      <c r="P233" s="45"/>
+      <c r="Q233" s="45"/>
+      <c r="R233" s="45"/>
     </row>
     <row r="234" spans="2:18">
       <c r="B234" s="24"/>
@@ -18743,21 +18622,21 @@
         <v>59</v>
       </c>
       <c r="C237" s="8"/>
-      <c r="D237" s="60"/>
-      <c r="E237" s="60"/>
-      <c r="F237" s="60"/>
-      <c r="G237" s="62"/>
-      <c r="H237" s="60"/>
-      <c r="I237" s="60"/>
-      <c r="J237" s="60"/>
-      <c r="K237" s="60"/>
-      <c r="L237" s="60"/>
-      <c r="M237" s="60"/>
-      <c r="N237" s="60"/>
-      <c r="O237" s="60"/>
-      <c r="P237" s="60"/>
-      <c r="Q237" s="60"/>
-      <c r="R237" s="60"/>
+      <c r="D237" s="45"/>
+      <c r="E237" s="45"/>
+      <c r="F237" s="45"/>
+      <c r="G237" s="47"/>
+      <c r="H237" s="45"/>
+      <c r="I237" s="45"/>
+      <c r="J237" s="45"/>
+      <c r="K237" s="45"/>
+      <c r="L237" s="45"/>
+      <c r="M237" s="45"/>
+      <c r="N237" s="45"/>
+      <c r="O237" s="45"/>
+      <c r="P237" s="45"/>
+      <c r="Q237" s="45"/>
+      <c r="R237" s="45"/>
     </row>
     <row r="238" spans="2:18">
       <c r="B238" s="24"/>
@@ -18822,21 +18701,21 @@
         <v>60</v>
       </c>
       <c r="C241" s="8"/>
-      <c r="D241" s="60"/>
-      <c r="E241" s="60"/>
-      <c r="F241" s="60"/>
-      <c r="G241" s="62"/>
-      <c r="H241" s="60"/>
-      <c r="I241" s="60"/>
-      <c r="J241" s="60"/>
-      <c r="K241" s="60"/>
-      <c r="L241" s="60"/>
-      <c r="M241" s="60"/>
-      <c r="N241" s="60"/>
-      <c r="O241" s="60"/>
-      <c r="P241" s="60"/>
-      <c r="Q241" s="60"/>
-      <c r="R241" s="60"/>
+      <c r="D241" s="45"/>
+      <c r="E241" s="45"/>
+      <c r="F241" s="45"/>
+      <c r="G241" s="47"/>
+      <c r="H241" s="45"/>
+      <c r="I241" s="45"/>
+      <c r="J241" s="45"/>
+      <c r="K241" s="45"/>
+      <c r="L241" s="45"/>
+      <c r="M241" s="45"/>
+      <c r="N241" s="45"/>
+      <c r="O241" s="45"/>
+      <c r="P241" s="45"/>
+      <c r="Q241" s="45"/>
+      <c r="R241" s="45"/>
     </row>
     <row r="242" spans="2:18">
       <c r="B242" s="24"/>
@@ -18863,194 +18742,194 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D3:R3">
-    <cfRule type="expression" dxfId="100" priority="1">
+    <cfRule type="expression" dxfId="96" priority="1">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="2">
+    <cfRule type="expression" dxfId="95" priority="2">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:R7">
-    <cfRule type="expression" dxfId="98" priority="3">
+    <cfRule type="expression" dxfId="94" priority="3">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="4">
+    <cfRule type="expression" dxfId="93" priority="4">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:R11">
-    <cfRule type="expression" dxfId="96" priority="40">
+    <cfRule type="expression" dxfId="92" priority="40">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="39">
+    <cfRule type="expression" dxfId="91" priority="39">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:R15">
-    <cfRule type="expression" dxfId="94" priority="38">
+    <cfRule type="expression" dxfId="90" priority="38">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="37">
+    <cfRule type="expression" dxfId="89" priority="37">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:R19">
-    <cfRule type="expression" dxfId="92" priority="36">
+    <cfRule type="expression" dxfId="88" priority="36">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="35">
+    <cfRule type="expression" dxfId="87" priority="35">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:R23 D39:R39 D87:R87 D91:R91 D95:R95 D99:R99 D103:R103 D111:R111 D115:R115 D119:R119 D123:R123 D127:R127 D131:R131 D135:R135 D139:R139 D143:R143 D147:R147 D151:R151 D155:R155 D159:R159 D163:R163">
-    <cfRule type="expression" dxfId="90" priority="48">
+    <cfRule type="expression" dxfId="86" priority="48">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="47">
+    <cfRule type="expression" dxfId="85" priority="47">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:R27">
-    <cfRule type="expression" dxfId="88" priority="34">
+    <cfRule type="expression" dxfId="84" priority="34">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="33">
+    <cfRule type="expression" dxfId="83" priority="33">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:R31">
-    <cfRule type="expression" dxfId="86" priority="31">
+    <cfRule type="expression" dxfId="82" priority="31">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="32">
+    <cfRule type="expression" dxfId="81" priority="32">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:R35">
-    <cfRule type="expression" dxfId="84" priority="30">
+    <cfRule type="expression" dxfId="80" priority="30">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="29">
+    <cfRule type="expression" dxfId="79" priority="29">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:R43">
-    <cfRule type="expression" dxfId="82" priority="28">
+    <cfRule type="expression" dxfId="78" priority="28">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="27">
+    <cfRule type="expression" dxfId="77" priority="27">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:R47">
-    <cfRule type="expression" dxfId="80" priority="25">
+    <cfRule type="expression" dxfId="76" priority="25">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="26">
+    <cfRule type="expression" dxfId="75" priority="26">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51:R51">
-    <cfRule type="expression" dxfId="78" priority="24">
+    <cfRule type="expression" dxfId="74" priority="24">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="23">
+    <cfRule type="expression" dxfId="73" priority="23">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55:R55">
-    <cfRule type="expression" dxfId="76" priority="22">
+    <cfRule type="expression" dxfId="72" priority="22">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="21">
+    <cfRule type="expression" dxfId="71" priority="21">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59:R59">
-    <cfRule type="expression" dxfId="74" priority="19">
+    <cfRule type="expression" dxfId="70" priority="19">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="20">
+    <cfRule type="expression" dxfId="69" priority="20">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63:R63">
-    <cfRule type="expression" dxfId="72" priority="18">
+    <cfRule type="expression" dxfId="68" priority="18">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="17">
+    <cfRule type="expression" dxfId="67" priority="17">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67:R67">
-    <cfRule type="expression" dxfId="70" priority="16">
+    <cfRule type="expression" dxfId="66" priority="16">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="15">
+    <cfRule type="expression" dxfId="65" priority="15">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71:R71">
-    <cfRule type="expression" dxfId="68" priority="14">
+    <cfRule type="expression" dxfId="64" priority="14">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="13">
+    <cfRule type="expression" dxfId="63" priority="13">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75:R75">
-    <cfRule type="expression" dxfId="66" priority="12">
+    <cfRule type="expression" dxfId="62" priority="12">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="11">
+    <cfRule type="expression" dxfId="61" priority="11">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79:R79">
-    <cfRule type="expression" dxfId="64" priority="9">
+    <cfRule type="expression" dxfId="60" priority="9">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="10">
+    <cfRule type="expression" dxfId="59" priority="10">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:R83">
-    <cfRule type="expression" dxfId="62" priority="8">
+    <cfRule type="expression" dxfId="58" priority="8">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="7">
+    <cfRule type="expression" dxfId="57" priority="7">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D107:R107">
-    <cfRule type="expression" dxfId="60" priority="5">
+    <cfRule type="expression" dxfId="56" priority="5">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="6">
+    <cfRule type="expression" dxfId="55" priority="6">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D167:R167 D171:R171 D175:R175 D179:R179 D183:R183 D187:R187 D191:R191 D195:R195 D199:R199">
-    <cfRule type="expression" dxfId="58" priority="45">
+    <cfRule type="expression" dxfId="54" priority="45">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="46">
+    <cfRule type="expression" dxfId="53" priority="46">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D203:R203">
-    <cfRule type="expression" dxfId="56" priority="43">
+    <cfRule type="expression" dxfId="52" priority="43">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="44">
+    <cfRule type="expression" dxfId="51" priority="44">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D207:R207 D211:R211 D215:R215 D219:R219 D223:R223 D227:R227 D231:R231 D235:R235 D239:R239">
-    <cfRule type="expression" dxfId="54" priority="41">
+    <cfRule type="expression" dxfId="50" priority="41">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="42">
+    <cfRule type="expression" dxfId="49" priority="42">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19063,8 +18942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC8DDB28-FA19-4764-8CE9-2BECB89B3B8D}">
   <dimension ref="A1:E188"/>
   <sheetViews>
-    <sheetView topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="D188" sqref="D2:D188"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -19335,7 +19214,7 @@
         <v>1327</v>
       </c>
       <c r="D16" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="E16" t="s">
         <v>1434</v>
@@ -19369,7 +19248,7 @@
         <v>1329</v>
       </c>
       <c r="D18" t="s">
-        <v>1600</v>
+        <v>1593</v>
       </c>
       <c r="E18" t="s">
         <v>1436</v>
@@ -19947,7 +19826,7 @@
         <v>1348</v>
       </c>
       <c r="D52" t="s">
-        <v>1596</v>
+        <v>1591</v>
       </c>
       <c r="E52" t="s">
         <v>1565</v>
@@ -21426,7 +21305,7 @@
         <v>1395</v>
       </c>
       <c r="D139" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="E139" t="s">
         <v>1057</v>
@@ -21443,7 +21322,7 @@
         <v>1396</v>
       </c>
       <c r="D140" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
       <c r="E140" t="s">
         <v>1530</v>
@@ -21511,7 +21390,7 @@
         <v>1398</v>
       </c>
       <c r="D144" t="s">
-        <v>1594</v>
+        <v>1590</v>
       </c>
       <c r="E144" t="s">
         <v>521</v>
@@ -21851,7 +21730,7 @@
         <v>1411</v>
       </c>
       <c r="D164" t="s">
-        <v>1598</v>
+        <v>1592</v>
       </c>
       <c r="E164" t="s">
         <v>1541</v>
@@ -22174,7 +22053,7 @@
         <v>1422</v>
       </c>
       <c r="D183" t="s">
-        <v>1602</v>
+        <v>1594</v>
       </c>
       <c r="E183" t="s">
         <v>523</v>
@@ -22268,7 +22147,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A2:E188">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="48" priority="1">
       <formula>AND("$C2 &lt;&gt; $D2", $D2 &lt;&gt; "N/A")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22413,7 +22292,7 @@
       <c r="Q3" s="16"/>
       <c r="R3" s="16"/>
       <c r="T3" s="18"/>
-      <c r="V3" s="51" t="s">
+      <c r="V3" s="58" t="s">
         <v>81</v>
       </c>
     </row>
@@ -22461,7 +22340,7 @@
       </c>
       <c r="R4" s="20"/>
       <c r="S4" s="21"/>
-      <c r="V4" s="52"/>
+      <c r="V4" s="59"/>
     </row>
     <row r="5" spans="1:22" s="8" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B5" s="22">
@@ -22513,7 +22392,7 @@
         <v>38</v>
       </c>
       <c r="S5" s="23"/>
-      <c r="V5" s="52"/>
+      <c r="V5" s="59"/>
     </row>
     <row r="6" spans="1:22" s="28" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="24"/>
@@ -22560,7 +22439,7 @@
       </c>
       <c r="R6" s="26"/>
       <c r="S6" s="27"/>
-      <c r="V6" s="52"/>
+      <c r="V6" s="59"/>
     </row>
     <row r="7" spans="1:22" s="32" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="29"/>
@@ -22581,7 +22460,7 @@
       <c r="Q7" s="16"/>
       <c r="R7" s="16"/>
       <c r="S7" s="31"/>
-      <c r="V7" s="52"/>
+      <c r="V7" s="59"/>
     </row>
     <row r="8" spans="1:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="19"/>
@@ -22625,7 +22504,7 @@
         <v>571</v>
       </c>
       <c r="S8" s="21"/>
-      <c r="V8" s="52"/>
+      <c r="V8" s="59"/>
     </row>
     <row r="9" spans="1:22" s="8" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B9" s="22">
@@ -22679,7 +22558,7 @@
       </c>
       <c r="S9" s="23"/>
       <c r="T9" s="18"/>
-      <c r="V9" s="52"/>
+      <c r="V9" s="59"/>
     </row>
     <row r="10" spans="1:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="24"/>
@@ -22723,7 +22602,7 @@
         <v>572</v>
       </c>
       <c r="S10" s="33"/>
-      <c r="V10" s="52"/>
+      <c r="V10" s="59"/>
     </row>
     <row r="11" spans="1:22" s="31" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="34"/>
@@ -22743,7 +22622,7 @@
       <c r="P11" s="16"/>
       <c r="Q11" s="16"/>
       <c r="R11" s="16"/>
-      <c r="V11" s="52"/>
+      <c r="V11" s="59"/>
     </row>
     <row r="12" spans="1:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="19"/>
@@ -22789,7 +22668,7 @@
         <v>597</v>
       </c>
       <c r="S12" s="21"/>
-      <c r="V12" s="52"/>
+      <c r="V12" s="59"/>
     </row>
     <row r="13" spans="1:22" s="8" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B13" s="22">
@@ -22842,7 +22721,7 @@
         <v>116</v>
       </c>
       <c r="S13" s="23"/>
-      <c r="V13" s="52"/>
+      <c r="V13" s="59"/>
     </row>
     <row r="14" spans="1:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="24"/>
@@ -22888,7 +22767,7 @@
         <v>598</v>
       </c>
       <c r="S14" s="33"/>
-      <c r="V14" s="52"/>
+      <c r="V14" s="59"/>
     </row>
     <row r="15" spans="1:22" s="37" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="14"/>
@@ -22908,7 +22787,7 @@
       <c r="P15" s="16"/>
       <c r="Q15" s="16"/>
       <c r="R15" s="16"/>
-      <c r="V15" s="52"/>
+      <c r="V15" s="59"/>
     </row>
     <row r="16" spans="1:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="19"/>
@@ -22954,7 +22833,7 @@
       </c>
       <c r="R16" s="20"/>
       <c r="S16" s="21"/>
-      <c r="V16" s="52"/>
+      <c r="V16" s="59"/>
     </row>
     <row r="17" spans="2:22" s="8" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B17" s="22">
@@ -23007,7 +22886,7 @@
         <v>38</v>
       </c>
       <c r="S17" s="23"/>
-      <c r="V17" s="52"/>
+      <c r="V17" s="59"/>
     </row>
     <row r="18" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="24"/>
@@ -23053,7 +22932,7 @@
       </c>
       <c r="R18" s="26"/>
       <c r="S18" s="33"/>
-      <c r="V18" s="52"/>
+      <c r="V18" s="59"/>
     </row>
     <row r="19" spans="2:22" s="37" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="14"/>
@@ -23073,7 +22952,7 @@
       <c r="P19" s="16"/>
       <c r="Q19" s="16"/>
       <c r="R19" s="16"/>
-      <c r="V19" s="52"/>
+      <c r="V19" s="59"/>
     </row>
     <row r="20" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="19"/>
@@ -23093,7 +22972,7 @@
       <c r="Q20" s="20"/>
       <c r="R20" s="20"/>
       <c r="S20" s="21"/>
-      <c r="V20" s="52"/>
+      <c r="V20" s="59"/>
     </row>
     <row r="21" spans="2:22" s="8" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B21" s="22">
@@ -23120,7 +22999,7 @@
       <c r="Q21" s="45"/>
       <c r="R21" s="45"/>
       <c r="S21" s="23"/>
-      <c r="V21" s="52"/>
+      <c r="V21" s="59"/>
     </row>
     <row r="22" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="24"/>
@@ -23140,7 +23019,7 @@
       <c r="Q22" s="26"/>
       <c r="R22" s="26"/>
       <c r="S22" s="33"/>
-      <c r="V22" s="53"/>
+      <c r="V22" s="60"/>
     </row>
     <row r="23" spans="2:22" s="37" customFormat="1" ht="60" customHeight="1">
       <c r="B23" s="14"/>
@@ -29671,194 +29550,194 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D3:R3">
-    <cfRule type="expression" dxfId="52" priority="1">
+    <cfRule type="expression" dxfId="47" priority="1">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="2">
+    <cfRule type="expression" dxfId="46" priority="2">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:R7">
-    <cfRule type="expression" dxfId="50" priority="3">
+    <cfRule type="expression" dxfId="45" priority="3">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="4">
+    <cfRule type="expression" dxfId="44" priority="4">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:R11">
-    <cfRule type="expression" dxfId="48" priority="40">
+    <cfRule type="expression" dxfId="43" priority="40">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="39">
+    <cfRule type="expression" dxfId="42" priority="39">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:R15">
-    <cfRule type="expression" dxfId="46" priority="38">
+    <cfRule type="expression" dxfId="41" priority="38">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="37">
+    <cfRule type="expression" dxfId="40" priority="37">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:R19">
-    <cfRule type="expression" dxfId="44" priority="36">
+    <cfRule type="expression" dxfId="39" priority="36">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="35">
+    <cfRule type="expression" dxfId="38" priority="35">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:R23 D39:R39 D87:R87 D91:R91 D95:R95 D99:R99 D103:R103 D111:R111 D115:R115 D119:R119 D123:R123 D127:R127 D131:R131 D135:R135 D139:R139 D143:R143 D147:R147 D151:R151 D155:R155 D159:R159 D163:R163">
-    <cfRule type="expression" dxfId="42" priority="48">
+    <cfRule type="expression" dxfId="37" priority="48">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="47">
+    <cfRule type="expression" dxfId="36" priority="47">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:R27">
-    <cfRule type="expression" dxfId="40" priority="34">
+    <cfRule type="expression" dxfId="35" priority="34">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="33">
+    <cfRule type="expression" dxfId="34" priority="33">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:R31">
-    <cfRule type="expression" dxfId="38" priority="31">
+    <cfRule type="expression" dxfId="33" priority="31">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="32">
+    <cfRule type="expression" dxfId="32" priority="32">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:R35">
-    <cfRule type="expression" dxfId="36" priority="30">
+    <cfRule type="expression" dxfId="31" priority="30">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="29">
+    <cfRule type="expression" dxfId="30" priority="29">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:R43">
-    <cfRule type="expression" dxfId="34" priority="28">
+    <cfRule type="expression" dxfId="29" priority="28">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="27">
+    <cfRule type="expression" dxfId="28" priority="27">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:R47">
-    <cfRule type="expression" dxfId="32" priority="25">
+    <cfRule type="expression" dxfId="27" priority="25">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="26">
+    <cfRule type="expression" dxfId="26" priority="26">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51:R51">
-    <cfRule type="expression" dxfId="30" priority="24">
+    <cfRule type="expression" dxfId="25" priority="24">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="23">
+    <cfRule type="expression" dxfId="24" priority="23">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55:R55">
-    <cfRule type="expression" dxfId="28" priority="22">
+    <cfRule type="expression" dxfId="23" priority="22">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="21">
+    <cfRule type="expression" dxfId="22" priority="21">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59:R59">
-    <cfRule type="expression" dxfId="26" priority="19">
+    <cfRule type="expression" dxfId="21" priority="19">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="20">
+    <cfRule type="expression" dxfId="20" priority="20">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63:R63">
-    <cfRule type="expression" dxfId="24" priority="18">
+    <cfRule type="expression" dxfId="19" priority="18">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="17">
+    <cfRule type="expression" dxfId="18" priority="17">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67:R67">
-    <cfRule type="expression" dxfId="22" priority="16">
+    <cfRule type="expression" dxfId="17" priority="16">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="15">
+    <cfRule type="expression" dxfId="16" priority="15">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71:R71">
-    <cfRule type="expression" dxfId="20" priority="14">
+    <cfRule type="expression" dxfId="15" priority="14">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="13">
+    <cfRule type="expression" dxfId="14" priority="13">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75:R75">
-    <cfRule type="expression" dxfId="18" priority="12">
+    <cfRule type="expression" dxfId="13" priority="12">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="11">
+    <cfRule type="expression" dxfId="12" priority="11">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79:R79">
-    <cfRule type="expression" dxfId="16" priority="9">
+    <cfRule type="expression" dxfId="11" priority="9">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="10">
+    <cfRule type="expression" dxfId="10" priority="10">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:R83">
-    <cfRule type="expression" dxfId="14" priority="8">
+    <cfRule type="expression" dxfId="9" priority="8">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="7">
+    <cfRule type="expression" dxfId="8" priority="7">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D107:R107">
-    <cfRule type="expression" dxfId="12" priority="5">
+    <cfRule type="expression" dxfId="7" priority="5">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="6">
+    <cfRule type="expression" dxfId="6" priority="6">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D167:R167 D171:R171 D175:R175 D179:R179 D183:R183 D187:R187 D191:R191 D195:R195 D199:R199">
-    <cfRule type="expression" dxfId="10" priority="45">
+    <cfRule type="expression" dxfId="5" priority="45">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="46">
+    <cfRule type="expression" dxfId="4" priority="46">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D203:R203">
-    <cfRule type="expression" dxfId="8" priority="43">
+    <cfRule type="expression" dxfId="3" priority="43">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="44">
+    <cfRule type="expression" dxfId="2" priority="44">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D207:R207 D211:R211 D215:R215 D219:R219 D223:R223 D227:R227 D231:R231 D235:R235 D239:R239">
-    <cfRule type="expression" dxfId="6" priority="41">
+    <cfRule type="expression" dxfId="1" priority="41">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="42">
+    <cfRule type="expression" dxfId="0" priority="42">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/output7/【河洛文讀注音-雅俗通】《牽絲戲》.xlsx
+++ b/output7/【河洛文讀注音-雅俗通】《牽絲戲》.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DAF7251-10F7-4A22-B5CF-A19C06CE570A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D970730-3DDA-4A82-A56A-D81ACECA8152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27360" yWindow="2550" windowWidth="27405" windowHeight="12225" activeTab="4" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="4" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="8" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4567" uniqueCount="1746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4568" uniqueCount="1770">
   <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -5246,9 +5246,30 @@
     <t>to5</t>
   </si>
   <si>
+    <t>nai7</t>
+  </si>
+  <si>
+    <t>nai7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>lui2</t>
   </si>
   <si>
+    <t>kiok8</t>
+  </si>
+  <si>
+    <t>kiok8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cik4</t>
+  </si>
+  <si>
+    <t>cik4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>khui2</t>
   </si>
   <si>
@@ -5273,6 +5294,34 @@
     <t>iam2</t>
   </si>
   <si>
+    <t>姑二喜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皆七耐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭八求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經四出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hong5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公五喜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bak8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>khui2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5328,9 +5377,6 @@
     <t>伽五他</t>
   </si>
   <si>
-    <t>高二柳</t>
-  </si>
-  <si>
     <t>高八喜</t>
   </si>
   <si>
@@ -5388,9 +5434,6 @@
     <t>經五英</t>
   </si>
   <si>
-    <t>兼四曾</t>
-  </si>
-  <si>
     <t>迦二入</t>
   </si>
   <si>
@@ -5427,9 +5470,6 @@
     <t>恭三喜</t>
   </si>
   <si>
-    <t>姑二喜</t>
-  </si>
-  <si>
     <t>艍七曾</t>
   </si>
   <si>
@@ -5532,9 +5572,6 @@
     <t>官七頗</t>
   </si>
   <si>
-    <t>驚二出</t>
-  </si>
-  <si>
     <t>堅五語</t>
   </si>
   <si>
@@ -5553,18 +5590,12 @@
     <t>交三曾</t>
   </si>
   <si>
-    <t>交七雅</t>
-  </si>
-  <si>
     <t>堅二英</t>
   </si>
   <si>
     <t>甘一時</t>
   </si>
   <si>
-    <t>江五英</t>
-  </si>
-  <si>
     <t>堅五門</t>
   </si>
   <si>
@@ -5577,9 +5608,6 @@
     <t>居一英</t>
   </si>
   <si>
-    <t>更一英</t>
-  </si>
-  <si>
     <t>沽三求</t>
   </si>
   <si>
@@ -5652,21 +5680,12 @@
     <t>堅一他</t>
   </si>
   <si>
-    <t>官五求</t>
-  </si>
-  <si>
-    <t>江一地</t>
-  </si>
-  <si>
     <t>干五柳</t>
   </si>
   <si>
     <t>居三地</t>
   </si>
   <si>
-    <t>干五邊</t>
-  </si>
-  <si>
     <t>君四邊</t>
   </si>
   <si>
@@ -5676,9 +5695,6 @@
     <t>堅五入</t>
   </si>
   <si>
-    <t>交五地</t>
-  </si>
-  <si>
     <t>金八入</t>
   </si>
   <si>
@@ -5712,30 +5728,15 @@
     <t>居二去</t>
   </si>
   <si>
-    <t>公四時</t>
-  </si>
-  <si>
     <t>皆三邊</t>
   </si>
   <si>
-    <t>金四英</t>
-  </si>
-  <si>
     <t>堅八邊</t>
   </si>
   <si>
     <t>恭八入</t>
   </si>
   <si>
-    <t>巾七門</t>
-  </si>
-  <si>
-    <t>茄三出</t>
-  </si>
-  <si>
-    <t>姜三邊</t>
-  </si>
-  <si>
     <t>干三時</t>
   </si>
   <si>
@@ -5757,32 +5758,139 @@
     <t>君三地</t>
   </si>
   <si>
-    <t>鋼一英</t>
-  </si>
-  <si>
     <t>高五地</t>
   </si>
   <si>
     <t>觀二柳</t>
   </si>
   <si>
-    <t>膠一地</t>
-  </si>
-  <si>
-    <t>江五喜</t>
-  </si>
-  <si>
-    <t>姜八求</t>
-  </si>
-  <si>
-    <t>茄四出</t>
+    <t>ziat8</t>
+  </si>
+  <si>
+    <t>ziat8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>honn2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lui2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zoo1</t>
+  </si>
+  <si>
+    <t>zoo1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ing1</t>
+  </si>
+  <si>
+    <t>ing1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>han5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pin5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>too5</t>
+  </si>
+  <si>
+    <t>too5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siok4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ping3</t>
+  </si>
+  <si>
+    <t>ping3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iam2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bian7</t>
+  </si>
+  <si>
+    <t>bian7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>規二柳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堅八曾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沽一曾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經一英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干五喜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公一地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巾五邊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沽五地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭四時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堅七門</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經三邊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼二英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="46">
+  <fonts count="47">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6105,6 +6213,14 @@
       <family val="1"/>
       <charset val="136"/>
     </font>
+    <font>
+      <b/>
+      <sz val="48"/>
+      <color rgb="FFFF0000"/>
+      <name val="吳守禮細明台語破音01"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -6215,7 +6331,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6421,6 +6537,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8629,7 +8748,7 @@
         <v>1327</v>
       </c>
       <c r="D16" t="s">
-        <v>1571</v>
+        <v>1577</v>
       </c>
       <c r="E16" t="s">
         <v>1434</v>
@@ -8646,7 +8765,7 @@
         <v>1328</v>
       </c>
       <c r="D17" t="s">
-        <v>517</v>
+        <v>1572</v>
       </c>
       <c r="E17" t="s">
         <v>1435</v>
@@ -8663,7 +8782,7 @@
         <v>1329</v>
       </c>
       <c r="D18" t="s">
-        <v>1577</v>
+        <v>1583</v>
       </c>
       <c r="E18" t="s">
         <v>1436</v>
@@ -9020,7 +9139,7 @@
         <v>1341</v>
       </c>
       <c r="D39" t="s">
-        <v>517</v>
+        <v>1738</v>
       </c>
       <c r="E39" t="s">
         <v>971</v>
@@ -9241,7 +9360,7 @@
         <v>1348</v>
       </c>
       <c r="D52" t="s">
-        <v>517</v>
+        <v>1581</v>
       </c>
       <c r="E52" t="s">
         <v>1565</v>
@@ -9734,7 +9853,7 @@
         <v>468</v>
       </c>
       <c r="D81" t="s">
-        <v>517</v>
+        <v>338</v>
       </c>
       <c r="E81" t="s">
         <v>1488</v>
@@ -9751,7 +9870,7 @@
         <v>1358</v>
       </c>
       <c r="D82" t="s">
-        <v>517</v>
+        <v>1570</v>
       </c>
       <c r="E82" t="s">
         <v>1489</v>
@@ -9904,7 +10023,7 @@
         <v>417</v>
       </c>
       <c r="D91" t="s">
-        <v>517</v>
+        <v>370</v>
       </c>
       <c r="E91" t="s">
         <v>1002</v>
@@ -9955,7 +10074,7 @@
         <v>1364</v>
       </c>
       <c r="D94" t="s">
-        <v>517</v>
+        <v>1742</v>
       </c>
       <c r="E94" t="s">
         <v>1499</v>
@@ -10108,7 +10227,7 @@
         <v>1372</v>
       </c>
       <c r="D103" t="s">
-        <v>517</v>
+        <v>1573</v>
       </c>
       <c r="E103" t="s">
         <v>1034</v>
@@ -10142,7 +10261,7 @@
         <v>1374</v>
       </c>
       <c r="D105" t="s">
-        <v>517</v>
+        <v>1575</v>
       </c>
       <c r="E105" t="s">
         <v>1504</v>
@@ -10159,7 +10278,7 @@
         <v>1375</v>
       </c>
       <c r="D106" t="s">
-        <v>517</v>
+        <v>1326</v>
       </c>
       <c r="E106" t="s">
         <v>1505</v>
@@ -10261,7 +10380,7 @@
         <v>1379</v>
       </c>
       <c r="D112" t="s">
-        <v>517</v>
+        <v>1744</v>
       </c>
       <c r="E112" t="s">
         <v>1510</v>
@@ -10720,7 +10839,7 @@
         <v>1395</v>
       </c>
       <c r="D139" t="s">
-        <v>517</v>
+        <v>1578</v>
       </c>
       <c r="E139" t="s">
         <v>1057</v>
@@ -10737,7 +10856,7 @@
         <v>1396</v>
       </c>
       <c r="D140" t="s">
-        <v>517</v>
+        <v>1579</v>
       </c>
       <c r="E140" t="s">
         <v>1530</v>
@@ -10805,7 +10924,7 @@
         <v>1398</v>
       </c>
       <c r="D144" t="s">
-        <v>517</v>
+        <v>1580</v>
       </c>
       <c r="E144" t="s">
         <v>521</v>
@@ -10907,7 +11026,7 @@
         <v>1400</v>
       </c>
       <c r="D150" t="s">
-        <v>517</v>
+        <v>1750</v>
       </c>
       <c r="E150" t="s">
         <v>1069</v>
@@ -11145,7 +11264,7 @@
         <v>1411</v>
       </c>
       <c r="D164" t="s">
-        <v>517</v>
+        <v>1582</v>
       </c>
       <c r="E164" t="s">
         <v>1541</v>
@@ -11179,7 +11298,7 @@
         <v>1413</v>
       </c>
       <c r="D166" t="s">
-        <v>517</v>
+        <v>419</v>
       </c>
       <c r="E166" t="s">
         <v>1543</v>
@@ -11247,7 +11366,7 @@
         <v>1415</v>
       </c>
       <c r="D170" t="s">
-        <v>517</v>
+        <v>1756</v>
       </c>
       <c r="E170" t="s">
         <v>1547</v>
@@ -11281,7 +11400,7 @@
         <v>1416</v>
       </c>
       <c r="D172" t="s">
-        <v>517</v>
+        <v>424</v>
       </c>
       <c r="E172" t="s">
         <v>1549</v>
@@ -11298,7 +11417,7 @@
         <v>1417</v>
       </c>
       <c r="D173" t="s">
-        <v>517</v>
+        <v>1753</v>
       </c>
       <c r="E173" t="s">
         <v>1550</v>
@@ -11468,7 +11587,7 @@
         <v>1422</v>
       </c>
       <c r="D183" t="s">
-        <v>517</v>
+        <v>1584</v>
       </c>
       <c r="E183" t="s">
         <v>523</v>
@@ -11808,47 +11927,47 @@
       <c r="B6" s="24"/>
       <c r="C6" s="25"/>
       <c r="D6" s="68" t="s">
-        <v>1583</v>
+        <v>1596</v>
       </c>
       <c r="E6" s="68" t="s">
-        <v>1584</v>
+        <v>1597</v>
       </c>
       <c r="F6" s="68" t="s">
-        <v>1585</v>
+        <v>1598</v>
       </c>
       <c r="G6" s="68" t="s">
-        <v>1586</v>
+        <v>1599</v>
       </c>
       <c r="H6" s="68" t="s">
-        <v>1587</v>
+        <v>1600</v>
       </c>
       <c r="I6" s="68"/>
       <c r="J6" s="68" t="s">
-        <v>1588</v>
+        <v>1601</v>
       </c>
       <c r="K6" s="68" t="s">
-        <v>1589</v>
+        <v>1602</v>
       </c>
       <c r="L6" s="68" t="s">
-        <v>1590</v>
+        <v>1603</v>
       </c>
       <c r="M6" s="68" t="s">
-        <v>1591</v>
+        <v>1604</v>
       </c>
       <c r="N6" s="68" t="s">
-        <v>1592</v>
+        <v>1605</v>
       </c>
       <c r="O6" s="68" t="s">
-        <v>1586</v>
+        <v>1599</v>
       </c>
       <c r="P6" s="68" t="s">
-        <v>1593</v>
+        <v>1606</v>
       </c>
       <c r="Q6" s="68" t="s">
-        <v>1594</v>
+        <v>1607</v>
       </c>
       <c r="R6" s="68" t="s">
-        <v>1595</v>
+        <v>1608</v>
       </c>
       <c r="S6" s="27"/>
       <c r="V6" s="58"/>
@@ -11868,7 +11987,9 @@
       <c r="M7" s="66"/>
       <c r="N7" s="66"/>
       <c r="O7" s="66"/>
-      <c r="P7" s="66"/>
+      <c r="P7" s="66" t="s">
+        <v>1591</v>
+      </c>
       <c r="Q7" s="66"/>
       <c r="R7" s="66"/>
       <c r="S7" s="31"/>
@@ -11877,13 +11998,13 @@
     <row r="8" spans="1:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="19"/>
       <c r="D8" s="67" t="s">
-        <v>1579</v>
+        <v>1592</v>
       </c>
       <c r="E8" s="67" t="s">
-        <v>1328</v>
+        <v>1741</v>
       </c>
       <c r="F8" s="67" t="s">
-        <v>1581</v>
+        <v>1594</v>
       </c>
       <c r="G8" s="67"/>
       <c r="H8" s="67" t="s">
@@ -11928,7 +12049,7 @@
       <c r="D9" s="60" t="s">
         <v>1186</v>
       </c>
-      <c r="E9" s="61" t="s">
+      <c r="E9" s="60" t="s">
         <v>1187</v>
       </c>
       <c r="F9" s="60" t="s">
@@ -11977,45 +12098,45 @@
     <row r="10" spans="1:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="24"/>
       <c r="D10" s="68" t="s">
-        <v>1580</v>
+        <v>1593</v>
       </c>
       <c r="E10" s="68" t="s">
-        <v>1596</v>
+        <v>1758</v>
       </c>
       <c r="F10" s="68" t="s">
-        <v>1582</v>
+        <v>1595</v>
       </c>
       <c r="G10" s="68"/>
       <c r="H10" s="68" t="s">
-        <v>1597</v>
+        <v>1609</v>
       </c>
       <c r="I10" s="68" t="s">
-        <v>1598</v>
+        <v>1610</v>
       </c>
       <c r="J10" s="68" t="s">
-        <v>1599</v>
+        <v>1611</v>
       </c>
       <c r="K10" s="68" t="s">
-        <v>1600</v>
+        <v>1612</v>
       </c>
       <c r="L10" s="68"/>
       <c r="M10" s="68" t="s">
-        <v>1601</v>
+        <v>1613</v>
       </c>
       <c r="N10" s="68" t="s">
-        <v>1602</v>
+        <v>1614</v>
       </c>
       <c r="O10" s="68" t="s">
-        <v>1594</v>
+        <v>1607</v>
       </c>
       <c r="P10" s="68" t="s">
-        <v>1603</v>
+        <v>1615</v>
       </c>
       <c r="Q10" s="68" t="s">
-        <v>1604</v>
+        <v>1616</v>
       </c>
       <c r="R10" s="68" t="s">
-        <v>1605</v>
+        <v>1617</v>
       </c>
       <c r="S10" s="33"/>
       <c r="V10" s="58"/>
@@ -12078,7 +12199,7 @@
         <v>1340</v>
       </c>
       <c r="Q12" s="67" t="s">
-        <v>1341</v>
+        <v>1739</v>
       </c>
       <c r="R12" s="67"/>
       <c r="S12" s="21"/>
@@ -12128,7 +12249,7 @@
       <c r="P13" s="61" t="s">
         <v>1206</v>
       </c>
-      <c r="Q13" s="61" t="s">
+      <c r="Q13" s="60" t="s">
         <v>1207</v>
       </c>
       <c r="R13" s="61" t="s">
@@ -12140,42 +12261,42 @@
     <row r="14" spans="1:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="24"/>
       <c r="D14" s="68" t="s">
-        <v>1606</v>
+        <v>1618</v>
       </c>
       <c r="E14" s="68" t="s">
-        <v>1607</v>
+        <v>1619</v>
       </c>
       <c r="F14" s="68" t="s">
-        <v>1608</v>
+        <v>1620</v>
       </c>
       <c r="G14" s="68"/>
       <c r="H14" s="68" t="s">
-        <v>1609</v>
+        <v>1621</v>
       </c>
       <c r="I14" s="68" t="s">
-        <v>1610</v>
+        <v>1622</v>
       </c>
       <c r="J14" s="68" t="s">
-        <v>1611</v>
+        <v>1623</v>
       </c>
       <c r="K14" s="68" t="s">
-        <v>1600</v>
+        <v>1612</v>
       </c>
       <c r="L14" s="68"/>
       <c r="M14" s="68" t="s">
-        <v>1612</v>
+        <v>1624</v>
       </c>
       <c r="N14" s="68" t="s">
-        <v>1613</v>
+        <v>1625</v>
       </c>
       <c r="O14" s="68" t="s">
-        <v>1614</v>
+        <v>1626</v>
       </c>
       <c r="P14" s="68" t="s">
-        <v>1615</v>
+        <v>1627</v>
       </c>
       <c r="Q14" s="68" t="s">
-        <v>1616</v>
+        <v>1759</v>
       </c>
       <c r="R14" s="68"/>
       <c r="S14" s="33"/>
@@ -12303,45 +12424,45 @@
     <row r="18" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="24"/>
       <c r="D18" s="68" t="s">
-        <v>1617</v>
+        <v>1628</v>
       </c>
       <c r="E18" s="68" t="s">
-        <v>1618</v>
+        <v>1629</v>
       </c>
       <c r="F18" s="68" t="s">
-        <v>1619</v>
+        <v>1630</v>
       </c>
       <c r="G18" s="68" t="s">
-        <v>1620</v>
+        <v>1631</v>
       </c>
       <c r="H18" s="68"/>
       <c r="I18" s="68" t="s">
-        <v>1621</v>
+        <v>1632</v>
       </c>
       <c r="J18" s="68" t="s">
-        <v>1622</v>
+        <v>1633</v>
       </c>
       <c r="K18" s="68" t="s">
-        <v>1623</v>
+        <v>1634</v>
       </c>
       <c r="L18" s="68" t="s">
-        <v>1590</v>
+        <v>1603</v>
       </c>
       <c r="M18" s="68" t="s">
-        <v>1624</v>
+        <v>1635</v>
       </c>
       <c r="N18" s="68"/>
       <c r="O18" s="68" t="s">
-        <v>1625</v>
+        <v>1636</v>
       </c>
       <c r="P18" s="68" t="s">
-        <v>1618</v>
+        <v>1629</v>
       </c>
       <c r="Q18" s="68" t="s">
-        <v>1626</v>
+        <v>1637</v>
       </c>
       <c r="R18" s="68" t="s">
-        <v>1627</v>
+        <v>1638</v>
       </c>
       <c r="S18" s="33"/>
       <c r="V18" s="58"/>
@@ -12372,11 +12493,11 @@
         <v>1347</v>
       </c>
       <c r="E20" s="67" t="s">
-        <v>1348</v>
+        <v>1740</v>
       </c>
       <c r="F20" s="67"/>
       <c r="G20" s="67" t="s">
-        <v>1581</v>
+        <v>1594</v>
       </c>
       <c r="H20" s="67" t="s">
         <v>1349</v>
@@ -12420,7 +12541,7 @@
       <c r="D21" s="61" t="s">
         <v>1216</v>
       </c>
-      <c r="E21" s="61" t="s">
+      <c r="E21" s="60" t="s">
         <v>1217</v>
       </c>
       <c r="F21" s="61" t="s">
@@ -12468,45 +12589,45 @@
     <row r="22" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="24"/>
       <c r="D22" s="68" t="s">
-        <v>1628</v>
+        <v>1639</v>
       </c>
       <c r="E22" s="68" t="s">
-        <v>1629</v>
+        <v>1585</v>
       </c>
       <c r="F22" s="68"/>
       <c r="G22" s="68" t="s">
-        <v>1582</v>
+        <v>1595</v>
       </c>
       <c r="H22" s="68" t="s">
-        <v>1630</v>
+        <v>1640</v>
       </c>
       <c r="I22" s="68" t="s">
-        <v>1631</v>
+        <v>1641</v>
       </c>
       <c r="J22" s="68" t="s">
-        <v>1632</v>
+        <v>1642</v>
       </c>
       <c r="K22" s="68"/>
       <c r="L22" s="68" t="s">
-        <v>1584</v>
+        <v>1597</v>
       </c>
       <c r="M22" s="68" t="s">
-        <v>1621</v>
+        <v>1632</v>
       </c>
       <c r="N22" s="68" t="s">
-        <v>1633</v>
+        <v>1643</v>
       </c>
       <c r="O22" s="68" t="s">
-        <v>1634</v>
+        <v>1644</v>
       </c>
       <c r="P22" s="68" t="s">
-        <v>1635</v>
+        <v>1645</v>
       </c>
       <c r="Q22" s="68" t="s">
-        <v>1636</v>
+        <v>1646</v>
       </c>
       <c r="R22" s="68" t="s">
-        <v>1637</v>
+        <v>1647</v>
       </c>
       <c r="S22" s="33"/>
       <c r="V22" s="59"/>
@@ -12547,10 +12668,10 @@
         <v>63</v>
       </c>
       <c r="I24" s="67" t="s">
-        <v>1579</v>
+        <v>1592</v>
       </c>
       <c r="J24" s="67" t="s">
-        <v>1328</v>
+        <v>1741</v>
       </c>
       <c r="K24" s="67" t="s">
         <v>355</v>
@@ -12598,7 +12719,7 @@
       <c r="I25" s="60" t="s">
         <v>1186</v>
       </c>
-      <c r="J25" s="61" t="s">
+      <c r="J25" s="60" t="s">
         <v>1187</v>
       </c>
       <c r="K25" s="61" t="s">
@@ -12632,42 +12753,42 @@
       <c r="B26" s="24"/>
       <c r="D26" s="68"/>
       <c r="E26" s="68" t="s">
-        <v>1638</v>
+        <v>1648</v>
       </c>
       <c r="F26" s="68" t="s">
-        <v>1589</v>
+        <v>1602</v>
       </c>
       <c r="G26" s="68" t="s">
-        <v>1639</v>
+        <v>1649</v>
       </c>
       <c r="H26" s="68" t="s">
-        <v>1585</v>
+        <v>1598</v>
       </c>
       <c r="I26" s="68" t="s">
-        <v>1580</v>
+        <v>1593</v>
       </c>
       <c r="J26" s="68" t="s">
-        <v>1596</v>
+        <v>1758</v>
       </c>
       <c r="K26" s="68" t="s">
-        <v>1640</v>
+        <v>1650</v>
       </c>
       <c r="L26" s="68" t="s">
-        <v>1641</v>
+        <v>1651</v>
       </c>
       <c r="M26" s="68"/>
       <c r="N26" s="68" t="s">
-        <v>1642</v>
+        <v>1652</v>
       </c>
       <c r="O26" s="68" t="s">
-        <v>1620</v>
+        <v>1631</v>
       </c>
       <c r="P26" s="68" t="s">
-        <v>1643</v>
+        <v>1653</v>
       </c>
       <c r="Q26" s="68"/>
       <c r="R26" s="68" t="s">
-        <v>1644</v>
+        <v>1654</v>
       </c>
       <c r="S26" s="33"/>
       <c r="U26" s="8" t="str">
@@ -12810,45 +12931,45 @@
     <row r="30" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B30" s="24"/>
       <c r="D30" s="68" t="s">
-        <v>1645</v>
+        <v>1655</v>
       </c>
       <c r="E30" s="68" t="s">
-        <v>1646</v>
+        <v>1656</v>
       </c>
       <c r="F30" s="68" t="s">
-        <v>1627</v>
+        <v>1638</v>
       </c>
       <c r="G30" s="68"/>
       <c r="H30" s="68" t="s">
-        <v>1647</v>
+        <v>1657</v>
       </c>
       <c r="I30" s="68" t="s">
-        <v>1648</v>
+        <v>1658</v>
       </c>
       <c r="J30" s="68" t="s">
-        <v>1649</v>
+        <v>1659</v>
       </c>
       <c r="K30" s="68" t="s">
-        <v>1601</v>
+        <v>1613</v>
       </c>
       <c r="L30" s="68" t="s">
-        <v>1650</v>
+        <v>1660</v>
       </c>
       <c r="M30" s="68"/>
       <c r="N30" s="68" t="s">
-        <v>1648</v>
+        <v>1658</v>
       </c>
       <c r="O30" s="68" t="s">
-        <v>1651</v>
+        <v>1661</v>
       </c>
       <c r="P30" s="68" t="s">
-        <v>1652</v>
+        <v>1662</v>
       </c>
       <c r="Q30" s="68" t="s">
-        <v>1618</v>
+        <v>1629</v>
       </c>
       <c r="R30" s="68" t="s">
-        <v>1630</v>
+        <v>1640</v>
       </c>
       <c r="S30" s="33"/>
       <c r="U30" s="37" t="str">
@@ -12890,11 +13011,11 @@
         <v>60</v>
       </c>
       <c r="F32" s="67" t="s">
-        <v>468</v>
+        <v>577</v>
       </c>
       <c r="G32" s="67"/>
       <c r="H32" s="67" t="s">
-        <v>1358</v>
+        <v>1571</v>
       </c>
       <c r="I32" s="67" t="s">
         <v>50</v>
@@ -12922,7 +13043,7 @@
         <v>1361</v>
       </c>
       <c r="R32" s="67" t="s">
-        <v>417</v>
+        <v>651</v>
       </c>
       <c r="S32" s="21"/>
       <c r="U32" s="37" t="str">
@@ -12942,13 +13063,13 @@
       <c r="E33" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="F33" s="61" t="s">
+      <c r="F33" s="60" t="s">
         <v>268</v>
       </c>
       <c r="G33" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="H33" s="61" t="s">
+      <c r="H33" s="60" t="s">
         <v>1233</v>
       </c>
       <c r="I33" s="61" t="s">
@@ -12978,7 +13099,7 @@
       <c r="Q33" s="61" t="s">
         <v>1238</v>
       </c>
-      <c r="R33" s="61" t="s">
+      <c r="R33" s="60" t="s">
         <v>202</v>
       </c>
       <c r="S33" s="23"/>
@@ -12987,45 +13108,45 @@
     <row r="34" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B34" s="24"/>
       <c r="D34" s="68" t="s">
-        <v>1653</v>
+        <v>1663</v>
       </c>
       <c r="E34" s="68" t="s">
-        <v>1644</v>
+        <v>1654</v>
       </c>
       <c r="F34" s="68" t="s">
-        <v>1671</v>
+        <v>578</v>
       </c>
       <c r="G34" s="68"/>
       <c r="H34" s="68" t="s">
-        <v>1742</v>
+        <v>1586</v>
       </c>
       <c r="I34" s="68" t="s">
-        <v>1655</v>
+        <v>1665</v>
       </c>
       <c r="J34" s="68" t="s">
-        <v>1656</v>
+        <v>1666</v>
       </c>
       <c r="K34" s="68" t="s">
-        <v>1657</v>
+        <v>1667</v>
       </c>
       <c r="L34" s="68" t="s">
-        <v>1658</v>
+        <v>1668</v>
       </c>
       <c r="M34" s="68" t="s">
-        <v>1659</v>
+        <v>1669</v>
       </c>
       <c r="N34" s="68"/>
       <c r="O34" s="68" t="s">
-        <v>1641</v>
+        <v>1651</v>
       </c>
       <c r="P34" s="68" t="s">
-        <v>1660</v>
+        <v>1670</v>
       </c>
       <c r="Q34" s="68" t="s">
-        <v>1661</v>
+        <v>1671</v>
       </c>
       <c r="R34" s="68" t="s">
-        <v>1743</v>
+        <v>652</v>
       </c>
       <c r="S34" s="33"/>
       <c r="V34" s="9"/>
@@ -13072,10 +13193,10 @@
         <v>362</v>
       </c>
       <c r="K36" s="67" t="s">
-        <v>1579</v>
+        <v>1592</v>
       </c>
       <c r="L36" s="67" t="s">
-        <v>1328</v>
+        <v>1741</v>
       </c>
       <c r="M36" s="67" t="s">
         <v>1334</v>
@@ -13119,7 +13240,7 @@
       <c r="K37" s="60" t="s">
         <v>1186</v>
       </c>
-      <c r="L37" s="61" t="s">
+      <c r="L37" s="60" t="s">
         <v>1187</v>
       </c>
       <c r="M37" s="61" t="s">
@@ -13144,35 +13265,35 @@
     <row r="38" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B38" s="24"/>
       <c r="D38" s="68" t="s">
-        <v>1660</v>
+        <v>1670</v>
       </c>
       <c r="E38" s="68" t="s">
-        <v>1662</v>
+        <v>1672</v>
       </c>
       <c r="F38" s="68"/>
       <c r="G38" s="68" t="s">
-        <v>1661</v>
+        <v>1671</v>
       </c>
       <c r="H38" s="68" t="s">
-        <v>1663</v>
+        <v>1673</v>
       </c>
       <c r="I38" s="68" t="s">
-        <v>1601</v>
+        <v>1613</v>
       </c>
       <c r="J38" s="68" t="s">
-        <v>1594</v>
+        <v>1607</v>
       </c>
       <c r="K38" s="68" t="s">
-        <v>1580</v>
+        <v>1593</v>
       </c>
       <c r="L38" s="68" t="s">
-        <v>1596</v>
+        <v>1758</v>
       </c>
       <c r="M38" s="68" t="s">
-        <v>1603</v>
+        <v>1615</v>
       </c>
       <c r="N38" s="68" t="s">
-        <v>1604</v>
+        <v>1616</v>
       </c>
       <c r="O38" s="68"/>
       <c r="P38" s="68"/>
@@ -13291,16 +13412,16 @@
     <row r="44" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B44" s="19"/>
       <c r="D44" s="67" t="s">
-        <v>1581</v>
+        <v>1594</v>
       </c>
       <c r="E44" s="67" t="s">
-        <v>1364</v>
+        <v>1743</v>
       </c>
       <c r="F44" s="67" t="s">
         <v>1365</v>
       </c>
       <c r="G44" s="67" t="s">
-        <v>1364</v>
+        <v>1743</v>
       </c>
       <c r="H44" s="67" t="s">
         <v>1366</v>
@@ -13342,13 +13463,13 @@
       <c r="D45" s="60" t="s">
         <v>1188</v>
       </c>
-      <c r="E45" s="61" t="s">
+      <c r="E45" s="60" t="s">
         <v>1241</v>
       </c>
       <c r="F45" s="61" t="s">
         <v>1242</v>
       </c>
-      <c r="G45" s="61" t="s">
+      <c r="G45" s="60" t="s">
         <v>1241</v>
       </c>
       <c r="H45" s="61" t="s">
@@ -13390,45 +13511,45 @@
     <row r="46" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B46" s="24"/>
       <c r="D46" s="68" t="s">
-        <v>1582</v>
+        <v>1595</v>
       </c>
       <c r="E46" s="68" t="s">
-        <v>1664</v>
+        <v>1760</v>
       </c>
       <c r="F46" s="68" t="s">
-        <v>1665</v>
+        <v>1674</v>
       </c>
       <c r="G46" s="68" t="s">
-        <v>1664</v>
+        <v>1760</v>
       </c>
       <c r="H46" s="68" t="s">
-        <v>1666</v>
+        <v>1675</v>
       </c>
       <c r="I46" s="68"/>
       <c r="J46" s="68" t="s">
-        <v>1583</v>
+        <v>1596</v>
       </c>
       <c r="K46" s="68" t="s">
-        <v>1667</v>
+        <v>1676</v>
       </c>
       <c r="L46" s="68" t="s">
-        <v>1665</v>
+        <v>1674</v>
       </c>
       <c r="M46" s="68" t="s">
-        <v>1668</v>
+        <v>1677</v>
       </c>
       <c r="N46" s="68" t="s">
-        <v>1640</v>
+        <v>1650</v>
       </c>
       <c r="O46" s="68"/>
       <c r="P46" s="68" t="s">
-        <v>1669</v>
+        <v>1678</v>
       </c>
       <c r="Q46" s="68" t="s">
-        <v>1644</v>
+        <v>1654</v>
       </c>
       <c r="R46" s="68" t="s">
-        <v>1670</v>
+        <v>1679</v>
       </c>
       <c r="S46" s="33"/>
       <c r="V46" s="9"/>
@@ -13462,7 +13583,7 @@
         <v>63</v>
       </c>
       <c r="F48" s="67" t="s">
-        <v>468</v>
+        <v>577</v>
       </c>
       <c r="G48" s="67"/>
       <c r="H48" s="67" t="s">
@@ -13479,7 +13600,7 @@
         <v>1371</v>
       </c>
       <c r="M48" s="67" t="s">
-        <v>1372</v>
+        <v>1574</v>
       </c>
       <c r="N48" s="67" t="s">
         <v>350</v>
@@ -13488,10 +13609,10 @@
         <v>1373</v>
       </c>
       <c r="P48" s="67" t="s">
-        <v>1374</v>
+        <v>1576</v>
       </c>
       <c r="Q48" s="67" t="s">
-        <v>1375</v>
+        <v>1589</v>
       </c>
       <c r="R48" s="67" t="s">
         <v>1376</v>
@@ -13510,7 +13631,7 @@
       <c r="E49" s="61" t="s">
         <v>1225</v>
       </c>
-      <c r="F49" s="61" t="s">
+      <c r="F49" s="60" t="s">
         <v>268</v>
       </c>
       <c r="G49" s="61" t="s">
@@ -13531,7 +13652,7 @@
       <c r="L49" s="61" t="s">
         <v>1249</v>
       </c>
-      <c r="M49" s="61" t="s">
+      <c r="M49" s="60" t="s">
         <v>1250</v>
       </c>
       <c r="N49" s="61" t="s">
@@ -13540,10 +13661,10 @@
       <c r="O49" s="61" t="s">
         <v>1251</v>
       </c>
-      <c r="P49" s="61" t="s">
+      <c r="P49" s="60" t="s">
         <v>1252</v>
       </c>
-      <c r="Q49" s="61" t="s">
+      <c r="Q49" s="60" t="s">
         <v>1253</v>
       </c>
       <c r="R49" s="61" t="s">
@@ -13555,45 +13676,45 @@
     <row r="50" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B50" s="24"/>
       <c r="D50" s="68" t="s">
-        <v>1639</v>
+        <v>1649</v>
       </c>
       <c r="E50" s="68" t="s">
-        <v>1585</v>
+        <v>1598</v>
       </c>
       <c r="F50" s="68" t="s">
-        <v>1671</v>
+        <v>578</v>
       </c>
       <c r="G50" s="68"/>
       <c r="H50" s="68" t="s">
-        <v>1606</v>
+        <v>1618</v>
       </c>
       <c r="I50" s="68" t="s">
-        <v>1635</v>
+        <v>1645</v>
       </c>
       <c r="J50" s="68" t="s">
-        <v>1636</v>
+        <v>1646</v>
       </c>
       <c r="K50" s="68"/>
       <c r="L50" s="68" t="s">
-        <v>1672</v>
+        <v>1680</v>
       </c>
       <c r="M50" s="68" t="s">
-        <v>1744</v>
+        <v>1587</v>
       </c>
       <c r="N50" s="68" t="s">
-        <v>1589</v>
+        <v>1602</v>
       </c>
       <c r="O50" s="68" t="s">
-        <v>1673</v>
+        <v>1681</v>
       </c>
       <c r="P50" s="68" t="s">
-        <v>1745</v>
+        <v>1588</v>
       </c>
       <c r="Q50" s="68" t="s">
-        <v>1674</v>
+        <v>1590</v>
       </c>
       <c r="R50" s="68" t="s">
-        <v>1675</v>
+        <v>1682</v>
       </c>
       <c r="S50" s="33"/>
       <c r="V50" s="9"/>
@@ -13637,7 +13758,7 @@
         <v>514</v>
       </c>
       <c r="J52" s="67" t="s">
-        <v>1379</v>
+        <v>1745</v>
       </c>
       <c r="K52" s="67"/>
       <c r="L52" s="67" t="s">
@@ -13685,7 +13806,7 @@
       <c r="I53" s="61" t="s">
         <v>1257</v>
       </c>
-      <c r="J53" s="61" t="s">
+      <c r="J53" s="60" t="s">
         <v>1258</v>
       </c>
       <c r="K53" s="61" t="s">
@@ -13718,42 +13839,42 @@
     <row r="54" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B54" s="24"/>
       <c r="D54" s="68" t="s">
-        <v>1640</v>
+        <v>1650</v>
       </c>
       <c r="E54" s="68" t="s">
-        <v>1652</v>
+        <v>1662</v>
       </c>
       <c r="F54" s="68"/>
       <c r="G54" s="68" t="s">
-        <v>1676</v>
+        <v>1683</v>
       </c>
       <c r="H54" s="68" t="s">
-        <v>1677</v>
+        <v>1684</v>
       </c>
       <c r="I54" s="68" t="s">
-        <v>1678</v>
+        <v>1685</v>
       </c>
       <c r="J54" s="68" t="s">
-        <v>1679</v>
+        <v>1761</v>
       </c>
       <c r="K54" s="68"/>
       <c r="L54" s="68" t="s">
-        <v>1603</v>
+        <v>1615</v>
       </c>
       <c r="M54" s="68" t="s">
-        <v>1604</v>
+        <v>1616</v>
       </c>
       <c r="N54" s="68" t="s">
-        <v>1680</v>
+        <v>1686</v>
       </c>
       <c r="O54" s="68" t="s">
-        <v>1681</v>
+        <v>1687</v>
       </c>
       <c r="P54" s="68" t="s">
-        <v>1682</v>
+        <v>1688</v>
       </c>
       <c r="Q54" s="68" t="s">
-        <v>1683</v>
+        <v>1689</v>
       </c>
       <c r="R54" s="68"/>
       <c r="S54" s="33"/>
@@ -13820,7 +13941,7 @@
       </c>
       <c r="Q56" s="67"/>
       <c r="R56" s="67" t="s">
-        <v>1581</v>
+        <v>1594</v>
       </c>
       <c r="S56" s="21"/>
       <c r="V56" s="9"/>
@@ -13881,45 +14002,45 @@
     <row r="58" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B58" s="24"/>
       <c r="D58" s="68" t="s">
-        <v>1684</v>
+        <v>1690</v>
       </c>
       <c r="E58" s="68" t="s">
-        <v>1685</v>
+        <v>1691</v>
       </c>
       <c r="F58" s="68" t="s">
-        <v>1612</v>
+        <v>1624</v>
       </c>
       <c r="G58" s="68" t="s">
-        <v>1686</v>
+        <v>1692</v>
       </c>
       <c r="H58" s="68" t="s">
-        <v>1687</v>
+        <v>1693</v>
       </c>
       <c r="I58" s="68" t="s">
-        <v>1688</v>
+        <v>1694</v>
       </c>
       <c r="J58" s="68" t="s">
-        <v>1609</v>
+        <v>1621</v>
       </c>
       <c r="K58" s="68" t="s">
-        <v>1689</v>
+        <v>1695</v>
       </c>
       <c r="L58" s="68" t="s">
-        <v>1690</v>
+        <v>1696</v>
       </c>
       <c r="M58" s="68" t="s">
-        <v>1691</v>
+        <v>1697</v>
       </c>
       <c r="N58" s="68"/>
       <c r="O58" s="68" t="s">
-        <v>1677</v>
+        <v>1684</v>
       </c>
       <c r="P58" s="68" t="s">
-        <v>1658</v>
+        <v>1668</v>
       </c>
       <c r="Q58" s="68"/>
       <c r="R58" s="68" t="s">
-        <v>1582</v>
+        <v>1595</v>
       </c>
       <c r="S58" s="33"/>
       <c r="V58" s="9"/>
@@ -14044,42 +14165,42 @@
     <row r="62" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B62" s="24"/>
       <c r="D62" s="68" t="s">
-        <v>1692</v>
+        <v>1698</v>
       </c>
       <c r="E62" s="68" t="s">
-        <v>1602</v>
+        <v>1614</v>
       </c>
       <c r="F62" s="68" t="s">
-        <v>1603</v>
+        <v>1615</v>
       </c>
       <c r="G62" s="68" t="s">
-        <v>1604</v>
+        <v>1616</v>
       </c>
       <c r="H62" s="68"/>
       <c r="I62" s="68" t="s">
+        <v>1699</v>
+      </c>
+      <c r="J62" s="68" t="s">
+        <v>1618</v>
+      </c>
+      <c r="K62" s="68" t="s">
+        <v>1700</v>
+      </c>
+      <c r="L62" s="68" t="s">
         <v>1693</v>
-      </c>
-      <c r="J62" s="68" t="s">
-        <v>1606</v>
-      </c>
-      <c r="K62" s="68" t="s">
-        <v>1694</v>
-      </c>
-      <c r="L62" s="68" t="s">
-        <v>1687</v>
       </c>
       <c r="M62" s="68"/>
       <c r="N62" s="68" t="s">
-        <v>1695</v>
+        <v>1701</v>
       </c>
       <c r="O62" s="68" t="s">
-        <v>1696</v>
+        <v>1702</v>
       </c>
       <c r="P62" s="68" t="s">
-        <v>1697</v>
+        <v>1703</v>
       </c>
       <c r="Q62" s="68" t="s">
-        <v>1698</v>
+        <v>1704</v>
       </c>
       <c r="R62" s="68"/>
       <c r="S62" s="33"/>
@@ -14128,10 +14249,10 @@
         <v>474</v>
       </c>
       <c r="L64" s="67" t="s">
-        <v>1579</v>
+        <v>1592</v>
       </c>
       <c r="M64" s="67" t="s">
-        <v>1328</v>
+        <v>1741</v>
       </c>
       <c r="N64" s="67" t="s">
         <v>1394</v>
@@ -14144,7 +14265,7 @@
         <v>445</v>
       </c>
       <c r="R64" s="67" t="s">
-        <v>1395</v>
+        <v>1746</v>
       </c>
       <c r="S64" s="21"/>
       <c r="V64" s="9"/>
@@ -14181,7 +14302,7 @@
       <c r="L65" s="60" t="s">
         <v>1186</v>
       </c>
-      <c r="M65" s="61" t="s">
+      <c r="M65" s="60" t="s">
         <v>1187</v>
       </c>
       <c r="N65" s="61" t="s">
@@ -14196,7 +14317,7 @@
       <c r="Q65" s="61" t="s">
         <v>235</v>
       </c>
-      <c r="R65" s="61" t="s">
+      <c r="R65" s="60" t="s">
         <v>1278</v>
       </c>
       <c r="S65" s="23"/>
@@ -14205,43 +14326,43 @@
     <row r="66" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B66" s="24"/>
       <c r="D66" s="68" t="s">
-        <v>1632</v>
+        <v>1642</v>
       </c>
       <c r="E66" s="68"/>
       <c r="F66" s="68" t="s">
-        <v>1699</v>
+        <v>1705</v>
       </c>
       <c r="G66" s="68" t="s">
-        <v>1659</v>
+        <v>1669</v>
       </c>
       <c r="H66" s="68" t="s">
-        <v>1654</v>
+        <v>1664</v>
       </c>
       <c r="I66" s="68" t="s">
-        <v>1700</v>
+        <v>1706</v>
       </c>
       <c r="J66" s="68"/>
       <c r="K66" s="68" t="s">
-        <v>1701</v>
+        <v>1707</v>
       </c>
       <c r="L66" s="68" t="s">
-        <v>1580</v>
+        <v>1593</v>
       </c>
       <c r="M66" s="68" t="s">
-        <v>1596</v>
+        <v>1758</v>
       </c>
       <c r="N66" s="68" t="s">
-        <v>1702</v>
+        <v>1708</v>
       </c>
       <c r="O66" s="68" t="s">
-        <v>1640</v>
+        <v>1650</v>
       </c>
       <c r="P66" s="68"/>
       <c r="Q66" s="68" t="s">
-        <v>1703</v>
+        <v>1709</v>
       </c>
       <c r="R66" s="68" t="s">
-        <v>1704</v>
+        <v>1762</v>
       </c>
       <c r="S66" s="33"/>
       <c r="V66" s="9"/>
@@ -14270,7 +14391,7 @@
       <c r="B68" s="19"/>
       <c r="D68" s="67"/>
       <c r="E68" s="67" t="s">
-        <v>1396</v>
+        <v>1747</v>
       </c>
       <c r="F68" s="67" t="s">
         <v>514</v>
@@ -14286,7 +14407,7 @@
         <v>362</v>
       </c>
       <c r="K68" s="67" t="s">
-        <v>1398</v>
+        <v>1748</v>
       </c>
       <c r="L68" s="67" t="s">
         <v>64</v>
@@ -14316,7 +14437,7 @@
       <c r="D69" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="E69" s="61" t="s">
+      <c r="E69" s="60" t="s">
         <v>1279</v>
       </c>
       <c r="F69" s="61" t="s">
@@ -14334,7 +14455,7 @@
       <c r="J69" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="K69" s="61" t="s">
+      <c r="K69" s="60" t="s">
         <v>1283</v>
       </c>
       <c r="L69" s="61" t="s">
@@ -14365,39 +14486,39 @@
       <c r="B70" s="24"/>
       <c r="D70" s="68"/>
       <c r="E70" s="68" t="s">
-        <v>1705</v>
+        <v>1763</v>
       </c>
       <c r="F70" s="68" t="s">
-        <v>1678</v>
+        <v>1685</v>
       </c>
       <c r="G70" s="68" t="s">
-        <v>1706</v>
+        <v>1710</v>
       </c>
       <c r="H70" s="68" t="s">
-        <v>1707</v>
+        <v>1711</v>
       </c>
       <c r="I70" s="68"/>
       <c r="J70" s="68" t="s">
-        <v>1594</v>
+        <v>1607</v>
       </c>
       <c r="K70" s="68" t="s">
-        <v>1708</v>
+        <v>1764</v>
       </c>
       <c r="L70" s="68" t="s">
-        <v>1645</v>
+        <v>1655</v>
       </c>
       <c r="M70" s="68" t="s">
-        <v>1649</v>
+        <v>1659</v>
       </c>
       <c r="N70" s="68"/>
       <c r="O70" s="68" t="s">
-        <v>1709</v>
+        <v>1712</v>
       </c>
       <c r="P70" s="68" t="s">
-        <v>1610</v>
+        <v>1622</v>
       </c>
       <c r="Q70" s="68" t="s">
-        <v>1622</v>
+        <v>1633</v>
       </c>
       <c r="R70" s="68"/>
       <c r="S70" s="33"/>
@@ -14435,7 +14556,7 @@
         <v>385</v>
       </c>
       <c r="G72" s="67" t="s">
-        <v>1400</v>
+        <v>1751</v>
       </c>
       <c r="H72" s="67" t="s">
         <v>1335</v>
@@ -14444,7 +14565,7 @@
         <v>1401</v>
       </c>
       <c r="J72" s="67" t="s">
-        <v>1348</v>
+        <v>1740</v>
       </c>
       <c r="K72" s="67"/>
       <c r="L72" s="67" t="s">
@@ -14483,8 +14604,8 @@
       <c r="F73" s="61" t="s">
         <v>160</v>
       </c>
-      <c r="G73" s="61" t="s">
-        <v>1286</v>
+      <c r="G73" s="60" t="s">
+        <v>1749</v>
       </c>
       <c r="H73" s="61" t="s">
         <v>1196</v>
@@ -14492,7 +14613,7 @@
       <c r="I73" s="61" t="s">
         <v>1287</v>
       </c>
-      <c r="J73" s="61" t="s">
+      <c r="J73" s="60" t="s">
         <v>1217</v>
       </c>
       <c r="K73" s="61" t="s">
@@ -14525,45 +14646,45 @@
     <row r="74" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B74" s="24"/>
       <c r="D74" s="68" t="s">
-        <v>1647</v>
+        <v>1657</v>
       </c>
       <c r="E74" s="68" t="s">
-        <v>1710</v>
+        <v>1713</v>
       </c>
       <c r="F74" s="68" t="s">
-        <v>1711</v>
+        <v>1714</v>
       </c>
       <c r="G74" s="68" t="s">
-        <v>1712</v>
+        <v>1765</v>
       </c>
       <c r="H74" s="68" t="s">
-        <v>1604</v>
+        <v>1616</v>
       </c>
       <c r="I74" s="68" t="s">
-        <v>1713</v>
+        <v>1715</v>
       </c>
       <c r="J74" s="68" t="s">
-        <v>1629</v>
+        <v>1585</v>
       </c>
       <c r="K74" s="68"/>
       <c r="L74" s="68" t="s">
+        <v>1701</v>
+      </c>
+      <c r="M74" s="68" t="s">
+        <v>1716</v>
+      </c>
+      <c r="N74" s="68" t="s">
+        <v>1694</v>
+      </c>
+      <c r="O74" s="68" t="s">
         <v>1695</v>
       </c>
-      <c r="M74" s="68" t="s">
-        <v>1714</v>
-      </c>
-      <c r="N74" s="68" t="s">
-        <v>1688</v>
-      </c>
-      <c r="O74" s="68" t="s">
-        <v>1689</v>
-      </c>
       <c r="P74" s="68" t="s">
-        <v>1715</v>
+        <v>1717</v>
       </c>
       <c r="Q74" s="68"/>
       <c r="R74" s="68" t="s">
-        <v>1716</v>
+        <v>1718</v>
       </c>
       <c r="S74" s="33"/>
       <c r="V74" s="9"/>
@@ -14607,7 +14728,7 @@
         <v>1342</v>
       </c>
       <c r="J76" s="67" t="s">
-        <v>1348</v>
+        <v>1740</v>
       </c>
       <c r="K76" s="67" t="s">
         <v>1408</v>
@@ -14657,7 +14778,7 @@
       <c r="I77" s="61" t="s">
         <v>1209</v>
       </c>
-      <c r="J77" s="61" t="s">
+      <c r="J77" s="60" t="s">
         <v>1217</v>
       </c>
       <c r="K77" s="61" t="s">
@@ -14690,44 +14811,44 @@
     <row r="78" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B78" s="24"/>
       <c r="D78" s="68" t="s">
-        <v>1717</v>
+        <v>1719</v>
       </c>
       <c r="E78" s="68" t="s">
-        <v>1718</v>
+        <v>1720</v>
       </c>
       <c r="F78" s="68" t="s">
-        <v>1719</v>
+        <v>1721</v>
       </c>
       <c r="G78" s="68"/>
       <c r="H78" s="68" t="s">
-        <v>1720</v>
+        <v>1722</v>
       </c>
       <c r="I78" s="68" t="s">
-        <v>1619</v>
+        <v>1630</v>
       </c>
       <c r="J78" s="68" t="s">
-        <v>1629</v>
+        <v>1585</v>
       </c>
       <c r="K78" s="68" t="s">
-        <v>1721</v>
+        <v>1723</v>
       </c>
       <c r="L78" s="68" t="s">
-        <v>1603</v>
+        <v>1615</v>
       </c>
       <c r="M78" s="68" t="s">
-        <v>1604</v>
+        <v>1616</v>
       </c>
       <c r="N78" s="68" t="s">
-        <v>1609</v>
+        <v>1621</v>
       </c>
       <c r="O78" s="68" t="s">
-        <v>1722</v>
+        <v>1724</v>
       </c>
       <c r="P78" s="68" t="s">
-        <v>1688</v>
+        <v>1694</v>
       </c>
       <c r="Q78" s="68" t="s">
-        <v>1723</v>
+        <v>1725</v>
       </c>
       <c r="R78" s="68"/>
       <c r="S78" s="33"/>
@@ -14756,13 +14877,13 @@
     <row r="80" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B80" s="19"/>
       <c r="D80" s="67" t="s">
-        <v>1411</v>
+        <v>1752</v>
       </c>
       <c r="E80" s="67" t="s">
         <v>1412</v>
       </c>
       <c r="F80" s="67" t="s">
-        <v>1413</v>
+        <v>754</v>
       </c>
       <c r="G80" s="67" t="s">
         <v>1414</v>
@@ -14785,7 +14906,7 @@
         <v>394</v>
       </c>
       <c r="O80" s="67" t="s">
-        <v>1415</v>
+        <v>1757</v>
       </c>
       <c r="P80" s="67" t="s">
         <v>1339</v>
@@ -14804,13 +14925,13 @@
         <f>B77+1</f>
         <v>20</v>
       </c>
-      <c r="D81" s="61" t="s">
+      <c r="D81" s="60" t="s">
         <v>1299</v>
       </c>
       <c r="E81" s="61" t="s">
         <v>1300</v>
       </c>
-      <c r="F81" s="61" t="s">
+      <c r="F81" s="60" t="s">
         <v>1301</v>
       </c>
       <c r="G81" s="61" t="s">
@@ -14837,7 +14958,7 @@
       <c r="N81" s="61" t="s">
         <v>1203</v>
       </c>
-      <c r="O81" s="61" t="s">
+      <c r="O81" s="60" t="s">
         <v>1304</v>
       </c>
       <c r="P81" s="61" t="s">
@@ -14855,45 +14976,45 @@
     <row r="82" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B82" s="24"/>
       <c r="D82" s="68" t="s">
-        <v>1724</v>
+        <v>1766</v>
       </c>
       <c r="E82" s="68" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="F82" s="68" t="s">
-        <v>1726</v>
+        <v>755</v>
       </c>
       <c r="G82" s="68" t="s">
         <v>1727</v>
       </c>
       <c r="H82" s="68"/>
       <c r="I82" s="68" t="s">
-        <v>1613</v>
+        <v>1625</v>
       </c>
       <c r="J82" s="68" t="s">
         <v>1728</v>
       </c>
       <c r="K82" s="68" t="s">
-        <v>1659</v>
+        <v>1669</v>
       </c>
       <c r="L82" s="68" t="s">
-        <v>1618</v>
+        <v>1629</v>
       </c>
       <c r="M82" s="68"/>
       <c r="N82" s="68" t="s">
-        <v>1612</v>
+        <v>1624</v>
       </c>
       <c r="O82" s="68" t="s">
-        <v>1729</v>
+        <v>1767</v>
       </c>
       <c r="P82" s="68" t="s">
-        <v>1614</v>
+        <v>1626</v>
       </c>
       <c r="Q82" s="68" t="s">
-        <v>1622</v>
+        <v>1633</v>
       </c>
       <c r="R82" s="68" t="s">
-        <v>1609</v>
+        <v>1621</v>
       </c>
       <c r="S82" s="33"/>
       <c r="V82" s="9"/>
@@ -14928,10 +15049,10 @@
         <v>362</v>
       </c>
       <c r="G84" s="67" t="s">
-        <v>1416</v>
+        <v>764</v>
       </c>
       <c r="H84" s="67" t="s">
-        <v>1417</v>
+        <v>1754</v>
       </c>
       <c r="I84" s="67" t="s">
         <v>1418</v>
@@ -14951,7 +15072,7 @@
       </c>
       <c r="O84" s="67"/>
       <c r="P84" s="67" t="s">
-        <v>1348</v>
+        <v>1740</v>
       </c>
       <c r="Q84" s="67" t="s">
         <v>64</v>
@@ -14976,10 +15097,10 @@
       <c r="F85" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="G85" s="63" t="s">
+      <c r="G85" s="69" t="s">
         <v>1306</v>
       </c>
-      <c r="H85" s="61" t="s">
+      <c r="H85" s="60" t="s">
         <v>1307</v>
       </c>
       <c r="I85" s="61" t="s">
@@ -15003,7 +15124,7 @@
       <c r="O85" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="P85" s="61" t="s">
+      <c r="P85" s="60" t="s">
         <v>1217</v>
       </c>
       <c r="Q85" s="61" t="s">
@@ -15018,43 +15139,43 @@
     <row r="86" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B86" s="24"/>
       <c r="D86" s="68" t="s">
-        <v>1711</v>
+        <v>1714</v>
       </c>
       <c r="E86" s="68"/>
       <c r="F86" s="68" t="s">
-        <v>1594</v>
+        <v>1607</v>
       </c>
       <c r="G86" s="68" t="s">
-        <v>1730</v>
+        <v>765</v>
       </c>
       <c r="H86" s="68" t="s">
-        <v>1731</v>
+        <v>1768</v>
       </c>
       <c r="I86" s="68" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="J86" s="68"/>
       <c r="K86" s="68" t="s">
-        <v>1651</v>
+        <v>1661</v>
       </c>
       <c r="L86" s="68" t="s">
-        <v>1589</v>
+        <v>1602</v>
       </c>
       <c r="M86" s="68" t="s">
-        <v>1733</v>
+        <v>1730</v>
       </c>
       <c r="N86" s="68" t="s">
-        <v>1734</v>
+        <v>1731</v>
       </c>
       <c r="O86" s="68"/>
       <c r="P86" s="68" t="s">
-        <v>1629</v>
+        <v>1585</v>
       </c>
       <c r="Q86" s="68" t="s">
-        <v>1645</v>
+        <v>1655</v>
       </c>
       <c r="R86" s="68" t="s">
-        <v>1703</v>
+        <v>1709</v>
       </c>
       <c r="S86" s="33"/>
       <c r="V86" s="9"/>
@@ -15143,13 +15264,13 @@
     <row r="90" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B90" s="24"/>
       <c r="D90" s="68" t="s">
-        <v>1735</v>
+        <v>1732</v>
       </c>
       <c r="E90" s="68" t="s">
-        <v>1736</v>
+        <v>1733</v>
       </c>
       <c r="F90" s="68" t="s">
-        <v>1737</v>
+        <v>1734</v>
       </c>
       <c r="G90" s="68"/>
       <c r="H90" s="68"/>
@@ -15276,7 +15397,7 @@
     <row r="96" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B96" s="19"/>
       <c r="D96" s="67" t="s">
-        <v>1581</v>
+        <v>1594</v>
       </c>
       <c r="E96" s="67" t="s">
         <v>1421</v>
@@ -15286,10 +15407,10 @@
       </c>
       <c r="G96" s="67"/>
       <c r="H96" s="67" t="s">
-        <v>1422</v>
+        <v>1755</v>
       </c>
       <c r="I96" s="67" t="s">
-        <v>1415</v>
+        <v>1757</v>
       </c>
       <c r="J96" s="67" t="s">
         <v>50</v>
@@ -15332,10 +15453,10 @@
       <c r="G97" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="H97" s="61" t="s">
+      <c r="H97" s="60" t="s">
         <v>1316</v>
       </c>
-      <c r="I97" s="61" t="s">
+      <c r="I97" s="60" t="s">
         <v>1304</v>
       </c>
       <c r="J97" s="61" t="s">
@@ -15371,41 +15492,41 @@
     <row r="98" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B98" s="24"/>
       <c r="D98" s="68" t="s">
-        <v>1582</v>
+        <v>1595</v>
       </c>
       <c r="E98" s="68" t="s">
-        <v>1738</v>
+        <v>1735</v>
       </c>
       <c r="F98" s="68" t="s">
-        <v>1702</v>
+        <v>1708</v>
       </c>
       <c r="G98" s="68"/>
       <c r="H98" s="68" t="s">
-        <v>1739</v>
+        <v>1769</v>
       </c>
       <c r="I98" s="68" t="s">
-        <v>1729</v>
+        <v>1767</v>
       </c>
       <c r="J98" s="68" t="s">
-        <v>1655</v>
+        <v>1665</v>
       </c>
       <c r="K98" s="68" t="s">
-        <v>1740</v>
+        <v>1736</v>
       </c>
       <c r="L98" s="68"/>
       <c r="M98" s="68" t="s">
-        <v>1632</v>
+        <v>1642</v>
       </c>
       <c r="N98" s="68"/>
       <c r="O98" s="68" t="s">
-        <v>1741</v>
+        <v>1737</v>
       </c>
       <c r="P98" s="68" t="s">
-        <v>1648</v>
+        <v>1658</v>
       </c>
       <c r="Q98" s="68"/>
       <c r="R98" s="68" t="s">
-        <v>1733</v>
+        <v>1730</v>
       </c>
       <c r="S98" s="33"/>
       <c r="V98" s="9"/>
@@ -15482,7 +15603,7 @@
     <row r="102" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B102" s="24"/>
       <c r="D102" s="68" t="s">
-        <v>1648</v>
+        <v>1658</v>
       </c>
       <c r="E102" s="68"/>
       <c r="F102" s="26"/>
@@ -18810,7 +18931,7 @@
         <v>1327</v>
       </c>
       <c r="D16" t="s">
-        <v>1571</v>
+        <v>1577</v>
       </c>
       <c r="E16" t="s">
         <v>1434</v>
@@ -18827,7 +18948,7 @@
         <v>1328</v>
       </c>
       <c r="D17" t="s">
-        <v>1570</v>
+        <v>1572</v>
       </c>
       <c r="E17" t="s">
         <v>1435</v>
@@ -18844,7 +18965,7 @@
         <v>1329</v>
       </c>
       <c r="D18" t="s">
-        <v>1577</v>
+        <v>1583</v>
       </c>
       <c r="E18" t="s">
         <v>1436</v>
@@ -19422,7 +19543,7 @@
         <v>1348</v>
       </c>
       <c r="D52" t="s">
-        <v>1575</v>
+        <v>1581</v>
       </c>
       <c r="E52" t="s">
         <v>1565</v>
@@ -20901,7 +21022,7 @@
         <v>1395</v>
       </c>
       <c r="D139" t="s">
-        <v>1572</v>
+        <v>1578</v>
       </c>
       <c r="E139" t="s">
         <v>1057</v>
@@ -20918,7 +21039,7 @@
         <v>1396</v>
       </c>
       <c r="D140" t="s">
-        <v>1573</v>
+        <v>1579</v>
       </c>
       <c r="E140" t="s">
         <v>1530</v>
@@ -20986,7 +21107,7 @@
         <v>1398</v>
       </c>
       <c r="D144" t="s">
-        <v>1574</v>
+        <v>1580</v>
       </c>
       <c r="E144" t="s">
         <v>521</v>
@@ -21326,7 +21447,7 @@
         <v>1411</v>
       </c>
       <c r="D164" t="s">
-        <v>1576</v>
+        <v>1582</v>
       </c>
       <c r="E164" t="s">
         <v>1541</v>
@@ -21649,7 +21770,7 @@
         <v>1422</v>
       </c>
       <c r="D183" t="s">
-        <v>1578</v>
+        <v>1584</v>
       </c>
       <c r="E183" t="s">
         <v>523</v>
